--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="570" windowWidth="15045" windowHeight="7440"/>
+    <workbookView xWindow="4155" yWindow="570" windowWidth="15045" windowHeight="7440" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="26" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="468">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -656,22 +656,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【CentOS8、RHEL8の場合】
-php.iniを設定する</t>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【CentOS8、RHEL8の場合】
-www.confを設定する</t>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ITAのbackyard設定</t>
     <rPh sb="12" eb="14">
       <t>セッテイ</t>
@@ -708,11 +692,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【CentOS8、RHEL8の場合】
-Apacheのconfファイル配置</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Apacheの再起動</t>
     <rPh sb="7" eb="10">
       <t>サイキドウ</t>
@@ -725,17 +704,6 @@
   </si>
   <si>
     <t>【CentOS7、RHEL7の場合】
-Ansibleの設定ファイルを配置する</t>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【CentOS8、RHEL8の場合】
 Ansibleの設定ファイルを配置する</t>
     <rPh sb="27" eb="29">
       <t>セッテイ</t>
@@ -823,24 +791,6 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のパッケージをインストールしてください。
-【CentOS7、RHEL7の場合】
-MariaDB MariaDB-server expect
-【CentOS8、RHEL8の場合】
-mariadb mariadb-server expect
-</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -903,32 +853,6 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
-【CentOS7、RHEL7の場合】
-curl -sS https://downloads.mariadb.com/MariaDB/mariadb_repo_setup | bash
-【CentOS8、RHEL8の場合】
-リポジトリは追加しません
-オンラインの場合は以下のコマンドでインストールしてください。
-【CentOS7、RHEL7の場合】
-yum install -y MariaDB MariaDB-server expect
-【CentOS8、RHEL8の場合】
-yum install -y mariadb mariadb-server expect
-</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3483,11 +3407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【CentOS8、RHEL8の場合】
-Apacheのconfファイル配置</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://（Web/APサーバのIPアドレス）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -5723,113 +5642,6 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>【CentOS7、RHEL7の場合】
-cp -p /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（インストール資材展開先）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/it-automation-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x.x.x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita_install_package/ext_files_for_CentOS7.x/etc_my.cnf.d/server.cnf /etc/my.cnf.d/server.cnf
-【CentOS8、RHEL8の場合】
-cp -p /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（インストール資材展開先）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/it-automation-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x.x.x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ita_install_package/ext_files_for_CentOS8.x/etc_my.cnf.d/server.cnf /etc/my.cnf.d/server.cnf
-</t>
-    </r>
-    <rPh sb="33" eb="35">
-      <t>シザイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8924,30 +8736,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
-【CentOS7、RHEL7の場合】
-yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
-yum-config-manager --enable remi-php72
-【CentOS8、RHEL8の場合】
-リポジトリは追加しません。
-オンラインの場合は以下のコマンドでインストールしてください。
-yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
-</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>php-yamlをインストールする</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -9004,29 +8792,6 @@
 php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
 </t>
     <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
-【CentOS7、RHEL7の場合】
-yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
-yum-config-manager --enable remi-php72
-【CentOS8、RHEL8の場合】
-リポジトリは追加しません
-オンラインの場合は以下のコマンドでインストールしてください。
-yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
       <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -9201,57 +8966,6 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
-【CentOS7、RHEL7の場合】
-yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
-yum-config-manager --enable remi-php72
-【CentOS8、RHEL8の場合】
-リポジトリは追加しません
-オンラインの場合は以下のコマンドでインストールしてください。
-yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
-</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
-【CentOS7、RHEL7の場合】
-yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
-yum-config-manager --enable remi-php72
-【CentOS8、RHEL8の場合】
-リポジトリは追加無し
-オンラインの場合は以下のコマンドでインストールしてください。
-yum install -yphp php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
-</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12901,6 +12615,287 @@
       </rPr>
       <t>.service /usr/lib/systemd/system/.</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のパッケージをインストールしてください。
+【CentOS7、RHEL7の場合】
+MariaDB MariaDB-server expect
+【CentOS8、CentOS Stream8、RHEL8の場合】
+mariadb mariadb-server expect
+</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+curl -sS https://downloads.mariadb.com/MariaDB/mariadb_repo_setup | bash
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加しません
+オンラインの場合は以下のコマンドでインストールしてください。
+【CentOS7、RHEL7の場合】
+yum install -y MariaDB MariaDB-server expect
+【CentOS8、CentOS Stream8、RHEL8の場合】
+yum install -y mariadb mariadb-server expect
+</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【CentOS7、RHEL7の場合】
+cp -p /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（インストール資材展開先）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/it-automation-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x.x.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita_install_package/ext_files_for_CentOS7.x/etc_my.cnf.d/server.cnf /etc/my.cnf.d/server.cnf
+【CentOS8、CentOS Stream8、RHEL8の場合】
+cp -p /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（インストール資材展開先）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/it-automation-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x.x.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ita_install_package/ext_files_for_CentOS8.x/etc_my.cnf.d/server.cnf /etc/my.cnf.d/server.cnf
+</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>シザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
+yum-config-manager --enable remi-php72
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加しません。
+オンラインの場合は以下のコマンドでインストールしてください。
+yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
+</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CentOS8、CentOS Stream8、RHEL8の場合】
+php.iniを設定する</t>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CentOS8、CentOS Stream8、RHEL8の場合】
+www.confを設定する</t>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
+yum-config-manager --enable remi-php72
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加しません
+オンラインの場合は以下のコマンドでインストールしてください。
+yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CentOS8、CentOS Stream8、RHEL8の場合】
+Apacheのconfファイル配置</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【CentOS8、CentOS Stream8、RHEL8の場合】
+Ansibleの設定ファイルを配置する</t>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
+yum-config-manager --enable remi-php72
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加しません
+オンラインの場合は以下のコマンドでインストールしてください。
+yum install -y php php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
+</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+yum install -y http://rpms.remirepo.net/enterprise/remi-release-7.rpm
+yum-config-manager --enable remi-php72
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加無し
+オンラインの場合は以下のコマンドでインストールしてください。
+yum install -yphp php-bcmath php-cli php-ldap php-mbstring php-mysqlnd php-pear php-pecl-zip php-process php-snmp php-xml zip telnet mailx unzip php-json php-gd python3 php-devel libyaml libyaml-devel make sudo crontabs
+</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>イカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -14233,6 +14228,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14281,32 +14285,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -14314,41 +14333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14368,35 +14354,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14407,11 +14402,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14419,11 +14414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14440,26 +14432,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14474,6 +14457,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15449,7 +15444,7 @@
   </sheetPr>
   <dimension ref="B71:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15468,7 +15463,7 @@
   <sheetData>
     <row r="71" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="123" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C71" s="122"/>
       <c r="D71" s="122"/>
@@ -15504,10 +15499,10 @@
     </row>
     <row r="73" spans="2:28" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="101" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C73" s="102" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D73" s="102"/>
       <c r="E73" s="103"/>
@@ -15548,10 +15543,10 @@
     </row>
     <row r="75" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="110" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="17"/>
@@ -15582,10 +15577,10 @@
     </row>
     <row r="77" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="111" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C77" s="95" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D77" s="95"/>
       <c r="E77" s="17"/>
@@ -15617,7 +15612,7 @@
     <row r="79" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="111"/>
       <c r="C79" s="96" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D79" s="96"/>
       <c r="E79" s="17"/>
@@ -15634,7 +15629,7 @@
     <row r="80" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="111"/>
       <c r="C80" s="95" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D80" s="95"/>
       <c r="E80" s="17"/>
@@ -15665,10 +15660,10 @@
     </row>
     <row r="82" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="111" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D82" s="95"/>
       <c r="E82" s="17"/>
@@ -15685,7 +15680,7 @@
     <row r="83" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D83" s="95"/>
       <c r="E83" s="17"/>
@@ -15701,7 +15696,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C84" s="38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="17"/>
@@ -15733,16 +15728,16 @@
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
       <c r="C86" s="151" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D86" s="155" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E86" s="149" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F86" s="152" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G86" s="153"/>
       <c r="H86" s="153"/>
@@ -15756,19 +15751,19 @@
       <c r="D87" s="156"/>
       <c r="E87" s="150"/>
       <c r="F87" s="97" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G87" s="97" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H87" s="97" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I87" s="120" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J87" s="119" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K87" s="19"/>
     </row>
@@ -15778,25 +15773,25 @@
         <v>1</v>
       </c>
       <c r="D88" s="98" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E88" s="125" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F88" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G88" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H88" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I88" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J88" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K88" s="19"/>
     </row>
@@ -15806,25 +15801,25 @@
         <v>2</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E89" s="126" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F89" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G89" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H89" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I89" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J89" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K89" s="19"/>
     </row>
@@ -15834,25 +15829,25 @@
         <v>3</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E90" s="126" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F90" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G90" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H90" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I90" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J90" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K90" s="19"/>
     </row>
@@ -15862,17 +15857,17 @@
         <v>4</v>
       </c>
       <c r="D91" s="98" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E91" s="126" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H91" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I91" s="99"/>
       <c r="J91" s="100"/>
@@ -15884,15 +15879,15 @@
         <v>5</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E92" s="126" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F92" s="99"/>
       <c r="G92" s="99"/>
       <c r="H92" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I92" s="99"/>
       <c r="J92" s="100"/>
@@ -15904,16 +15899,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E93" s="126" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="99"/>
       <c r="H93" s="99"/>
       <c r="I93" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J93" s="100"/>
       <c r="K93" s="19"/>
@@ -15924,17 +15919,17 @@
         <v>7</v>
       </c>
       <c r="D94" s="98" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E94" s="126" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="99"/>
       <c r="H94" s="99"/>
       <c r="I94" s="99"/>
       <c r="J94" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K94" s="19"/>
     </row>
@@ -15944,25 +15939,25 @@
         <v>8</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E95" s="126" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F95" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G95" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H95" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I95" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J95" s="99" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K95" s="19"/>
     </row>
@@ -16013,10 +16008,10 @@
     </row>
     <row r="99" spans="2:22" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="113" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C99" s="114" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D99" s="114"/>
       <c r="E99" s="114"/>
@@ -16055,10 +16050,10 @@
     </row>
     <row r="101" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="110" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C101" s="105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D101" s="105"/>
       <c r="E101" s="17"/>
@@ -16090,7 +16085,7 @@
     <row r="103" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="106"/>
       <c r="C103" s="124" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D103" s="60"/>
       <c r="E103" s="60"/>
@@ -16107,7 +16102,7 @@
     <row r="104" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="106"/>
       <c r="C104" s="106" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D104" s="106"/>
       <c r="E104" s="17"/>
@@ -16124,7 +16119,7 @@
     <row r="105" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="106"/>
       <c r="C105" s="106" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D105" s="106"/>
       <c r="E105" s="17"/>
@@ -16155,10 +16150,10 @@
     </row>
     <row r="107" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="111" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C107" s="106" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D107" s="106"/>
       <c r="E107" s="17"/>
@@ -16190,7 +16185,7 @@
     <row r="109" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="111"/>
       <c r="C109" s="124" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D109" s="60"/>
       <c r="E109" s="60"/>
@@ -16207,7 +16202,7 @@
     <row r="110" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="111"/>
       <c r="C110" s="106" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D110" s="106"/>
       <c r="E110" s="17"/>
@@ -16224,7 +16219,7 @@
     <row r="111" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="111"/>
       <c r="C111" s="106" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D111" s="106"/>
       <c r="E111" s="17"/>
@@ -16241,7 +16236,7 @@
     <row r="112" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="111"/>
       <c r="C112" s="124" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
@@ -16258,7 +16253,7 @@
     <row r="113" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="111"/>
       <c r="C113" s="106" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D113" s="106"/>
       <c r="E113" s="17"/>
@@ -16275,7 +16270,7 @@
     <row r="114" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="111"/>
       <c r="C114" s="106" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D114" s="106"/>
       <c r="E114" s="17"/>
@@ -16321,10 +16316,10 @@
     </row>
     <row r="117" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="115" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C117" s="114" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D117" s="114"/>
       <c r="E117" s="114"/>
@@ -16363,10 +16358,10 @@
     </row>
     <row r="119" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B119" s="109" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C119" s="107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D119" s="107"/>
       <c r="E119" s="62"/>
@@ -16398,7 +16393,7 @@
     <row r="121" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="61"/>
       <c r="C121" s="124" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
@@ -16415,7 +16410,7 @@
     <row r="122" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="61"/>
       <c r="C122" s="106" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D122" s="106"/>
       <c r="E122" s="62"/>
@@ -16432,7 +16427,7 @@
     <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="64"/>
       <c r="C123" s="108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D123" s="108"/>
       <c r="E123" s="64"/>
@@ -16522,37 +16517,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -16584,10 +16579,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -16601,7 +16596,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -16627,87 +16622,87 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="167" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="165" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="164" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="157" t="s">
-        <v>228</v>
+      <c r="B9" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="171"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="168" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="167" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="160" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="166"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="75" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L10" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="158"/>
+        <v>255</v>
+      </c>
+      <c r="M10" s="161"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="173" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
+      <c r="B11" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="173" t="s">
-        <v>406</v>
-      </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
+      <c r="B12" s="157" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -16729,61 +16724,61 @@
       <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="173" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="157" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
       <c r="L13" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M13" s="70"/>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="173" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="B14" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K14" s="79"/>
       <c r="L14" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M14" s="70"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="173" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="B15" s="157" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16794,175 +16789,175 @@
       <c r="J15" s="79"/>
       <c r="K15" s="79"/>
       <c r="L15" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="173" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
+      <c r="B16" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
       <c r="K16" s="79"/>
       <c r="L16" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M16" s="70"/>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="173" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
+      <c r="B17" s="157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
       <c r="L17" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M17" s="70"/>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="173" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
+      <c r="B18" s="157" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
       <c r="L18" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M18" s="70"/>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="173" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
       <c r="K19" s="79"/>
       <c r="L19" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M19" s="70"/>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="173" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
+      <c r="B20" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M20" s="70"/>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="173" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="B21" s="157" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M21" s="70"/>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="173" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+      <c r="B22" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
       <c r="F22" s="78"/>
       <c r="G22" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
       <c r="L22" s="79" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M22" s="70"/>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
+      <c r="B23" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
       <c r="E23" s="58">
         <v>777</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G23" s="79"/>
       <c r="H23" s="79"/>
@@ -16971,7 +16966,7 @@
       <c r="K23" s="79"/>
       <c r="L23" s="79"/>
       <c r="M23" s="70" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
@@ -16990,6 +16985,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -16998,17 +17004,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17026,10 +17021,10 @@
   </sheetPr>
   <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17057,38 +17052,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="54" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="19"/>
@@ -17123,10 +17118,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -17142,7 +17137,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -17184,32 +17179,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="208" t="s">
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="209"/>
-      <c r="M10" s="204" t="s">
+      <c r="L10" s="187"/>
+      <c r="M10" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="197"/>
-      <c r="C11" s="199"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -17229,11 +17224,11 @@
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K11" s="210"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K11" s="188"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="182"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -17247,8 +17242,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="183"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17256,24 +17251,24 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="194" t="s">
+      <c r="D13" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="176" t="s">
-        <v>335</v>
-      </c>
-      <c r="L13" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="L13" s="192"/>
       <c r="M13" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17281,18 +17276,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
       <c r="K14" s="176" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="179"/>
+        <v>117</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17300,18 +17295,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
       <c r="K15" s="176" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="179"/>
+        <v>152</v>
+      </c>
+      <c r="L15" s="192"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17326,8 +17321,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="183"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17348,17 +17343,17 @@
       <c r="I17" s="73"/>
       <c r="J17" s="25"/>
       <c r="K17" s="176" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="179"/>
+        <v>102</v>
+      </c>
+      <c r="L17" s="192"/>
       <c r="M17" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -17367,8 +17362,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="183"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="191"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17377,7 +17372,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>8</v>
@@ -17388,95 +17383,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="178" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" s="179"/>
+      <c r="K19" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="192"/>
       <c r="M19" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="188">
+      <c r="B20" s="199">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="191" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="194" t="s">
+      <c r="C20" s="178" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
       <c r="K20" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" s="179"/>
-      <c r="M20" s="185"/>
+        <v>287</v>
+      </c>
+      <c r="L20" s="192"/>
+      <c r="M20" s="205"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="189">
+      <c r="B21" s="200">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
       <c r="K21" s="84" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L21" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="M21" s="186"/>
+        <v>289</v>
+      </c>
+      <c r="M21" s="206"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="189">
+      <c r="B22" s="200">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="192"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
       <c r="K22" s="86" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L22" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="186"/>
+        <v>193</v>
+      </c>
+      <c r="M22" s="206"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="190">
+      <c r="B23" s="201">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="193"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="187"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="207"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -17512,11 +17507,11 @@
       <c r="I25" s="73"/>
       <c r="J25" s="25"/>
       <c r="K25" s="176" t="s">
-        <v>106</v>
+        <v>457</v>
       </c>
       <c r="L25" s="177"/>
       <c r="M25" s="27" t="s">
-        <v>111</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17524,8 +17519,8 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="191" t="s">
-        <v>227</v>
+      <c r="C26" s="178" t="s">
+        <v>221</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>8</v>
@@ -17537,11 +17532,11 @@
       <c r="I26" s="73"/>
       <c r="J26" s="25"/>
       <c r="K26" s="176" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L26" s="177"/>
       <c r="M26" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17549,7 +17544,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="202"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -17560,7 +17555,7 @@
       <c r="I27" s="73"/>
       <c r="J27" s="25"/>
       <c r="K27" s="176" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L27" s="177"/>
       <c r="M27" s="27"/>
@@ -17570,7 +17565,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="203"/>
+      <c r="C28" s="180"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -17581,11 +17576,11 @@
       <c r="I28" s="73"/>
       <c r="J28" s="25"/>
       <c r="K28" s="176" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L28" s="177"/>
       <c r="M28" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17606,7 +17601,7 @@
       <c r="I29" s="73"/>
       <c r="J29" s="25"/>
       <c r="K29" s="176" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L29" s="177"/>
       <c r="M29" s="27"/>
@@ -17629,11 +17624,11 @@
       <c r="I30" s="73"/>
       <c r="J30" s="25"/>
       <c r="K30" s="176" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L30" s="177"/>
       <c r="M30" s="129" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17654,7 +17649,7 @@
       <c r="I31" s="73"/>
       <c r="J31" s="25"/>
       <c r="K31" s="176" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="L31" s="177"/>
       <c r="M31" s="27"/>
@@ -17665,7 +17660,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>8</v>
@@ -17677,7 +17672,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="176" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L32" s="177"/>
       <c r="M32" s="27"/>
@@ -17694,8 +17689,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="183"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="191"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17715,10 +17710,10 @@
       <c r="H34" s="28"/>
       <c r="I34" s="73"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="184" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" s="179"/>
+      <c r="K34" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" s="192"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17738,12 +17733,12 @@
       <c r="H35" s="28"/>
       <c r="I35" s="73"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="184" t="s">
-        <v>266</v>
-      </c>
-      <c r="L35" s="179"/>
+      <c r="K35" s="209" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" s="192"/>
       <c r="M35" s="129" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17763,10 +17758,10 @@
       <c r="H36" s="28"/>
       <c r="I36" s="73"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="184" t="s">
-        <v>267</v>
-      </c>
-      <c r="L36" s="179"/>
+      <c r="K36" s="209" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" s="192"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17786,10 +17781,10 @@
       <c r="H37" s="28"/>
       <c r="I37" s="73"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="184" t="s">
-        <v>268</v>
-      </c>
-      <c r="L37" s="179"/>
+      <c r="K37" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="192"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17812,7 +17807,7 @@
       <c r="K38" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="179"/>
+      <c r="L38" s="192"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17833,9 +17828,9 @@
       <c r="I39" s="73"/>
       <c r="J39" s="25"/>
       <c r="K39" s="176" t="s">
-        <v>438</v>
-      </c>
-      <c r="L39" s="179"/>
+        <v>426</v>
+      </c>
+      <c r="L39" s="192"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17856,7 +17851,7 @@
       <c r="I40" s="73"/>
       <c r="J40" s="25"/>
       <c r="K40" s="176" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L40" s="177"/>
       <c r="M40" s="29"/>
@@ -17867,7 +17862,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28" t="s">
@@ -17881,7 +17876,7 @@
       <c r="I41" s="73"/>
       <c r="J41" s="25"/>
       <c r="K41" s="176" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L41" s="177"/>
       <c r="M41" s="29"/>
@@ -17892,7 +17887,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="131" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28" t="s">
@@ -17906,7 +17901,7 @@
         <v>8</v>
       </c>
       <c r="K42" s="176" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="L42" s="177"/>
       <c r="M42" s="29"/>
@@ -17929,7 +17924,7 @@
       <c r="I43" s="73"/>
       <c r="J43" s="25"/>
       <c r="K43" s="176" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L43" s="177"/>
       <c r="M43" s="29"/>
@@ -17952,7 +17947,7 @@
       <c r="I44" s="35"/>
       <c r="J44" s="34"/>
       <c r="K44" s="176" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="L44" s="177"/>
       <c r="M44" s="29"/>
@@ -17963,7 +17958,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
@@ -17977,7 +17972,7 @@
       <c r="I45" s="35"/>
       <c r="J45" s="34"/>
       <c r="K45" s="176" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="L45" s="177"/>
       <c r="M45" s="29"/>
@@ -17999,10 +17994,10 @@
       </c>
       <c r="I46" s="74"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="180" t="s">
-        <v>445</v>
-      </c>
-      <c r="L46" s="181"/>
+      <c r="K46" s="210" t="s">
+        <v>433</v>
+      </c>
+      <c r="L46" s="211"/>
       <c r="M46" s="36"/>
     </row>
     <row r="47" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18011,7 +18006,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="34"/>
@@ -18025,7 +18020,7 @@
       <c r="I47" s="33"/>
       <c r="J47" s="34"/>
       <c r="K47" s="176" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L47" s="177"/>
       <c r="M47" s="36"/>
@@ -18048,7 +18043,7 @@
       </c>
       <c r="J48" s="25"/>
       <c r="K48" s="176" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="L48" s="177"/>
       <c r="M48" s="29"/>
@@ -18059,7 +18054,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="34"/>
@@ -18071,7 +18066,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="176" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="L49" s="177"/>
       <c r="M49" s="29"/>
@@ -18079,6 +18074,51 @@
   </sheetData>
   <autoFilter ref="B11:M49"/>
   <mergeCells count="61">
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="M10:M11"/>
@@ -18095,51 +18135,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18160,10 +18155,10 @@
   </sheetPr>
   <dimension ref="B1:M80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18192,38 +18187,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -18239,7 +18234,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -18274,10 +18269,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -18293,7 +18288,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -18335,32 +18330,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="208" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="187"/>
+      <c r="M11" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -18380,11 +18375,11 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="182"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -18398,8 +18393,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="183"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18407,24 +18402,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="176" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18432,16 +18427,16 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="176" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L15" s="177"/>
       <c r="M15" s="26"/>
@@ -18451,16 +18446,16 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
       <c r="K16" s="176" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L16" s="177"/>
       <c r="M16" s="27"/>
@@ -18499,11 +18494,11 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="176" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L18" s="177"/>
       <c r="M18" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18540,11 +18535,11 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="176" t="s">
-        <v>383</v>
-      </c>
-      <c r="L20" s="179"/>
+        <v>375</v>
+      </c>
+      <c r="L20" s="192"/>
       <c r="M20" s="27" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -18565,11 +18560,11 @@
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="176" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="179"/>
+        <v>185</v>
+      </c>
+      <c r="L21" s="192"/>
       <c r="M21" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18592,7 +18587,7 @@
       <c r="K22" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="179"/>
+      <c r="L22" s="192"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18601,7 +18596,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D23" s="128" t="s">
         <v>8</v>
@@ -18613,11 +18608,11 @@
       <c r="I23" s="128"/>
       <c r="J23" s="25"/>
       <c r="K23" s="176" t="s">
-        <v>386</v>
-      </c>
-      <c r="L23" s="179"/>
+        <v>377</v>
+      </c>
+      <c r="L23" s="192"/>
       <c r="M23" s="27" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -18625,22 +18620,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="176" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="L24" s="192"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -18648,20 +18643,20 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="179"/>
+      <c r="L25" s="192"/>
       <c r="M25" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -18676,8 +18671,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="183"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="191"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18698,7 +18693,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="176" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L27" s="177"/>
       <c r="M27" s="27"/>
@@ -18709,7 +18704,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>85</v>
+        <v>461</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>8</v>
@@ -18721,7 +18716,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="25"/>
       <c r="K28" s="176" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L28" s="177"/>
       <c r="M28" s="27"/>
@@ -18732,7 +18727,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>8</v>
@@ -18744,7 +18739,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
       <c r="K29" s="176" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L29" s="177"/>
       <c r="M29" s="27"/>
@@ -18761,8 +18756,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="183"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="191"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18782,12 +18777,12 @@
       <c r="H31" s="28"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="184" t="s">
-        <v>277</v>
-      </c>
-      <c r="L31" s="179"/>
+      <c r="K31" s="209" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" s="192"/>
       <c r="M31" s="129" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -18796,7 +18791,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>8</v>
@@ -18807,210 +18802,210 @@
       <c r="H32" s="28"/>
       <c r="I32" s="77"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="184" t="s">
-        <v>318</v>
-      </c>
-      <c r="L32" s="179"/>
+      <c r="K32" s="209" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" s="192"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="188">
+      <c r="B33" s="199">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="194" t="s">
+      <c r="C33" s="178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="176" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="192"/>
+      <c r="M33" s="205"/>
+    </row>
+    <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="200"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" s="206"/>
+    </row>
+    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="200"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" s="206"/>
+    </row>
+    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="200"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="M36" s="206"/>
+    </row>
+    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="200"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" s="206"/>
+    </row>
+    <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="200"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="179"/>
-      <c r="M33" s="185"/>
-    </row>
-    <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="189"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="84" t="s">
+      <c r="L38" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" s="206"/>
+    </row>
+    <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="200"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" s="206"/>
+    </row>
+    <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="200"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="206"/>
+    </row>
+    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="200"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="L34" s="85" t="s">
-        <v>306</v>
-      </c>
-      <c r="M34" s="186"/>
-    </row>
-    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="189"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="86" t="s">
+      <c r="L41" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" s="206"/>
+    </row>
+    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="200"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="L35" s="91" t="s">
+      <c r="L42" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="M35" s="186"/>
-    </row>
-    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="189"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="86" t="s">
-        <v>299</v>
-      </c>
-      <c r="L36" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="M36" s="186"/>
-    </row>
-    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="189"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="L37" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="M37" s="186"/>
-    </row>
-    <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="189"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="L38" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="M38" s="186"/>
-    </row>
-    <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="189"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="L39" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="M39" s="186"/>
-    </row>
-    <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="189"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="L40" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="M40" s="186"/>
-    </row>
-    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="189"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="L41" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="M41" s="186"/>
-    </row>
-    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="189"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="86" t="s">
-        <v>305</v>
-      </c>
-      <c r="L42" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="M42" s="186"/>
+      <c r="M42" s="206"/>
     </row>
     <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="190"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="204"/>
       <c r="K43" s="176"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="187"/>
+      <c r="L43" s="192"/>
+      <c r="M43" s="207"/>
     </row>
     <row r="44" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -19030,7 +19025,7 @@
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
       <c r="K44" s="176" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L44" s="177"/>
       <c r="M44" s="29"/>
@@ -19053,7 +19048,7 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
       <c r="K45" s="176" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L45" s="177"/>
       <c r="M45" s="29"/>
@@ -19076,7 +19071,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
       <c r="K46" s="176" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L46" s="177"/>
       <c r="M46" s="29"/>
@@ -19099,7 +19094,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
       <c r="K47" s="176" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L47" s="177"/>
       <c r="M47" s="29"/>
@@ -19122,7 +19117,7 @@
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
       <c r="K48" s="176" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L48" s="177"/>
       <c r="M48" s="29"/>
@@ -19145,7 +19140,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="212" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L49" s="177"/>
       <c r="M49" s="46"/>
@@ -19168,7 +19163,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="212" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L50" s="177"/>
       <c r="M50" s="46"/>
@@ -19179,7 +19174,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45" t="s">
@@ -19193,7 +19188,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="212" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L51" s="177"/>
       <c r="M51" s="46"/>
@@ -19204,7 +19199,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45" t="s">
@@ -19218,7 +19213,7 @@
         <v>8</v>
       </c>
       <c r="K52" s="212" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="L52" s="177"/>
       <c r="M52" s="46"/>
@@ -19241,7 +19236,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="212" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L53" s="177"/>
       <c r="M53" s="46"/>
@@ -19264,7 +19259,7 @@
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="212" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L54" s="177"/>
       <c r="M54" s="46"/>
@@ -19287,7 +19282,7 @@
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
       <c r="K55" s="212" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L55" s="177"/>
       <c r="M55" s="46"/>
@@ -19310,7 +19305,7 @@
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="212" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L56" s="177"/>
       <c r="M56" s="46"/>
@@ -19321,7 +19316,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="25"/>
@@ -19333,7 +19328,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="212" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L57" s="177"/>
       <c r="M57" s="46"/>
@@ -19356,11 +19351,11 @@
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
       <c r="K58" s="176" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L58" s="177"/>
       <c r="M58" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -19381,11 +19376,11 @@
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="176" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L59" s="177"/>
       <c r="M59" s="29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -19406,17 +19401,17 @@
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
       <c r="K60" s="176" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L60" s="177"/>
       <c r="M60" s="29" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
       <c r="C61" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -19425,8 +19420,8 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="182"/>
-      <c r="L61" s="183"/>
+      <c r="K61" s="190"/>
+      <c r="L61" s="191"/>
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19447,9 +19442,9 @@
       <c r="I62" s="24"/>
       <c r="J62" s="25"/>
       <c r="K62" s="176" t="s">
-        <v>162</v>
-      </c>
-      <c r="L62" s="179"/>
+        <v>156</v>
+      </c>
+      <c r="L62" s="192"/>
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19458,7 +19453,7 @@
         <v>35</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>8</v>
@@ -19470,9 +19465,9 @@
       <c r="I63" s="24"/>
       <c r="J63" s="25"/>
       <c r="K63" s="176" t="s">
-        <v>459</v>
-      </c>
-      <c r="L63" s="179"/>
+        <v>447</v>
+      </c>
+      <c r="L63" s="192"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19493,9 +19488,9 @@
       <c r="I64" s="24"/>
       <c r="J64" s="25"/>
       <c r="K64" s="176" t="s">
-        <v>460</v>
-      </c>
-      <c r="L64" s="179"/>
+        <v>448</v>
+      </c>
+      <c r="L64" s="192"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19504,7 +19499,7 @@
         <v>37</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -19518,9 +19513,9 @@
       <c r="I65" s="24"/>
       <c r="J65" s="25"/>
       <c r="K65" s="176" t="s">
-        <v>461</v>
-      </c>
-      <c r="L65" s="179"/>
+        <v>449</v>
+      </c>
+      <c r="L65" s="192"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19529,7 +19524,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="131" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
@@ -19543,9 +19538,9 @@
         <v>8</v>
       </c>
       <c r="K66" s="176" t="s">
-        <v>462</v>
-      </c>
-      <c r="L66" s="179"/>
+        <v>450</v>
+      </c>
+      <c r="L66" s="192"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19566,9 +19561,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="25"/>
       <c r="K67" s="176" t="s">
-        <v>463</v>
-      </c>
-      <c r="L67" s="179"/>
+        <v>451</v>
+      </c>
+      <c r="L67" s="192"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19589,9 +19584,9 @@
       <c r="I68" s="24"/>
       <c r="J68" s="25"/>
       <c r="K68" s="176" t="s">
-        <v>464</v>
-      </c>
-      <c r="L68" s="179"/>
+        <v>452</v>
+      </c>
+      <c r="L68" s="192"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19612,7 +19607,7 @@
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
       <c r="K69" s="176" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="L69" s="177"/>
       <c r="M69" s="29"/>
@@ -19623,7 +19618,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="136" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="25"/>
@@ -19637,7 +19632,7 @@
       <c r="I70" s="28"/>
       <c r="J70" s="25"/>
       <c r="K70" s="176" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L70" s="177"/>
       <c r="M70" s="29"/>
@@ -19660,7 +19655,7 @@
       </c>
       <c r="J71" s="25"/>
       <c r="K71" s="176" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="L71" s="177"/>
       <c r="M71" s="29"/>
@@ -19671,7 +19666,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="139" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="34"/>
@@ -19683,7 +19678,7 @@
         <v>8</v>
       </c>
       <c r="K72" s="176" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L72" s="177"/>
       <c r="M72" s="29"/>
@@ -19706,7 +19701,7 @@
       <c r="I73" s="138"/>
       <c r="J73" s="31"/>
       <c r="K73" s="213" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L73" s="214"/>
       <c r="M73" s="36"/>
@@ -19729,7 +19724,7 @@
       <c r="I74" s="35"/>
       <c r="J74" s="34"/>
       <c r="K74" s="176" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L74" s="177"/>
       <c r="M74" s="29"/>
@@ -19737,7 +19732,7 @@
     <row r="75" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
       <c r="C75" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -19746,8 +19741,8 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="182"/>
-      <c r="L75" s="183"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="191"/>
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19768,15 +19763,15 @@
       <c r="I76" s="24"/>
       <c r="J76" s="25"/>
       <c r="K76" s="176" t="s">
-        <v>163</v>
-      </c>
-      <c r="L76" s="179"/>
+        <v>157</v>
+      </c>
+      <c r="L76" s="192"/>
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B77" s="1"/>
       <c r="C77" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -19785,8 +19780,8 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="182"/>
-      <c r="L77" s="183"/>
+      <c r="K77" s="190"/>
+      <c r="L77" s="191"/>
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19795,7 +19790,7 @@
         <v>48</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>8</v>
@@ -19807,9 +19802,9 @@
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
       <c r="K78" s="176" t="s">
-        <v>182</v>
-      </c>
-      <c r="L78" s="179"/>
+        <v>176</v>
+      </c>
+      <c r="L78" s="192"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19824,8 +19819,8 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="182"/>
-      <c r="L79" s="183"/>
+      <c r="K79" s="190"/>
+      <c r="L79" s="191"/>
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -19848,14 +19843,88 @@
       <c r="K80" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="L80" s="179"/>
+      <c r="L80" s="192"/>
       <c r="M80" s="27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B12:M80"/>
   <mergeCells count="90">
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M33:M43"/>
@@ -19872,80 +19941,6 @@
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -19971,10 +19966,10 @@
   </sheetPr>
   <dimension ref="B1:M62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20002,38 +19997,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -20049,7 +20044,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -20084,10 +20079,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -20103,7 +20098,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -20145,32 +20140,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="208" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="187"/>
+      <c r="M11" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -20190,11 +20185,11 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="182"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -20208,8 +20203,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="183"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20217,24 +20212,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="176" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20242,18 +20237,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="216" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="192"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20261,18 +20256,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="216" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="179"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="215" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="192"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20287,8 +20282,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="183"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20308,12 +20303,12 @@
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="216" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="179"/>
+      <c r="K18" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="192"/>
       <c r="M18" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20328,8 +20323,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="183"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="191"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20349,12 +20344,12 @@
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="216" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="179"/>
+      <c r="K20" s="215" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="192"/>
       <c r="M20" s="27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20374,10 +20369,10 @@
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="216" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="179"/>
+      <c r="K21" s="215" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="192"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20392,8 +20387,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="183"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="191"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -20413,12 +20408,12 @@
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="216" t="s">
-        <v>389</v>
-      </c>
-      <c r="L23" s="179"/>
+      <c r="K23" s="215" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="192"/>
       <c r="M23" s="27" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20438,12 +20433,12 @@
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="216" t="s">
-        <v>191</v>
-      </c>
-      <c r="L24" s="179"/>
+      <c r="K24" s="215" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="192"/>
       <c r="M24" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20463,10 +20458,10 @@
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="216" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="179"/>
+      <c r="K25" s="215" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="192"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20475,7 +20470,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="25"/>
@@ -20487,11 +20482,11 @@
       <c r="I26" s="128"/>
       <c r="J26" s="25"/>
       <c r="K26" s="176" t="s">
-        <v>386</v>
-      </c>
-      <c r="L26" s="179"/>
+        <v>377</v>
+      </c>
+      <c r="L26" s="192"/>
       <c r="M26" s="27" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -20499,22 +20494,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="216" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="179"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="215" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="192"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -20522,20 +20517,20 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="216" t="s">
+      <c r="C28" s="179"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="179"/>
+      <c r="L28" s="192"/>
       <c r="M28" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20550,8 +20545,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="183"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="191"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20571,10 +20566,10 @@
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="216" t="s">
-        <v>353</v>
-      </c>
-      <c r="L30" s="179"/>
+      <c r="K30" s="215" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="192"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20583,7 +20578,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>85</v>
+        <v>461</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -20594,10 +20589,10 @@
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="216" t="s">
-        <v>352</v>
-      </c>
-      <c r="L31" s="179"/>
+      <c r="K31" s="215" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="192"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20606,7 +20601,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -20617,16 +20612,16 @@
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="216" t="s">
-        <v>351</v>
-      </c>
-      <c r="L32" s="179"/>
+      <c r="K32" s="215" t="s">
+        <v>343</v>
+      </c>
+      <c r="L32" s="192"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -20635,8 +20630,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="183"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="191"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20645,7 +20640,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -20656,12 +20651,12 @@
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="216" t="s">
-        <v>400</v>
-      </c>
-      <c r="L34" s="179"/>
+      <c r="K34" s="215" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" s="192"/>
       <c r="M34" s="29" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20670,7 +20665,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="34"/>
@@ -20681,10 +20676,10 @@
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="216" t="s">
-        <v>397</v>
-      </c>
-      <c r="L35" s="179"/>
+      <c r="K35" s="215" t="s">
+        <v>387</v>
+      </c>
+      <c r="L35" s="192"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20693,7 +20688,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
@@ -20705,7 +20700,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="217" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L36" s="218"/>
       <c r="M36" s="29"/>
@@ -20722,8 +20717,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="183"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="191"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -20743,12 +20738,12 @@
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="216" t="s">
-        <v>167</v>
-      </c>
-      <c r="L38" s="179"/>
+      <c r="K38" s="215" t="s">
+        <v>161</v>
+      </c>
+      <c r="L38" s="192"/>
       <c r="M38" s="129" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20768,84 +20763,84 @@
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="216" t="s">
-        <v>166</v>
-      </c>
-      <c r="L39" s="179"/>
+      <c r="K39" s="215" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="192"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="188">
+      <c r="B40" s="199">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="191" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
+      <c r="C40" s="178" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="L40" s="179"/>
-      <c r="M40" s="185"/>
+        <v>287</v>
+      </c>
+      <c r="L40" s="192"/>
+      <c r="M40" s="205"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="189"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
       <c r="K41" s="84" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L41" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="M41" s="186"/>
+        <v>271</v>
+      </c>
+      <c r="M41" s="206"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="189"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
       <c r="K42" s="86" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L42" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="M42" s="186"/>
+        <v>273</v>
+      </c>
+      <c r="M42" s="206"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="190"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="204"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="187"/>
+      <c r="M43" s="207"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20864,10 +20859,10 @@
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="216" t="s">
-        <v>354</v>
-      </c>
-      <c r="L44" s="179"/>
+      <c r="K44" s="215" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" s="192"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20887,10 +20882,10 @@
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="216" t="s">
-        <v>355</v>
-      </c>
-      <c r="L45" s="179"/>
+      <c r="K45" s="215" t="s">
+        <v>347</v>
+      </c>
+      <c r="L45" s="192"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20910,10 +20905,10 @@
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="216" t="s">
-        <v>356</v>
-      </c>
-      <c r="L46" s="179"/>
+      <c r="K46" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" s="192"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20933,10 +20928,10 @@
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="216" t="s">
-        <v>357</v>
-      </c>
-      <c r="L47" s="179"/>
+      <c r="K47" s="215" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" s="192"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20956,8 +20951,8 @@
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="216" t="s">
-        <v>358</v>
+      <c r="K48" s="215" t="s">
+        <v>350</v>
       </c>
       <c r="L48" s="177"/>
       <c r="M48" s="29"/>
@@ -20965,7 +20960,7 @@
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B49" s="1"/>
       <c r="C49" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -20974,8 +20969,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="215"/>
-      <c r="L49" s="183"/>
+      <c r="K49" s="216"/>
+      <c r="L49" s="191"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20984,7 +20979,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="25"/>
@@ -20995,10 +20990,10 @@
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="216" t="s">
-        <v>418</v>
-      </c>
-      <c r="L50" s="179"/>
+      <c r="K50" s="215" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" s="192"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21007,7 +21002,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="25"/>
@@ -21018,12 +21013,12 @@
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="216" t="s">
-        <v>419</v>
-      </c>
-      <c r="L51" s="179"/>
+      <c r="K51" s="215" t="s">
+        <v>407</v>
+      </c>
+      <c r="L51" s="192"/>
       <c r="M51" s="29" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -21032,7 +21027,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="25"/>
@@ -21043,8 +21038,8 @@
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="216" t="s">
-        <v>379</v>
+      <c r="K52" s="215" t="s">
+        <v>371</v>
       </c>
       <c r="L52" s="177"/>
       <c r="M52" s="29"/>
@@ -21055,7 +21050,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>92</v>
+        <v>464</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="25"/>
@@ -21066,8 +21061,8 @@
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="216" t="s">
-        <v>380</v>
+      <c r="K53" s="215" t="s">
+        <v>372</v>
       </c>
       <c r="L53" s="177"/>
       <c r="M53" s="29"/>
@@ -21078,7 +21073,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="25"/>
@@ -21089,8 +21084,8 @@
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="216" t="s">
-        <v>417</v>
+      <c r="K54" s="215" t="s">
+        <v>405</v>
       </c>
       <c r="L54" s="177"/>
       <c r="M54" s="29"/>
@@ -21101,7 +21096,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="34"/>
@@ -21112,8 +21107,8 @@
       </c>
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="216" t="s">
-        <v>94</v>
+      <c r="K55" s="215" t="s">
+        <v>91</v>
       </c>
       <c r="L55" s="177"/>
       <c r="M55" s="29"/>
@@ -21130,8 +21125,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="215"/>
-      <c r="L56" s="183"/>
+      <c r="K56" s="216"/>
+      <c r="L56" s="191"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -21151,12 +21146,12 @@
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="216" t="s">
-        <v>457</v>
-      </c>
-      <c r="L57" s="179"/>
+      <c r="K57" s="215" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" s="192"/>
       <c r="M57" s="27" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -21176,10 +21171,10 @@
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="216" t="s">
+      <c r="K58" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="L58" s="179"/>
+      <c r="L58" s="192"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21188,7 +21183,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
@@ -21199,10 +21194,10 @@
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="216" t="s">
-        <v>359</v>
-      </c>
-      <c r="L59" s="179"/>
+      <c r="K59" s="215" t="s">
+        <v>351</v>
+      </c>
+      <c r="L59" s="192"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -21211,7 +21206,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>96</v>
+        <v>465</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
@@ -21222,10 +21217,10 @@
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="216" t="s">
-        <v>360</v>
-      </c>
-      <c r="L60" s="179"/>
+      <c r="K60" s="215" t="s">
+        <v>352</v>
+      </c>
+      <c r="L60" s="192"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -21245,12 +21240,12 @@
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="216" t="s">
-        <v>391</v>
+      <c r="K61" s="215" t="s">
+        <v>381</v>
       </c>
       <c r="L61" s="177"/>
       <c r="M61" s="27" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="81" x14ac:dyDescent="0.15">
@@ -21259,7 +21254,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -21270,62 +21265,36 @@
       </c>
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="216" t="s">
-        <v>168</v>
+      <c r="K62" s="215" t="s">
+        <v>162</v>
       </c>
       <c r="L62" s="177"/>
       <c r="M62" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B12:M62"/>
   <mergeCells count="80">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -21342,25 +21311,51 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -21411,34 +21406,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -21473,10 +21468,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -21492,7 +21487,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39"/>
       <c r="C7" s="53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -21521,10 +21516,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -21566,32 +21561,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="208" t="s">
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="219"/>
-      <c r="M12" s="204" t="s">
+      <c r="L12" s="225"/>
+      <c r="M12" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="197"/>
-      <c r="C13" s="199"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -21611,16 +21606,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K13" s="210"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K13" s="188"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="182"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -21629,8 +21624,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="221"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21650,89 +21645,89 @@
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="216" t="s">
-        <v>269</v>
+      <c r="K15" s="215" t="s">
+        <v>262</v>
       </c>
       <c r="L15" s="177"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="188">
+      <c r="B16" s="199">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="223" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194" t="s">
+      <c r="C16" s="222" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="L16" s="179"/>
-      <c r="M16" s="185"/>
+        <v>287</v>
+      </c>
+      <c r="L16" s="192"/>
+      <c r="M16" s="205"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="189"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
       <c r="K17" s="88" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L17" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="M17" s="186"/>
+        <v>289</v>
+      </c>
+      <c r="M17" s="206"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="189"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
       <c r="K18" s="86" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L18" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="M18" s="186"/>
+        <v>273</v>
+      </c>
+      <c r="M18" s="206"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="222"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
       <c r="K19" s="176"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="187"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="207"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -21751,7 +21746,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -21762,8 +21757,8 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="216" t="s">
-        <v>245</v>
+      <c r="K21" s="215" t="s">
+        <v>238</v>
       </c>
       <c r="L21" s="177"/>
       <c r="M21" s="27"/>
@@ -21774,7 +21769,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="34"/>
@@ -21785,8 +21780,8 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="216" t="s">
-        <v>374</v>
+      <c r="K22" s="215" t="s">
+        <v>366</v>
       </c>
       <c r="L22" s="177"/>
       <c r="M22" s="27"/>
@@ -21794,11 +21789,13 @@
   </sheetData>
   <autoFilter ref="B13:M22"/>
   <mergeCells count="23">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -21810,13 +21807,11 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21834,10 +21829,10 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L77" sqref="L77"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21865,38 +21860,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -21912,7 +21907,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -21928,7 +21923,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -21949,10 +21944,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -21968,7 +21963,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -22010,32 +22005,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="208" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="187"/>
+      <c r="M11" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22055,11 +22050,11 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="182"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -22073,8 +22068,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="183"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22082,24 +22077,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="194"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="176" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -22107,18 +22102,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="216" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="215" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="192"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22126,18 +22121,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="216" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="179"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="215" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="192"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22152,8 +22147,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="183"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22173,12 +22168,12 @@
         <v>8</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="216" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="179"/>
+      <c r="K18" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="192"/>
       <c r="M18" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22193,8 +22188,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="183"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="191"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -22214,12 +22209,12 @@
         <v>8</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="216" t="s">
-        <v>389</v>
-      </c>
-      <c r="L20" s="179"/>
+      <c r="K20" s="215" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="192"/>
       <c r="M20" s="27" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -22239,12 +22234,12 @@
         <v>8</v>
       </c>
       <c r="J21" s="25"/>
-      <c r="K21" s="216" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="179"/>
+      <c r="K21" s="215" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="192"/>
       <c r="M21" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22264,7 +22259,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="25"/>
-      <c r="K22" s="216" t="s">
+      <c r="K22" s="215" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="177"/>
@@ -22276,7 +22271,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D23" s="128"/>
       <c r="E23" s="25"/>
@@ -22288,11 +22283,11 @@
       <c r="I23" s="128"/>
       <c r="J23" s="25"/>
       <c r="K23" s="176" t="s">
-        <v>386</v>
-      </c>
-      <c r="L23" s="179"/>
+        <v>377</v>
+      </c>
+      <c r="L23" s="192"/>
       <c r="M23" s="27" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22300,20 +22295,20 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194" t="s">
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="194"/>
-      <c r="K24" s="216" t="s">
-        <v>116</v>
+      <c r="J24" s="183"/>
+      <c r="K24" s="215" t="s">
+        <v>110</v>
       </c>
       <c r="L24" s="177"/>
       <c r="M24" s="27"/>
@@ -22323,20 +22318,20 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="216" t="s">
+      <c r="C25" s="179"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="215" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="177"/>
       <c r="M25" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22351,8 +22346,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="183"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="191"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22372,8 +22367,8 @@
         <v>8</v>
       </c>
       <c r="J27" s="25"/>
-      <c r="K27" s="216" t="s">
-        <v>353</v>
+      <c r="K27" s="215" t="s">
+        <v>345</v>
       </c>
       <c r="L27" s="177"/>
       <c r="M27" s="27"/>
@@ -22384,7 +22379,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>85</v>
+        <v>461</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
@@ -22395,8 +22390,8 @@
         <v>8</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="216" t="s">
-        <v>352</v>
+      <c r="K28" s="215" t="s">
+        <v>344</v>
       </c>
       <c r="L28" s="177"/>
       <c r="M28" s="27"/>
@@ -22407,7 +22402,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
@@ -22418,8 +22413,8 @@
         <v>8</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="216" t="s">
-        <v>351</v>
+      <c r="K29" s="215" t="s">
+        <v>343</v>
       </c>
       <c r="L29" s="177"/>
       <c r="M29" s="27"/>
@@ -22436,8 +22431,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="183"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="191"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22457,12 +22452,12 @@
         <v>8</v>
       </c>
       <c r="J31" s="25"/>
-      <c r="K31" s="216" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="179"/>
+      <c r="K31" s="215" t="s">
+        <v>161</v>
+      </c>
+      <c r="L31" s="192"/>
       <c r="M31" s="129" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22482,84 +22477,84 @@
         <v>8</v>
       </c>
       <c r="J32" s="34"/>
-      <c r="K32" s="216" t="s">
-        <v>166</v>
-      </c>
-      <c r="L32" s="179"/>
+      <c r="K32" s="215" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="192"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="188">
+      <c r="B33" s="199">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194" t="s">
+      <c r="C33" s="178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="194"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="L33" s="179"/>
-      <c r="M33" s="185"/>
+        <v>287</v>
+      </c>
+      <c r="L33" s="192"/>
+      <c r="M33" s="205"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="227"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
       <c r="K34" s="84" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L34" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="M34" s="186"/>
+        <v>271</v>
+      </c>
+      <c r="M34" s="206"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="227"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
       <c r="K35" s="86" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L35" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="M35" s="186"/>
+        <v>273</v>
+      </c>
+      <c r="M35" s="206"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="228"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
-      <c r="M36" s="187"/>
+      <c r="M36" s="207"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -22578,8 +22573,8 @@
         <v>8</v>
       </c>
       <c r="J37" s="25"/>
-      <c r="K37" s="216" t="s">
-        <v>354</v>
+      <c r="K37" s="215" t="s">
+        <v>346</v>
       </c>
       <c r="L37" s="177"/>
       <c r="M37" s="29"/>
@@ -22601,8 +22596,8 @@
         <v>8</v>
       </c>
       <c r="J38" s="25"/>
-      <c r="K38" s="216" t="s">
-        <v>355</v>
+      <c r="K38" s="215" t="s">
+        <v>347</v>
       </c>
       <c r="L38" s="177"/>
       <c r="M38" s="29"/>
@@ -22624,8 +22619,8 @@
         <v>8</v>
       </c>
       <c r="J39" s="25"/>
-      <c r="K39" s="216" t="s">
-        <v>356</v>
+      <c r="K39" s="215" t="s">
+        <v>348</v>
       </c>
       <c r="L39" s="177"/>
       <c r="M39" s="29"/>
@@ -22647,8 +22642,8 @@
         <v>8</v>
       </c>
       <c r="J40" s="25"/>
-      <c r="K40" s="216" t="s">
-        <v>357</v>
+      <c r="K40" s="215" t="s">
+        <v>349</v>
       </c>
       <c r="L40" s="177"/>
       <c r="M40" s="29"/>
@@ -22670,8 +22665,8 @@
         <v>8</v>
       </c>
       <c r="J41" s="25"/>
-      <c r="K41" s="216" t="s">
-        <v>358</v>
+      <c r="K41" s="215" t="s">
+        <v>350</v>
       </c>
       <c r="L41" s="177"/>
       <c r="M41" s="29"/>
@@ -22694,7 +22689,7 @@
       </c>
       <c r="J42" s="25"/>
       <c r="K42" s="176" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L42" s="177"/>
       <c r="M42" s="29"/>
@@ -22705,7 +22700,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="25"/>
@@ -22717,7 +22712,7 @@
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="176" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L43" s="177"/>
       <c r="M43" s="29"/>
@@ -22728,7 +22723,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="25"/>
@@ -22740,7 +22735,7 @@
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="176" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L44" s="177"/>
       <c r="M44" s="29"/>
@@ -22748,7 +22743,7 @@
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
       <c r="C45" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -22757,8 +22752,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="215"/>
-      <c r="L45" s="183"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="191"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22767,7 +22762,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="25"/>
@@ -22778,16 +22773,16 @@
         <v>8</v>
       </c>
       <c r="J46" s="25"/>
-      <c r="K46" s="216" t="s">
-        <v>320</v>
-      </c>
-      <c r="L46" s="179"/>
+      <c r="K46" s="215" t="s">
+        <v>313</v>
+      </c>
+      <c r="L46" s="192"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -22796,8 +22791,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="215"/>
-      <c r="L47" s="183"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="191"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22806,7 +22801,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -22817,15 +22812,66 @@
         <v>8</v>
       </c>
       <c r="J48" s="34"/>
-      <c r="K48" s="216" t="s">
-        <v>244</v>
-      </c>
-      <c r="L48" s="179"/>
+      <c r="K48" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="L48" s="192"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48"/>
   <mergeCells count="67">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K36:L36"/>
@@ -22842,57 +22888,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -22946,34 +22941,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -23077,32 +23072,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="208" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="187"/>
+      <c r="M11" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -23122,16 +23117,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="182"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
       <c r="C13" s="142" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
@@ -23140,8 +23135,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="183"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23150,7 +23145,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -23161,10 +23156,10 @@
       <c r="J14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="216" t="s">
-        <v>431</v>
-      </c>
-      <c r="L14" s="179"/>
+      <c r="K14" s="215" t="s">
+        <v>419</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23173,7 +23168,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="136" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="34"/>
@@ -23184,8 +23179,8 @@
       <c r="J15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="216" t="s">
-        <v>433</v>
+      <c r="K15" s="215" t="s">
+        <v>421</v>
       </c>
       <c r="L15" s="177"/>
       <c r="M15" s="136"/>
@@ -23220,9 +23215,9 @@
   </sheetPr>
   <dimension ref="B1:M91"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23250,38 +23245,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="161" t="str">
+      <c r="B3" s="164" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="55" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -23297,7 +23292,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -23332,10 +23327,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -23351,7 +23346,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -23393,32 +23388,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="208" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="187"/>
+      <c r="M11" s="181" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -23438,11 +23433,11 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="205"/>
+        <v>373</v>
+      </c>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="182"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -23456,8 +23451,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="183"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -23465,24 +23460,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="176" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="L14" s="192"/>
       <c r="M14" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -23490,18 +23485,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="192"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23509,18 +23504,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="216" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="179"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="215" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="192"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23535,8 +23530,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="183"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23556,12 +23551,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="216" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="179"/>
+      <c r="K18" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="192"/>
       <c r="M18" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23576,8 +23571,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="183"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="191"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23597,12 +23592,12 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="216" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" s="179"/>
+      <c r="K20" s="215" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="192"/>
       <c r="M20" s="27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23622,10 +23617,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="216" t="s">
-        <v>175</v>
-      </c>
-      <c r="L21" s="179"/>
+      <c r="K21" s="215" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="192"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23640,8 +23635,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="183"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="191"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -23661,12 +23656,12 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="216" t="s">
-        <v>389</v>
-      </c>
-      <c r="L23" s="179"/>
+      <c r="K23" s="215" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="192"/>
       <c r="M23" s="27" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -23686,12 +23681,12 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="216" t="s">
-        <v>191</v>
+      <c r="K24" s="215" t="s">
+        <v>185</v>
       </c>
       <c r="L24" s="177"/>
       <c r="M24" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23711,7 +23706,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="216" t="s">
+      <c r="K25" s="215" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="177"/>
@@ -23723,7 +23718,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D26" s="128" t="s">
         <v>8</v>
@@ -23735,11 +23730,11 @@
       <c r="I26" s="128"/>
       <c r="J26" s="25"/>
       <c r="K26" s="176" t="s">
-        <v>386</v>
-      </c>
-      <c r="L26" s="179"/>
+        <v>377</v>
+      </c>
+      <c r="L26" s="192"/>
       <c r="M26" s="27" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -23747,20 +23742,20 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="194" t="s">
+      <c r="D27" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="216" t="s">
-        <v>117</v>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="215" t="s">
+        <v>111</v>
       </c>
       <c r="L27" s="177"/>
       <c r="M27" s="27"/>
@@ -23770,20 +23765,20 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="216" t="s">
+      <c r="C28" s="179"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="215" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="177"/>
       <c r="M28" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23798,8 +23793,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="183"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="191"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23819,10 +23814,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="216" t="s">
-        <v>353</v>
-      </c>
-      <c r="L30" s="179"/>
+      <c r="K30" s="215" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="192"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23831,7 +23826,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>85</v>
+        <v>461</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>8</v>
@@ -23842,10 +23837,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="216" t="s">
-        <v>352</v>
-      </c>
-      <c r="L31" s="179"/>
+      <c r="K31" s="215" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="192"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23854,7 +23849,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>86</v>
+        <v>462</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>8</v>
@@ -23865,10 +23860,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="216" t="s">
-        <v>361</v>
-      </c>
-      <c r="L32" s="179"/>
+      <c r="K32" s="215" t="s">
+        <v>353</v>
+      </c>
+      <c r="L32" s="192"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23883,8 +23878,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="183"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="191"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -23893,7 +23888,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>8</v>
@@ -23904,12 +23899,12 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="216" t="s">
-        <v>400</v>
-      </c>
-      <c r="L34" s="179"/>
+      <c r="K34" s="215" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" s="192"/>
       <c r="M34" s="29" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23918,7 +23913,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>8</v>
@@ -23929,10 +23924,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="216" t="s">
-        <v>397</v>
-      </c>
-      <c r="L35" s="179"/>
+      <c r="K35" s="215" t="s">
+        <v>387</v>
+      </c>
+      <c r="L35" s="192"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23941,7 +23936,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>8</v>
@@ -23953,7 +23948,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="217" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L36" s="218"/>
       <c r="M36" s="29"/>
@@ -23970,8 +23965,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="183"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="191"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23991,12 +23986,12 @@
       <c r="H38" s="28"/>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="216" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="179"/>
+      <c r="K38" s="215" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="192"/>
       <c r="M38" s="129" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24016,10 +24011,10 @@
       <c r="H39" s="28"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="216" t="s">
-        <v>362</v>
-      </c>
-      <c r="L39" s="179"/>
+      <c r="K39" s="215" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" s="192"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24039,10 +24034,10 @@
       <c r="H40" s="28"/>
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="216" t="s">
-        <v>363</v>
-      </c>
-      <c r="L40" s="179"/>
+      <c r="K40" s="215" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" s="192"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24062,10 +24057,10 @@
       <c r="H41" s="28"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="216" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" s="179"/>
+      <c r="K41" s="215" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="192"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -24085,8 +24080,8 @@
       <c r="H42" s="28"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="216" t="s">
-        <v>177</v>
+      <c r="K42" s="215" t="s">
+        <v>171</v>
       </c>
       <c r="L42" s="177"/>
       <c r="M42" s="29"/>
@@ -24108,8 +24103,8 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="216" t="s">
-        <v>364</v>
+      <c r="K43" s="215" t="s">
+        <v>356</v>
       </c>
       <c r="L43" s="177"/>
       <c r="M43" s="29"/>
@@ -24131,8 +24126,8 @@
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="216" t="s">
-        <v>365</v>
+      <c r="K44" s="215" t="s">
+        <v>357</v>
       </c>
       <c r="L44" s="177"/>
       <c r="M44" s="29"/>
@@ -24154,8 +24149,8 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="216" t="s">
-        <v>366</v>
+      <c r="K45" s="215" t="s">
+        <v>358</v>
       </c>
       <c r="L45" s="177"/>
       <c r="M45" s="29"/>
@@ -24178,7 +24173,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="212" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L46" s="177"/>
       <c r="M46" s="46"/>
@@ -24201,7 +24196,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="212" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L47" s="177"/>
       <c r="M47" s="46"/>
@@ -24212,7 +24207,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45" t="s">
@@ -24226,7 +24221,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="212" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L48" s="177"/>
       <c r="M48" s="46"/>
@@ -24237,7 +24232,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45" t="s">
@@ -24251,7 +24246,7 @@
         <v>8</v>
       </c>
       <c r="K49" s="212" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="L49" s="177"/>
       <c r="M49" s="46"/>
@@ -24274,9 +24269,9 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="212" t="s">
-        <v>367</v>
-      </c>
-      <c r="L50" s="232"/>
+        <v>359</v>
+      </c>
+      <c r="L50" s="237"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -24297,7 +24292,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="212" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L51" s="177"/>
       <c r="M51" s="46"/>
@@ -24320,7 +24315,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="212" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L52" s="177"/>
       <c r="M52" s="46"/>
@@ -24343,7 +24338,7 @@
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="212" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L53" s="177"/>
       <c r="M53" s="46"/>
@@ -24354,7 +24349,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="25"/>
@@ -24366,7 +24361,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="212" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L54" s="177"/>
       <c r="M54" s="46"/>
@@ -24389,11 +24384,11 @@
       <c r="I55" s="24"/>
       <c r="J55" s="25"/>
       <c r="K55" s="176" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L55" s="177"/>
       <c r="M55" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -24413,12 +24408,12 @@
       <c r="H56" s="28"/>
       <c r="I56" s="24"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="216" t="s">
-        <v>179</v>
+      <c r="K56" s="215" t="s">
+        <v>173</v>
       </c>
       <c r="L56" s="177"/>
       <c r="M56" s="29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -24438,18 +24433,18 @@
       <c r="H57" s="33"/>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="216" t="s">
-        <v>180</v>
+      <c r="K57" s="215" t="s">
+        <v>174</v>
       </c>
       <c r="L57" s="177"/>
       <c r="M57" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B58" s="1"/>
       <c r="C58" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -24458,231 +24453,231 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="215"/>
-      <c r="L58" s="183"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="191"/>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="188">
+      <c r="B59" s="199">
         <f>MAX(B$11:B58)+1</f>
         <v>39</v>
       </c>
-      <c r="C59" s="223" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="194" t="s">
+      <c r="C59" s="222" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="194"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="194"/>
-      <c r="H59" s="194"/>
-      <c r="I59" s="194"/>
-      <c r="J59" s="194"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
       <c r="K59" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="L59" s="179"/>
-      <c r="M59" s="185"/>
+        <v>287</v>
+      </c>
+      <c r="L59" s="192"/>
+      <c r="M59" s="205"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="189"/>
-      <c r="C60" s="224"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="189"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="189"/>
-      <c r="J60" s="189"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="223"/>
+      <c r="D60" s="200"/>
+      <c r="E60" s="200"/>
+      <c r="F60" s="200"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="200"/>
       <c r="K60" s="93" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L60" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="M60" s="206"/>
+    </row>
+    <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="200"/>
+      <c r="C61" s="223"/>
+      <c r="D61" s="200"/>
+      <c r="E61" s="200"/>
+      <c r="F61" s="200"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="L61" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="M61" s="206"/>
+    </row>
+    <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="200"/>
+      <c r="C62" s="223"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="L62" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="M62" s="206"/>
+    </row>
+    <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="200"/>
+      <c r="C63" s="223"/>
+      <c r="D63" s="200"/>
+      <c r="E63" s="200"/>
+      <c r="F63" s="200"/>
+      <c r="G63" s="200"/>
+      <c r="H63" s="200"/>
+      <c r="I63" s="200"/>
+      <c r="J63" s="200"/>
+      <c r="K63" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="M63" s="206"/>
+    </row>
+    <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="200"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="200"/>
+      <c r="E64" s="200"/>
+      <c r="F64" s="200"/>
+      <c r="G64" s="200"/>
+      <c r="H64" s="200"/>
+      <c r="I64" s="200"/>
+      <c r="J64" s="200"/>
+      <c r="K64" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="L64" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="M64" s="206"/>
+    </row>
+    <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="200"/>
+      <c r="C65" s="223"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="200"/>
+      <c r="F65" s="200"/>
+      <c r="G65" s="200"/>
+      <c r="H65" s="200"/>
+      <c r="I65" s="200"/>
+      <c r="J65" s="200"/>
+      <c r="K65" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="L65" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="M65" s="206"/>
+    </row>
+    <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="200"/>
+      <c r="C66" s="223"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="L66" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="M66" s="206"/>
+    </row>
+    <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="200"/>
+      <c r="C67" s="223"/>
+      <c r="D67" s="200"/>
+      <c r="E67" s="200"/>
+      <c r="F67" s="200"/>
+      <c r="G67" s="200"/>
+      <c r="H67" s="200"/>
+      <c r="I67" s="200"/>
+      <c r="J67" s="200"/>
+      <c r="K67" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="L67" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="M60" s="186"/>
-    </row>
-    <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="189"/>
-      <c r="C61" s="224"/>
-      <c r="D61" s="189"/>
-      <c r="E61" s="189"/>
-      <c r="F61" s="189"/>
-      <c r="G61" s="189"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="189"/>
-      <c r="J61" s="189"/>
-      <c r="K61" s="86" t="s">
+      <c r="M67" s="206"/>
+    </row>
+    <row r="68" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="200"/>
+      <c r="C68" s="223"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="200"/>
+      <c r="F68" s="200"/>
+      <c r="G68" s="200"/>
+      <c r="H68" s="200"/>
+      <c r="I68" s="200"/>
+      <c r="J68" s="200"/>
+      <c r="K68" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="L61" s="91" t="s">
+      <c r="L68" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="M68" s="206"/>
+    </row>
+    <row r="69" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="200"/>
+      <c r="C69" s="223"/>
+      <c r="D69" s="200"/>
+      <c r="E69" s="200"/>
+      <c r="F69" s="200"/>
+      <c r="G69" s="200"/>
+      <c r="H69" s="200"/>
+      <c r="I69" s="200"/>
+      <c r="J69" s="200"/>
+      <c r="K69" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="L69" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="M61" s="186"/>
-    </row>
-    <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="189"/>
-      <c r="C62" s="224"/>
-      <c r="D62" s="189"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="189"/>
-      <c r="K62" s="90" t="s">
-        <v>310</v>
-      </c>
-      <c r="L62" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="M62" s="186"/>
-    </row>
-    <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="189"/>
-      <c r="C63" s="224"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="189"/>
-      <c r="K63" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="L63" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="M63" s="186"/>
-    </row>
-    <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="189"/>
-      <c r="C64" s="224"/>
-      <c r="D64" s="189"/>
-      <c r="E64" s="189"/>
-      <c r="F64" s="189"/>
-      <c r="G64" s="189"/>
-      <c r="H64" s="189"/>
-      <c r="I64" s="189"/>
-      <c r="J64" s="189"/>
-      <c r="K64" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="L64" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="M64" s="186"/>
-    </row>
-    <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="189"/>
-      <c r="C65" s="224"/>
-      <c r="D65" s="189"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="189"/>
-      <c r="H65" s="189"/>
-      <c r="I65" s="189"/>
-      <c r="J65" s="189"/>
-      <c r="K65" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="L65" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="M65" s="186"/>
-    </row>
-    <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="189"/>
-      <c r="C66" s="224"/>
-      <c r="D66" s="189"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="189"/>
-      <c r="G66" s="189"/>
-      <c r="H66" s="189"/>
-      <c r="I66" s="189"/>
-      <c r="J66" s="189"/>
-      <c r="K66" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="L66" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="M66" s="186"/>
-    </row>
-    <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="189"/>
-      <c r="C67" s="224"/>
-      <c r="D67" s="189"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="189"/>
-      <c r="G67" s="189"/>
-      <c r="H67" s="189"/>
-      <c r="I67" s="189"/>
-      <c r="J67" s="189"/>
-      <c r="K67" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="L67" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="M67" s="186"/>
-    </row>
-    <row r="68" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="189"/>
-      <c r="C68" s="224"/>
-      <c r="D68" s="189"/>
-      <c r="E68" s="189"/>
-      <c r="F68" s="189"/>
-      <c r="G68" s="189"/>
-      <c r="H68" s="189"/>
-      <c r="I68" s="189"/>
-      <c r="J68" s="189"/>
-      <c r="K68" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="L68" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="M68" s="186"/>
-    </row>
-    <row r="69" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="189"/>
-      <c r="C69" s="224"/>
-      <c r="D69" s="189"/>
-      <c r="E69" s="189"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="189"/>
-      <c r="H69" s="189"/>
-      <c r="I69" s="189"/>
-      <c r="J69" s="189"/>
-      <c r="K69" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="L69" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="M69" s="186"/>
+      <c r="M69" s="206"/>
     </row>
     <row r="70" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="190"/>
-      <c r="C70" s="234"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="195"/>
-      <c r="F70" s="195"/>
-      <c r="G70" s="195"/>
-      <c r="H70" s="195"/>
-      <c r="I70" s="195"/>
-      <c r="J70" s="195"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="230"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
+      <c r="G70" s="204"/>
+      <c r="H70" s="204"/>
+      <c r="I70" s="204"/>
+      <c r="J70" s="204"/>
       <c r="K70" s="176"/>
-      <c r="L70" s="179"/>
-      <c r="M70" s="187"/>
+      <c r="L70" s="192"/>
+      <c r="M70" s="207"/>
     </row>
     <row r="71" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
       <c r="C71" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -24691,8 +24686,8 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="215"/>
-      <c r="L71" s="183"/>
+      <c r="K71" s="216"/>
+      <c r="L71" s="191"/>
       <c r="M71" s="8"/>
     </row>
     <row r="72" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24701,7 +24696,7 @@
         <v>40</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>8</v>
@@ -24712,10 +24707,10 @@
       <c r="H72" s="28"/>
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="216" t="s">
-        <v>424</v>
-      </c>
-      <c r="L72" s="179"/>
+      <c r="K72" s="215" t="s">
+        <v>412</v>
+      </c>
+      <c r="L72" s="192"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24724,7 +24719,7 @@
         <v>41</v>
       </c>
       <c r="C73" s="131" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D73" s="132" t="s">
         <v>8</v>
@@ -24735,12 +24730,12 @@
       <c r="H73" s="132"/>
       <c r="I73" s="132"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="216" t="s">
-        <v>420</v>
-      </c>
-      <c r="L73" s="179"/>
+      <c r="K73" s="215" t="s">
+        <v>408</v>
+      </c>
+      <c r="L73" s="192"/>
       <c r="M73" s="29" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -24749,10 +24744,10 @@
         <v>42</v>
       </c>
       <c r="C74" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -24760,8 +24755,8 @@
       <c r="H74" s="28"/>
       <c r="I74" s="69"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="216" t="s">
-        <v>371</v>
+      <c r="K74" s="215" t="s">
+        <v>363</v>
       </c>
       <c r="L74" s="177"/>
       <c r="M74" s="29"/>
@@ -24772,10 +24767,10 @@
         <v>43</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
@@ -24783,8 +24778,8 @@
       <c r="H75" s="33"/>
       <c r="I75" s="35"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="216" t="s">
-        <v>372</v>
+      <c r="K75" s="215" t="s">
+        <v>364</v>
       </c>
       <c r="L75" s="177"/>
       <c r="M75" s="29"/>
@@ -24795,7 +24790,7 @@
         <v>44</v>
       </c>
       <c r="C76" s="131" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D76" s="132" t="s">
         <v>8</v>
@@ -24806,8 +24801,8 @@
       <c r="H76" s="132"/>
       <c r="I76" s="132"/>
       <c r="J76" s="25"/>
-      <c r="K76" s="216" t="s">
-        <v>421</v>
+      <c r="K76" s="215" t="s">
+        <v>409</v>
       </c>
       <c r="L76" s="177"/>
       <c r="M76" s="29"/>
@@ -24818,7 +24813,7 @@
         <v>45</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>8</v>
@@ -24829,8 +24824,8 @@
       <c r="H77" s="33"/>
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="216" t="s">
-        <v>94</v>
+      <c r="K77" s="215" t="s">
+        <v>91</v>
       </c>
       <c r="L77" s="177"/>
       <c r="M77" s="29"/>
@@ -24847,8 +24842,8 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="215"/>
-      <c r="L78" s="183"/>
+      <c r="K78" s="216"/>
+      <c r="L78" s="191"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -24868,29 +24863,29 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
-      <c r="K79" s="216" t="s">
+      <c r="K79" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="L79" s="179"/>
+      <c r="L79" s="192"/>
       <c r="M79" s="139" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
-      <c r="C80" s="229" t="s">
+      <c r="C80" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="230"/>
-      <c r="E80" s="230"/>
-      <c r="F80" s="230"/>
-      <c r="G80" s="230"/>
-      <c r="H80" s="230"/>
-      <c r="I80" s="230"/>
-      <c r="J80" s="230"/>
-      <c r="K80" s="230"/>
-      <c r="L80" s="230"/>
-      <c r="M80" s="231"/>
+      <c r="D80" s="235"/>
+      <c r="E80" s="235"/>
+      <c r="F80" s="235"/>
+      <c r="G80" s="235"/>
+      <c r="H80" s="235"/>
+      <c r="I80" s="235"/>
+      <c r="J80" s="235"/>
+      <c r="K80" s="235"/>
+      <c r="L80" s="235"/>
+      <c r="M80" s="236"/>
     </row>
     <row r="81" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
@@ -24909,12 +24904,12 @@
       <c r="H81" s="33"/>
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="237" t="s">
-        <v>233</v>
-      </c>
-      <c r="L81" s="179"/>
+      <c r="K81" s="233" t="s">
+        <v>226</v>
+      </c>
+      <c r="L81" s="192"/>
       <c r="M81" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24923,7 +24918,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="25"/>
@@ -24934,10 +24929,10 @@
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="216" t="s">
-        <v>147</v>
-      </c>
-      <c r="L82" s="179"/>
+      <c r="K82" s="215" t="s">
+        <v>141</v>
+      </c>
+      <c r="L82" s="192"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -24946,7 +24941,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="25"/>
@@ -24957,10 +24952,10 @@
       </c>
       <c r="I83" s="47"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="216" t="s">
-        <v>181</v>
-      </c>
-      <c r="L83" s="179"/>
+      <c r="K83" s="215" t="s">
+        <v>175</v>
+      </c>
+      <c r="L83" s="192"/>
       <c r="M83" s="29"/>
     </row>
     <row r="84" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24969,7 +24964,7 @@
         <v>50</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="34"/>
@@ -24980,10 +24975,10 @@
         <v>8</v>
       </c>
       <c r="J84" s="34"/>
-      <c r="K84" s="216" t="s">
-        <v>148</v>
-      </c>
-      <c r="L84" s="179"/>
+      <c r="K84" s="215" t="s">
+        <v>142</v>
+      </c>
+      <c r="L84" s="192"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24992,7 +24987,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="34"/>
@@ -25003,10 +24998,10 @@
         <v>8</v>
       </c>
       <c r="J85" s="34"/>
-      <c r="K85" s="216" t="s">
-        <v>373</v>
-      </c>
-      <c r="L85" s="179"/>
+      <c r="K85" s="215" t="s">
+        <v>365</v>
+      </c>
+      <c r="L85" s="192"/>
       <c r="M85" s="49"/>
     </row>
     <row r="86" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25015,7 +25010,7 @@
         <v>52</v>
       </c>
       <c r="C86" s="133" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="25"/>
@@ -25026,27 +25021,27 @@
       <c r="J86" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="216" t="s">
-        <v>435</v>
-      </c>
-      <c r="L86" s="179"/>
+      <c r="K86" s="215" t="s">
+        <v>423</v>
+      </c>
+      <c r="L86" s="192"/>
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B87" s="1"/>
-      <c r="C87" s="229" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="230"/>
-      <c r="E87" s="230"/>
-      <c r="F87" s="230"/>
-      <c r="G87" s="230"/>
-      <c r="H87" s="230"/>
-      <c r="I87" s="230"/>
-      <c r="J87" s="230"/>
-      <c r="K87" s="230"/>
-      <c r="L87" s="230"/>
-      <c r="M87" s="231"/>
+      <c r="C87" s="234" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="235"/>
+      <c r="E87" s="235"/>
+      <c r="F87" s="235"/>
+      <c r="G87" s="235"/>
+      <c r="H87" s="235"/>
+      <c r="I87" s="235"/>
+      <c r="J87" s="235"/>
+      <c r="K87" s="235"/>
+      <c r="L87" s="235"/>
+      <c r="M87" s="236"/>
     </row>
     <row r="88" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1">
@@ -25054,7 +25049,7 @@
         <v>53</v>
       </c>
       <c r="C88" s="68" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>8</v>
@@ -25066,9 +25061,9 @@
       <c r="I88" s="24"/>
       <c r="J88" s="25"/>
       <c r="K88" s="212" t="s">
-        <v>426</v>
-      </c>
-      <c r="L88" s="235"/>
+        <v>414</v>
+      </c>
+      <c r="L88" s="231"/>
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25077,7 +25072,7 @@
         <v>54</v>
       </c>
       <c r="C89" s="68" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>8</v>
@@ -25089,9 +25084,9 @@
       <c r="I89" s="35"/>
       <c r="J89" s="34"/>
       <c r="K89" s="176" t="s">
-        <v>240</v>
-      </c>
-      <c r="L89" s="236"/>
+        <v>233</v>
+      </c>
+      <c r="L89" s="232"/>
       <c r="M89" s="29"/>
     </row>
     <row r="90" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25100,7 +25095,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>8</v>
@@ -25111,12 +25106,12 @@
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="34"/>
-      <c r="K90" s="237" t="s">
-        <v>422</v>
-      </c>
-      <c r="L90" s="236"/>
+      <c r="K90" s="233" t="s">
+        <v>410</v>
+      </c>
+      <c r="L90" s="232"/>
       <c r="M90" s="29" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25125,7 +25120,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>8</v>
@@ -25136,8 +25131,8 @@
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="34"/>
-      <c r="K91" s="233" t="s">
-        <v>241</v>
+      <c r="K91" s="229" t="s">
+        <v>234</v>
       </c>
       <c r="L91" s="177"/>
       <c r="M91" s="29"/>
@@ -25145,6 +25140,84 @@
   </sheetData>
   <autoFilter ref="B12:M91"/>
   <mergeCells count="102">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C87:M87"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C80:M80"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K76:L76"/>
     <mergeCell ref="M59:M70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="K91:L91"/>
@@ -25169,84 +25242,6 @@
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C87:M87"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C80:M80"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="570" windowWidth="15045" windowHeight="7440" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="4155" yWindow="570" windowWidth="15045" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="26" r:id="rId1"/>
@@ -14228,15 +14228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14285,14 +14276,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14305,9 +14374,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -14327,72 +14393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14402,11 +14402,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14414,8 +14414,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14432,17 +14435,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14457,18 +14469,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15123,7 +15123,7 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>1.7</a:t>
+            <a:t>1.8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="2800">
@@ -15444,7 +15444,9 @@
   </sheetPr>
   <dimension ref="B71:AB123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="Z59" sqref="Z59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16517,37 +16519,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -16622,32 +16624,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="167" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="168" t="s">
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="167" t="s">
+      <c r="F9" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="160" t="s">
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="157" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="75" t="s">
         <v>250</v>
       </c>
@@ -16669,14 +16671,14 @@
       <c r="L10" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="M10" s="161"/>
+      <c r="M10" s="158"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
@@ -16698,11 +16700,11 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -16724,11 +16726,11 @@
       <c r="M12" s="70"/>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
@@ -16750,11 +16752,11 @@
       <c r="M13" s="70"/>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
@@ -16774,11 +16776,11 @@
       <c r="M14" s="70"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16794,11 +16796,11 @@
       <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="159"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -16816,11 +16818,11 @@
       <c r="M16" s="70"/>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
@@ -16838,11 +16840,11 @@
       <c r="M17" s="70"/>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
@@ -16860,11 +16862,11 @@
       <c r="M18" s="70"/>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="173" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
@@ -16882,11 +16884,11 @@
       <c r="M19" s="70"/>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
@@ -16904,11 +16906,11 @@
       <c r="M20" s="70"/>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="173" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
@@ -16926,11 +16928,11 @@
       <c r="M21" s="70"/>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16948,11 +16950,11 @@
       <c r="M22" s="70"/>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="58">
         <v>777</v>
       </c>
@@ -16985,17 +16987,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -17004,6 +16995,17 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17052,17 +17054,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19" t="s">
         <v>179</v>
       </c>
@@ -17070,18 +17072,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="54" t="s">
         <v>180</v>
       </c>
@@ -17179,32 +17181,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="186" t="s">
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="181" t="s">
+      <c r="L10" s="209"/>
+      <c r="M10" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="194"/>
-      <c r="C11" s="196"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -17226,9 +17228,9 @@
       <c r="J11" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K11" s="188"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="182"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="205"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -17242,8 +17244,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="183"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17251,22 +17253,22 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
       <c r="K13" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="L13" s="192"/>
+      <c r="L13" s="179"/>
       <c r="M13" s="16" t="s">
         <v>329</v>
       </c>
@@ -17276,18 +17278,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
       <c r="K14" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17295,18 +17297,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
       <c r="K15" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="L15" s="192"/>
+      <c r="L15" s="179"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17321,8 +17323,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="183"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17345,7 +17347,7 @@
       <c r="K17" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="192"/>
+      <c r="L17" s="179"/>
       <c r="M17" s="27" t="s">
         <v>104</v>
       </c>
@@ -17362,8 +17364,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="183"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17383,95 +17385,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="208" t="s">
+      <c r="K19" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="192"/>
+      <c r="L19" s="179"/>
       <c r="M19" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="199">
+      <c r="B20" s="188">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="183" t="s">
+      <c r="D20" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L20" s="192"/>
-      <c r="M20" s="205"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="185"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="200">
+      <c r="B21" s="189">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="202"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
       <c r="K21" s="84" t="s">
         <v>288</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="M21" s="206"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="200">
+      <c r="B22" s="189">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="200"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
       <c r="K22" s="86" t="s">
         <v>193</v>
       </c>
       <c r="L22" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="M22" s="206"/>
+      <c r="M22" s="186"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="201">
+      <c r="B23" s="190">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="207"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="187"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -17519,7 +17521,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="191" t="s">
         <v>221</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -17544,7 +17546,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="179"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -17565,7 +17567,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="180"/>
+      <c r="C28" s="203"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -17689,8 +17691,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="191"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="183"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17710,10 +17712,10 @@
       <c r="H34" s="28"/>
       <c r="I34" s="73"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="209" t="s">
+      <c r="K34" s="184" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="192"/>
+      <c r="L34" s="179"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17733,10 +17735,10 @@
       <c r="H35" s="28"/>
       <c r="I35" s="73"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="209" t="s">
+      <c r="K35" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="L35" s="192"/>
+      <c r="L35" s="179"/>
       <c r="M35" s="129" t="s">
         <v>397</v>
       </c>
@@ -17758,10 +17760,10 @@
       <c r="H36" s="28"/>
       <c r="I36" s="73"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="209" t="s">
+      <c r="K36" s="184" t="s">
         <v>260</v>
       </c>
-      <c r="L36" s="192"/>
+      <c r="L36" s="179"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17781,10 +17783,10 @@
       <c r="H37" s="28"/>
       <c r="I37" s="73"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="209" t="s">
+      <c r="K37" s="184" t="s">
         <v>261</v>
       </c>
-      <c r="L37" s="192"/>
+      <c r="L37" s="179"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17807,7 +17809,7 @@
       <c r="K38" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="192"/>
+      <c r="L38" s="179"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17830,7 +17832,7 @@
       <c r="K39" s="176" t="s">
         <v>426</v>
       </c>
-      <c r="L39" s="192"/>
+      <c r="L39" s="179"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17994,10 +17996,10 @@
       </c>
       <c r="I46" s="74"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="210" t="s">
+      <c r="K46" s="180" t="s">
         <v>433</v>
       </c>
-      <c r="L46" s="211"/>
+      <c r="L46" s="181"/>
       <c r="M46" s="36"/>
     </row>
     <row r="47" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18074,6 +18076,51 @@
   </sheetData>
   <autoFilter ref="B11:M49"/>
   <mergeCells count="61">
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K19:L19"/>
@@ -18090,51 +18137,6 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18187,17 +18189,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19" t="s">
         <v>98</v>
       </c>
@@ -18205,18 +18207,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="20" t="s">
         <v>99</v>
       </c>
@@ -18330,32 +18332,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="186" t="s">
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="181" t="s">
+      <c r="L11" s="209"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -18377,9 +18379,9 @@
       <c r="J12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="182"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -18393,8 +18395,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="191"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="183"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18402,22 +18404,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="16" t="s">
         <v>329</v>
       </c>
@@ -18427,14 +18429,14 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
       <c r="K15" s="176" t="s">
         <v>117</v>
       </c>
@@ -18446,14 +18448,14 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
       <c r="K16" s="176" t="s">
         <v>152</v>
       </c>
@@ -18537,7 +18539,7 @@
       <c r="K20" s="176" t="s">
         <v>375</v>
       </c>
-      <c r="L20" s="192"/>
+      <c r="L20" s="179"/>
       <c r="M20" s="27" t="s">
         <v>460</v>
       </c>
@@ -18562,7 +18564,7 @@
       <c r="K21" s="176" t="s">
         <v>185</v>
       </c>
-      <c r="L21" s="192"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="27" t="s">
         <v>186</v>
       </c>
@@ -18587,7 +18589,7 @@
       <c r="K22" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="192"/>
+      <c r="L22" s="179"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18610,7 +18612,7 @@
       <c r="K23" s="176" t="s">
         <v>377</v>
       </c>
-      <c r="L23" s="192"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="27" t="s">
         <v>378</v>
       </c>
@@ -18620,22 +18622,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="183" t="s">
+      <c r="D24" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
       <c r="K24" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="192"/>
+      <c r="L24" s="179"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -18643,18 +18645,18 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
       <c r="K25" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="192"/>
+      <c r="L25" s="179"/>
       <c r="M25" s="27" t="s">
         <v>402</v>
       </c>
@@ -18671,8 +18673,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="191"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="183"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18756,8 +18758,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="191"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="183"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18777,10 +18779,10 @@
       <c r="H31" s="28"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="209" t="s">
+      <c r="K31" s="184" t="s">
         <v>270</v>
       </c>
-      <c r="L31" s="192"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="129" t="s">
         <v>403</v>
       </c>
@@ -18802,210 +18804,210 @@
       <c r="H32" s="28"/>
       <c r="I32" s="77"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="209" t="s">
+      <c r="K32" s="184" t="s">
         <v>311</v>
       </c>
-      <c r="L32" s="192"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="199">
+      <c r="B33" s="188">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="191" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="183" t="s">
+      <c r="D33" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
       <c r="K33" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L33" s="192"/>
-      <c r="M33" s="205"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="185"/>
     </row>
     <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="200"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
       <c r="K34" s="84" t="s">
         <v>290</v>
       </c>
       <c r="L34" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="M34" s="206"/>
+      <c r="M34" s="186"/>
     </row>
     <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="200"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="200"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
       <c r="K35" s="86" t="s">
         <v>291</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="M35" s="206"/>
+      <c r="M35" s="186"/>
     </row>
     <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="200"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="200"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
       <c r="K36" s="86" t="s">
         <v>292</v>
       </c>
       <c r="L36" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="M36" s="206"/>
+      <c r="M36" s="186"/>
     </row>
     <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="200"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="189"/>
       <c r="K37" s="86" t="s">
         <v>293</v>
       </c>
       <c r="L37" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="M37" s="206"/>
+      <c r="M37" s="186"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="200"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="200"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
       <c r="K38" s="86" t="s">
         <v>294</v>
       </c>
       <c r="L38" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="M38" s="206"/>
+      <c r="M38" s="186"/>
     </row>
     <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="200"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
       <c r="K39" s="86" t="s">
         <v>295</v>
       </c>
       <c r="L39" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="M39" s="206"/>
+      <c r="M39" s="186"/>
     </row>
     <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="200"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
       <c r="K40" s="86" t="s">
         <v>296</v>
       </c>
       <c r="L40" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="M40" s="206"/>
+      <c r="M40" s="186"/>
     </row>
     <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="200"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
       <c r="K41" s="86" t="s">
         <v>297</v>
       </c>
       <c r="L41" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="M41" s="206"/>
+      <c r="M41" s="186"/>
     </row>
     <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="200"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
       <c r="K42" s="86" t="s">
         <v>298</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="M42" s="206"/>
+      <c r="M42" s="186"/>
     </row>
     <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="201"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
       <c r="K43" s="176"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="207"/>
+      <c r="L43" s="179"/>
+      <c r="M43" s="187"/>
     </row>
     <row r="44" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -19420,8 +19422,8 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="190"/>
-      <c r="L61" s="191"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="183"/>
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19444,7 +19446,7 @@
       <c r="K62" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="L62" s="192"/>
+      <c r="L62" s="179"/>
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19467,7 +19469,7 @@
       <c r="K63" s="176" t="s">
         <v>447</v>
       </c>
-      <c r="L63" s="192"/>
+      <c r="L63" s="179"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19490,7 +19492,7 @@
       <c r="K64" s="176" t="s">
         <v>448</v>
       </c>
-      <c r="L64" s="192"/>
+      <c r="L64" s="179"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19515,7 +19517,7 @@
       <c r="K65" s="176" t="s">
         <v>449</v>
       </c>
-      <c r="L65" s="192"/>
+      <c r="L65" s="179"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19540,7 +19542,7 @@
       <c r="K66" s="176" t="s">
         <v>450</v>
       </c>
-      <c r="L66" s="192"/>
+      <c r="L66" s="179"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19563,7 +19565,7 @@
       <c r="K67" s="176" t="s">
         <v>451</v>
       </c>
-      <c r="L67" s="192"/>
+      <c r="L67" s="179"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19586,7 +19588,7 @@
       <c r="K68" s="176" t="s">
         <v>452</v>
       </c>
-      <c r="L68" s="192"/>
+      <c r="L68" s="179"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -19741,8 +19743,8 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="191"/>
+      <c r="K75" s="182"/>
+      <c r="L75" s="183"/>
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19765,7 +19767,7 @@
       <c r="K76" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="L76" s="192"/>
+      <c r="L76" s="179"/>
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19780,8 +19782,8 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="191"/>
+      <c r="K77" s="182"/>
+      <c r="L77" s="183"/>
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19804,7 +19806,7 @@
       <c r="K78" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="L78" s="192"/>
+      <c r="L78" s="179"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19819,8 +19821,8 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="191"/>
+      <c r="K79" s="182"/>
+      <c r="L79" s="183"/>
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -19843,7 +19845,7 @@
       <c r="K80" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="L80" s="192"/>
+      <c r="L80" s="179"/>
       <c r="M80" s="27" t="s">
         <v>107</v>
       </c>
@@ -19851,80 +19853,6 @@
   </sheetData>
   <autoFilter ref="B12:M80"/>
   <mergeCells count="90">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M33:M43"/>
@@ -19941,6 +19869,80 @@
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -19997,17 +19999,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19" t="s">
         <v>98</v>
       </c>
@@ -20015,18 +20017,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="20" t="s">
         <v>99</v>
       </c>
@@ -20140,32 +20142,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="186" t="s">
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="181" t="s">
+      <c r="L11" s="209"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -20187,9 +20189,9 @@
       <c r="J12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="182"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -20203,8 +20205,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="191"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="183"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20212,22 +20214,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183" t="s">
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="27" t="s">
         <v>330</v>
       </c>
@@ -20237,18 +20239,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="215" t="s">
+      <c r="C15" s="202"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="192"/>
+      <c r="L15" s="179"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -20256,18 +20258,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="215" t="s">
+      <c r="C16" s="203"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="192"/>
+      <c r="L16" s="179"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20282,8 +20284,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="191"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="183"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20303,10 +20305,10 @@
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="215" t="s">
+      <c r="K18" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="192"/>
+      <c r="L18" s="179"/>
       <c r="M18" s="27" t="s">
         <v>104</v>
       </c>
@@ -20323,8 +20325,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="191"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="183"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20344,10 +20346,10 @@
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="215" t="s">
+      <c r="K20" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="192"/>
+      <c r="L20" s="179"/>
       <c r="M20" s="27" t="s">
         <v>108</v>
       </c>
@@ -20369,10 +20371,10 @@
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="215" t="s">
+      <c r="K21" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="192"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20387,8 +20389,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="191"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="183"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -20408,10 +20410,10 @@
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="215" t="s">
+      <c r="K23" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="L23" s="192"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="27" t="s">
         <v>463</v>
       </c>
@@ -20433,10 +20435,10 @@
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="215" t="s">
+      <c r="K24" s="216" t="s">
         <v>185</v>
       </c>
-      <c r="L24" s="192"/>
+      <c r="L24" s="179"/>
       <c r="M24" s="27" t="s">
         <v>186</v>
       </c>
@@ -20458,10 +20460,10 @@
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="192"/>
+      <c r="L25" s="179"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20484,7 +20486,7 @@
       <c r="K26" s="176" t="s">
         <v>377</v>
       </c>
-      <c r="L26" s="192"/>
+      <c r="L26" s="179"/>
       <c r="M26" s="27" t="s">
         <v>378</v>
       </c>
@@ -20494,22 +20496,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183" t="s">
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="215" t="s">
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="192"/>
+      <c r="L27" s="179"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -20517,18 +20519,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="215" t="s">
+      <c r="C28" s="202"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="192"/>
+      <c r="L28" s="179"/>
       <c r="M28" s="27" t="s">
         <v>402</v>
       </c>
@@ -20545,8 +20547,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="191"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="183"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20566,10 +20568,10 @@
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="215" t="s">
+      <c r="K30" s="216" t="s">
         <v>345</v>
       </c>
-      <c r="L30" s="192"/>
+      <c r="L30" s="179"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20589,10 +20591,10 @@
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="215" t="s">
+      <c r="K31" s="216" t="s">
         <v>344</v>
       </c>
-      <c r="L31" s="192"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20612,10 +20614,10 @@
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="215" t="s">
+      <c r="K32" s="216" t="s">
         <v>343</v>
       </c>
-      <c r="L32" s="192"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20630,8 +20632,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="191"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="183"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20651,10 +20653,10 @@
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="215" t="s">
+      <c r="K34" s="216" t="s">
         <v>390</v>
       </c>
-      <c r="L34" s="192"/>
+      <c r="L34" s="179"/>
       <c r="M34" s="29" t="s">
         <v>385</v>
       </c>
@@ -20676,10 +20678,10 @@
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="215" t="s">
+      <c r="K35" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="L35" s="192"/>
+      <c r="L35" s="179"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20717,8 +20719,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="216"/>
-      <c r="L37" s="191"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="183"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -20738,10 +20740,10 @@
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="215" t="s">
+      <c r="K38" s="216" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="192"/>
+      <c r="L38" s="179"/>
       <c r="M38" s="129" t="s">
         <v>403</v>
       </c>
@@ -20763,84 +20765,84 @@
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="215" t="s">
+      <c r="K39" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="192"/>
+      <c r="L39" s="179"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="199">
+      <c r="B40" s="188">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="191" t="s">
         <v>281</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183" t="s">
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194" t="s">
         <v>187</v>
       </c>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
       <c r="K40" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L40" s="192"/>
-      <c r="M40" s="205"/>
+      <c r="L40" s="179"/>
+      <c r="M40" s="185"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="200"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
       <c r="K41" s="84" t="s">
         <v>282</v>
       </c>
       <c r="L41" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="M41" s="206"/>
+      <c r="M41" s="186"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="200"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
       <c r="K42" s="86" t="s">
         <v>300</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="M42" s="206"/>
+      <c r="M42" s="186"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="201"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="207"/>
+      <c r="M43" s="187"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20859,10 +20861,10 @@
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="215" t="s">
+      <c r="K44" s="216" t="s">
         <v>346</v>
       </c>
-      <c r="L44" s="192"/>
+      <c r="L44" s="179"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20882,10 +20884,10 @@
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="215" t="s">
+      <c r="K45" s="216" t="s">
         <v>347</v>
       </c>
-      <c r="L45" s="192"/>
+      <c r="L45" s="179"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20905,10 +20907,10 @@
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="215" t="s">
+      <c r="K46" s="216" t="s">
         <v>348</v>
       </c>
-      <c r="L46" s="192"/>
+      <c r="L46" s="179"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20928,10 +20930,10 @@
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="215" t="s">
+      <c r="K47" s="216" t="s">
         <v>349</v>
       </c>
-      <c r="L47" s="192"/>
+      <c r="L47" s="179"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20951,7 +20953,7 @@
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="215" t="s">
+      <c r="K48" s="216" t="s">
         <v>350</v>
       </c>
       <c r="L48" s="177"/>
@@ -20969,8 +20971,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="216"/>
-      <c r="L49" s="191"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="183"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20990,10 +20992,10 @@
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="215" t="s">
+      <c r="K50" s="216" t="s">
         <v>406</v>
       </c>
-      <c r="L50" s="192"/>
+      <c r="L50" s="179"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21013,10 +21015,10 @@
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="215" t="s">
+      <c r="K51" s="216" t="s">
         <v>407</v>
       </c>
-      <c r="L51" s="192"/>
+      <c r="L51" s="179"/>
       <c r="M51" s="29" t="s">
         <v>411</v>
       </c>
@@ -21038,7 +21040,7 @@
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="215" t="s">
+      <c r="K52" s="216" t="s">
         <v>371</v>
       </c>
       <c r="L52" s="177"/>
@@ -21061,7 +21063,7 @@
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="215" t="s">
+      <c r="K53" s="216" t="s">
         <v>372</v>
       </c>
       <c r="L53" s="177"/>
@@ -21084,7 +21086,7 @@
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="215" t="s">
+      <c r="K54" s="216" t="s">
         <v>405</v>
       </c>
       <c r="L54" s="177"/>
@@ -21107,7 +21109,7 @@
       </c>
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="215" t="s">
+      <c r="K55" s="216" t="s">
         <v>91</v>
       </c>
       <c r="L55" s="177"/>
@@ -21125,8 +21127,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="191"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="183"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -21146,10 +21148,10 @@
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="215" t="s">
+      <c r="K57" s="216" t="s">
         <v>445</v>
       </c>
-      <c r="L57" s="192"/>
+      <c r="L57" s="179"/>
       <c r="M57" s="27" t="s">
         <v>446</v>
       </c>
@@ -21171,10 +21173,10 @@
       </c>
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="215" t="s">
+      <c r="K58" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="L58" s="192"/>
+      <c r="L58" s="179"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21194,10 +21196,10 @@
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="215" t="s">
+      <c r="K59" s="216" t="s">
         <v>351</v>
       </c>
-      <c r="L59" s="192"/>
+      <c r="L59" s="179"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -21217,10 +21219,10 @@
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="215" t="s">
+      <c r="K60" s="216" t="s">
         <v>352</v>
       </c>
-      <c r="L60" s="192"/>
+      <c r="L60" s="179"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -21240,7 +21242,7 @@
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="215" t="s">
+      <c r="K61" s="216" t="s">
         <v>381</v>
       </c>
       <c r="L61" s="177"/>
@@ -21265,7 +21267,7 @@
       </c>
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="215" t="s">
+      <c r="K62" s="216" t="s">
         <v>162</v>
       </c>
       <c r="L62" s="177"/>
@@ -21276,25 +21278,51 @@
   </sheetData>
   <autoFilter ref="B12:M62"/>
   <mergeCells count="80">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
@@ -21311,51 +21339,25 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -21406,34 +21408,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -21561,32 +21563,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="195" t="s">
+      <c r="C12" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="186" t="s">
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="225"/>
-      <c r="M12" s="181" t="s">
+      <c r="L12" s="219"/>
+      <c r="M12" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="194"/>
-      <c r="C13" s="196"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -21608,9 +21610,9 @@
       <c r="J13" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K13" s="188"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="182"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="205"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -21624,8 +21626,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="220"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="221"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21645,84 +21647,84 @@
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="215" t="s">
+      <c r="K15" s="216" t="s">
         <v>262</v>
       </c>
       <c r="L15" s="177"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="199">
+      <c r="B16" s="188">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="222" t="s">
+      <c r="C16" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
       <c r="K16" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L16" s="192"/>
-      <c r="M16" s="205"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="185"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="200"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
       <c r="K17" s="88" t="s">
         <v>283</v>
       </c>
       <c r="L17" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="M17" s="206"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="200"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
       <c r="K18" s="86" t="s">
         <v>273</v>
       </c>
       <c r="L18" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="M18" s="206"/>
+      <c r="M18" s="186"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="221"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
       <c r="K19" s="176"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="207"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="187"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -21757,7 +21759,7 @@
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="215" t="s">
+      <c r="K21" s="216" t="s">
         <v>238</v>
       </c>
       <c r="L21" s="177"/>
@@ -21780,7 +21782,7 @@
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="215" t="s">
+      <c r="K22" s="216" t="s">
         <v>366</v>
       </c>
       <c r="L22" s="177"/>
@@ -21789,13 +21791,11 @@
   </sheetData>
   <autoFilter ref="B13:M22"/>
   <mergeCells count="23">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -21807,11 +21807,13 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21860,17 +21862,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19" t="s">
         <v>182</v>
       </c>
@@ -21878,18 +21880,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="20" t="s">
         <v>99</v>
       </c>
@@ -22005,32 +22007,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="186" t="s">
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="181" t="s">
+      <c r="L11" s="209"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22052,9 +22054,9 @@
       <c r="J12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="182"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -22068,8 +22070,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="191"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="183"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22077,22 +22079,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183" t="s">
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="183"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="27" t="s">
         <v>330</v>
       </c>
@@ -22102,18 +22104,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="215" t="s">
+      <c r="C15" s="202"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="L15" s="192"/>
+      <c r="L15" s="179"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22121,18 +22123,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="215" t="s">
+      <c r="C16" s="203"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="216" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="192"/>
+      <c r="L16" s="179"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22147,8 +22149,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="191"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="183"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22168,10 +22170,10 @@
         <v>8</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="215" t="s">
+      <c r="K18" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="192"/>
+      <c r="L18" s="179"/>
       <c r="M18" s="27" t="s">
         <v>104</v>
       </c>
@@ -22188,8 +22190,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="191"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="183"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -22209,10 +22211,10 @@
         <v>8</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="215" t="s">
+      <c r="K20" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="L20" s="192"/>
+      <c r="L20" s="179"/>
       <c r="M20" s="27" t="s">
         <v>466</v>
       </c>
@@ -22234,10 +22236,10 @@
         <v>8</v>
       </c>
       <c r="J21" s="25"/>
-      <c r="K21" s="215" t="s">
+      <c r="K21" s="216" t="s">
         <v>185</v>
       </c>
-      <c r="L21" s="192"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="27" t="s">
         <v>186</v>
       </c>
@@ -22259,7 +22261,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="25"/>
-      <c r="K22" s="215" t="s">
+      <c r="K22" s="216" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="177"/>
@@ -22285,7 +22287,7 @@
       <c r="K23" s="176" t="s">
         <v>377</v>
       </c>
-      <c r="L23" s="192"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="27" t="s">
         <v>378</v>
       </c>
@@ -22295,19 +22297,19 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183" t="s">
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="215" t="s">
+      <c r="J24" s="194"/>
+      <c r="K24" s="216" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="177"/>
@@ -22318,15 +22320,15 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="215" t="s">
+      <c r="C25" s="202"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="216" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="177"/>
@@ -22346,8 +22348,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="191"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="183"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22367,7 +22369,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="25"/>
-      <c r="K27" s="215" t="s">
+      <c r="K27" s="216" t="s">
         <v>345</v>
       </c>
       <c r="L27" s="177"/>
@@ -22390,7 +22392,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="215" t="s">
+      <c r="K28" s="216" t="s">
         <v>344</v>
       </c>
       <c r="L28" s="177"/>
@@ -22413,7 +22415,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="215" t="s">
+      <c r="K29" s="216" t="s">
         <v>343</v>
       </c>
       <c r="L29" s="177"/>
@@ -22431,8 +22433,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="191"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="183"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22452,10 +22454,10 @@
         <v>8</v>
       </c>
       <c r="J31" s="25"/>
-      <c r="K31" s="215" t="s">
+      <c r="K31" s="216" t="s">
         <v>161</v>
       </c>
-      <c r="L31" s="192"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="129" t="s">
         <v>403</v>
       </c>
@@ -22477,84 +22479,84 @@
         <v>8</v>
       </c>
       <c r="J32" s="34"/>
-      <c r="K32" s="215" t="s">
+      <c r="K32" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="192"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="199">
+      <c r="B33" s="188">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="191" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183" t="s">
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="183"/>
+      <c r="J33" s="194"/>
       <c r="K33" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L33" s="192"/>
-      <c r="M33" s="205"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="185"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="227"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
       <c r="K34" s="84" t="s">
         <v>284</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="M34" s="206"/>
+      <c r="M34" s="186"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="227"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="200"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
       <c r="K35" s="86" t="s">
         <v>301</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="M35" s="206"/>
+      <c r="M35" s="186"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="228"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
       <c r="K36" s="176"/>
       <c r="L36" s="177"/>
-      <c r="M36" s="207"/>
+      <c r="M36" s="187"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -22573,7 +22575,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="25"/>
-      <c r="K37" s="215" t="s">
+      <c r="K37" s="216" t="s">
         <v>346</v>
       </c>
       <c r="L37" s="177"/>
@@ -22596,7 +22598,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="25"/>
-      <c r="K38" s="215" t="s">
+      <c r="K38" s="216" t="s">
         <v>347</v>
       </c>
       <c r="L38" s="177"/>
@@ -22619,7 +22621,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="25"/>
-      <c r="K39" s="215" t="s">
+      <c r="K39" s="216" t="s">
         <v>348</v>
       </c>
       <c r="L39" s="177"/>
@@ -22642,7 +22644,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="25"/>
-      <c r="K40" s="215" t="s">
+      <c r="K40" s="216" t="s">
         <v>349</v>
       </c>
       <c r="L40" s="177"/>
@@ -22665,7 +22667,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="25"/>
-      <c r="K41" s="215" t="s">
+      <c r="K41" s="216" t="s">
         <v>350</v>
       </c>
       <c r="L41" s="177"/>
@@ -22752,8 +22754,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="216"/>
-      <c r="L45" s="191"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="183"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22773,10 +22775,10 @@
         <v>8</v>
       </c>
       <c r="J46" s="25"/>
-      <c r="K46" s="215" t="s">
+      <c r="K46" s="216" t="s">
         <v>313</v>
       </c>
-      <c r="L46" s="192"/>
+      <c r="L46" s="179"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22791,8 +22793,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="216"/>
-      <c r="L47" s="191"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="183"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22812,45 +22814,36 @@
         <v>8</v>
       </c>
       <c r="J48" s="34"/>
-      <c r="K48" s="215" t="s">
+      <c r="K48" s="216" t="s">
         <v>237</v>
       </c>
-      <c r="L48" s="192"/>
+      <c r="L48" s="179"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48"/>
   <mergeCells count="67">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="K13:L13"/>
@@ -22867,27 +22860,36 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -22941,34 +22943,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -23072,32 +23074,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="186" t="s">
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="181" t="s">
+      <c r="L11" s="209"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -23119,9 +23121,9 @@
       <c r="J12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="182"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
@@ -23135,8 +23137,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="135"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="191"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="183"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23156,10 +23158,10 @@
       <c r="J14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="215" t="s">
+      <c r="K14" s="216" t="s">
         <v>419</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23179,7 +23181,7 @@
       <c r="J15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="215" t="s">
+      <c r="K15" s="216" t="s">
         <v>421</v>
       </c>
       <c r="L15" s="177"/>
@@ -23215,7 +23217,7 @@
   </sheetPr>
   <dimension ref="B1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K32" sqref="K32:L32"/>
     </sheetView>
@@ -23245,17 +23247,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="19" t="s">
         <v>98</v>
       </c>
@@ -23263,18 +23265,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="164" t="str">
+      <c r="B3" s="161" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="55" t="s">
         <v>228</v>
       </c>
@@ -23388,32 +23390,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="186" t="s">
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="181" t="s">
+      <c r="L11" s="209"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -23435,9 +23437,9 @@
       <c r="J12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="182"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -23451,8 +23453,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="191"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="183"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -23460,22 +23462,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="L14" s="192"/>
+      <c r="L14" s="179"/>
       <c r="M14" s="27" t="s">
         <v>330</v>
       </c>
@@ -23485,18 +23487,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="215" t="s">
+      <c r="C15" s="202"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="192"/>
+      <c r="L15" s="179"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23504,18 +23506,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="215" t="s">
+      <c r="C16" s="203"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="192"/>
+      <c r="L16" s="179"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23530,8 +23532,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="191"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="183"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23551,10 +23553,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="215" t="s">
+      <c r="K18" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="192"/>
+      <c r="L18" s="179"/>
       <c r="M18" s="27" t="s">
         <v>104</v>
       </c>
@@ -23571,8 +23573,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="191"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="183"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23592,10 +23594,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="215" t="s">
+      <c r="K20" s="216" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="192"/>
+      <c r="L20" s="179"/>
       <c r="M20" s="27" t="s">
         <v>94</v>
       </c>
@@ -23617,10 +23619,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="215" t="s">
+      <c r="K21" s="216" t="s">
         <v>169</v>
       </c>
-      <c r="L21" s="192"/>
+      <c r="L21" s="179"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23635,8 +23637,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="191"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="183"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -23656,10 +23658,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="215" t="s">
+      <c r="K23" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="L23" s="192"/>
+      <c r="L23" s="179"/>
       <c r="M23" s="27" t="s">
         <v>467</v>
       </c>
@@ -23681,7 +23683,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="215" t="s">
+      <c r="K24" s="216" t="s">
         <v>185</v>
       </c>
       <c r="L24" s="177"/>
@@ -23706,7 +23708,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="216" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="177"/>
@@ -23732,7 +23734,7 @@
       <c r="K26" s="176" t="s">
         <v>377</v>
       </c>
-      <c r="L26" s="192"/>
+      <c r="L26" s="179"/>
       <c r="M26" s="27" t="s">
         <v>378</v>
       </c>
@@ -23742,19 +23744,19 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="215" t="s">
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="216" t="s">
         <v>111</v>
       </c>
       <c r="L27" s="177"/>
@@ -23765,15 +23767,15 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="215" t="s">
+      <c r="C28" s="202"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="216" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="177"/>
@@ -23793,8 +23795,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="191"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="183"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23814,10 +23816,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="215" t="s">
+      <c r="K30" s="216" t="s">
         <v>345</v>
       </c>
-      <c r="L30" s="192"/>
+      <c r="L30" s="179"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23837,10 +23839,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="215" t="s">
+      <c r="K31" s="216" t="s">
         <v>344</v>
       </c>
-      <c r="L31" s="192"/>
+      <c r="L31" s="179"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23860,10 +23862,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="215" t="s">
+      <c r="K32" s="216" t="s">
         <v>353</v>
       </c>
-      <c r="L32" s="192"/>
+      <c r="L32" s="179"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23878,8 +23880,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="191"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="183"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -23899,10 +23901,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="215" t="s">
+      <c r="K34" s="216" t="s">
         <v>390</v>
       </c>
-      <c r="L34" s="192"/>
+      <c r="L34" s="179"/>
       <c r="M34" s="29" t="s">
         <v>385</v>
       </c>
@@ -23924,10 +23926,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="215" t="s">
+      <c r="K35" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="L35" s="192"/>
+      <c r="L35" s="179"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23965,8 +23967,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="216"/>
-      <c r="L37" s="191"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="183"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23986,10 +23988,10 @@
       <c r="H38" s="28"/>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="215" t="s">
+      <c r="K38" s="216" t="s">
         <v>159</v>
       </c>
-      <c r="L38" s="192"/>
+      <c r="L38" s="179"/>
       <c r="M38" s="129" t="s">
         <v>403</v>
       </c>
@@ -24011,10 +24013,10 @@
       <c r="H39" s="28"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="215" t="s">
+      <c r="K39" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="L39" s="192"/>
+      <c r="L39" s="179"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24034,10 +24036,10 @@
       <c r="H40" s="28"/>
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="215" t="s">
+      <c r="K40" s="216" t="s">
         <v>355</v>
       </c>
-      <c r="L40" s="192"/>
+      <c r="L40" s="179"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -24057,10 +24059,10 @@
       <c r="H41" s="28"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="215" t="s">
+      <c r="K41" s="216" t="s">
         <v>170</v>
       </c>
-      <c r="L41" s="192"/>
+      <c r="L41" s="179"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -24080,7 +24082,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="215" t="s">
+      <c r="K42" s="216" t="s">
         <v>171</v>
       </c>
       <c r="L42" s="177"/>
@@ -24103,7 +24105,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="215" t="s">
+      <c r="K43" s="216" t="s">
         <v>356</v>
       </c>
       <c r="L43" s="177"/>
@@ -24126,7 +24128,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="215" t="s">
+      <c r="K44" s="216" t="s">
         <v>357</v>
       </c>
       <c r="L44" s="177"/>
@@ -24149,7 +24151,7 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="215" t="s">
+      <c r="K45" s="216" t="s">
         <v>358</v>
       </c>
       <c r="L45" s="177"/>
@@ -24271,7 +24273,7 @@
       <c r="K50" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="L50" s="237"/>
+      <c r="L50" s="232"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -24408,7 +24410,7 @@
       <c r="H56" s="28"/>
       <c r="I56" s="24"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="215" t="s">
+      <c r="K56" s="216" t="s">
         <v>173</v>
       </c>
       <c r="L56" s="177"/>
@@ -24433,7 +24435,7 @@
       <c r="H57" s="33"/>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="215" t="s">
+      <c r="K57" s="216" t="s">
         <v>174</v>
       </c>
       <c r="L57" s="177"/>
@@ -24453,226 +24455,226 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="191"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="183"/>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="199">
+      <c r="B59" s="188">
         <f>MAX(B$11:B58)+1</f>
         <v>39</v>
       </c>
-      <c r="C59" s="222" t="s">
+      <c r="C59" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="183" t="s">
+      <c r="D59" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="183"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
       <c r="K59" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="L59" s="192"/>
-      <c r="M59" s="205"/>
+      <c r="L59" s="179"/>
+      <c r="M59" s="185"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="200"/>
-      <c r="C60" s="223"/>
-      <c r="D60" s="200"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
+      <c r="B60" s="189"/>
+      <c r="C60" s="224"/>
+      <c r="D60" s="189"/>
+      <c r="E60" s="189"/>
+      <c r="F60" s="189"/>
+      <c r="G60" s="189"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="189"/>
+      <c r="J60" s="189"/>
       <c r="K60" s="93" t="s">
         <v>285</v>
       </c>
       <c r="L60" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="M60" s="206"/>
+      <c r="M60" s="186"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="200"/>
-      <c r="C61" s="223"/>
-      <c r="D61" s="200"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="200"/>
+      <c r="B61" s="189"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="189"/>
+      <c r="F61" s="189"/>
+      <c r="G61" s="189"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
+      <c r="J61" s="189"/>
       <c r="K61" s="86" t="s">
         <v>302</v>
       </c>
       <c r="L61" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="M61" s="206"/>
+      <c r="M61" s="186"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="200"/>
-      <c r="C62" s="223"/>
-      <c r="D62" s="200"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="200"/>
+      <c r="B62" s="189"/>
+      <c r="C62" s="224"/>
+      <c r="D62" s="189"/>
+      <c r="E62" s="189"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="189"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="189"/>
       <c r="K62" s="90" t="s">
         <v>303</v>
       </c>
       <c r="L62" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="M62" s="206"/>
+      <c r="M62" s="186"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="200"/>
-      <c r="C63" s="223"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="200"/>
-      <c r="G63" s="200"/>
-      <c r="H63" s="200"/>
-      <c r="I63" s="200"/>
-      <c r="J63" s="200"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="224"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="189"/>
       <c r="K63" s="86" t="s">
         <v>304</v>
       </c>
       <c r="L63" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="M63" s="206"/>
+      <c r="M63" s="186"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="200"/>
-      <c r="C64" s="223"/>
-      <c r="D64" s="200"/>
-      <c r="E64" s="200"/>
-      <c r="F64" s="200"/>
-      <c r="G64" s="200"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="200"/>
-      <c r="J64" s="200"/>
+      <c r="B64" s="189"/>
+      <c r="C64" s="224"/>
+      <c r="D64" s="189"/>
+      <c r="E64" s="189"/>
+      <c r="F64" s="189"/>
+      <c r="G64" s="189"/>
+      <c r="H64" s="189"/>
+      <c r="I64" s="189"/>
+      <c r="J64" s="189"/>
       <c r="K64" s="86" t="s">
         <v>305</v>
       </c>
       <c r="L64" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="M64" s="206"/>
+      <c r="M64" s="186"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="200"/>
-      <c r="C65" s="223"/>
-      <c r="D65" s="200"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="200"/>
-      <c r="G65" s="200"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="200"/>
+      <c r="B65" s="189"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="189"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
+      <c r="J65" s="189"/>
       <c r="K65" s="86" t="s">
         <v>306</v>
       </c>
       <c r="L65" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="M65" s="206"/>
+      <c r="M65" s="186"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="200"/>
-      <c r="C66" s="223"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="200"/>
+      <c r="B66" s="189"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="189"/>
+      <c r="F66" s="189"/>
+      <c r="G66" s="189"/>
+      <c r="H66" s="189"/>
+      <c r="I66" s="189"/>
+      <c r="J66" s="189"/>
       <c r="K66" s="86" t="s">
         <v>307</v>
       </c>
       <c r="L66" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="M66" s="206"/>
+      <c r="M66" s="186"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="200"/>
-      <c r="C67" s="223"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="200"/>
-      <c r="G67" s="200"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="200"/>
-      <c r="J67" s="200"/>
+      <c r="B67" s="189"/>
+      <c r="C67" s="224"/>
+      <c r="D67" s="189"/>
+      <c r="E67" s="189"/>
+      <c r="F67" s="189"/>
+      <c r="G67" s="189"/>
+      <c r="H67" s="189"/>
+      <c r="I67" s="189"/>
+      <c r="J67" s="189"/>
       <c r="K67" s="86" t="s">
         <v>308</v>
       </c>
       <c r="L67" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="M67" s="206"/>
+      <c r="M67" s="186"/>
     </row>
     <row r="68" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="200"/>
-      <c r="C68" s="223"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="200"/>
-      <c r="F68" s="200"/>
-      <c r="G68" s="200"/>
-      <c r="H68" s="200"/>
-      <c r="I68" s="200"/>
-      <c r="J68" s="200"/>
+      <c r="B68" s="189"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="189"/>
+      <c r="E68" s="189"/>
+      <c r="F68" s="189"/>
+      <c r="G68" s="189"/>
+      <c r="H68" s="189"/>
+      <c r="I68" s="189"/>
+      <c r="J68" s="189"/>
       <c r="K68" s="86" t="s">
         <v>309</v>
       </c>
       <c r="L68" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="M68" s="206"/>
+      <c r="M68" s="186"/>
     </row>
     <row r="69" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="200"/>
-      <c r="C69" s="223"/>
-      <c r="D69" s="200"/>
-      <c r="E69" s="200"/>
-      <c r="F69" s="200"/>
-      <c r="G69" s="200"/>
-      <c r="H69" s="200"/>
-      <c r="I69" s="200"/>
-      <c r="J69" s="200"/>
+      <c r="B69" s="189"/>
+      <c r="C69" s="224"/>
+      <c r="D69" s="189"/>
+      <c r="E69" s="189"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="189"/>
+      <c r="H69" s="189"/>
+      <c r="I69" s="189"/>
+      <c r="J69" s="189"/>
       <c r="K69" s="86" t="s">
         <v>310</v>
       </c>
       <c r="L69" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="M69" s="206"/>
+      <c r="M69" s="186"/>
     </row>
     <row r="70" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="201"/>
-      <c r="C70" s="230"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
-      <c r="G70" s="204"/>
-      <c r="H70" s="204"/>
-      <c r="I70" s="204"/>
-      <c r="J70" s="204"/>
+      <c r="B70" s="190"/>
+      <c r="C70" s="234"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="195"/>
+      <c r="G70" s="195"/>
+      <c r="H70" s="195"/>
+      <c r="I70" s="195"/>
+      <c r="J70" s="195"/>
       <c r="K70" s="176"/>
-      <c r="L70" s="192"/>
-      <c r="M70" s="207"/>
+      <c r="L70" s="179"/>
+      <c r="M70" s="187"/>
     </row>
     <row r="71" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
@@ -24686,8 +24688,8 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="216"/>
-      <c r="L71" s="191"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="183"/>
       <c r="M71" s="8"/>
     </row>
     <row r="72" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24707,10 +24709,10 @@
       <c r="H72" s="28"/>
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="215" t="s">
+      <c r="K72" s="216" t="s">
         <v>412</v>
       </c>
-      <c r="L72" s="192"/>
+      <c r="L72" s="179"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24730,10 +24732,10 @@
       <c r="H73" s="132"/>
       <c r="I73" s="132"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="215" t="s">
+      <c r="K73" s="216" t="s">
         <v>408</v>
       </c>
-      <c r="L73" s="192"/>
+      <c r="L73" s="179"/>
       <c r="M73" s="29" t="s">
         <v>411</v>
       </c>
@@ -24755,7 +24757,7 @@
       <c r="H74" s="28"/>
       <c r="I74" s="69"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="215" t="s">
+      <c r="K74" s="216" t="s">
         <v>363</v>
       </c>
       <c r="L74" s="177"/>
@@ -24778,7 +24780,7 @@
       <c r="H75" s="33"/>
       <c r="I75" s="35"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="215" t="s">
+      <c r="K75" s="216" t="s">
         <v>364</v>
       </c>
       <c r="L75" s="177"/>
@@ -24801,7 +24803,7 @@
       <c r="H76" s="132"/>
       <c r="I76" s="132"/>
       <c r="J76" s="25"/>
-      <c r="K76" s="215" t="s">
+      <c r="K76" s="216" t="s">
         <v>409</v>
       </c>
       <c r="L76" s="177"/>
@@ -24824,7 +24826,7 @@
       <c r="H77" s="33"/>
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="215" t="s">
+      <c r="K77" s="216" t="s">
         <v>91</v>
       </c>
       <c r="L77" s="177"/>
@@ -24842,8 +24844,8 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="216"/>
-      <c r="L78" s="191"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="183"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -24863,29 +24865,29 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
-      <c r="K79" s="215" t="s">
+      <c r="K79" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="L79" s="192"/>
+      <c r="L79" s="179"/>
       <c r="M79" s="139" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
-      <c r="C80" s="234" t="s">
+      <c r="C80" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="235"/>
-      <c r="E80" s="235"/>
-      <c r="F80" s="235"/>
-      <c r="G80" s="235"/>
-      <c r="H80" s="235"/>
-      <c r="I80" s="235"/>
-      <c r="J80" s="235"/>
-      <c r="K80" s="235"/>
-      <c r="L80" s="235"/>
-      <c r="M80" s="236"/>
+      <c r="D80" s="230"/>
+      <c r="E80" s="230"/>
+      <c r="F80" s="230"/>
+      <c r="G80" s="230"/>
+      <c r="H80" s="230"/>
+      <c r="I80" s="230"/>
+      <c r="J80" s="230"/>
+      <c r="K80" s="230"/>
+      <c r="L80" s="230"/>
+      <c r="M80" s="231"/>
     </row>
     <row r="81" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
@@ -24904,10 +24906,10 @@
       <c r="H81" s="33"/>
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="233" t="s">
+      <c r="K81" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="L81" s="192"/>
+      <c r="L81" s="179"/>
       <c r="M81" s="29" t="s">
         <v>231</v>
       </c>
@@ -24929,10 +24931,10 @@
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="215" t="s">
+      <c r="K82" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="L82" s="192"/>
+      <c r="L82" s="179"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -24952,10 +24954,10 @@
       </c>
       <c r="I83" s="47"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="215" t="s">
+      <c r="K83" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="L83" s="192"/>
+      <c r="L83" s="179"/>
       <c r="M83" s="29"/>
     </row>
     <row r="84" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24975,10 +24977,10 @@
         <v>8</v>
       </c>
       <c r="J84" s="34"/>
-      <c r="K84" s="215" t="s">
+      <c r="K84" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="L84" s="192"/>
+      <c r="L84" s="179"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24998,10 +25000,10 @@
         <v>8</v>
       </c>
       <c r="J85" s="34"/>
-      <c r="K85" s="215" t="s">
+      <c r="K85" s="216" t="s">
         <v>365</v>
       </c>
-      <c r="L85" s="192"/>
+      <c r="L85" s="179"/>
       <c r="M85" s="49"/>
     </row>
     <row r="86" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25021,27 +25023,27 @@
       <c r="J86" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="215" t="s">
+      <c r="K86" s="216" t="s">
         <v>423</v>
       </c>
-      <c r="L86" s="192"/>
+      <c r="L86" s="179"/>
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B87" s="1"/>
-      <c r="C87" s="234" t="s">
+      <c r="C87" s="229" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="235"/>
-      <c r="E87" s="235"/>
-      <c r="F87" s="235"/>
-      <c r="G87" s="235"/>
-      <c r="H87" s="235"/>
-      <c r="I87" s="235"/>
-      <c r="J87" s="235"/>
-      <c r="K87" s="235"/>
-      <c r="L87" s="235"/>
-      <c r="M87" s="236"/>
+      <c r="D87" s="230"/>
+      <c r="E87" s="230"/>
+      <c r="F87" s="230"/>
+      <c r="G87" s="230"/>
+      <c r="H87" s="230"/>
+      <c r="I87" s="230"/>
+      <c r="J87" s="230"/>
+      <c r="K87" s="230"/>
+      <c r="L87" s="230"/>
+      <c r="M87" s="231"/>
     </row>
     <row r="88" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1">
@@ -25063,7 +25065,7 @@
       <c r="K88" s="212" t="s">
         <v>414</v>
       </c>
-      <c r="L88" s="231"/>
+      <c r="L88" s="235"/>
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25086,7 +25088,7 @@
       <c r="K89" s="176" t="s">
         <v>233</v>
       </c>
-      <c r="L89" s="232"/>
+      <c r="L89" s="236"/>
       <c r="M89" s="29"/>
     </row>
     <row r="90" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25106,10 +25108,10 @@
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="34"/>
-      <c r="K90" s="233" t="s">
+      <c r="K90" s="237" t="s">
         <v>410</v>
       </c>
-      <c r="L90" s="232"/>
+      <c r="L90" s="236"/>
       <c r="M90" s="29" t="s">
         <v>413</v>
       </c>
@@ -25131,7 +25133,7 @@
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="34"/>
-      <c r="K91" s="229" t="s">
+      <c r="K91" s="233" t="s">
         <v>234</v>
       </c>
       <c r="L91" s="177"/>
@@ -25140,25 +25142,65 @@
   </sheetData>
   <autoFilter ref="B12:M91"/>
   <mergeCells count="102">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M59:M70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="B59:B70"/>
+    <mergeCell ref="C59:C70"/>
+    <mergeCell ref="D59:D70"/>
+    <mergeCell ref="E59:E70"/>
+    <mergeCell ref="F59:F70"/>
+    <mergeCell ref="G59:G70"/>
+    <mergeCell ref="H59:H70"/>
+    <mergeCell ref="I59:I70"/>
+    <mergeCell ref="J59:J70"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="C87:M87"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -25183,65 +25225,25 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M59:M70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="B59:B70"/>
-    <mergeCell ref="C59:C70"/>
-    <mergeCell ref="D59:D70"/>
-    <mergeCell ref="E59:E70"/>
-    <mergeCell ref="F59:F70"/>
-    <mergeCell ref="G59:G70"/>
-    <mergeCell ref="H59:H70"/>
-    <mergeCell ref="I59:I70"/>
-    <mergeCell ref="J59:J70"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HA構成(Ansible Tower)'!$B$13:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'HA構成(Ansible)'!$B$12:$M$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'HA構成(Cobbler)'!$B$12:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HA構成(DBMS)'!$B$11:$M$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HA構成(Terraform)'!$B$12:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA構成(Web・AP)'!$B$12:$M$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA構成(DBMS)'!$A$1:$M$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'HA構成(Web・AP)'!$A$1:$M$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$M$25</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="461">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -4947,203 +4947,6 @@
       </rPr>
       <t>/ita-root/webconfs/users</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>以下の外部ストレージとの共有用ディレクトリを作成してください。
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/data_relay_storage
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/temp
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/uploadfiles
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webroot/uploadfiles
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webroot/menus/sheets
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webroot/menus/users
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webconfs/sheets
-/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ITAインストール先ディレクトリ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ita-root/webconfs/users</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -11942,6 +11745,265 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>必須。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ansible-Driverをインストールする場合、必須。</t>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cobbler-Driverをインストールする場合、必須。</t>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CI/CD for IaC機能をインストールする場合、必須。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>以下の外部ストレージとの共有用ディレクトリを作成してください。
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/data_relay_storage
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/temp
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/uploadfiles
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webroot/uploadfiles
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webroot/menus/sheets
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webroot/menus/users
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webconfs/sheets
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webconfs/users
+/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/repositorys</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>/（</t>
     </r>
@@ -11964,8 +12026,68 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）/ita-root/repositorys/</t>
-    </r>
+      <t>）/ita-root/repositorys</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ITAインストール先ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webconfs/repositorys</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（任意の共有用ディレクトリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ita-root/webconfs/repositorys</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12826,7 +12948,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13277,6 +13399,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13307,6 +13441,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13316,53 +13498,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13370,9 +13519,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13385,15 +13594,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13406,72 +13606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13481,48 +13615,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13538,17 +13684,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14580,22 +14741,22 @@
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="151"/>
-      <c r="R73" s="151"/>
-      <c r="S73" s="151"/>
-      <c r="T73" s="151"/>
-      <c r="U73" s="150"/>
-      <c r="V73" s="151"/>
-      <c r="W73" s="151"/>
-      <c r="X73" s="151"/>
-      <c r="Y73" s="151"/>
-      <c r="Z73" s="151"/>
-      <c r="AA73" s="151"/>
-      <c r="AB73" s="151"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="155"/>
+      <c r="P73" s="155"/>
+      <c r="Q73" s="155"/>
+      <c r="R73" s="155"/>
+      <c r="S73" s="155"/>
+      <c r="T73" s="155"/>
+      <c r="U73" s="154"/>
+      <c r="V73" s="155"/>
+      <c r="W73" s="155"/>
+      <c r="X73" s="155"/>
+      <c r="Y73" s="155"/>
+      <c r="Z73" s="155"/>
+      <c r="AA73" s="155"/>
+      <c r="AB73" s="155"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -14730,7 +14891,7 @@
         <v>203</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D82" s="95"/>
       <c r="E82" s="17"/>
@@ -14747,7 +14908,7 @@
     <row r="83" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D83" s="95"/>
       <c r="E83" s="17"/>
@@ -14763,7 +14924,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C84" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="17"/>
@@ -14794,29 +14955,29 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
-      <c r="C86" s="154" t="s">
+      <c r="C86" s="158" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="158" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" s="152" t="s">
+      <c r="D86" s="162" t="s">
         <v>307</v>
       </c>
-      <c r="F86" s="155" t="s">
+      <c r="E86" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="159" t="s">
         <v>204</v>
       </c>
-      <c r="G86" s="156"/>
-      <c r="H86" s="156"/>
-      <c r="I86" s="156"/>
-      <c r="J86" s="157"/>
+      <c r="G86" s="160"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="160"/>
+      <c r="J86" s="161"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="64"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="153"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="157"/>
       <c r="F87" s="97" t="s">
         <v>209</v>
       </c>
@@ -14830,7 +14991,7 @@
         <v>207</v>
       </c>
       <c r="J87" s="119" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K87" s="19"/>
     </row>
@@ -14840,10 +15001,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E88" s="125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F88" s="99" t="s">
         <v>208</v>
@@ -14868,10 +15029,10 @@
         <v>2</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E89" s="126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F89" s="99" t="s">
         <v>208</v>
@@ -14896,10 +15057,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E90" s="126" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F90" s="99" t="s">
         <v>208</v>
@@ -14924,10 +15085,10 @@
         <v>4</v>
       </c>
       <c r="D91" s="98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E91" s="126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="99" t="s">
@@ -14946,10 +15107,10 @@
         <v>5</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E92" s="126" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F92" s="99"/>
       <c r="G92" s="99"/>
@@ -14966,10 +15127,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E93" s="126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="99"/>
@@ -14986,10 +15147,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E94" s="126" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="99"/>
@@ -15006,10 +15167,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E95" s="126" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F95" s="99" t="s">
         <v>208</v>
@@ -15152,7 +15313,7 @@
     <row r="103" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="106"/>
       <c r="C103" s="124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D103" s="60"/>
       <c r="E103" s="60"/>
@@ -15252,7 +15413,7 @@
     <row r="109" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="111"/>
       <c r="C109" s="124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109" s="60"/>
       <c r="E109" s="60"/>
@@ -15303,7 +15464,7 @@
     <row r="112" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="111"/>
       <c r="C112" s="124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
@@ -15460,7 +15621,7 @@
     <row r="121" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="61"/>
       <c r="C121" s="124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
@@ -15584,37 +15745,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -15689,32 +15850,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="171" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="172" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="170" t="s">
+      <c r="F9" s="171" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="163" t="s">
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="164" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="172"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="173"/>
       <c r="F10" s="75" t="s">
         <v>241</v>
       </c>
@@ -15731,19 +15892,19 @@
         <v>245</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="M10" s="164"/>
+      <c r="M10" s="165"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
@@ -15762,14 +15923,16 @@
       <c r="L11" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="160" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="162"/>
+      <c r="B12" s="180" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -15788,14 +15951,16 @@
       <c r="L12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="162"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
@@ -15814,14 +15979,16 @@
       <c r="L13" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="70" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="162"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
@@ -15838,14 +16005,16 @@
       <c r="L14" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="70" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -15858,14 +16027,16 @@
       <c r="L15" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="162"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="182"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -15880,14 +16051,16 @@
       <c r="L16" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
@@ -15902,14 +16075,16 @@
       <c r="L17" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="182"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
@@ -15924,14 +16099,16 @@
       <c r="L18" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
@@ -15946,14 +16123,16 @@
       <c r="L19" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="180" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="162"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
@@ -15968,14 +16147,16 @@
       <c r="L20" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
@@ -15990,14 +16171,16 @@
       <c r="L21" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="M21" s="70"/>
+      <c r="M21" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="180" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="162"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16012,14 +16195,16 @@
       <c r="L22" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="70"/>
+      <c r="M22" s="70" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="160" t="s">
-        <v>453</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="B23" s="180" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
@@ -16032,14 +16217,16 @@
       <c r="J23" s="79"/>
       <c r="K23" s="79"/>
       <c r="L23" s="79"/>
-      <c r="M23" s="70"/>
+      <c r="M23" s="70" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
@@ -16072,17 +16259,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -16092,6 +16268,17 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16140,17 +16327,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19" t="s">
         <v>170</v>
       </c>
@@ -16158,18 +16345,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="54" t="s">
         <v>171</v>
       </c>
@@ -16267,32 +16454,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="189" t="s">
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="184" t="s">
+      <c r="L10" s="216"/>
+      <c r="M10" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="197"/>
-      <c r="C11" s="199"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="208"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -16309,14 +16496,14 @@
         <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K11" s="217"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="214"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -16330,8 +16517,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16339,24 +16526,24 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="179" t="s">
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" s="191"/>
+      <c r="M13" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="L13" s="195"/>
-      <c r="M13" s="16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16364,18 +16551,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="179" t="s">
+      <c r="C14" s="211"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="191"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16383,18 +16570,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="179" t="s">
+      <c r="C15" s="212"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="191"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16409,8 +16596,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="195"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16430,10 +16617,10 @@
       <c r="H17" s="73"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="179" t="s">
+      <c r="K17" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="195"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="27" t="s">
         <v>99</v>
       </c>
@@ -16450,8 +16637,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="195"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16471,95 +16658,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="195"/>
+      <c r="L19" s="191"/>
       <c r="M19" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="202">
+      <c r="B20" s="200">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="202" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="186" t="s">
+      <c r="D20" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="179" t="s">
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="195"/>
-      <c r="M20" s="208"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="197"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="203">
+      <c r="B21" s="186">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="205"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
       <c r="K21" s="84" t="s">
         <v>279</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="M21" s="209"/>
+      <c r="M21" s="198"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="203">
+      <c r="B22" s="186">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
       <c r="K22" s="86" t="s">
         <v>184</v>
       </c>
       <c r="L22" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="M22" s="209"/>
+      <c r="M22" s="198"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="204">
+      <c r="B23" s="201">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="210"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="199"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -16594,12 +16781,12 @@
       <c r="H25" s="73"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="179" t="s">
+      <c r="K25" s="188" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="189"/>
+      <c r="M25" s="27" t="s">
         <v>435</v>
-      </c>
-      <c r="L25" s="180"/>
-      <c r="M25" s="27" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16607,7 +16794,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="181" t="s">
+      <c r="C26" s="202" t="s">
         <v>212</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -16619,10 +16806,10 @@
       <c r="H26" s="73"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="179" t="s">
+      <c r="K26" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="180"/>
+      <c r="L26" s="189"/>
       <c r="M26" s="27" t="s">
         <v>120</v>
       </c>
@@ -16632,7 +16819,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="182"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -16642,10 +16829,10 @@
       <c r="H27" s="73"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="179" t="s">
+      <c r="K27" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="180"/>
+      <c r="L27" s="189"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16653,7 +16840,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="183"/>
+      <c r="C28" s="212"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -16663,10 +16850,10 @@
       <c r="H28" s="73"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="179" t="s">
+      <c r="K28" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="180"/>
+      <c r="L28" s="189"/>
       <c r="M28" s="27" t="s">
         <v>122</v>
       </c>
@@ -16688,10 +16875,10 @@
       <c r="H29" s="73"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="179" t="s">
+      <c r="K29" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="180"/>
+      <c r="L29" s="189"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16711,12 +16898,12 @@
       <c r="H30" s="73"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="179" t="s">
+      <c r="K30" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="180"/>
+      <c r="L30" s="189"/>
       <c r="M30" s="129" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16736,10 +16923,10 @@
       <c r="H31" s="73"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="179" t="s">
-        <v>437</v>
-      </c>
-      <c r="L31" s="180"/>
+      <c r="K31" s="188" t="s">
+        <v>436</v>
+      </c>
+      <c r="L31" s="189"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16759,10 +16946,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="179" t="s">
+      <c r="K32" s="188" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="180"/>
+      <c r="L32" s="189"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16777,8 +16964,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="195"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16798,10 +16985,10 @@
       <c r="H34" s="73"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="212" t="s">
+      <c r="K34" s="196" t="s">
         <v>249</v>
       </c>
-      <c r="L34" s="195"/>
+      <c r="L34" s="191"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16821,12 +17008,12 @@
       <c r="H35" s="73"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="212" t="s">
+      <c r="K35" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="L35" s="195"/>
+      <c r="L35" s="191"/>
       <c r="M35" s="129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16846,10 +17033,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="212" t="s">
+      <c r="K36" s="196" t="s">
         <v>251</v>
       </c>
-      <c r="L36" s="195"/>
+      <c r="L36" s="191"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16869,10 +17056,10 @@
       <c r="H37" s="73"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="212" t="s">
+      <c r="K37" s="196" t="s">
         <v>252</v>
       </c>
-      <c r="L37" s="195"/>
+      <c r="L37" s="191"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16892,10 +17079,10 @@
       <c r="H38" s="73"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="179" t="s">
+      <c r="K38" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="191"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16915,10 +17102,10 @@
       <c r="H39" s="73"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="179" t="s">
-        <v>411</v>
-      </c>
-      <c r="L39" s="195"/>
+      <c r="K39" s="188" t="s">
+        <v>410</v>
+      </c>
+      <c r="L39" s="191"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -16938,10 +17125,10 @@
       <c r="H40" s="73"/>
       <c r="I40" s="25"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="179" t="s">
-        <v>412</v>
-      </c>
-      <c r="L40" s="180"/>
+      <c r="K40" s="188" t="s">
+        <v>411</v>
+      </c>
+      <c r="L40" s="189"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16961,10 +17148,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="179" t="s">
-        <v>413</v>
-      </c>
-      <c r="L41" s="180"/>
+      <c r="K41" s="188" t="s">
+        <v>412</v>
+      </c>
+      <c r="L41" s="189"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -16984,10 +17171,10 @@
       <c r="H42" s="74"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="213" t="s">
-        <v>414</v>
-      </c>
-      <c r="L42" s="214"/>
+      <c r="K42" s="192" t="s">
+        <v>413</v>
+      </c>
+      <c r="L42" s="193"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16996,7 +17183,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33" t="s">
@@ -17009,10 +17196,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="179" t="s">
-        <v>415</v>
-      </c>
-      <c r="L43" s="180"/>
+      <c r="K43" s="188" t="s">
+        <v>414</v>
+      </c>
+      <c r="L43" s="189"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17032,10 +17219,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="179" t="s">
-        <v>416</v>
-      </c>
-      <c r="L44" s="180"/>
+      <c r="K44" s="188" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" s="189"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17044,7 +17231,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="34"/>
@@ -17055,10 +17242,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="34"/>
-      <c r="K45" s="179" t="s">
-        <v>417</v>
-      </c>
-      <c r="L45" s="180"/>
+      <c r="K45" s="188" t="s">
+        <v>416</v>
+      </c>
+      <c r="L45" s="189"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17067,7 +17254,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="34"/>
@@ -17078,15 +17265,57 @@
       <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="179" t="s">
-        <v>448</v>
-      </c>
-      <c r="L46" s="180"/>
+      <c r="K46" s="188" t="s">
+        <v>447</v>
+      </c>
+      <c r="L46" s="189"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:M46"/>
   <mergeCells count="58">
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="K45:L45"/>
@@ -17103,48 +17332,6 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17163,7 +17350,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M76"/>
+  <dimension ref="B1:M77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -17197,17 +17384,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -17215,18 +17402,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -17340,32 +17527,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="189" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="184" t="s">
+      <c r="L11" s="216"/>
+      <c r="M11" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -17382,14 +17569,14 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -17403,8 +17590,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17412,24 +17599,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="186" t="s">
+      <c r="D14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="179" t="s">
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="L14" s="191"/>
+      <c r="M14" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="L14" s="195"/>
-      <c r="M14" s="16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17437,18 +17624,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="179" t="s">
+      <c r="C15" s="211"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="180"/>
+      <c r="L15" s="189"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17456,18 +17643,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="179" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="180"/>
+      <c r="L16" s="189"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17503,10 +17690,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="179" t="s">
+      <c r="K18" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="180"/>
+      <c r="L18" s="189"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -17544,12 +17731,12 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="179" t="s">
-        <v>364</v>
-      </c>
-      <c r="L20" s="195"/>
+      <c r="K20" s="188" t="s">
+        <v>363</v>
+      </c>
+      <c r="L20" s="191"/>
       <c r="M20" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -17569,10 +17756,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="179" t="s">
+      <c r="K21" s="188" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="191"/>
       <c r="M21" s="27" t="s">
         <v>177</v>
       </c>
@@ -17594,10 +17781,10 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="179" t="s">
+      <c r="K22" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="195"/>
+      <c r="L22" s="191"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17606,7 +17793,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D23" s="128" t="s">
         <v>8</v>
@@ -17617,12 +17804,12 @@
       <c r="H23" s="128"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="179" t="s">
+      <c r="K23" s="188" t="s">
+        <v>365</v>
+      </c>
+      <c r="L23" s="191"/>
+      <c r="M23" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="L23" s="195"/>
-      <c r="M23" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -17630,22 +17817,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="179" t="s">
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="195"/>
+      <c r="L24" s="191"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -17653,20 +17840,20 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="179" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="195"/>
+      <c r="L25" s="191"/>
       <c r="M25" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17681,8 +17868,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="148"/>
       <c r="J26" s="148"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="195"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17702,10 +17889,10 @@
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
       <c r="J27" s="147"/>
-      <c r="K27" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="L27" s="180"/>
+      <c r="K27" s="188" t="s">
+        <v>321</v>
+      </c>
+      <c r="L27" s="189"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17714,7 +17901,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>8</v>
@@ -17725,10 +17912,10 @@
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" s="147"/>
-      <c r="K28" s="179" t="s">
-        <v>323</v>
-      </c>
-      <c r="L28" s="180"/>
+      <c r="K28" s="188" t="s">
+        <v>322</v>
+      </c>
+      <c r="L28" s="189"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17737,7 +17924,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>8</v>
@@ -17748,10 +17935,10 @@
       <c r="H29" s="35"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
-      <c r="K29" s="179" t="s">
-        <v>324</v>
-      </c>
-      <c r="L29" s="180"/>
+      <c r="K29" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="189"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17766,8 +17953,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="148"/>
       <c r="J30" s="148"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17787,12 +17974,12 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="212" t="s">
+      <c r="K31" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="L31" s="195"/>
+      <c r="L31" s="191"/>
       <c r="M31" s="129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -17812,241 +17999,252 @@
       <c r="H32" s="77"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="212" t="s">
-        <v>302</v>
-      </c>
-      <c r="L32" s="195"/>
+      <c r="K32" s="196" t="s">
+        <v>456</v>
+      </c>
+      <c r="L32" s="191"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="202">
+      <c r="B33" s="200">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="179" t="s">
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L33" s="195"/>
-      <c r="M33" s="208"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="197"/>
     </row>
     <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="203"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="252"/>
       <c r="K34" s="84" t="s">
         <v>281</v>
       </c>
       <c r="L34" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="M34" s="209"/>
+      <c r="M34" s="198"/>
     </row>
     <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="203"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
       <c r="K35" s="86" t="s">
         <v>282</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M35" s="209"/>
+      <c r="M35" s="198"/>
     </row>
     <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="203"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="203"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
       <c r="K36" s="86" t="s">
         <v>283</v>
       </c>
       <c r="L36" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="M36" s="209"/>
+      <c r="M36" s="198"/>
     </row>
     <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="203"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="203"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
       <c r="K37" s="86" t="s">
         <v>284</v>
       </c>
       <c r="L37" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="M37" s="209"/>
+      <c r="M37" s="198"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="203"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="203"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="203"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
       <c r="K38" s="86" t="s">
         <v>285</v>
       </c>
       <c r="L38" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="M38" s="209"/>
+      <c r="M38" s="198"/>
     </row>
     <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="203"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="203"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
       <c r="K39" s="86" t="s">
         <v>286</v>
       </c>
       <c r="L39" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M39" s="209"/>
+      <c r="M39" s="198"/>
     </row>
     <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="203"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="203"/>
-      <c r="J40" s="203"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
       <c r="K40" s="86" t="s">
         <v>287</v>
       </c>
       <c r="L40" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="M40" s="209"/>
+      <c r="M40" s="198"/>
     </row>
     <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="203"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="86" t="s">
         <v>288</v>
       </c>
       <c r="L41" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="M41" s="209"/>
+      <c r="M41" s="198"/>
     </row>
     <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="203"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="203"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
       <c r="K42" s="86" t="s">
         <v>289</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="M42" s="209"/>
-    </row>
-    <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="204"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="207"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="210"/>
-    </row>
-    <row r="44" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="1">
+      <c r="M42" s="198"/>
+    </row>
+    <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="186"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="L43" s="91" t="s">
+        <v>459</v>
+      </c>
+      <c r="M43" s="198"/>
+    </row>
+    <row r="44" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="201"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="191"/>
+      <c r="M44" s="199"/>
+    </row>
+    <row r="45" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1">
         <f>MAX(B$11:B33)+1</f>
         <v>17</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="179" t="s">
-        <v>325</v>
-      </c>
-      <c r="L44" s="180"/>
-      <c r="M44" s="29"/>
-    </row>
-    <row r="45" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="1">
-        <f>MAX(B$11:B44)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>8</v>
@@ -18057,19 +18255,19 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="179" t="s">
-        <v>326</v>
-      </c>
-      <c r="L45" s="180"/>
+      <c r="K45" s="188" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" s="189"/>
       <c r="M45" s="29"/>
     </row>
-    <row r="46" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <f>MAX(B$11:B45)+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>8</v>
@@ -18077,22 +18275,22 @@
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="179" t="s">
-        <v>356</v>
-      </c>
-      <c r="L46" s="180"/>
+      <c r="K46" s="188" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" s="189"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <f>MAX(B$11:B46)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>8</v>
@@ -18103,19 +18301,19 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="179" t="s">
-        <v>357</v>
-      </c>
-      <c r="L47" s="180"/>
+      <c r="K47" s="188" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" s="189"/>
       <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <f>MAX(B$11:B47)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>8</v>
@@ -18126,205 +18324,203 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="179" t="s">
-        <v>358</v>
-      </c>
-      <c r="L48" s="180"/>
+      <c r="K48" s="188" t="s">
+        <v>356</v>
+      </c>
+      <c r="L48" s="189"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
-        <f>MAX(B$13:B48)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="45" t="s">
+        <f>MAX(B$11:B48)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="25"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="215" t="s">
-        <v>327</v>
-      </c>
-      <c r="L49" s="180"/>
-      <c r="M49" s="46"/>
-    </row>
-    <row r="50" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="188" t="s">
+        <v>357</v>
+      </c>
+      <c r="L49" s="189"/>
+      <c r="M49" s="29"/>
+    </row>
+    <row r="50" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
         <f>MAX(B$13:B49)+1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="E50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="45"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="215" t="s">
-        <v>328</v>
-      </c>
-      <c r="L50" s="180"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="219" t="s">
+        <v>326</v>
+      </c>
+      <c r="L50" s="189"/>
       <c r="M50" s="46"/>
     </row>
-    <row r="51" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <f>MAX(B$13:B50)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="45"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="45"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="45"/>
-      <c r="K51" s="215" t="s">
-        <v>329</v>
-      </c>
-      <c r="L51" s="180"/>
+      <c r="K51" s="219" t="s">
+        <v>327</v>
+      </c>
+      <c r="L51" s="189"/>
       <c r="M51" s="46"/>
     </row>
-    <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <f>MAX(B$13:B51)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C52" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="117"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="215" t="s">
-        <v>330</v>
-      </c>
-      <c r="L52" s="180"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="219" t="s">
+        <v>328</v>
+      </c>
+      <c r="L52" s="189"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <f>MAX(B$13:B52)+1</f>
-        <v>26</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="117"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="215" t="s">
-        <v>331</v>
-      </c>
-      <c r="L53" s="180"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="219" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" s="189"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
-        <f>MAX(B$13:B52)+1</f>
+        <f>MAX(B$13:B53)+1</f>
         <v>26</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>381</v>
+        <v>69</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="45"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="45" t="s">
+      <c r="H54" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="215" t="s">
-        <v>363</v>
-      </c>
-      <c r="L54" s="180"/>
+      <c r="K54" s="219" t="s">
+        <v>330</v>
+      </c>
+      <c r="L54" s="189"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <f>MAX(B$13:B53)+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="45"/>
       <c r="H55" s="25"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45" t="s">
+      <c r="I55" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="215" t="s">
-        <v>450</v>
-      </c>
-      <c r="L55" s="180"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="219" t="s">
+        <v>362</v>
+      </c>
+      <c r="L55" s="189"/>
       <c r="M55" s="46"/>
     </row>
-    <row r="56" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
-        <f>MAX(B$13:B55)+1</f>
-        <v>28</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>8</v>
-      </c>
+        <f>MAX(B$13:B54)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="D56" s="45"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="179" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" s="180"/>
-      <c r="M56" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G56" s="45"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="219" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" s="189"/>
+      <c r="M56" s="46"/>
+    </row>
+    <row r="57" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <f>MAX(B$13:B56)+1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>8</v>
@@ -18335,21 +18531,21 @@
       <c r="H57" s="24"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="179" t="s">
-        <v>145</v>
-      </c>
-      <c r="L57" s="180"/>
+      <c r="K57" s="188" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" s="189"/>
       <c r="M57" s="29" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <f>MAX(B$13:B57)+1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>8</v>
@@ -18360,60 +18556,62 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="179" t="s">
+      <c r="K58" s="188" t="s">
+        <v>145</v>
+      </c>
+      <c r="L58" s="189"/>
+      <c r="M58" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="1">
+        <f>MAX(B$13:B58)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="L58" s="180"/>
-      <c r="M58" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B59" s="1"/>
-      <c r="C59" s="14" t="s">
+      <c r="L59" s="189"/>
+      <c r="M59" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="148"/>
-      <c r="K59" s="193"/>
-      <c r="L59" s="194"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="1">
-        <f>MAX(B$11:B59)+1</f>
-        <v>31</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="179" t="s">
-        <v>147</v>
-      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="194"/>
       <c r="L60" s="195"/>
-      <c r="M60" s="29"/>
-    </row>
-    <row r="61" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="1">
         <f>MAX(B$11:B60)+1</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>8</v>
@@ -18424,346 +18622,432 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="179" t="s">
-        <v>428</v>
-      </c>
-      <c r="L61" s="195"/>
+      <c r="K61" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="L61" s="191"/>
       <c r="M61" s="29"/>
     </row>
     <row r="62" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="1">
         <f>MAX(B$11:B61)+1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="E62" s="25"/>
       <c r="F62" s="25"/>
       <c r="G62" s="28"/>
       <c r="H62" s="24"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="179" t="s">
-        <v>429</v>
-      </c>
-      <c r="L62" s="195"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="188" t="s">
+        <v>427</v>
+      </c>
+      <c r="L62" s="191"/>
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="1">
         <f>MAX(B$11:B62)+1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="28"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="28" t="s">
+      <c r="E63" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="F63" s="25"/>
       <c r="G63" s="28"/>
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
       <c r="J63" s="28"/>
-      <c r="K63" s="179" t="s">
-        <v>430</v>
-      </c>
-      <c r="L63" s="195"/>
+      <c r="K63" s="188" t="s">
+        <v>428</v>
+      </c>
+      <c r="L63" s="191"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1">
         <f>MAX(B$11:B63)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="28" t="s">
+      <c r="F64" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="G64" s="28"/>
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="179" t="s">
-        <v>431</v>
-      </c>
-      <c r="L64" s="180"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="188" t="s">
+        <v>429</v>
+      </c>
+      <c r="L64" s="191"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="1">
         <f>MAX(B$11:B64)+1</f>
-        <v>36</v>
-      </c>
-      <c r="C65" s="136" t="s">
-        <v>407</v>
+        <v>35</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D65" s="28"/>
-      <c r="E65" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="E65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="28"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
-      <c r="K65" s="179" t="s">
-        <v>432</v>
-      </c>
-      <c r="L65" s="180"/>
+      <c r="K65" s="188" t="s">
+        <v>430</v>
+      </c>
+      <c r="L65" s="189"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <f>MAX(B$11:B65)+1</f>
-        <v>37</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="C66" s="136" t="s">
+        <v>406</v>
       </c>
       <c r="D66" s="28"/>
-      <c r="E66" s="25"/>
+      <c r="E66" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="F66" s="25"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28" t="s">
+      <c r="G66" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="H66" s="28"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
-      <c r="K66" s="179" t="s">
-        <v>433</v>
-      </c>
-      <c r="L66" s="180"/>
+      <c r="K66" s="188" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" s="189"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="1">
         <f>MAX(B$11:B66)+1</f>
-        <v>38</v>
-      </c>
-      <c r="C67" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="179" t="s">
-        <v>434</v>
-      </c>
-      <c r="L67" s="180"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="188" t="s">
+        <v>432</v>
+      </c>
+      <c r="L67" s="189"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <f>MAX(B$11:B67)+1</f>
-        <v>39</v>
-      </c>
-      <c r="C68" s="139" t="s">
-        <v>451</v>
+        <v>38</v>
+      </c>
+      <c r="C68" s="149" t="s">
+        <v>379</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
       <c r="G68" s="33"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33" t="s">
+      <c r="I68" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K68" s="179" t="s">
-        <v>452</v>
-      </c>
-      <c r="L68" s="180"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="188" t="s">
+        <v>433</v>
+      </c>
+      <c r="L68" s="189"/>
       <c r="M68" s="29"/>
     </row>
-    <row r="69" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="140">
+    <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="1">
         <f>MAX(B$11:B68)+1</f>
+        <v>39</v>
+      </c>
+      <c r="C69" s="139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="188" t="s">
+        <v>451</v>
+      </c>
+      <c r="L69" s="189"/>
+      <c r="M69" s="29"/>
+    </row>
+    <row r="70" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="140">
+        <f>MAX(B$11:B69)+1</f>
         <v>40</v>
       </c>
-      <c r="C69" s="137" t="s">
+      <c r="C70" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D70" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="138"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="216" t="s">
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="L69" s="217"/>
-      <c r="M69" s="36"/>
-    </row>
-    <row r="70" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="1">
-        <f>MAX(B$11:B69)+1</f>
+      <c r="L70" s="221"/>
+      <c r="M70" s="36"/>
+    </row>
+    <row r="71" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="1">
+        <f>MAX(B$11:B70)+1</f>
         <v>41</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C71" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D71" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="179" t="s">
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="188" t="s">
         <v>277</v>
       </c>
-      <c r="L70" s="180"/>
-      <c r="M70" s="29"/>
-    </row>
-    <row r="71" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="1"/>
-      <c r="C71" s="14" t="s">
+      <c r="L71" s="189"/>
+      <c r="M71" s="29"/>
+    </row>
+    <row r="72" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+      <c r="C72" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="193"/>
-      <c r="L71" s="194"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1">
-        <f>MAX(B$11:B71)+1</f>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="148"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="194"/>
+      <c r="L72" s="195"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="1">
+        <f>MAX(B$11:B72)+1</f>
         <v>42</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C73" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D73" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="179" t="s">
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="L72" s="195"/>
-      <c r="M72" s="29"/>
-    </row>
-    <row r="73" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="1"/>
-      <c r="C73" s="14" t="s">
+      <c r="L73" s="191"/>
+      <c r="M73" s="29"/>
+    </row>
+    <row r="74" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B74" s="1"/>
+      <c r="C74" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="148"/>
-      <c r="K73" s="193"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="1">
-        <f>MAX(B$11:B73)+1</f>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="194"/>
+      <c r="L74" s="195"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="1">
+        <f>MAX(B$11:B74)+1</f>
         <v>43</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C75" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D75" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="179" t="s">
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="L74" s="195"/>
-      <c r="M74" s="29"/>
-    </row>
-    <row r="75" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B75" s="1"/>
-      <c r="C75" s="12" t="s">
+      <c r="L75" s="191"/>
+      <c r="M75" s="29"/>
+    </row>
+    <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B76" s="1"/>
+      <c r="C76" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="148"/>
-      <c r="K75" s="193"/>
-      <c r="L75" s="194"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B76" s="32">
-        <f>MAX(B$11:B75)+1</f>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="194"/>
+      <c r="L76" s="195"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="32">
+        <f>MAX(B$11:B76)+1</f>
         <v>44</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C77" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35" t="s">
+      <c r="D77" s="35"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="179" t="s">
+      <c r="K77" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="L76" s="195"/>
-      <c r="M76" s="27" t="s">
+      <c r="L77" s="191"/>
+      <c r="M77" s="27" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B12:M76"/>
-  <mergeCells count="86">
-    <mergeCell ref="I33:I43"/>
+  <autoFilter ref="B12:M77"/>
+  <mergeCells count="79">
+    <mergeCell ref="M33:M44"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -18777,76 +19061,6 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M33:M43"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D33:D43"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="F33:F43"/>
-    <mergeCell ref="G33:G43"/>
-    <mergeCell ref="H33:H43"/>
-    <mergeCell ref="J33:J43"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -18859,8 +19073,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="29" max="13" man="1"/>
-    <brk id="51" max="12" man="1"/>
-    <brk id="68" max="12" man="1"/>
+    <brk id="52" max="12" man="1"/>
+    <brk id="69" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -18873,9 +19087,9 @@
   <dimension ref="B1:M62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18903,17 +19117,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -18921,18 +19135,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -19046,32 +19260,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="189" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="184" t="s">
+      <c r="L11" s="216"/>
+      <c r="M11" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -19088,14 +19302,14 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19109,8 +19323,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="194"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19118,24 +19332,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="179" t="s">
-        <v>319</v>
-      </c>
-      <c r="L14" s="195"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="L14" s="191"/>
       <c r="M14" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19143,18 +19357,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="218" t="s">
+      <c r="C15" s="211"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="191"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19162,18 +19376,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="218" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="191"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19188,8 +19402,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="194"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19209,10 +19423,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="218" t="s">
+      <c r="K18" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="191"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -19229,8 +19443,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="194"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19250,10 +19464,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="218" t="s">
+      <c r="K20" s="223" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="195"/>
+      <c r="L20" s="191"/>
       <c r="M20" s="27" t="s">
         <v>103</v>
       </c>
@@ -19275,10 +19489,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="191"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19293,8 +19507,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="194"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="195"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -19314,12 +19528,12 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="218" t="s">
-        <v>369</v>
-      </c>
-      <c r="L23" s="195"/>
+      <c r="K23" s="223" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" s="191"/>
       <c r="M23" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -19339,10 +19553,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="218" t="s">
+      <c r="K24" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="L24" s="195"/>
+      <c r="L24" s="191"/>
       <c r="M24" s="27" t="s">
         <v>177</v>
       </c>
@@ -19364,10 +19578,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="218" t="s">
+      <c r="K25" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="195"/>
+      <c r="L25" s="191"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19376,7 +19590,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="25"/>
@@ -19387,12 +19601,12 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="179" t="s">
+      <c r="K26" s="188" t="s">
+        <v>365</v>
+      </c>
+      <c r="L26" s="191"/>
+      <c r="M26" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="L26" s="195"/>
-      <c r="M26" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -19400,22 +19614,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186" t="s">
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="218" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="195"/>
+      <c r="L27" s="191"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -19423,20 +19637,20 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="218" t="s">
+      <c r="C28" s="211"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="195"/>
+      <c r="L28" s="191"/>
       <c r="M28" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19451,8 +19665,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="194"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="195"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19472,10 +19686,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="218" t="s">
-        <v>334</v>
-      </c>
-      <c r="L30" s="195"/>
+      <c r="K30" s="223" t="s">
+        <v>333</v>
+      </c>
+      <c r="L30" s="191"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19484,7 +19698,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
@@ -19495,10 +19709,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="218" t="s">
-        <v>333</v>
-      </c>
-      <c r="L31" s="195"/>
+      <c r="K31" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="191"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19507,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
@@ -19518,16 +19732,16 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="218" t="s">
-        <v>332</v>
-      </c>
-      <c r="L32" s="195"/>
+      <c r="K32" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="191"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -19536,8 +19750,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="194"/>
+      <c r="K33" s="222"/>
+      <c r="L33" s="195"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19546,7 +19760,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -19557,12 +19771,12 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="218" t="s">
-        <v>379</v>
-      </c>
-      <c r="L34" s="195"/>
+      <c r="K34" s="223" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" s="191"/>
       <c r="M34" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19571,7 +19785,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="34"/>
@@ -19582,10 +19796,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="218" t="s">
-        <v>376</v>
-      </c>
-      <c r="L35" s="195"/>
+      <c r="K35" s="223" t="s">
+        <v>375</v>
+      </c>
+      <c r="L35" s="191"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19594,7 +19808,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
@@ -19605,10 +19819,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="220" t="s">
-        <v>378</v>
-      </c>
-      <c r="L36" s="221"/>
+      <c r="K36" s="224" t="s">
+        <v>377</v>
+      </c>
+      <c r="L36" s="225"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19623,8 +19837,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="194"/>
+      <c r="K37" s="222"/>
+      <c r="L37" s="195"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -19644,12 +19858,12 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="218" t="s">
+      <c r="K38" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="191"/>
       <c r="M38" s="129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19669,84 +19883,84 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="218" t="s">
+      <c r="K39" s="223" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="195"/>
+      <c r="L39" s="191"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="202">
+      <c r="B40" s="200">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="181" t="s">
+      <c r="C40" s="202" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186" t="s">
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="186"/>
-      <c r="K40" s="179" t="s">
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L40" s="195"/>
-      <c r="M40" s="208"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="197"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="203"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
       <c r="K41" s="84" t="s">
         <v>273</v>
       </c>
       <c r="L41" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="M41" s="209"/>
+      <c r="M41" s="198"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="203"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="203"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
       <c r="K42" s="86" t="s">
         <v>291</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M42" s="209"/>
+      <c r="M42" s="198"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="204"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="207"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="210"/>
+      <c r="M43" s="199"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -19765,10 +19979,10 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="218" t="s">
-        <v>335</v>
-      </c>
-      <c r="L44" s="195"/>
+      <c r="K44" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" s="191"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19788,10 +20002,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="218" t="s">
-        <v>336</v>
-      </c>
-      <c r="L45" s="195"/>
+      <c r="K45" s="223" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" s="191"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -19811,10 +20025,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="218" t="s">
-        <v>337</v>
-      </c>
-      <c r="L46" s="195"/>
+      <c r="K46" s="223" t="s">
+        <v>336</v>
+      </c>
+      <c r="L46" s="191"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19834,10 +20048,10 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="218" t="s">
-        <v>338</v>
-      </c>
-      <c r="L47" s="195"/>
+      <c r="K47" s="223" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" s="191"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19857,10 +20071,10 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="218" t="s">
-        <v>339</v>
-      </c>
-      <c r="L48" s="180"/>
+      <c r="K48" s="223" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" s="189"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19875,8 +20089,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="148"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="219"/>
-      <c r="L49" s="194"/>
+      <c r="K49" s="222"/>
+      <c r="L49" s="195"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19896,10 +20110,10 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="218" t="s">
-        <v>391</v>
-      </c>
-      <c r="L50" s="195"/>
+      <c r="K50" s="223" t="s">
+        <v>390</v>
+      </c>
+      <c r="L50" s="191"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19908,7 +20122,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="25"/>
@@ -19919,12 +20133,12 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="218" t="s">
-        <v>392</v>
-      </c>
-      <c r="L51" s="195"/>
+      <c r="K51" s="223" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" s="191"/>
       <c r="M51" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -19944,10 +20158,10 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="218" t="s">
-        <v>360</v>
-      </c>
-      <c r="L52" s="180"/>
+      <c r="K52" s="223" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" s="189"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19956,7 +20170,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="25"/>
@@ -19967,10 +20181,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="218" t="s">
-        <v>361</v>
-      </c>
-      <c r="L53" s="180"/>
+      <c r="K53" s="223" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" s="189"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19990,10 +20204,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="218" t="s">
-        <v>390</v>
-      </c>
-      <c r="L54" s="180"/>
+      <c r="K54" s="223" t="s">
+        <v>389</v>
+      </c>
+      <c r="L54" s="189"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20013,10 +20227,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="218" t="s">
+      <c r="K55" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="L55" s="180"/>
+      <c r="L55" s="189"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20031,8 +20245,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="219"/>
-      <c r="L56" s="194"/>
+      <c r="K56" s="222"/>
+      <c r="L56" s="195"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20052,12 +20266,12 @@
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="218" t="s">
+      <c r="K57" s="223" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" s="191"/>
+      <c r="M57" s="27" t="s">
         <v>426</v>
-      </c>
-      <c r="L57" s="195"/>
-      <c r="M57" s="27" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20077,10 +20291,10 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="218" t="s">
+      <c r="K58" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="195"/>
+      <c r="L58" s="191"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20100,10 +20314,10 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="218" t="s">
-        <v>340</v>
-      </c>
-      <c r="L59" s="195"/>
+      <c r="K59" s="223" t="s">
+        <v>339</v>
+      </c>
+      <c r="L59" s="191"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20112,7 +20326,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
@@ -20123,10 +20337,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="218" t="s">
-        <v>341</v>
-      </c>
-      <c r="L60" s="195"/>
+      <c r="K60" s="223" t="s">
+        <v>340</v>
+      </c>
+      <c r="L60" s="191"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20146,12 +20360,12 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="218" t="s">
+      <c r="K61" s="223" t="s">
+        <v>369</v>
+      </c>
+      <c r="L61" s="189"/>
+      <c r="M61" s="27" t="s">
         <v>370</v>
-      </c>
-      <c r="L61" s="180"/>
-      <c r="M61" s="27" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="81" x14ac:dyDescent="0.15">
@@ -20171,10 +20385,10 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="218" t="s">
+      <c r="K62" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="L62" s="180"/>
+      <c r="L62" s="189"/>
       <c r="M62" s="27" t="s">
         <v>104</v>
       </c>
@@ -20182,6 +20396,70 @@
   </sheetData>
   <autoFilter ref="B12:M62"/>
   <mergeCells count="80">
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I40:I43"/>
@@ -20198,70 +20476,6 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -20285,7 +20499,9 @@
   </sheetPr>
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -20312,34 +20528,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -20467,32 +20683,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="189" t="s">
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="228"/>
-      <c r="M12" s="184" t="s">
+      <c r="L12" s="226"/>
+      <c r="M12" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="197"/>
-      <c r="C13" s="199"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -20509,14 +20725,14 @@
         <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K13" s="191"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K13" s="217"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="214"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -20530,8 +20746,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="148"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="223"/>
+      <c r="K14" s="222"/>
+      <c r="L14" s="228"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20551,84 +20767,84 @@
       <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="218" t="s">
+      <c r="K15" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="180"/>
+      <c r="L15" s="189"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="202">
+      <c r="B16" s="200">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="230" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186" t="s">
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="179" t="s">
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L16" s="195"/>
-      <c r="M16" s="208"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="197"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="203"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
       <c r="K17" s="88" t="s">
         <v>274</v>
       </c>
       <c r="L17" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="M17" s="209"/>
+      <c r="M17" s="198"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="203"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
       <c r="K18" s="86" t="s">
         <v>264</v>
       </c>
       <c r="L18" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="M18" s="209"/>
+      <c r="M18" s="198"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="224"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="222"/>
-      <c r="M19" s="210"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="199"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -20663,10 +20879,10 @@
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="223" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="180"/>
+      <c r="L21" s="189"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20686,22 +20902,20 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="218" t="s">
-        <v>355</v>
-      </c>
-      <c r="L22" s="180"/>
+      <c r="K22" s="223" t="s">
+        <v>354</v>
+      </c>
+      <c r="L22" s="189"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:M22"/>
   <mergeCells count="23">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -20713,11 +20927,13 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20766,17 +20982,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19" t="s">
         <v>173</v>
       </c>
@@ -20784,18 +21000,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -20911,32 +21127,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="189" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="184" t="s">
+      <c r="L11" s="216"/>
+      <c r="M11" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -20953,14 +21169,14 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -20974,8 +21190,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="194"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20983,24 +21199,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="179" t="s">
-        <v>319</v>
-      </c>
-      <c r="L14" s="195"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="L14" s="191"/>
       <c r="M14" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21008,18 +21224,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="218" t="s">
+      <c r="C15" s="211"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="191"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21027,18 +21243,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="218" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="191"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21053,8 +21269,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="194"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21074,10 +21290,10 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="218" t="s">
+      <c r="K18" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="191"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -21094,8 +21310,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="194"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -21115,12 +21331,12 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="218" t="s">
-        <v>369</v>
-      </c>
-      <c r="L20" s="195"/>
+      <c r="K20" s="223" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="191"/>
       <c r="M20" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -21140,10 +21356,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="191"/>
       <c r="M21" s="27" t="s">
         <v>177</v>
       </c>
@@ -21165,10 +21381,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="180"/>
+      <c r="L22" s="189"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21177,7 +21393,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D23" s="128"/>
       <c r="E23" s="25"/>
@@ -21188,12 +21404,12 @@
       <c r="H23" s="128"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="179" t="s">
+      <c r="K23" s="188" t="s">
+        <v>365</v>
+      </c>
+      <c r="L23" s="191"/>
+      <c r="M23" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="L23" s="195"/>
-      <c r="M23" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21201,22 +21417,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186" t="s">
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="218" t="s">
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="180"/>
+      <c r="L24" s="189"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -21224,20 +21440,20 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="218" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="180"/>
+      <c r="L25" s="189"/>
       <c r="M25" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21252,8 +21468,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="148"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="194"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="195"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21273,10 +21489,10 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="218" t="s">
-        <v>334</v>
-      </c>
-      <c r="L27" s="180"/>
+      <c r="K27" s="223" t="s">
+        <v>333</v>
+      </c>
+      <c r="L27" s="189"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21285,7 +21501,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="25"/>
@@ -21296,10 +21512,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="218" t="s">
-        <v>333</v>
-      </c>
-      <c r="L28" s="180"/>
+      <c r="K28" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" s="189"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21308,7 +21524,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="25"/>
@@ -21319,10 +21535,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="218" t="s">
-        <v>332</v>
-      </c>
-      <c r="L29" s="180"/>
+      <c r="K29" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="L29" s="189"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21337,8 +21553,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="148"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="194"/>
+      <c r="K30" s="222"/>
+      <c r="L30" s="195"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21358,12 +21574,12 @@
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="218" t="s">
+      <c r="K31" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="195"/>
+      <c r="L31" s="191"/>
       <c r="M31" s="129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21383,84 +21599,84 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="218" t="s">
+      <c r="K32" s="223" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="195"/>
+      <c r="L32" s="191"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="202">
+      <c r="B33" s="200">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186" t="s">
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="179" t="s">
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L33" s="195"/>
-      <c r="M33" s="208"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="197"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="230"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
       <c r="K34" s="84" t="s">
         <v>275</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="M34" s="209"/>
+      <c r="M34" s="198"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="230"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
       <c r="K35" s="86" t="s">
         <v>292</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M35" s="209"/>
+      <c r="M35" s="198"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="231"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="179"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="210"/>
+      <c r="B36" s="235"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="199"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -21479,10 +21695,10 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="218" t="s">
-        <v>335</v>
-      </c>
-      <c r="L37" s="180"/>
+      <c r="K37" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" s="189"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21502,10 +21718,10 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="218" t="s">
-        <v>336</v>
-      </c>
-      <c r="L38" s="180"/>
+      <c r="K38" s="223" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" s="189"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21525,10 +21741,10 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="218" t="s">
-        <v>337</v>
-      </c>
-      <c r="L39" s="180"/>
+      <c r="K39" s="223" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" s="189"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21548,10 +21764,10 @@
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="218" t="s">
-        <v>338</v>
-      </c>
-      <c r="L40" s="180"/>
+      <c r="K40" s="223" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" s="189"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21571,10 +21787,10 @@
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="218" t="s">
-        <v>339</v>
-      </c>
-      <c r="L41" s="180"/>
+      <c r="K41" s="223" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" s="189"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21594,10 +21810,10 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="179" t="s">
+      <c r="K42" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="L42" s="180"/>
+      <c r="L42" s="189"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21617,10 +21833,10 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="179" t="s">
+      <c r="K43" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="L43" s="180"/>
+      <c r="L43" s="189"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21640,10 +21856,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="179" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="180"/>
+      <c r="K44" s="188" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" s="189"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21658,8 +21874,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="148"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="219"/>
-      <c r="L45" s="194"/>
+      <c r="K45" s="222"/>
+      <c r="L45" s="195"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21679,10 +21895,10 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="218" t="s">
-        <v>304</v>
-      </c>
-      <c r="L46" s="195"/>
+      <c r="K46" s="223" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="191"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21697,8 +21913,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="148"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="219"/>
-      <c r="L47" s="194"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="195"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21718,45 +21934,36 @@
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="218" t="s">
+      <c r="K48" s="223" t="s">
         <v>228</v>
       </c>
-      <c r="L48" s="195"/>
+      <c r="L48" s="191"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48"/>
   <mergeCells count="67">
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="K11:L12"/>
     <mergeCell ref="K13:L13"/>
@@ -21773,27 +21980,36 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -21847,34 +22063,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -21978,32 +22194,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="189" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="184" t="s">
+      <c r="L11" s="216"/>
+      <c r="M11" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22020,19 +22236,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
       <c r="C13" s="142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
@@ -22041,8 +22257,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="148"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="194"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22051,7 +22267,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="34"/>
@@ -22062,10 +22278,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="218" t="s">
-        <v>404</v>
-      </c>
-      <c r="L14" s="195"/>
+      <c r="K14" s="223" t="s">
+        <v>403</v>
+      </c>
+      <c r="L14" s="191"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22074,7 +22290,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="34"/>
@@ -22085,10 +22301,10 @@
         <v>8</v>
       </c>
       <c r="J15" s="35"/>
-      <c r="K15" s="218" t="s">
-        <v>406</v>
-      </c>
-      <c r="L15" s="180"/>
+      <c r="K15" s="223" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" s="189"/>
       <c r="M15" s="136"/>
     </row>
   </sheetData>
@@ -22151,17 +22367,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -22169,18 +22385,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="168" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="170"/>
       <c r="K3" s="55" t="s">
         <v>219</v>
       </c>
@@ -22294,32 +22510,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="189" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="184" t="s">
+      <c r="L11" s="216"/>
+      <c r="M11" s="213" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22336,14 +22552,14 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="185"/>
+        <v>445</v>
+      </c>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -22357,8 +22573,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="194"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -22366,24 +22582,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="186" t="s">
+      <c r="D14" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="179" t="s">
-        <v>319</v>
-      </c>
-      <c r="L14" s="195"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="L14" s="191"/>
       <c r="M14" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -22391,18 +22607,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="218" t="s">
+      <c r="C15" s="211"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="191"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22410,18 +22626,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="218" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="191"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22436,8 +22652,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="194"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22457,10 +22673,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="218" t="s">
+      <c r="K18" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="191"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -22477,8 +22693,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="194"/>
+      <c r="K19" s="222"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22498,10 +22714,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="218" t="s">
+      <c r="K20" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="195"/>
+      <c r="L20" s="191"/>
       <c r="M20" s="27" t="s">
         <v>89</v>
       </c>
@@ -22523,10 +22739,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="191"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22541,8 +22757,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="194"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="195"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -22562,12 +22778,12 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="218" t="s">
-        <v>369</v>
-      </c>
-      <c r="L23" s="195"/>
+      <c r="K23" s="223" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" s="191"/>
       <c r="M23" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -22587,10 +22803,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="218" t="s">
+      <c r="K24" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="L24" s="180"/>
+      <c r="L24" s="189"/>
       <c r="M24" s="27" t="s">
         <v>177</v>
       </c>
@@ -22612,10 +22828,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="218" t="s">
+      <c r="K25" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="180"/>
+      <c r="L25" s="189"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22624,7 +22840,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="128" t="s">
         <v>8</v>
@@ -22635,12 +22851,12 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="179" t="s">
+      <c r="K26" s="188" t="s">
+        <v>365</v>
+      </c>
+      <c r="L26" s="191"/>
+      <c r="M26" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="L26" s="195"/>
-      <c r="M26" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -22648,22 +22864,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="186" t="s">
+      <c r="D27" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="218" t="s">
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="180"/>
+      <c r="L27" s="189"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -22671,20 +22887,20 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="218" t="s">
+      <c r="C28" s="211"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="180"/>
+      <c r="L28" s="189"/>
       <c r="M28" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22699,8 +22915,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="148"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="194"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="195"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22720,10 +22936,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="218" t="s">
-        <v>334</v>
-      </c>
-      <c r="L30" s="195"/>
+      <c r="K30" s="223" t="s">
+        <v>333</v>
+      </c>
+      <c r="L30" s="191"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22732,7 +22948,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>8</v>
@@ -22743,10 +22959,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="147"/>
-      <c r="K31" s="218" t="s">
-        <v>333</v>
-      </c>
-      <c r="L31" s="195"/>
+      <c r="K31" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="191"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22755,7 +22971,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>8</v>
@@ -22766,10 +22982,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="147"/>
-      <c r="K32" s="218" t="s">
-        <v>342</v>
-      </c>
-      <c r="L32" s="195"/>
+      <c r="K32" s="223" t="s">
+        <v>341</v>
+      </c>
+      <c r="L32" s="191"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22784,8 +23000,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="194"/>
+      <c r="K33" s="222"/>
+      <c r="L33" s="195"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -22794,7 +23010,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>8</v>
@@ -22805,12 +23021,12 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="218" t="s">
-        <v>379</v>
-      </c>
-      <c r="L34" s="195"/>
+      <c r="K34" s="223" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" s="191"/>
       <c r="M34" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22819,7 +23035,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>8</v>
@@ -22830,10 +23046,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="218" t="s">
-        <v>376</v>
-      </c>
-      <c r="L35" s="195"/>
+      <c r="K35" s="223" t="s">
+        <v>375</v>
+      </c>
+      <c r="L35" s="191"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22842,7 +23058,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>8</v>
@@ -22853,10 +23069,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="220" t="s">
-        <v>378</v>
-      </c>
-      <c r="L36" s="221"/>
+      <c r="K36" s="224" t="s">
+        <v>377</v>
+      </c>
+      <c r="L36" s="225"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22871,8 +23087,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="148"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="194"/>
+      <c r="K37" s="222"/>
+      <c r="L37" s="195"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22892,12 +23108,12 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="218" t="s">
+      <c r="K38" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="191"/>
       <c r="M38" s="129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22917,10 +23133,10 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="218" t="s">
-        <v>343</v>
-      </c>
-      <c r="L39" s="195"/>
+      <c r="K39" s="223" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" s="191"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22940,10 +23156,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="218" t="s">
-        <v>344</v>
-      </c>
-      <c r="L40" s="195"/>
+      <c r="K40" s="223" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" s="191"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22963,10 +23179,10 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="218" t="s">
+      <c r="K41" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="195"/>
+      <c r="L41" s="191"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22986,10 +23202,10 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="218" t="s">
+      <c r="K42" s="223" t="s">
         <v>162</v>
       </c>
-      <c r="L42" s="180"/>
+      <c r="L42" s="189"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23009,10 +23225,10 @@
       <c r="H43" s="28"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="218" t="s">
-        <v>345</v>
-      </c>
-      <c r="L43" s="180"/>
+      <c r="K43" s="223" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" s="189"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23032,10 +23248,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="218" t="s">
-        <v>346</v>
-      </c>
-      <c r="L44" s="180"/>
+      <c r="K44" s="223" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" s="189"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23055,10 +23271,10 @@
       <c r="H45" s="28"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="218" t="s">
-        <v>347</v>
-      </c>
-      <c r="L45" s="180"/>
+      <c r="K45" s="223" t="s">
+        <v>346</v>
+      </c>
+      <c r="L45" s="189"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23078,10 +23294,10 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="215" t="s">
-        <v>327</v>
-      </c>
-      <c r="L46" s="180"/>
+      <c r="K46" s="219" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" s="189"/>
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23101,10 +23317,10 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="45"/>
-      <c r="K47" s="215" t="s">
-        <v>348</v>
-      </c>
-      <c r="L47" s="240"/>
+      <c r="K47" s="219" t="s">
+        <v>347</v>
+      </c>
+      <c r="L47" s="239"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23124,10 +23340,10 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="215" t="s">
-        <v>349</v>
-      </c>
-      <c r="L48" s="180"/>
+      <c r="K48" s="219" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" s="189"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23147,10 +23363,10 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="215" t="s">
-        <v>350</v>
-      </c>
-      <c r="L49" s="180"/>
+      <c r="K49" s="219" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" s="189"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23170,10 +23386,10 @@
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="215" t="s">
-        <v>351</v>
-      </c>
-      <c r="L50" s="180"/>
+      <c r="K50" s="219" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" s="189"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23182,7 +23398,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="25"/>
@@ -23193,10 +23409,10 @@
         <v>8</v>
       </c>
       <c r="J51" s="25"/>
-      <c r="K51" s="215" t="s">
-        <v>363</v>
-      </c>
-      <c r="L51" s="180"/>
+      <c r="K51" s="219" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" s="189"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23205,7 +23421,7 @@
         <v>32</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="25"/>
@@ -23216,10 +23432,10 @@
       <c r="J52" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="215" t="s">
-        <v>450</v>
-      </c>
-      <c r="L52" s="180"/>
+      <c r="K52" s="219" t="s">
+        <v>449</v>
+      </c>
+      <c r="L52" s="189"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -23239,10 +23455,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="179" t="s">
+      <c r="K53" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="180"/>
+      <c r="L53" s="189"/>
       <c r="M53" s="29" t="s">
         <v>116</v>
       </c>
@@ -23264,10 +23480,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="218" t="s">
+      <c r="K54" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="L54" s="180"/>
+      <c r="L54" s="189"/>
       <c r="M54" s="29" t="s">
         <v>100</v>
       </c>
@@ -23289,10 +23505,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="218" t="s">
+      <c r="K55" s="223" t="s">
         <v>165</v>
       </c>
-      <c r="L55" s="180"/>
+      <c r="L55" s="189"/>
       <c r="M55" s="29" t="s">
         <v>107</v>
       </c>
@@ -23309,226 +23525,242 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="148"/>
-      <c r="K56" s="219"/>
-      <c r="L56" s="194"/>
+      <c r="K56" s="222"/>
+      <c r="L56" s="195"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="202">
+      <c r="B57" s="200">
         <f>MAX(B$11:B56)+1</f>
         <v>36</v>
       </c>
-      <c r="C57" s="225" t="s">
+      <c r="C57" s="230" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="186"/>
-      <c r="K57" s="179" t="s">
+      <c r="D57" s="245"/>
+      <c r="E57" s="245"/>
+      <c r="F57" s="245"/>
+      <c r="G57" s="245"/>
+      <c r="H57" s="245"/>
+      <c r="I57" s="245"/>
+      <c r="J57" s="245"/>
+      <c r="K57" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="L57" s="195"/>
-      <c r="M57" s="208"/>
+      <c r="L57" s="191"/>
+      <c r="M57" s="197"/>
     </row>
     <row r="58" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="203"/>
-      <c r="C58" s="226"/>
-      <c r="D58" s="203"/>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="203"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="203"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="231"/>
+      <c r="D58" s="246"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="246"/>
+      <c r="I58" s="246"/>
+      <c r="J58" s="246"/>
       <c r="K58" s="93" t="s">
         <v>276</v>
       </c>
       <c r="L58" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="M58" s="209"/>
+      <c r="M58" s="198"/>
     </row>
     <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="203"/>
-      <c r="C59" s="226"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="203"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
       <c r="K59" s="86" t="s">
         <v>293</v>
       </c>
       <c r="L59" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M59" s="209"/>
+      <c r="M59" s="198"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="203"/>
-      <c r="C60" s="226"/>
-      <c r="D60" s="203"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="231"/>
+      <c r="D60" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
       <c r="K60" s="90" t="s">
         <v>294</v>
       </c>
       <c r="L60" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="M60" s="209"/>
+      <c r="M60" s="198"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="203"/>
-      <c r="C61" s="226"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="203"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="152"/>
       <c r="K61" s="86" t="s">
         <v>295</v>
       </c>
       <c r="L61" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="M61" s="209"/>
+      <c r="M61" s="198"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="203"/>
-      <c r="C62" s="226"/>
-      <c r="D62" s="203"/>
-      <c r="E62" s="203"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="203"/>
-      <c r="H62" s="203"/>
-      <c r="I62" s="203"/>
-      <c r="J62" s="203"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="231"/>
+      <c r="D62" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="152"/>
       <c r="K62" s="86" t="s">
         <v>296</v>
       </c>
       <c r="L62" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="M62" s="209"/>
+      <c r="M62" s="198"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="203"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="203"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="203"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E63" s="152"/>
+      <c r="F63" s="152"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="152"/>
       <c r="K63" s="86" t="s">
         <v>297</v>
       </c>
       <c r="L63" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="M63" s="209"/>
+      <c r="M63" s="198"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="203"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="203"/>
-      <c r="E64" s="203"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="203"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="203"/>
-      <c r="J64" s="203"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="231"/>
+      <c r="D64" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E64" s="152"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="152"/>
       <c r="K64" s="86" t="s">
         <v>298</v>
       </c>
       <c r="L64" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M64" s="209"/>
+      <c r="M64" s="198"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="203"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="203"/>
-      <c r="E65" s="203"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="203"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="231"/>
+      <c r="D65" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E65" s="152"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
       <c r="K65" s="86" t="s">
         <v>299</v>
       </c>
       <c r="L65" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="M65" s="209"/>
+      <c r="M65" s="198"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="203"/>
-      <c r="C66" s="226"/>
-      <c r="D66" s="203"/>
-      <c r="E66" s="203"/>
-      <c r="F66" s="203"/>
-      <c r="G66" s="203"/>
-      <c r="H66" s="203"/>
-      <c r="I66" s="203"/>
-      <c r="J66" s="203"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="152"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="152"/>
       <c r="K66" s="86" t="s">
         <v>300</v>
       </c>
       <c r="L66" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="M66" s="209"/>
+      <c r="M66" s="198"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="203"/>
-      <c r="C67" s="226"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="203"/>
+      <c r="B67" s="186"/>
+      <c r="C67" s="231"/>
+      <c r="D67" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E67" s="152"/>
+      <c r="F67" s="152"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="152"/>
       <c r="K67" s="86" t="s">
         <v>301</v>
       </c>
       <c r="L67" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="M67" s="209"/>
+      <c r="M67" s="198"/>
     </row>
     <row r="68" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="204"/>
-      <c r="C68" s="233"/>
-      <c r="D68" s="207"/>
-      <c r="E68" s="207"/>
-      <c r="F68" s="207"/>
-      <c r="G68" s="207"/>
-      <c r="H68" s="207"/>
-      <c r="I68" s="207"/>
-      <c r="J68" s="207"/>
-      <c r="K68" s="179"/>
-      <c r="L68" s="195"/>
-      <c r="M68" s="210"/>
+      <c r="B68" s="201"/>
+      <c r="C68" s="241"/>
+      <c r="D68" s="247"/>
+      <c r="E68" s="247"/>
+      <c r="F68" s="247"/>
+      <c r="G68" s="247"/>
+      <c r="H68" s="247"/>
+      <c r="I68" s="247"/>
+      <c r="J68" s="247"/>
+      <c r="K68" s="188"/>
+      <c r="L68" s="191"/>
+      <c r="M68" s="199"/>
     </row>
     <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
@@ -23542,8 +23774,8 @@
       <c r="H69" s="7"/>
       <c r="I69" s="148"/>
       <c r="J69" s="148"/>
-      <c r="K69" s="219"/>
-      <c r="L69" s="194"/>
+      <c r="K69" s="222"/>
+      <c r="L69" s="195"/>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23563,10 +23795,10 @@
       <c r="H70" s="24"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="218" t="s">
-        <v>397</v>
-      </c>
-      <c r="L70" s="195"/>
+      <c r="K70" s="223" t="s">
+        <v>396</v>
+      </c>
+      <c r="L70" s="191"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23575,7 +23807,7 @@
         <v>38</v>
       </c>
       <c r="C71" s="131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D71" s="132" t="s">
         <v>8</v>
@@ -23586,12 +23818,12 @@
       <c r="H71" s="132"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="218" t="s">
-        <v>393</v>
-      </c>
-      <c r="L71" s="195"/>
+      <c r="K71" s="223" t="s">
+        <v>392</v>
+      </c>
+      <c r="L71" s="191"/>
       <c r="M71" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23611,10 +23843,10 @@
       <c r="H72" s="69"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="218" t="s">
-        <v>352</v>
-      </c>
-      <c r="L72" s="180"/>
+      <c r="K72" s="223" t="s">
+        <v>351</v>
+      </c>
+      <c r="L72" s="189"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23623,7 +23855,7 @@
         <v>40</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D73" s="33" t="s">
         <v>216</v>
@@ -23634,10 +23866,10 @@
       <c r="H73" s="35"/>
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
-      <c r="K73" s="218" t="s">
-        <v>353</v>
-      </c>
-      <c r="L73" s="180"/>
+      <c r="K73" s="223" t="s">
+        <v>352</v>
+      </c>
+      <c r="L73" s="189"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23657,10 +23889,10 @@
       <c r="H74" s="132"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="218" t="s">
-        <v>394</v>
-      </c>
-      <c r="L74" s="180"/>
+      <c r="K74" s="223" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" s="189"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -23680,27 +23912,27 @@
       <c r="H75" s="35"/>
       <c r="I75" s="34"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="218" t="s">
+      <c r="K75" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="L75" s="180"/>
+      <c r="L75" s="189"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
-      <c r="C76" s="237" t="s">
+      <c r="C76" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="238"/>
-      <c r="E76" s="238"/>
-      <c r="F76" s="238"/>
-      <c r="G76" s="238"/>
-      <c r="H76" s="238"/>
-      <c r="I76" s="238"/>
-      <c r="J76" s="238"/>
-      <c r="K76" s="238"/>
-      <c r="L76" s="238"/>
-      <c r="M76" s="239"/>
+      <c r="D76" s="237"/>
+      <c r="E76" s="237"/>
+      <c r="F76" s="237"/>
+      <c r="G76" s="237"/>
+      <c r="H76" s="237"/>
+      <c r="I76" s="237"/>
+      <c r="J76" s="237"/>
+      <c r="K76" s="237"/>
+      <c r="L76" s="237"/>
+      <c r="M76" s="238"/>
     </row>
     <row r="77" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
@@ -23719,10 +23951,10 @@
       <c r="H77" s="35"/>
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="236" t="s">
+      <c r="K77" s="244" t="s">
         <v>217</v>
       </c>
-      <c r="L77" s="195"/>
+      <c r="L77" s="191"/>
       <c r="M77" s="29" t="s">
         <v>222</v>
       </c>
@@ -23744,10 +23976,10 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
-      <c r="K78" s="218" t="s">
+      <c r="K78" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="L78" s="195"/>
+      <c r="L78" s="191"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23767,10 +23999,10 @@
       <c r="H79" s="47"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="218" t="s">
+      <c r="K79" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="L79" s="195"/>
+      <c r="L79" s="191"/>
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23790,10 +24022,10 @@
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="34"/>
-      <c r="K80" s="218" t="s">
+      <c r="K80" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="L80" s="195"/>
+      <c r="L80" s="191"/>
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23813,10 +24045,10 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="218" t="s">
-        <v>354</v>
-      </c>
-      <c r="L81" s="195"/>
+      <c r="K81" s="223" t="s">
+        <v>353</v>
+      </c>
+      <c r="L81" s="191"/>
       <c r="M81" s="49"/>
     </row>
     <row r="82" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23825,7 +24057,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="25"/>
@@ -23836,27 +24068,27 @@
         <v>8</v>
       </c>
       <c r="J82" s="25"/>
-      <c r="K82" s="218" t="s">
-        <v>408</v>
-      </c>
-      <c r="L82" s="195"/>
+      <c r="K82" s="223" t="s">
+        <v>407</v>
+      </c>
+      <c r="L82" s="191"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
-      <c r="C83" s="237" t="s">
+      <c r="C83" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="238"/>
-      <c r="E83" s="238"/>
-      <c r="F83" s="238"/>
-      <c r="G83" s="238"/>
-      <c r="H83" s="238"/>
-      <c r="I83" s="238"/>
-      <c r="J83" s="238"/>
-      <c r="K83" s="238"/>
-      <c r="L83" s="238"/>
-      <c r="M83" s="239"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="237"/>
+      <c r="F83" s="237"/>
+      <c r="G83" s="237"/>
+      <c r="H83" s="237"/>
+      <c r="I83" s="237"/>
+      <c r="J83" s="237"/>
+      <c r="K83" s="237"/>
+      <c r="L83" s="237"/>
+      <c r="M83" s="238"/>
     </row>
     <row r="84" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
@@ -23864,7 +24096,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>8</v>
@@ -23875,10 +24107,10 @@
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="215" t="s">
-        <v>399</v>
-      </c>
-      <c r="L84" s="234"/>
+      <c r="K84" s="219" t="s">
+        <v>398</v>
+      </c>
+      <c r="L84" s="242"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23898,10 +24130,10 @@
       <c r="H85" s="35"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
-      <c r="K85" s="179" t="s">
+      <c r="K85" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="L85" s="235"/>
+      <c r="L85" s="243"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23921,12 +24153,12 @@
       <c r="H86" s="35"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="236" t="s">
-        <v>395</v>
-      </c>
-      <c r="L86" s="235"/>
+      <c r="K86" s="244" t="s">
+        <v>394</v>
+      </c>
+      <c r="L86" s="243"/>
       <c r="M86" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23946,37 +24178,61 @@
       <c r="H87" s="35"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="232" t="s">
+      <c r="K87" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="L87" s="180"/>
+      <c r="L87" s="189"/>
       <c r="M87" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M87"/>
-  <mergeCells count="98">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I57:I68"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I14:I16"/>
+  <mergeCells count="91">
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B57:B68"/>
+    <mergeCell ref="C57:C68"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M57:M68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="C83:M83"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -23993,66 +24249,35 @@
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="H27:H28"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M57:M68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="B57:B68"/>
-    <mergeCell ref="C57:C68"/>
-    <mergeCell ref="D57:D68"/>
-    <mergeCell ref="E57:E68"/>
-    <mergeCell ref="F57:F68"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="H57:H68"/>
-    <mergeCell ref="J57:J68"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HA構成(Ansible Tower)'!$B$13:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'HA構成(Ansible)'!$B$12:$M$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'HA構成(Cobbler)'!$B$12:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HA構成(DBMS)'!$B$11:$M$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HA構成(Terraform)'!$B$12:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA構成(Web・AP)'!$B$12:$M$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA構成(DBMS)'!$A$1:$M$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'HA構成(Web・AP)'!$A$1:$M$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$M$25</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="463">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -12088,6 +12088,48 @@
   </si>
   <si>
     <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のパッケージをインストールしてください。
+【CentOS7、RHEL7の場合】
+MariaDB
+【CentOS8、CentOS Stream8、RHEL8の場合】
+mariadb</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンラインの場合は以下のコマンドでリポジトリを有効にしてください。
+【CentOS7、RHEL7の場合】
+curl -sS https://downloads.mariadb.com/MariaDB/mariadb_repo_setup | bash
+【CentOS8、CentOS Stream8、RHEL8の場合】
+リポジトリは追加しません
+オンラインの場合は以下のコマンドでインストールしてください。
+【CentOS7、RHEL7の場合】
+yum install -y MariaDB
+【CentOS8、CentOS Stream8、RHEL8の場合】
+yum install -y mariadb</t>
+    <rPh sb="23" eb="25">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>イカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12948,7 +12990,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13411,6 +13453,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13441,6 +13525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13489,14 +13582,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13507,23 +13606,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13531,132 +13690,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -13665,51 +13767,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14741,22 +14798,22 @@
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="155"/>
-      <c r="Q73" s="155"/>
-      <c r="R73" s="155"/>
-      <c r="S73" s="155"/>
-      <c r="T73" s="155"/>
-      <c r="U73" s="154"/>
-      <c r="V73" s="155"/>
-      <c r="W73" s="155"/>
-      <c r="X73" s="155"/>
-      <c r="Y73" s="155"/>
-      <c r="Z73" s="155"/>
-      <c r="AA73" s="155"/>
-      <c r="AB73" s="155"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="169"/>
+      <c r="S73" s="169"/>
+      <c r="T73" s="169"/>
+      <c r="U73" s="168"/>
+      <c r="V73" s="169"/>
+      <c r="W73" s="169"/>
+      <c r="X73" s="169"/>
+      <c r="Y73" s="169"/>
+      <c r="Z73" s="169"/>
+      <c r="AA73" s="169"/>
+      <c r="AB73" s="169"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -14955,29 +15012,29 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
-      <c r="C86" s="158" t="s">
+      <c r="C86" s="172" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="162" t="s">
+      <c r="D86" s="176" t="s">
         <v>307</v>
       </c>
-      <c r="E86" s="156" t="s">
+      <c r="E86" s="170" t="s">
         <v>306</v>
       </c>
-      <c r="F86" s="159" t="s">
+      <c r="F86" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="G86" s="160"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="161"/>
+      <c r="G86" s="174"/>
+      <c r="H86" s="174"/>
+      <c r="I86" s="174"/>
+      <c r="J86" s="175"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="64"/>
-      <c r="C87" s="158"/>
-      <c r="D87" s="163"/>
-      <c r="E87" s="157"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="177"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="97" t="s">
         <v>209</v>
       </c>
@@ -15745,37 +15802,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="187"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -15850,32 +15907,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="172" t="s">
+      <c r="C9" s="192"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="171" t="s">
+      <c r="F9" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="164" t="s">
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="181" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="173"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="190"/>
       <c r="F10" s="75" t="s">
         <v>241</v>
       </c>
@@ -15897,14 +15954,14 @@
       <c r="L10" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="M10" s="165"/>
+      <c r="M10" s="182"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
@@ -15928,11 +15985,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -15956,11 +16013,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
@@ -15984,11 +16041,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="178" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
@@ -16010,11 +16067,11 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16032,11 +16089,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="178" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -16056,11 +16113,11 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="178" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
@@ -16080,11 +16137,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
@@ -16104,11 +16161,11 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="178" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
@@ -16128,11 +16185,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
@@ -16152,11 +16209,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
@@ -16176,11 +16233,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16200,11 +16257,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="178" t="s">
         <v>457</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
@@ -16222,11 +16279,11 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
@@ -16259,6 +16316,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -16268,17 +16336,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16296,10 +16353,10 @@
   </sheetPr>
   <dimension ref="B1:M46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16327,17 +16384,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>170</v>
       </c>
@@ -16345,18 +16402,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="54" t="s">
         <v>171</v>
       </c>
@@ -16454,32 +16511,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="207" t="s">
+      <c r="C10" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="209" t="s">
+      <c r="D10" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="215" t="s">
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="216"/>
-      <c r="M10" s="213" t="s">
+      <c r="L10" s="206"/>
+      <c r="M10" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="206"/>
-      <c r="C11" s="208"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="216"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -16501,9 +16558,9 @@
       <c r="J11" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K11" s="217"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="214"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="201"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -16517,8 +16574,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="210"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16526,22 +16583,22 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="202" t="s">
+      <c r="C13" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="188" t="s">
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="L13" s="191"/>
+      <c r="L13" s="212"/>
       <c r="M13" s="16" t="s">
         <v>319</v>
       </c>
@@ -16551,18 +16608,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="211"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="188" t="s">
+      <c r="C14" s="198"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="211" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16570,18 +16627,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="212"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="188" t="s">
+      <c r="C15" s="199"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="191"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16596,8 +16653,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="195"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="210"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16617,10 +16674,10 @@
       <c r="H17" s="73"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="188" t="s">
+      <c r="K17" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="191"/>
+      <c r="L17" s="212"/>
       <c r="M17" s="27" t="s">
         <v>99</v>
       </c>
@@ -16637,8 +16694,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="195"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="210"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16658,95 +16715,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="190" t="s">
+      <c r="K19" s="228" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="191"/>
+      <c r="L19" s="212"/>
       <c r="M19" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="200">
+      <c r="B20" s="219">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="197" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="183" t="s">
+      <c r="D20" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="188" t="s">
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="191"/>
-      <c r="M20" s="197"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="225"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="186">
+      <c r="B21" s="220">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
       <c r="K21" s="84" t="s">
         <v>279</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="M21" s="198"/>
+      <c r="M21" s="226"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="186">
+      <c r="B22" s="220">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
       <c r="K22" s="86" t="s">
         <v>184</v>
       </c>
       <c r="L22" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="M22" s="198"/>
+      <c r="M22" s="226"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="201">
+      <c r="B23" s="221">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="199"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="227"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -16781,10 +16838,10 @@
       <c r="H25" s="73"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="188" t="s">
+      <c r="K25" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="L25" s="189"/>
+      <c r="L25" s="229"/>
       <c r="M25" s="27" t="s">
         <v>435</v>
       </c>
@@ -16794,7 +16851,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="197" t="s">
         <v>212</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -16806,10 +16863,10 @@
       <c r="H26" s="73"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="188" t="s">
+      <c r="K26" s="211" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="189"/>
+      <c r="L26" s="229"/>
       <c r="M26" s="27" t="s">
         <v>120</v>
       </c>
@@ -16819,7 +16876,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="198"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -16829,10 +16886,10 @@
       <c r="H27" s="73"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="188" t="s">
+      <c r="K27" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="189"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16840,7 +16897,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="212"/>
+      <c r="C28" s="199"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -16850,10 +16907,10 @@
       <c r="H28" s="73"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="188" t="s">
+      <c r="K28" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="189"/>
+      <c r="L28" s="229"/>
       <c r="M28" s="27" t="s">
         <v>122</v>
       </c>
@@ -16875,10 +16932,10 @@
       <c r="H29" s="73"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="188" t="s">
+      <c r="K29" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="189"/>
+      <c r="L29" s="229"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16898,10 +16955,10 @@
       <c r="H30" s="73"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="188" t="s">
+      <c r="K30" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="189"/>
+      <c r="L30" s="229"/>
       <c r="M30" s="129" t="s">
         <v>384</v>
       </c>
@@ -16923,10 +16980,10 @@
       <c r="H31" s="73"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="188" t="s">
+      <c r="K31" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="L31" s="189"/>
+      <c r="L31" s="229"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16946,10 +17003,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="188" t="s">
+      <c r="K32" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="189"/>
+      <c r="L32" s="229"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16964,8 +17021,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="195"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="210"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16985,10 +17042,10 @@
       <c r="H34" s="73"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="196" t="s">
+      <c r="K34" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="L34" s="191"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17008,10 +17065,10 @@
       <c r="H35" s="73"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="196" t="s">
+      <c r="K35" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="L35" s="191"/>
+      <c r="L35" s="212"/>
       <c r="M35" s="129" t="s">
         <v>385</v>
       </c>
@@ -17033,10 +17090,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="196" t="s">
+      <c r="K36" s="230" t="s">
         <v>251</v>
       </c>
-      <c r="L36" s="191"/>
+      <c r="L36" s="212"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17056,10 +17113,10 @@
       <c r="H37" s="73"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="196" t="s">
+      <c r="K37" s="230" t="s">
         <v>252</v>
       </c>
-      <c r="L37" s="191"/>
+      <c r="L37" s="212"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17079,10 +17136,10 @@
       <c r="H38" s="73"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="188" t="s">
+      <c r="K38" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="191"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17102,10 +17159,10 @@
       <c r="H39" s="73"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="188" t="s">
+      <c r="K39" s="211" t="s">
         <v>410</v>
       </c>
-      <c r="L39" s="191"/>
+      <c r="L39" s="212"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -17125,10 +17182,10 @@
       <c r="H40" s="73"/>
       <c r="I40" s="25"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="188" t="s">
+      <c r="K40" s="211" t="s">
         <v>411</v>
       </c>
-      <c r="L40" s="189"/>
+      <c r="L40" s="229"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17148,10 +17205,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="188" t="s">
+      <c r="K41" s="211" t="s">
         <v>412</v>
       </c>
-      <c r="L41" s="189"/>
+      <c r="L41" s="229"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17171,10 +17228,10 @@
       <c r="H42" s="74"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="231" t="s">
         <v>413</v>
       </c>
-      <c r="L42" s="193"/>
+      <c r="L42" s="232"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17196,10 +17253,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="188" t="s">
+      <c r="K43" s="211" t="s">
         <v>414</v>
       </c>
-      <c r="L43" s="189"/>
+      <c r="L43" s="229"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17219,10 +17276,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="188" t="s">
+      <c r="K44" s="211" t="s">
         <v>415</v>
       </c>
-      <c r="L44" s="189"/>
+      <c r="L44" s="229"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17242,10 +17299,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="34"/>
-      <c r="K45" s="188" t="s">
+      <c r="K45" s="211" t="s">
         <v>416</v>
       </c>
-      <c r="L45" s="189"/>
+      <c r="L45" s="229"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17265,57 +17322,15 @@
       <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="188" t="s">
+      <c r="K46" s="211" t="s">
         <v>447</v>
       </c>
-      <c r="L46" s="189"/>
+      <c r="L46" s="229"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:M46"/>
   <mergeCells count="58">
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="K45:L45"/>
@@ -17332,6 +17347,48 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17350,9 +17407,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M77"/>
+  <dimension ref="B1:M79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
@@ -17384,17 +17441,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -17402,18 +17459,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -17527,32 +17584,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="215" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="216"/>
-      <c r="M11" s="213" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="206"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -17574,9 +17631,9 @@
       <c r="J12" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -17590,8 +17647,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="195"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17599,22 +17656,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="202" t="s">
+      <c r="C14" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="188" t="s">
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="16" t="s">
         <v>319</v>
       </c>
@@ -17624,18 +17681,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="188" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="211" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="189"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17643,18 +17700,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="188" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="189"/>
+      <c r="L16" s="229"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17690,87 +17747,78 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="188" t="s">
+      <c r="K18" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="189"/>
+      <c r="L18" s="229"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" ht="189" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <f>MAX(B$11:B19)+1</f>
         <v>5</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="154" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="188" t="s">
-        <v>363</v>
-      </c>
-      <c r="L20" s="191"/>
-      <c r="M20" s="27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
-        <f>MAX(B$11:B20)+1</f>
-        <v>6</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="188" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" s="191"/>
-      <c r="M21" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="211" t="s">
+        <v>461</v>
+      </c>
+      <c r="L20" s="229"/>
+      <c r="M20" s="158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="189" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <f>MAX(B$11:B21)+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>8</v>
@@ -17781,312 +17829,322 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="191"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="211" t="s">
+        <v>363</v>
+      </c>
+      <c r="L22" s="212"/>
+      <c r="M22" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <f>MAX(B$11:B22)+1</f>
-        <v>8</v>
-      </c>
-      <c r="C23" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="188" t="s">
-        <v>365</v>
-      </c>
-      <c r="L23" s="191"/>
+      <c r="K23" s="211" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="212"/>
       <c r="M23" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <f>MAX(B$11:B23)+1</f>
-        <v>9</v>
-      </c>
-      <c r="C24" s="202" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="188" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="191"/>
+      <c r="C24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="211" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="212"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <f>MAX(B$11:B24)+1</f>
+        <v>9</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="211" t="s">
+        <v>365</v>
+      </c>
+      <c r="L25" s="212"/>
+      <c r="M25" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <f>MAX(B$11:B25)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="188" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="191"/>
-      <c r="M25" s="27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
-      <c r="C26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="197" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="211" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="212"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="188" t="s">
-        <v>321</v>
-      </c>
-      <c r="L27" s="189"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1">
-        <f>MAX(B$11:B27)+1</f>
-        <v>12</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="188" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" s="189"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="198"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="212"/>
+      <c r="M27" s="27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <f>MAX(B$11:B28)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="211" t="s">
+        <v>321</v>
+      </c>
+      <c r="L29" s="229"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
+        <f>MAX(B$11:B29)+1</f>
         <v>13</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="C30" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="188" t="s">
-        <v>323</v>
-      </c>
-      <c r="L29" s="189"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="1"/>
-      <c r="C30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="211" t="s">
+        <v>322</v>
+      </c>
+      <c r="L30" s="229"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
         <f>MAX(B$11:B30)+1</f>
         <v>14</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="L31" s="229"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <f>MAX(B$11:B32)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D33" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="196" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="230" t="s">
         <v>261</v>
       </c>
-      <c r="L31" s="191"/>
-      <c r="M31" s="129" t="s">
+      <c r="L33" s="212"/>
+      <c r="M33" s="129" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="1">
-        <f>MAX(B$11:B31)+1</f>
-        <v>15</v>
-      </c>
-      <c r="C32" s="76" t="s">
+    <row r="34" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <f>MAX(B$11:B33)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C34" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D34" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="196" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="230" t="s">
         <v>456</v>
       </c>
-      <c r="L32" s="191"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="200">
-        <f>MAX(B$11:B32)+1</f>
-        <v>16</v>
-      </c>
-      <c r="C33" s="202" t="s">
+      <c r="L34" s="212"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="219">
+        <f>MAX(B$11:B34)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C35" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="248"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="188" t="s">
+      <c r="D35" s="162"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L33" s="191"/>
-      <c r="M33" s="197"/>
-    </row>
-    <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="186"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="84" t="s">
+      <c r="L35" s="212"/>
+      <c r="M35" s="225"/>
+    </row>
+    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="220"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L36" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="M34" s="198"/>
-    </row>
-    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="186"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="L35" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M35" s="198"/>
-    </row>
-    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="186"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="L36" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="M36" s="198"/>
+      <c r="M36" s="226"/>
     </row>
     <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="186"/>
-      <c r="C37" s="203"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="222"/>
       <c r="D37" s="28" t="s">
         <v>8</v>
       </c>
@@ -18097,16 +18155,16 @@
       <c r="I37" s="152"/>
       <c r="J37" s="152"/>
       <c r="K37" s="86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L37" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="M37" s="198"/>
+        <v>264</v>
+      </c>
+      <c r="M37" s="226"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="186"/>
-      <c r="C38" s="203"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="222"/>
       <c r="D38" s="28" t="s">
         <v>8</v>
       </c>
@@ -18117,16 +18175,16 @@
       <c r="I38" s="152"/>
       <c r="J38" s="152"/>
       <c r="K38" s="86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L38" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="M38" s="198"/>
-    </row>
-    <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="186"/>
-      <c r="C39" s="203"/>
+        <v>265</v>
+      </c>
+      <c r="M38" s="226"/>
+    </row>
+    <row r="39" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="220"/>
+      <c r="C39" s="222"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
@@ -18137,16 +18195,16 @@
       <c r="I39" s="152"/>
       <c r="J39" s="152"/>
       <c r="K39" s="86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L39" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="M39" s="198"/>
-    </row>
-    <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="186"/>
-      <c r="C40" s="203"/>
+        <v>266</v>
+      </c>
+      <c r="M39" s="226"/>
+    </row>
+    <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="220"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="28" t="s">
         <v>8</v>
       </c>
@@ -18157,140 +18215,134 @@
       <c r="I40" s="152"/>
       <c r="J40" s="152"/>
       <c r="K40" s="86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L40" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="M40" s="198"/>
-    </row>
-    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="186"/>
-      <c r="C41" s="203"/>
+        <v>267</v>
+      </c>
+      <c r="M40" s="226"/>
+    </row>
+    <row r="41" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="220"/>
+      <c r="C41" s="222"/>
       <c r="D41" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="152"/>
       <c r="F41" s="152"/>
       <c r="G41" s="152"/>
       <c r="H41" s="152"/>
       <c r="I41" s="152"/>
       <c r="J41" s="152"/>
       <c r="K41" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L41" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="M41" s="198"/>
-    </row>
-    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="186"/>
-      <c r="C42" s="203"/>
+        <v>268</v>
+      </c>
+      <c r="M41" s="226"/>
+    </row>
+    <row r="42" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="220"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="28"/>
+      <c r="E42" s="152"/>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
       <c r="H42" s="152"/>
       <c r="I42" s="152"/>
       <c r="J42" s="152"/>
       <c r="K42" s="86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L42" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="M42" s="198"/>
+        <v>269</v>
+      </c>
+      <c r="M42" s="226"/>
     </row>
     <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="186"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="152"/>
       <c r="G43" s="152"/>
       <c r="H43" s="152"/>
       <c r="I43" s="152"/>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="152"/>
+      <c r="K43" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="L43" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="M43" s="226"/>
+    </row>
+    <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="220"/>
+      <c r="C44" s="222"/>
+      <c r="D44" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="86" t="s">
+      <c r="E44" s="28"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" s="226"/>
+    </row>
+    <row r="45" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="220"/>
+      <c r="C45" s="222"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="86" t="s">
         <v>458</v>
       </c>
-      <c r="L43" s="91" t="s">
+      <c r="L45" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="M43" s="198"/>
-    </row>
-    <row r="44" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="201"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="188"/>
-      <c r="L44" s="191"/>
-      <c r="M44" s="199"/>
-    </row>
-    <row r="45" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="1">
-        <f>MAX(B$11:B33)+1</f>
-        <v>17</v>
-      </c>
-      <c r="C45" s="23" t="s">
+      <c r="M45" s="226"/>
+    </row>
+    <row r="46" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="221"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="211"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="227"/>
+    </row>
+    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="1">
+        <f>MAX(B$11:B35)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="188" t="s">
-        <v>324</v>
-      </c>
-      <c r="L45" s="189"/>
-      <c r="M45" s="29"/>
-    </row>
-    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="1">
-        <f>MAX(B$11:B45)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="188" t="s">
-        <v>325</v>
-      </c>
-      <c r="L46" s="189"/>
-      <c r="M46" s="29"/>
-    </row>
-    <row r="47" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="1">
-        <f>MAX(B$11:B46)+1</f>
-        <v>19</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>8</v>
@@ -18298,22 +18350,22 @@
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="188" t="s">
-        <v>355</v>
-      </c>
-      <c r="L47" s="189"/>
+      <c r="K47" s="211" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" s="229"/>
       <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <f>MAX(B$11:B47)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>8</v>
@@ -18321,22 +18373,22 @@
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="188" t="s">
-        <v>356</v>
-      </c>
-      <c r="L48" s="189"/>
+      <c r="K48" s="211" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" s="229"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <f>MAX(B$11:B48)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>8</v>
@@ -18347,230 +18399,226 @@
       <c r="H49" s="28"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="188" t="s">
-        <v>357</v>
-      </c>
-      <c r="L49" s="189"/>
+      <c r="K49" s="211" t="s">
+        <v>355</v>
+      </c>
+      <c r="L49" s="229"/>
       <c r="M49" s="29"/>
     </row>
-    <row r="50" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
-        <f>MAX(B$13:B49)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="45" t="s">
+        <f>MAX(B$11:B49)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="219" t="s">
-        <v>326</v>
-      </c>
-      <c r="L50" s="189"/>
-      <c r="M50" s="46"/>
-    </row>
-    <row r="51" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K50" s="211" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" s="229"/>
+      <c r="M50" s="29"/>
+    </row>
+    <row r="51" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
-        <f>MAX(B$13:B50)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45" t="s">
+        <f>MAX(B$11:B50)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="219" t="s">
-        <v>327</v>
-      </c>
-      <c r="L51" s="189"/>
-      <c r="M51" s="46"/>
-    </row>
-    <row r="52" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="25"/>
+      <c r="K51" s="211" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" s="229"/>
+      <c r="M51" s="29"/>
+    </row>
+    <row r="52" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <f>MAX(B$13:B51)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="45"/>
+        <v>65</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="45" t="s">
-        <v>8</v>
-      </c>
+      <c r="F52" s="25"/>
       <c r="G52" s="45"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="219" t="s">
-        <v>328</v>
-      </c>
-      <c r="L52" s="189"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="235" t="s">
+        <v>326</v>
+      </c>
+      <c r="L52" s="229"/>
       <c r="M52" s="46"/>
     </row>
-    <row r="53" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <f>MAX(B$13:B52)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C53" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="117"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="219" t="s">
-        <v>329</v>
-      </c>
-      <c r="L53" s="189"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="235" t="s">
+        <v>327</v>
+      </c>
+      <c r="L53" s="229"/>
       <c r="M53" s="46"/>
     </row>
-    <row r="54" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <f>MAX(B$13:B53)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
+      <c r="F54" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="G54" s="45"/>
-      <c r="H54" s="45" t="s">
-        <v>8</v>
-      </c>
+      <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="219" t="s">
-        <v>330</v>
-      </c>
-      <c r="L54" s="189"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="235" t="s">
+        <v>328</v>
+      </c>
+      <c r="L54" s="229"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
-        <f>MAX(B$13:B53)+1</f>
+        <f>MAX(B$13:B54)+1</f>
         <v>26</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="45" t="s">
+      <c r="C55" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="117"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="219" t="s">
-        <v>362</v>
-      </c>
-      <c r="L55" s="189"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="235" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55" s="229"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
-        <f>MAX(B$13:B54)+1</f>
+        <f>MAX(B$13:B55)+1</f>
         <v>27</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>448</v>
+        <v>69</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="45"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45" t="s">
+      <c r="H56" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="219" t="s">
-        <v>449</v>
-      </c>
-      <c r="L56" s="189"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="235" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56" s="229"/>
       <c r="M56" s="46"/>
     </row>
-    <row r="57" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
+        <f>MAX(B$13:B55)+1</f>
+        <v>27</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="235" t="s">
+        <v>362</v>
+      </c>
+      <c r="L57" s="229"/>
+      <c r="M57" s="46"/>
+    </row>
+    <row r="58" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="1">
         <f>MAX(B$13:B56)+1</f>
         <v>28</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="188" t="s">
-        <v>144</v>
-      </c>
-      <c r="L57" s="189"/>
-      <c r="M57" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="1">
-        <f>MAX(B$13:B57)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="C58" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="D58" s="45"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="188" t="s">
-        <v>145</v>
-      </c>
-      <c r="L58" s="189"/>
-      <c r="M58" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G58" s="45"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="235" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" s="229"/>
+      <c r="M58" s="46"/>
+    </row>
+    <row r="59" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <f>MAX(B$13:B58)+1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>8</v>
@@ -18581,37 +18629,46 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="188" t="s">
-        <v>146</v>
-      </c>
-      <c r="L59" s="189"/>
+      <c r="K59" s="211" t="s">
+        <v>144</v>
+      </c>
+      <c r="L59" s="229"/>
       <c r="M59" s="29" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B60" s="1"/>
-      <c r="C60" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="195"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="1">
+        <f>MAX(B$13:B59)+1</f>
+        <v>30</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="211" t="s">
+        <v>145</v>
+      </c>
+      <c r="L60" s="229"/>
+      <c r="M60" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="1">
-        <f>MAX(B$11:B60)+1</f>
+        <f>MAX(B$13:B60)+1</f>
         <v>31</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>8</v>
@@ -18622,287 +18679,289 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="188" t="s">
-        <v>147</v>
-      </c>
-      <c r="L61" s="191"/>
-      <c r="M61" s="29"/>
-    </row>
-    <row r="62" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="1">
-        <f>MAX(B$11:B61)+1</f>
-        <v>32</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="188" t="s">
-        <v>427</v>
-      </c>
-      <c r="L62" s="191"/>
-      <c r="M62" s="29"/>
-    </row>
-    <row r="63" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K61" s="211" t="s">
+        <v>146</v>
+      </c>
+      <c r="L61" s="229"/>
+      <c r="M61" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="1"/>
+      <c r="C62" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="210"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="1">
         <f>MAX(B$11:B62)+1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="28"/>
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="188" t="s">
-        <v>428</v>
-      </c>
-      <c r="L63" s="191"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="L63" s="212"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1">
         <f>MAX(B$11:B63)+1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="28"/>
+        <v>409</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="E64" s="25"/>
-      <c r="F64" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="F64" s="25"/>
       <c r="G64" s="28"/>
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="188" t="s">
-        <v>429</v>
-      </c>
-      <c r="L64" s="191"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="211" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" s="212"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="1">
         <f>MAX(B$11:B64)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D65" s="28"/>
-      <c r="E65" s="25"/>
+      <c r="E65" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="F65" s="25"/>
-      <c r="G65" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="G65" s="28"/>
       <c r="H65" s="24"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="188" t="s">
-        <v>430</v>
-      </c>
-      <c r="L65" s="189"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="211" t="s">
+        <v>428</v>
+      </c>
+      <c r="L65" s="212"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <f>MAX(B$11:B65)+1</f>
-        <v>36</v>
-      </c>
-      <c r="C66" s="136" t="s">
-        <v>406</v>
+        <v>35</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D66" s="28"/>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="25"/>
+      <c r="F66" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="188" t="s">
-        <v>431</v>
-      </c>
-      <c r="L66" s="189"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="211" t="s">
+        <v>429</v>
+      </c>
+      <c r="L66" s="212"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="1">
         <f>MAX(B$11:B66)+1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28" t="s">
+      <c r="G67" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="H67" s="24"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
-      <c r="K67" s="188" t="s">
-        <v>432</v>
-      </c>
-      <c r="L67" s="189"/>
+      <c r="K67" s="211" t="s">
+        <v>430</v>
+      </c>
+      <c r="L67" s="229"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <f>MAX(B$11:B67)+1</f>
-        <v>38</v>
-      </c>
-      <c r="C68" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="136" t="s">
+        <v>406</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="188" t="s">
-        <v>433</v>
-      </c>
-      <c r="L68" s="189"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="28"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="211" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" s="229"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="1">
         <f>MAX(B$11:B68)+1</f>
+        <v>38</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="211" t="s">
+        <v>432</v>
+      </c>
+      <c r="L69" s="229"/>
+      <c r="M69" s="29"/>
+    </row>
+    <row r="70" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="1">
+        <f>MAX(B$11:B69)+1</f>
         <v>39</v>
       </c>
-      <c r="C69" s="139" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33" t="s">
+      <c r="C70" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="188" t="s">
-        <v>451</v>
-      </c>
-      <c r="L69" s="189"/>
-      <c r="M69" s="29"/>
-    </row>
-    <row r="70" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="140">
-        <f>MAX(B$11:B69)+1</f>
-        <v>40</v>
-      </c>
-      <c r="C70" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="138"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="220" t="s">
-        <v>126</v>
-      </c>
-      <c r="L70" s="221"/>
-      <c r="M70" s="36"/>
-    </row>
-    <row r="71" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="34"/>
+      <c r="K70" s="211" t="s">
+        <v>433</v>
+      </c>
+      <c r="L70" s="229"/>
+      <c r="M70" s="29"/>
+    </row>
+    <row r="71" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="1">
         <f>MAX(B$11:B70)+1</f>
-        <v>41</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C71" s="139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D71" s="33"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
       <c r="G71" s="33"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="188" t="s">
-        <v>277</v>
-      </c>
-      <c r="L71" s="189"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="211" t="s">
+        <v>451</v>
+      </c>
+      <c r="L71" s="229"/>
       <c r="M71" s="29"/>
     </row>
-    <row r="72" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B72" s="1"/>
-      <c r="C72" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="194"/>
-      <c r="L72" s="195"/>
-      <c r="M72" s="8"/>
-    </row>
-    <row r="73" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="140">
+        <f>MAX(B$11:B71)+1</f>
+        <v>41</v>
+      </c>
+      <c r="C72" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="138"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="233" t="s">
+        <v>126</v>
+      </c>
+      <c r="L72" s="234"/>
+      <c r="M72" s="36"/>
+    </row>
+    <row r="73" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="1">
         <f>MAX(B$11:B72)+1</f>
         <v>42</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="C73" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="188" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="191"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="211" t="s">
+        <v>277</v>
+      </c>
+      <c r="L73" s="229"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B74" s="1"/>
       <c r="C74" s="14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -18911,37 +18970,37 @@
       <c r="H74" s="7"/>
       <c r="I74" s="148"/>
       <c r="J74" s="148"/>
-      <c r="K74" s="194"/>
-      <c r="L74" s="195"/>
+      <c r="K74" s="209"/>
+      <c r="L74" s="210"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="1">
         <f>MAX(B$11:B74)+1</f>
         <v>43</v>
       </c>
-      <c r="C75" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="33" t="s">
+      <c r="C75" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="188" t="s">
-        <v>167</v>
-      </c>
-      <c r="L75" s="191"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="211" t="s">
+        <v>148</v>
+      </c>
+      <c r="L75" s="212"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
-      <c r="C76" s="12" t="s">
-        <v>31</v>
+      <c r="C76" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -18950,104 +19009,78 @@
       <c r="H76" s="7"/>
       <c r="I76" s="148"/>
       <c r="J76" s="148"/>
-      <c r="K76" s="194"/>
-      <c r="L76" s="195"/>
+      <c r="K76" s="209"/>
+      <c r="L76" s="210"/>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B77" s="32">
+    <row r="77" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="1">
         <f>MAX(B$11:B76)+1</f>
         <v>44</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>8</v>
+      </c>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
-      <c r="G77" s="35"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="35"/>
       <c r="I77" s="34"/>
-      <c r="J77" s="35" t="s">
+      <c r="J77" s="34"/>
+      <c r="K77" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="L77" s="212"/>
+      <c r="M77" s="29"/>
+    </row>
+    <row r="78" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B78" s="1"/>
+      <c r="C78" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="210"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="32">
+        <f>MAX(B$11:B78)+1</f>
+        <v>45</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K77" s="188" t="s">
+      <c r="K79" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="L77" s="191"/>
-      <c r="M77" s="27" t="s">
+      <c r="L79" s="212"/>
+      <c r="M79" s="27" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B12:M77"/>
-  <mergeCells count="79">
-    <mergeCell ref="M33:M44"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
+  <autoFilter ref="B12:M79"/>
+  <mergeCells count="80">
     <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K68:L68"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -19061,6 +19094,72 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M35:M46"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K64:L64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -19072,9 +19171,9 @@
     <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_3_(backyard) &amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="29" max="13" man="1"/>
-    <brk id="52" max="12" man="1"/>
-    <brk id="69" max="12" man="1"/>
+    <brk id="29" max="12" man="1"/>
+    <brk id="57" max="12" man="1"/>
+    <brk id="75" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -19117,17 +19216,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -19135,18 +19234,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -19260,32 +19359,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="215" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="216"/>
-      <c r="M11" s="213" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="206"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -19307,9 +19406,9 @@
       <c r="J12" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19323,8 +19422,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="222"/>
-      <c r="L13" s="195"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19332,22 +19431,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="202" t="s">
+      <c r="C14" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183" t="s">
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="188" t="s">
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="27" t="s">
         <v>320</v>
       </c>
@@ -19357,18 +19456,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="223" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="191"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19376,18 +19475,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="223" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="236" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="191"/>
+      <c r="L16" s="212"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19402,8 +19501,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="195"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19423,10 +19522,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="223" t="s">
+      <c r="K18" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="212"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -19443,8 +19542,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="195"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19464,10 +19563,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="223" t="s">
+      <c r="K20" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="191"/>
+      <c r="L20" s="212"/>
       <c r="M20" s="27" t="s">
         <v>103</v>
       </c>
@@ -19489,10 +19588,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="223" t="s">
+      <c r="K21" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="191"/>
+      <c r="L21" s="212"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19507,8 +19606,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="195"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="210"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -19528,10 +19627,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="223" t="s">
+      <c r="K23" s="236" t="s">
         <v>368</v>
       </c>
-      <c r="L23" s="191"/>
+      <c r="L23" s="212"/>
       <c r="M23" s="27" t="s">
         <v>440</v>
       </c>
@@ -19553,10 +19652,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="223" t="s">
+      <c r="K24" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="L24" s="191"/>
+      <c r="L24" s="212"/>
       <c r="M24" s="27" t="s">
         <v>177</v>
       </c>
@@ -19578,10 +19677,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="223" t="s">
+      <c r="K25" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="191"/>
+      <c r="L25" s="212"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19601,10 +19700,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="188" t="s">
+      <c r="K26" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="L26" s="191"/>
+      <c r="L26" s="212"/>
       <c r="M26" s="27" t="s">
         <v>366</v>
       </c>
@@ -19614,22 +19713,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183" t="s">
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202" t="s">
         <v>178</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="223" t="s">
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="236" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="191"/>
+      <c r="L27" s="212"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -19637,18 +19736,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="223" t="s">
+      <c r="C28" s="198"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="191"/>
+      <c r="L28" s="212"/>
       <c r="M28" s="27" t="s">
         <v>386</v>
       </c>
@@ -19665,8 +19764,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="222"/>
-      <c r="L29" s="195"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="210"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19686,10 +19785,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="223" t="s">
+      <c r="K30" s="236" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="191"/>
+      <c r="L30" s="212"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19709,10 +19808,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="223" t="s">
+      <c r="K31" s="236" t="s">
         <v>332</v>
       </c>
-      <c r="L31" s="191"/>
+      <c r="L31" s="212"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19732,10 +19831,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="223" t="s">
+      <c r="K32" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="L32" s="191"/>
+      <c r="L32" s="212"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19750,8 +19849,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="222"/>
-      <c r="L33" s="195"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="210"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19771,10 +19870,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="223" t="s">
+      <c r="K34" s="236" t="s">
         <v>378</v>
       </c>
-      <c r="L34" s="191"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="29" t="s">
         <v>373</v>
       </c>
@@ -19796,10 +19895,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="223" t="s">
+      <c r="K35" s="236" t="s">
         <v>375</v>
       </c>
-      <c r="L35" s="191"/>
+      <c r="L35" s="212"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19819,10 +19918,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="224" t="s">
+      <c r="K36" s="238" t="s">
         <v>377</v>
       </c>
-      <c r="L36" s="225"/>
+      <c r="L36" s="239"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19837,8 +19936,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="222"/>
-      <c r="L37" s="195"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="210"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -19858,10 +19957,10 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="223" t="s">
+      <c r="K38" s="236" t="s">
         <v>152</v>
       </c>
-      <c r="L38" s="191"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="129" t="s">
         <v>387</v>
       </c>
@@ -19883,84 +19982,84 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="223" t="s">
+      <c r="K39" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="191"/>
+      <c r="L39" s="212"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="200">
+      <c r="B40" s="219">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="202" t="s">
+      <c r="C40" s="197" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183" t="s">
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="188" t="s">
+      <c r="H40" s="202"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L40" s="191"/>
-      <c r="M40" s="197"/>
+      <c r="L40" s="212"/>
+      <c r="M40" s="225"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="186"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
       <c r="K41" s="84" t="s">
         <v>273</v>
       </c>
       <c r="L41" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="M41" s="198"/>
+      <c r="M41" s="226"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="186"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
       <c r="K42" s="86" t="s">
         <v>291</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M42" s="198"/>
+      <c r="M42" s="226"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="201"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="224"/>
+      <c r="G43" s="224"/>
+      <c r="H43" s="224"/>
+      <c r="I43" s="224"/>
+      <c r="J43" s="224"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="199"/>
+      <c r="M43" s="227"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -19979,10 +20078,10 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="223" t="s">
+      <c r="K44" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="L44" s="191"/>
+      <c r="L44" s="212"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20002,10 +20101,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="223" t="s">
+      <c r="K45" s="236" t="s">
         <v>335</v>
       </c>
-      <c r="L45" s="191"/>
+      <c r="L45" s="212"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20025,10 +20124,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="223" t="s">
+      <c r="K46" s="236" t="s">
         <v>336</v>
       </c>
-      <c r="L46" s="191"/>
+      <c r="L46" s="212"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20048,10 +20147,10 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="223" t="s">
+      <c r="K47" s="236" t="s">
         <v>337</v>
       </c>
-      <c r="L47" s="191"/>
+      <c r="L47" s="212"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20071,10 +20170,10 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="223" t="s">
+      <c r="K48" s="236" t="s">
         <v>338</v>
       </c>
-      <c r="L48" s="189"/>
+      <c r="L48" s="229"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20089,8 +20188,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="148"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="222"/>
-      <c r="L49" s="195"/>
+      <c r="K49" s="237"/>
+      <c r="L49" s="210"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20110,10 +20209,10 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="223" t="s">
+      <c r="K50" s="236" t="s">
         <v>390</v>
       </c>
-      <c r="L50" s="191"/>
+      <c r="L50" s="212"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20133,10 +20232,10 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="223" t="s">
+      <c r="K51" s="236" t="s">
         <v>391</v>
       </c>
-      <c r="L51" s="191"/>
+      <c r="L51" s="212"/>
       <c r="M51" s="29" t="s">
         <v>395</v>
       </c>
@@ -20158,10 +20257,10 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="223" t="s">
+      <c r="K52" s="236" t="s">
         <v>359</v>
       </c>
-      <c r="L52" s="189"/>
+      <c r="L52" s="229"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20181,10 +20280,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="223" t="s">
+      <c r="K53" s="236" t="s">
         <v>360</v>
       </c>
-      <c r="L53" s="189"/>
+      <c r="L53" s="229"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20204,10 +20303,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="223" t="s">
+      <c r="K54" s="236" t="s">
         <v>389</v>
       </c>
-      <c r="L54" s="189"/>
+      <c r="L54" s="229"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20227,10 +20326,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="223" t="s">
+      <c r="K55" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="L55" s="189"/>
+      <c r="L55" s="229"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20245,8 +20344,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="222"/>
-      <c r="L56" s="195"/>
+      <c r="K56" s="237"/>
+      <c r="L56" s="210"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20266,10 +20365,10 @@
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="223" t="s">
+      <c r="K57" s="236" t="s">
         <v>425</v>
       </c>
-      <c r="L57" s="191"/>
+      <c r="L57" s="212"/>
       <c r="M57" s="27" t="s">
         <v>426</v>
       </c>
@@ -20291,10 +20390,10 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="223" t="s">
+      <c r="K58" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="191"/>
+      <c r="L58" s="212"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20314,10 +20413,10 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="223" t="s">
+      <c r="K59" s="236" t="s">
         <v>339</v>
       </c>
-      <c r="L59" s="191"/>
+      <c r="L59" s="212"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20337,10 +20436,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="223" t="s">
+      <c r="K60" s="236" t="s">
         <v>340</v>
       </c>
-      <c r="L60" s="191"/>
+      <c r="L60" s="212"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20360,10 +20459,10 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="223" t="s">
+      <c r="K61" s="236" t="s">
         <v>369</v>
       </c>
-      <c r="L61" s="189"/>
+      <c r="L61" s="229"/>
       <c r="M61" s="27" t="s">
         <v>370</v>
       </c>
@@ -20385,10 +20484,10 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="223" t="s">
+      <c r="K62" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="L62" s="189"/>
+      <c r="L62" s="229"/>
       <c r="M62" s="27" t="s">
         <v>104</v>
       </c>
@@ -20396,54 +20495,22 @@
   </sheetData>
   <autoFilter ref="B12:M62"/>
   <mergeCells count="80">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -20460,22 +20527,54 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -20528,34 +20627,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -20683,32 +20782,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="C12" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="209" t="s">
+      <c r="D12" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="215" t="s">
+      <c r="E12" s="218"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="226"/>
-      <c r="M12" s="213" t="s">
+      <c r="L12" s="246"/>
+      <c r="M12" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="206"/>
-      <c r="C13" s="208"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="216"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -20730,9 +20829,9 @@
       <c r="J13" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K13" s="217"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="214"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="201"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -20746,8 +20845,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="148"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="222"/>
-      <c r="L14" s="228"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="241"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20767,84 +20866,84 @@
       <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="223" t="s">
+      <c r="K15" s="236" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="189"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="200">
+      <c r="B16" s="219">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183" t="s">
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="188" t="s">
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L16" s="191"/>
-      <c r="M16" s="197"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="225"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="186"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
       <c r="K17" s="88" t="s">
         <v>274</v>
       </c>
       <c r="L17" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="M17" s="198"/>
+      <c r="M17" s="226"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="186"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
       <c r="K18" s="86" t="s">
         <v>264</v>
       </c>
       <c r="L18" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="M18" s="198"/>
+      <c r="M18" s="226"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="229"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="199"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="227"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -20879,10 +20978,10 @@
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="223" t="s">
+      <c r="K21" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="189"/>
+      <c r="L21" s="229"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20902,20 +21001,22 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="223" t="s">
+      <c r="K22" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="L22" s="189"/>
+      <c r="L22" s="229"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:M22"/>
   <mergeCells count="23">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -20927,13 +21028,11 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20982,17 +21081,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>173</v>
       </c>
@@ -21000,18 +21099,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="20" t="s">
         <v>94</v>
       </c>
@@ -21127,32 +21226,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="215" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="216"/>
-      <c r="M11" s="213" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="206"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -21174,9 +21273,9 @@
       <c r="J12" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -21190,8 +21289,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="222"/>
-      <c r="L13" s="195"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21199,22 +21298,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="202" t="s">
+      <c r="C14" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183" t="s">
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="188" t="s">
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="27" t="s">
         <v>320</v>
       </c>
@@ -21224,18 +21323,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="223" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="191"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21243,18 +21342,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="223" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="191"/>
+      <c r="L16" s="212"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21269,8 +21368,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="195"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21290,10 +21389,10 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="223" t="s">
+      <c r="K18" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="212"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -21310,8 +21409,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="195"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -21331,10 +21430,10 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="223" t="s">
+      <c r="K20" s="236" t="s">
         <v>368</v>
       </c>
-      <c r="L20" s="191"/>
+      <c r="L20" s="212"/>
       <c r="M20" s="27" t="s">
         <v>443</v>
       </c>
@@ -21356,10 +21455,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="223" t="s">
+      <c r="K21" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="191"/>
+      <c r="L21" s="212"/>
       <c r="M21" s="27" t="s">
         <v>177</v>
       </c>
@@ -21381,10 +21480,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="223" t="s">
+      <c r="K22" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="189"/>
+      <c r="L22" s="229"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21404,10 +21503,10 @@
       <c r="H23" s="128"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="188" t="s">
+      <c r="K23" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="L23" s="191"/>
+      <c r="L23" s="212"/>
       <c r="M23" s="27" t="s">
         <v>366</v>
       </c>
@@ -21417,22 +21516,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="202" t="s">
+      <c r="C24" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183" t="s">
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="223" t="s">
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="236" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="189"/>
+      <c r="L24" s="229"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -21440,18 +21539,18 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="223" t="s">
+      <c r="C25" s="198"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="189"/>
+      <c r="L25" s="229"/>
       <c r="M25" s="27" t="s">
         <v>386</v>
       </c>
@@ -21468,8 +21567,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="148"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="195"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21489,10 +21588,10 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="223" t="s">
+      <c r="K27" s="236" t="s">
         <v>333</v>
       </c>
-      <c r="L27" s="189"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21512,10 +21611,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="223" t="s">
+      <c r="K28" s="236" t="s">
         <v>332</v>
       </c>
-      <c r="L28" s="189"/>
+      <c r="L28" s="229"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21535,10 +21634,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="223" t="s">
+      <c r="K29" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="L29" s="189"/>
+      <c r="L29" s="229"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21553,8 +21652,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="148"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="222"/>
-      <c r="L30" s="195"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="210"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21574,10 +21673,10 @@
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="223" t="s">
+      <c r="K31" s="236" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="191"/>
+      <c r="L31" s="212"/>
       <c r="M31" s="129" t="s">
         <v>387</v>
       </c>
@@ -21599,84 +21698,84 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="223" t="s">
+      <c r="K32" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="191"/>
+      <c r="L32" s="212"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="200">
+      <c r="B33" s="219">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="202" t="s">
+      <c r="C33" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183" t="s">
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="188" t="s">
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L33" s="191"/>
-      <c r="M33" s="197"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="225"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="234"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="220"/>
       <c r="K34" s="84" t="s">
         <v>275</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="M34" s="198"/>
+      <c r="M34" s="226"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="234"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
+      <c r="B35" s="248"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="86" t="s">
         <v>292</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M35" s="198"/>
+      <c r="M35" s="226"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="235"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="199"/>
+      <c r="B36" s="249"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="229"/>
+      <c r="M36" s="227"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -21695,10 +21794,10 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="223" t="s">
+      <c r="K37" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="L37" s="189"/>
+      <c r="L37" s="229"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21718,10 +21817,10 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="223" t="s">
+      <c r="K38" s="236" t="s">
         <v>335</v>
       </c>
-      <c r="L38" s="189"/>
+      <c r="L38" s="229"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21741,10 +21840,10 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="223" t="s">
+      <c r="K39" s="236" t="s">
         <v>336</v>
       </c>
-      <c r="L39" s="189"/>
+      <c r="L39" s="229"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21764,10 +21863,10 @@
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="223" t="s">
+      <c r="K40" s="236" t="s">
         <v>337</v>
       </c>
-      <c r="L40" s="189"/>
+      <c r="L40" s="229"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21787,10 +21886,10 @@
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="223" t="s">
+      <c r="K41" s="236" t="s">
         <v>338</v>
       </c>
-      <c r="L41" s="189"/>
+      <c r="L41" s="229"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21810,10 +21909,10 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="188" t="s">
+      <c r="K42" s="211" t="s">
         <v>156</v>
       </c>
-      <c r="L42" s="189"/>
+      <c r="L42" s="229"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21833,10 +21932,10 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="188" t="s">
+      <c r="K43" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="L43" s="189"/>
+      <c r="L43" s="229"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21856,10 +21955,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="188" t="s">
+      <c r="K44" s="211" t="s">
         <v>302</v>
       </c>
-      <c r="L44" s="189"/>
+      <c r="L44" s="229"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21874,8 +21973,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="148"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="195"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="210"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21895,10 +21994,10 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="223" t="s">
+      <c r="K46" s="236" t="s">
         <v>303</v>
       </c>
-      <c r="L46" s="191"/>
+      <c r="L46" s="212"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21913,8 +22012,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="148"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="222"/>
-      <c r="L47" s="195"/>
+      <c r="K47" s="237"/>
+      <c r="L47" s="210"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21934,15 +22033,66 @@
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="223" t="s">
+      <c r="K48" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="L48" s="191"/>
+      <c r="L48" s="212"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48"/>
   <mergeCells count="67">
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K36:L36"/>
@@ -21959,57 +22109,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -22063,34 +22162,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -22194,32 +22293,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="215" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="216"/>
-      <c r="M11" s="213" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="206"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22241,9 +22340,9 @@
       <c r="J12" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
@@ -22257,8 +22356,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="148"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="222"/>
-      <c r="L13" s="195"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22278,10 +22377,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="223" t="s">
+      <c r="K14" s="236" t="s">
         <v>403</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22301,10 +22400,10 @@
         <v>8</v>
       </c>
       <c r="J15" s="35"/>
-      <c r="K15" s="223" t="s">
+      <c r="K15" s="236" t="s">
         <v>405</v>
       </c>
-      <c r="L15" s="189"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="136"/>
     </row>
   </sheetData>
@@ -22367,17 +22466,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>93</v>
       </c>
@@ -22385,18 +22484,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="168" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55" t="s">
         <v>219</v>
       </c>
@@ -22510,32 +22609,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="215" t="s">
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="216"/>
-      <c r="M11" s="213" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="200" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="206"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22557,9 +22656,9 @@
       <c r="J12" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="214"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -22573,8 +22672,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="222"/>
-      <c r="L13" s="195"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="210"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -22582,22 +22681,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="202" t="s">
+      <c r="C14" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="188" t="s">
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="191"/>
+      <c r="L14" s="212"/>
       <c r="M14" s="27" t="s">
         <v>320</v>
       </c>
@@ -22607,18 +22706,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="223" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="191"/>
+      <c r="L15" s="212"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22626,18 +22725,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="223" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="236" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="191"/>
+      <c r="L16" s="212"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22652,8 +22751,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="195"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="210"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22673,10 +22772,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="223" t="s">
+      <c r="K18" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="212"/>
       <c r="M18" s="27" t="s">
         <v>99</v>
       </c>
@@ -22693,8 +22792,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
-      <c r="K19" s="222"/>
-      <c r="L19" s="195"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="210"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22714,10 +22813,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="223" t="s">
+      <c r="K20" s="236" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="191"/>
+      <c r="L20" s="212"/>
       <c r="M20" s="27" t="s">
         <v>89</v>
       </c>
@@ -22739,10 +22838,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="223" t="s">
+      <c r="K21" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="191"/>
+      <c r="L21" s="212"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22757,8 +22856,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="195"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="210"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -22778,10 +22877,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="223" t="s">
+      <c r="K23" s="236" t="s">
         <v>368</v>
       </c>
-      <c r="L23" s="191"/>
+      <c r="L23" s="212"/>
       <c r="M23" s="27" t="s">
         <v>444</v>
       </c>
@@ -22803,10 +22902,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="223" t="s">
+      <c r="K24" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="L24" s="189"/>
+      <c r="L24" s="229"/>
       <c r="M24" s="27" t="s">
         <v>177</v>
       </c>
@@ -22828,10 +22927,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="223" t="s">
+      <c r="K25" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="189"/>
+      <c r="L25" s="229"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22851,10 +22950,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="188" t="s">
+      <c r="K26" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="L26" s="191"/>
+      <c r="L26" s="212"/>
       <c r="M26" s="27" t="s">
         <v>366</v>
       </c>
@@ -22864,22 +22963,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="183" t="s">
+      <c r="D27" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="223" t="s">
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="189"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -22887,18 +22986,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="223" t="s">
+      <c r="C28" s="198"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="189"/>
+      <c r="L28" s="229"/>
       <c r="M28" s="27" t="s">
         <v>386</v>
       </c>
@@ -22915,8 +23014,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="148"/>
-      <c r="K29" s="222"/>
-      <c r="L29" s="195"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="210"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22936,10 +23035,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="223" t="s">
+      <c r="K30" s="236" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="191"/>
+      <c r="L30" s="212"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22959,10 +23058,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="147"/>
-      <c r="K31" s="223" t="s">
+      <c r="K31" s="236" t="s">
         <v>332</v>
       </c>
-      <c r="L31" s="191"/>
+      <c r="L31" s="212"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22982,10 +23081,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="147"/>
-      <c r="K32" s="223" t="s">
+      <c r="K32" s="236" t="s">
         <v>341</v>
       </c>
-      <c r="L32" s="191"/>
+      <c r="L32" s="212"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23000,8 +23099,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="222"/>
-      <c r="L33" s="195"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="210"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -23021,10 +23120,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="223" t="s">
+      <c r="K34" s="236" t="s">
         <v>378</v>
       </c>
-      <c r="L34" s="191"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="29" t="s">
         <v>373</v>
       </c>
@@ -23046,10 +23145,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="223" t="s">
+      <c r="K35" s="236" t="s">
         <v>375</v>
       </c>
-      <c r="L35" s="191"/>
+      <c r="L35" s="212"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23069,10 +23168,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="224" t="s">
+      <c r="K36" s="238" t="s">
         <v>377</v>
       </c>
-      <c r="L36" s="225"/>
+      <c r="L36" s="239"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23087,8 +23186,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="148"/>
-      <c r="K37" s="222"/>
-      <c r="L37" s="195"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="210"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23108,10 +23207,10 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="223" t="s">
+      <c r="K38" s="236" t="s">
         <v>150</v>
       </c>
-      <c r="L38" s="191"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="129" t="s">
         <v>387</v>
       </c>
@@ -23133,10 +23232,10 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="223" t="s">
+      <c r="K39" s="236" t="s">
         <v>342</v>
       </c>
-      <c r="L39" s="191"/>
+      <c r="L39" s="212"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23156,10 +23255,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="223" t="s">
+      <c r="K40" s="236" t="s">
         <v>343</v>
       </c>
-      <c r="L40" s="191"/>
+      <c r="L40" s="212"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23179,10 +23278,10 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="223" t="s">
+      <c r="K41" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="191"/>
+      <c r="L41" s="212"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23202,10 +23301,10 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="223" t="s">
+      <c r="K42" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="L42" s="189"/>
+      <c r="L42" s="229"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23225,10 +23324,10 @@
       <c r="H43" s="28"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="223" t="s">
+      <c r="K43" s="236" t="s">
         <v>344</v>
       </c>
-      <c r="L43" s="189"/>
+      <c r="L43" s="229"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23248,10 +23347,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="223" t="s">
+      <c r="K44" s="236" t="s">
         <v>345</v>
       </c>
-      <c r="L44" s="189"/>
+      <c r="L44" s="229"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23271,10 +23370,10 @@
       <c r="H45" s="28"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="223" t="s">
+      <c r="K45" s="236" t="s">
         <v>346</v>
       </c>
-      <c r="L45" s="189"/>
+      <c r="L45" s="229"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23294,10 +23393,10 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="219" t="s">
+      <c r="K46" s="235" t="s">
         <v>326</v>
       </c>
-      <c r="L46" s="189"/>
+      <c r="L46" s="229"/>
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23317,10 +23416,10 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="45"/>
-      <c r="K47" s="219" t="s">
+      <c r="K47" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="L47" s="239"/>
+      <c r="L47" s="255"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23340,10 +23439,10 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="219" t="s">
+      <c r="K48" s="235" t="s">
         <v>348</v>
       </c>
-      <c r="L48" s="189"/>
+      <c r="L48" s="229"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23363,10 +23462,10 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="219" t="s">
+      <c r="K49" s="235" t="s">
         <v>349</v>
       </c>
-      <c r="L49" s="189"/>
+      <c r="L49" s="229"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23386,10 +23485,10 @@
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="219" t="s">
+      <c r="K50" s="235" t="s">
         <v>350</v>
       </c>
-      <c r="L50" s="189"/>
+      <c r="L50" s="229"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23409,10 +23508,10 @@
         <v>8</v>
       </c>
       <c r="J51" s="25"/>
-      <c r="K51" s="219" t="s">
+      <c r="K51" s="235" t="s">
         <v>362</v>
       </c>
-      <c r="L51" s="189"/>
+      <c r="L51" s="229"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23432,10 +23531,10 @@
       <c r="J52" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="219" t="s">
+      <c r="K52" s="235" t="s">
         <v>449</v>
       </c>
-      <c r="L52" s="189"/>
+      <c r="L52" s="229"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -23455,10 +23554,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="188" t="s">
+      <c r="K53" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="L53" s="189"/>
+      <c r="L53" s="229"/>
       <c r="M53" s="29" t="s">
         <v>116</v>
       </c>
@@ -23480,10 +23579,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="223" t="s">
+      <c r="K54" s="236" t="s">
         <v>164</v>
       </c>
-      <c r="L54" s="189"/>
+      <c r="L54" s="229"/>
       <c r="M54" s="29" t="s">
         <v>100</v>
       </c>
@@ -23505,10 +23604,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="223" t="s">
+      <c r="K55" s="236" t="s">
         <v>165</v>
       </c>
-      <c r="L55" s="189"/>
+      <c r="L55" s="229"/>
       <c r="M55" s="29" t="s">
         <v>107</v>
       </c>
@@ -23525,52 +23624,52 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="148"/>
-      <c r="K56" s="222"/>
-      <c r="L56" s="195"/>
+      <c r="K56" s="237"/>
+      <c r="L56" s="210"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="200">
+      <c r="B57" s="219">
         <f>MAX(B$11:B56)+1</f>
         <v>36</v>
       </c>
-      <c r="C57" s="230" t="s">
+      <c r="C57" s="243" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="245"/>
-      <c r="E57" s="245"/>
-      <c r="F57" s="245"/>
-      <c r="G57" s="245"/>
-      <c r="H57" s="245"/>
-      <c r="I57" s="245"/>
-      <c r="J57" s="245"/>
-      <c r="K57" s="188" t="s">
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="L57" s="191"/>
-      <c r="M57" s="197"/>
+      <c r="L57" s="212"/>
+      <c r="M57" s="225"/>
     </row>
     <row r="58" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="186"/>
-      <c r="C58" s="231"/>
-      <c r="D58" s="246"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="246"/>
-      <c r="J58" s="246"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="160"/>
+      <c r="J58" s="160"/>
       <c r="K58" s="93" t="s">
         <v>276</v>
       </c>
       <c r="L58" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="M58" s="198"/>
+      <c r="M58" s="226"/>
     </row>
     <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="186"/>
-      <c r="C59" s="231"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="244"/>
       <c r="D59" s="152" t="s">
         <v>460</v>
       </c>
@@ -23586,11 +23685,11 @@
       <c r="L59" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="M59" s="198"/>
+      <c r="M59" s="226"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="186"/>
-      <c r="C60" s="231"/>
+      <c r="B60" s="220"/>
+      <c r="C60" s="244"/>
       <c r="D60" s="152" t="s">
         <v>460</v>
       </c>
@@ -23606,11 +23705,11 @@
       <c r="L60" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="M60" s="198"/>
+      <c r="M60" s="226"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="186"/>
-      <c r="C61" s="231"/>
+      <c r="B61" s="220"/>
+      <c r="C61" s="244"/>
       <c r="D61" s="152" t="s">
         <v>460</v>
       </c>
@@ -23626,11 +23725,11 @@
       <c r="L61" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="M61" s="198"/>
+      <c r="M61" s="226"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="186"/>
-      <c r="C62" s="231"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="244"/>
       <c r="D62" s="152" t="s">
         <v>460</v>
       </c>
@@ -23646,11 +23745,11 @@
       <c r="L62" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="M62" s="198"/>
+      <c r="M62" s="226"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="186"/>
-      <c r="C63" s="231"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="244"/>
       <c r="D63" s="152" t="s">
         <v>460</v>
       </c>
@@ -23666,11 +23765,11 @@
       <c r="L63" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="M63" s="198"/>
+      <c r="M63" s="226"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="186"/>
-      <c r="C64" s="231"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="244"/>
       <c r="D64" s="152" t="s">
         <v>460</v>
       </c>
@@ -23686,11 +23785,11 @@
       <c r="L64" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="M64" s="198"/>
+      <c r="M64" s="226"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="186"/>
-      <c r="C65" s="231"/>
+      <c r="B65" s="220"/>
+      <c r="C65" s="244"/>
       <c r="D65" s="152" t="s">
         <v>460</v>
       </c>
@@ -23706,11 +23805,11 @@
       <c r="L65" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="M65" s="198"/>
+      <c r="M65" s="226"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="186"/>
-      <c r="C66" s="231"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="244"/>
       <c r="D66" s="152" t="s">
         <v>460</v>
       </c>
@@ -23726,11 +23825,11 @@
       <c r="L66" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="M66" s="198"/>
+      <c r="M66" s="226"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="186"/>
-      <c r="C67" s="231"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="244"/>
       <c r="D67" s="152" t="s">
         <v>460</v>
       </c>
@@ -23746,21 +23845,21 @@
       <c r="L67" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="M67" s="198"/>
+      <c r="M67" s="226"/>
     </row>
     <row r="68" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="201"/>
-      <c r="C68" s="241"/>
-      <c r="D68" s="247"/>
-      <c r="E68" s="247"/>
-      <c r="F68" s="247"/>
-      <c r="G68" s="247"/>
-      <c r="H68" s="247"/>
-      <c r="I68" s="247"/>
-      <c r="J68" s="247"/>
-      <c r="K68" s="188"/>
-      <c r="L68" s="191"/>
-      <c r="M68" s="199"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="251"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="161"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="161"/>
+      <c r="H68" s="161"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="212"/>
+      <c r="M68" s="227"/>
     </row>
     <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
@@ -23774,8 +23873,8 @@
       <c r="H69" s="7"/>
       <c r="I69" s="148"/>
       <c r="J69" s="148"/>
-      <c r="K69" s="222"/>
-      <c r="L69" s="195"/>
+      <c r="K69" s="237"/>
+      <c r="L69" s="210"/>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23795,10 +23894,10 @@
       <c r="H70" s="24"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="223" t="s">
+      <c r="K70" s="236" t="s">
         <v>396</v>
       </c>
-      <c r="L70" s="191"/>
+      <c r="L70" s="212"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23818,10 +23917,10 @@
       <c r="H71" s="132"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="223" t="s">
+      <c r="K71" s="236" t="s">
         <v>392</v>
       </c>
-      <c r="L71" s="191"/>
+      <c r="L71" s="212"/>
       <c r="M71" s="29" t="s">
         <v>395</v>
       </c>
@@ -23843,10 +23942,10 @@
       <c r="H72" s="69"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="223" t="s">
+      <c r="K72" s="236" t="s">
         <v>351</v>
       </c>
-      <c r="L72" s="189"/>
+      <c r="L72" s="229"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23866,10 +23965,10 @@
       <c r="H73" s="35"/>
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
-      <c r="K73" s="223" t="s">
+      <c r="K73" s="236" t="s">
         <v>352</v>
       </c>
-      <c r="L73" s="189"/>
+      <c r="L73" s="229"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23889,10 +23988,10 @@
       <c r="H74" s="132"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="223" t="s">
+      <c r="K74" s="236" t="s">
         <v>393</v>
       </c>
-      <c r="L74" s="189"/>
+      <c r="L74" s="229"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -23912,27 +24011,27 @@
       <c r="H75" s="35"/>
       <c r="I75" s="34"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="223" t="s">
+      <c r="K75" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="L75" s="189"/>
+      <c r="L75" s="229"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
-      <c r="C76" s="236" t="s">
+      <c r="C76" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="237"/>
-      <c r="E76" s="237"/>
-      <c r="F76" s="237"/>
-      <c r="G76" s="237"/>
-      <c r="H76" s="237"/>
-      <c r="I76" s="237"/>
-      <c r="J76" s="237"/>
-      <c r="K76" s="237"/>
-      <c r="L76" s="237"/>
-      <c r="M76" s="238"/>
+      <c r="D76" s="257"/>
+      <c r="E76" s="257"/>
+      <c r="F76" s="257"/>
+      <c r="G76" s="257"/>
+      <c r="H76" s="257"/>
+      <c r="I76" s="257"/>
+      <c r="J76" s="257"/>
+      <c r="K76" s="257"/>
+      <c r="L76" s="257"/>
+      <c r="M76" s="258"/>
     </row>
     <row r="77" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
@@ -23951,10 +24050,10 @@
       <c r="H77" s="35"/>
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="244" t="s">
+      <c r="K77" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="L77" s="191"/>
+      <c r="L77" s="212"/>
       <c r="M77" s="29" t="s">
         <v>222</v>
       </c>
@@ -23976,10 +24075,10 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
-      <c r="K78" s="223" t="s">
+      <c r="K78" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="L78" s="191"/>
+      <c r="L78" s="212"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23999,10 +24098,10 @@
       <c r="H79" s="47"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="223" t="s">
+      <c r="K79" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="L79" s="191"/>
+      <c r="L79" s="212"/>
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24022,10 +24121,10 @@
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="34"/>
-      <c r="K80" s="223" t="s">
+      <c r="K80" s="236" t="s">
         <v>133</v>
       </c>
-      <c r="L80" s="191"/>
+      <c r="L80" s="212"/>
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24045,10 +24144,10 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="223" t="s">
+      <c r="K81" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="L81" s="191"/>
+      <c r="L81" s="212"/>
       <c r="M81" s="49"/>
     </row>
     <row r="82" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24068,27 +24167,27 @@
         <v>8</v>
       </c>
       <c r="J82" s="25"/>
-      <c r="K82" s="223" t="s">
+      <c r="K82" s="236" t="s">
         <v>407</v>
       </c>
-      <c r="L82" s="191"/>
+      <c r="L82" s="212"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
-      <c r="C83" s="236" t="s">
+      <c r="C83" s="256" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="237"/>
-      <c r="E83" s="237"/>
-      <c r="F83" s="237"/>
-      <c r="G83" s="237"/>
-      <c r="H83" s="237"/>
-      <c r="I83" s="237"/>
-      <c r="J83" s="237"/>
-      <c r="K83" s="237"/>
-      <c r="L83" s="237"/>
-      <c r="M83" s="238"/>
+      <c r="D83" s="257"/>
+      <c r="E83" s="257"/>
+      <c r="F83" s="257"/>
+      <c r="G83" s="257"/>
+      <c r="H83" s="257"/>
+      <c r="I83" s="257"/>
+      <c r="J83" s="257"/>
+      <c r="K83" s="257"/>
+      <c r="L83" s="257"/>
+      <c r="M83" s="258"/>
     </row>
     <row r="84" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
@@ -24107,10 +24206,10 @@
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="219" t="s">
+      <c r="K84" s="235" t="s">
         <v>398</v>
       </c>
-      <c r="L84" s="242"/>
+      <c r="L84" s="253"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -24130,10 +24229,10 @@
       <c r="H85" s="35"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
-      <c r="K85" s="188" t="s">
+      <c r="K85" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="L85" s="243"/>
+      <c r="L85" s="254"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24153,10 +24252,10 @@
       <c r="H86" s="35"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="244" t="s">
+      <c r="K86" s="250" t="s">
         <v>394</v>
       </c>
-      <c r="L86" s="243"/>
+      <c r="L86" s="254"/>
       <c r="M86" s="29" t="s">
         <v>397</v>
       </c>
@@ -24178,62 +24277,42 @@
       <c r="H87" s="35"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="240" t="s">
+      <c r="K87" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="L87" s="189"/>
+      <c r="L87" s="229"/>
       <c r="M87" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M87"/>
   <mergeCells count="91">
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="B57:B68"/>
-    <mergeCell ref="C57:C68"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M57:M68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="C83:M83"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I14:I16"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -24249,35 +24328,55 @@
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I14:I16"/>
     <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M57:M68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="C83:M83"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="B57:B68"/>
+    <mergeCell ref="C57:C68"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="460">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -240,15 +240,6 @@
     <rPh sb="18" eb="19">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PhpSpreadsheetをインストールする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PhpSpreadsheetパッケージを/usr/share/php/vendorディレクトリにインストールしてください。
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -880,27 +871,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">以下のディレクトリ作成してください。
-mkdir -p /usr/share/php/vendor
-</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ディレクトリを作成してください。
-mkdir -p /usr/share/php/vendor
-</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">例：
 MariaDBのパスワードが「ITA_PASSWD」の場合、以下のコマンドでbase64エンコード、rot13暗号を行った文字列を取得できます。
 echo -ne "ITA_PASSWD" | base64 | tr '[A-Za-z]' '[N-ZA-Mn-za-m]'
@@ -2823,27 +2793,6 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>テキギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のPEARパッケージをインストールしてください。
-HTML_AJAX-beta
-</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでインストールしてください。
-pear install HTML_AJAX-beta
-</t>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8526,20 +8475,6 @@
   </si>
   <si>
     <t>※パスワードに使用できる文字は半角英数字と半角記号です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オンラインの場合は以下のコマンドでインストールしてください。
-curl -sS https://getcomposer.org/installer | php -- --install-dir=/usr/bin
-/usr/bin/composer.phar require "phpoffice/phpspreadsheet":"1.14.1"
-mv vendor /usr/share/php/
-</t>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -12128,6 +12063,58 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="183" eb="185">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>pear install /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（インストール資材展開先）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ita_install_package/ext_files/pear/HTML_AJAX-0.5.8.tgz
+</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PhpSpreadsheet(v1.8.0)パッケージを/usr/share/php/vendorディレクトリにインストールしてください。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PhpSpreadsheet(v1.8.0)をインストールする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでインストールしてください。
+curl -sS https://getcomposer.org/installer | php -- --install-dir=/usr/bin
+/usr/bin/composer.phar require "phpoffice/phpspreadsheet":"1.18.0"
+mv vendor /usr/share/php/
+</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -12990,7 +12977,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13495,6 +13482,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13690,15 +13689,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13741,12 +13740,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13756,17 +13755,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14414,7 +14416,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Exastro IT Automation Version 1.8.0 </a:t>
+            <a:t>Exastro IT Automation Version 1.9</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800">
             <a:effectLst/>
@@ -14748,7 +14750,7 @@
   <sheetData>
     <row r="71" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="123" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C71" s="122"/>
       <c r="D71" s="122"/>
@@ -14784,10 +14786,10 @@
     </row>
     <row r="73" spans="2:28" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="101" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C73" s="102" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D73" s="102"/>
       <c r="E73" s="103"/>
@@ -14798,22 +14800,22 @@
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
-      <c r="M73" s="168"/>
-      <c r="N73" s="169"/>
-      <c r="O73" s="169"/>
-      <c r="P73" s="169"/>
-      <c r="Q73" s="169"/>
-      <c r="R73" s="169"/>
-      <c r="S73" s="169"/>
-      <c r="T73" s="169"/>
-      <c r="U73" s="168"/>
-      <c r="V73" s="169"/>
-      <c r="W73" s="169"/>
-      <c r="X73" s="169"/>
-      <c r="Y73" s="169"/>
-      <c r="Z73" s="169"/>
-      <c r="AA73" s="169"/>
-      <c r="AB73" s="169"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="173"/>
+      <c r="O73" s="173"/>
+      <c r="P73" s="173"/>
+      <c r="Q73" s="173"/>
+      <c r="R73" s="173"/>
+      <c r="S73" s="173"/>
+      <c r="T73" s="173"/>
+      <c r="U73" s="172"/>
+      <c r="V73" s="173"/>
+      <c r="W73" s="173"/>
+      <c r="X73" s="173"/>
+      <c r="Y73" s="173"/>
+      <c r="Z73" s="173"/>
+      <c r="AA73" s="173"/>
+      <c r="AB73" s="173"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -14828,10 +14830,10 @@
     </row>
     <row r="75" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="110" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D75" s="94"/>
       <c r="E75" s="17"/>
@@ -14862,10 +14864,10 @@
     </row>
     <row r="77" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="111" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C77" s="95" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D77" s="95"/>
       <c r="E77" s="17"/>
@@ -14897,7 +14899,7 @@
     <row r="79" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="111"/>
       <c r="C79" s="96" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D79" s="96"/>
       <c r="E79" s="17"/>
@@ -14914,7 +14916,7 @@
     <row r="80" spans="2:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="111"/>
       <c r="C80" s="95" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D80" s="95"/>
       <c r="E80" s="17"/>
@@ -14945,10 +14947,10 @@
     </row>
     <row r="82" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="111" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C82" s="95" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D82" s="95"/>
       <c r="E82" s="17"/>
@@ -14965,7 +14967,7 @@
     <row r="83" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="95" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D83" s="95"/>
       <c r="E83" s="17"/>
@@ -14981,7 +14983,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C84" s="38" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="17"/>
@@ -15012,43 +15014,43 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
-      <c r="C86" s="172" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="176" t="s">
-        <v>307</v>
-      </c>
-      <c r="E86" s="170" t="s">
-        <v>306</v>
-      </c>
-      <c r="F86" s="173" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="174"/>
-      <c r="H86" s="174"/>
-      <c r="I86" s="174"/>
-      <c r="J86" s="175"/>
+      <c r="C86" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="180" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" s="174" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="179"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="64"/>
-      <c r="C87" s="172"/>
-      <c r="D87" s="177"/>
-      <c r="E87" s="171"/>
+      <c r="C87" s="176"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="175"/>
       <c r="F87" s="97" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G87" s="97" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H87" s="97" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I87" s="120" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J87" s="119" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K87" s="19"/>
     </row>
@@ -15058,25 +15060,25 @@
         <v>1</v>
       </c>
       <c r="D88" s="98" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E88" s="125" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F88" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G88" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H88" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I88" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J88" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K88" s="19"/>
     </row>
@@ -15086,25 +15088,25 @@
         <v>2</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E89" s="126" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F89" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G89" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H89" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I89" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J89" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K89" s="19"/>
     </row>
@@ -15114,25 +15116,25 @@
         <v>3</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E90" s="126" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F90" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G90" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H90" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I90" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J90" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K90" s="19"/>
     </row>
@@ -15142,17 +15144,17 @@
         <v>4</v>
       </c>
       <c r="D91" s="98" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E91" s="126" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H91" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I91" s="99"/>
       <c r="J91" s="100"/>
@@ -15164,15 +15166,15 @@
         <v>5</v>
       </c>
       <c r="D92" s="98" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E92" s="126" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F92" s="99"/>
       <c r="G92" s="99"/>
       <c r="H92" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I92" s="99"/>
       <c r="J92" s="100"/>
@@ -15184,16 +15186,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E93" s="126" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="99"/>
       <c r="H93" s="99"/>
       <c r="I93" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J93" s="100"/>
       <c r="K93" s="19"/>
@@ -15204,17 +15206,17 @@
         <v>7</v>
       </c>
       <c r="D94" s="98" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E94" s="126" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="99"/>
       <c r="H94" s="99"/>
       <c r="I94" s="99"/>
       <c r="J94" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K94" s="19"/>
     </row>
@@ -15224,25 +15226,25 @@
         <v>8</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E95" s="126" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F95" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G95" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H95" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I95" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J95" s="99" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K95" s="19"/>
     </row>
@@ -15293,10 +15295,10 @@
     </row>
     <row r="99" spans="2:22" s="104" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="113" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C99" s="114" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D99" s="114"/>
       <c r="E99" s="114"/>
@@ -15335,10 +15337,10 @@
     </row>
     <row r="101" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="110" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C101" s="105" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D101" s="105"/>
       <c r="E101" s="17"/>
@@ -15370,7 +15372,7 @@
     <row r="103" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="106"/>
       <c r="C103" s="124" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D103" s="60"/>
       <c r="E103" s="60"/>
@@ -15387,7 +15389,7 @@
     <row r="104" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="106"/>
       <c r="C104" s="106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D104" s="106"/>
       <c r="E104" s="17"/>
@@ -15404,7 +15406,7 @@
     <row r="105" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="106"/>
       <c r="C105" s="106" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D105" s="106"/>
       <c r="E105" s="17"/>
@@ -15435,10 +15437,10 @@
     </row>
     <row r="107" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="111" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C107" s="106" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D107" s="106"/>
       <c r="E107" s="17"/>
@@ -15470,7 +15472,7 @@
     <row r="109" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="111"/>
       <c r="C109" s="124" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D109" s="60"/>
       <c r="E109" s="60"/>
@@ -15487,7 +15489,7 @@
     <row r="110" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="111"/>
       <c r="C110" s="106" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D110" s="106"/>
       <c r="E110" s="17"/>
@@ -15504,7 +15506,7 @@
     <row r="111" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="111"/>
       <c r="C111" s="106" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D111" s="106"/>
       <c r="E111" s="17"/>
@@ -15521,7 +15523,7 @@
     <row r="112" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="111"/>
       <c r="C112" s="124" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
@@ -15538,7 +15540,7 @@
     <row r="113" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="111"/>
       <c r="C113" s="106" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D113" s="106"/>
       <c r="E113" s="17"/>
@@ -15555,7 +15557,7 @@
     <row r="114" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="111"/>
       <c r="C114" s="106" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D114" s="106"/>
       <c r="E114" s="17"/>
@@ -15601,10 +15603,10 @@
     </row>
     <row r="117" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="115" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C117" s="114" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D117" s="114"/>
       <c r="E117" s="114"/>
@@ -15643,10 +15645,10 @@
     </row>
     <row r="119" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B119" s="109" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C119" s="107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D119" s="107"/>
       <c r="E119" s="62"/>
@@ -15678,7 +15680,7 @@
     <row r="121" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="61"/>
       <c r="C121" s="124" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
@@ -15695,7 +15697,7 @@
     <row r="122" spans="2:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="61"/>
       <c r="C122" s="106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D122" s="106"/>
       <c r="E122" s="62"/>
@@ -15712,7 +15714,7 @@
     <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="64"/>
       <c r="C123" s="108" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D123" s="108"/>
       <c r="E123" s="64"/>
@@ -15802,37 +15804,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="191"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -15864,10 +15866,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -15881,7 +15883,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -15907,89 +15909,89 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="188" t="s">
+      <c r="B9" s="195" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="192" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="198"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="L10" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="182"/>
+      <c r="M10" s="186"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="178" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="180"/>
+      <c r="B11" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="178" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="180"/>
+      <c r="B12" s="182" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -16009,69 +16011,69 @@
         <v>8</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="178" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="180"/>
+      <c r="B13" s="182" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
       <c r="F13" s="78"/>
       <c r="G13" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
       <c r="L13" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M13" s="70" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180"/>
+      <c r="B14" s="182" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K14" s="79"/>
       <c r="L14" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M14" s="70" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
+      <c r="B15" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16082,162 +16084,162 @@
       <c r="J15" s="79"/>
       <c r="K15" s="79"/>
       <c r="L15" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M15" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="178" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="B16" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
       <c r="K16" s="79"/>
       <c r="L16" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M16" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="178" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
+      <c r="B17" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
       <c r="L17" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M17" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="178" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="B18" s="182" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
       <c r="F18" s="78"/>
       <c r="G18" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
       <c r="L18" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M18" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="178" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
       <c r="F19" s="78"/>
       <c r="G19" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
       <c r="K19" s="79"/>
       <c r="L19" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="178" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
+      <c r="B20" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="178" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
+      <c r="B21" s="182" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
       <c r="F21" s="78"/>
       <c r="G21" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M21" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="178" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="B22" s="182" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16253,21 +16255,21 @@
         <v>8</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="178" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="B23" s="182" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
       <c r="F23" s="78"/>
       <c r="G23" s="79" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
@@ -16275,20 +16277,20 @@
       <c r="K23" s="79"/>
       <c r="L23" s="79"/>
       <c r="M23" s="70" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="B24" s="182" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G24" s="79"/>
       <c r="H24" s="79"/>
@@ -16297,7 +16299,7 @@
       <c r="K24" s="79"/>
       <c r="L24" s="79"/>
       <c r="M24" s="70" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
@@ -16384,38 +16386,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="19"/>
@@ -16450,10 +16452,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -16469,7 +16471,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -16511,37 +16513,37 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="213" t="s">
+      <c r="B10" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="205" t="s">
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="206"/>
-      <c r="M10" s="200" t="s">
+      <c r="L10" s="210"/>
+      <c r="M10" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="214"/>
-      <c r="C11" s="216"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="220"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -16553,19 +16555,19 @@
         <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="K11" s="207"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K11" s="211"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="205"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -16574,8 +16576,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="210"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="214"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16583,24 +16585,24 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="202" t="s">
+      <c r="C13" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L13" s="212"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" s="216"/>
       <c r="M13" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16608,18 +16610,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="211" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="215" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16627,18 +16629,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="211" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="212"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="216"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16653,8 +16655,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="210"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="214"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16674,18 +16676,18 @@
       <c r="H17" s="73"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="211" t="s">
+      <c r="K17" s="215" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="216"/>
+      <c r="M17" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="212"/>
-      <c r="M17" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -16694,8 +16696,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="210"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="214"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16704,7 +16706,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>8</v>
@@ -16715,95 +16717,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="228" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="212"/>
+      <c r="K19" s="232" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="216"/>
       <c r="M19" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="219">
+      <c r="B20" s="223">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="197" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="202" t="s">
+      <c r="C20" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L20" s="212"/>
-      <c r="M20" s="225"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="L20" s="216"/>
+      <c r="M20" s="229"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="220">
+      <c r="B21" s="224">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="222"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
       <c r="K21" s="84" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L21" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="M21" s="226"/>
+        <v>274</v>
+      </c>
+      <c r="M21" s="230"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="220">
+      <c r="B22" s="224">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
       <c r="K22" s="86" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L22" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="226"/>
+        <v>178</v>
+      </c>
+      <c r="M22" s="230"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="221">
+      <c r="B23" s="225">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="224"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="212"/>
-      <c r="M23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="231"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -16838,12 +16840,12 @@
       <c r="H25" s="73"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="211" t="s">
-        <v>434</v>
-      </c>
-      <c r="L25" s="229"/>
+      <c r="K25" s="215" t="s">
+        <v>427</v>
+      </c>
+      <c r="L25" s="233"/>
       <c r="M25" s="27" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16851,8 +16853,8 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="197" t="s">
-        <v>212</v>
+      <c r="C26" s="201" t="s">
+        <v>206</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>8</v>
@@ -16863,12 +16865,12 @@
       <c r="H26" s="73"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="211" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="229"/>
+      <c r="K26" s="215" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="233"/>
       <c r="M26" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16876,7 +16878,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="198"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -16886,10 +16888,10 @@
       <c r="H27" s="73"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="211" t="s">
-        <v>121</v>
-      </c>
-      <c r="L27" s="229"/>
+      <c r="K27" s="215" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="233"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16897,7 +16899,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="199"/>
+      <c r="C28" s="203"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -16907,12 +16909,12 @@
       <c r="H28" s="73"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="211" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="229"/>
+      <c r="K28" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="233"/>
       <c r="M28" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16932,10 +16934,10 @@
       <c r="H29" s="73"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="211" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29" s="229"/>
+      <c r="K29" s="215" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="233"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16955,12 +16957,12 @@
       <c r="H30" s="73"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="211" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30" s="229"/>
+      <c r="K30" s="215" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="233"/>
       <c r="M30" s="129" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16980,10 +16982,10 @@
       <c r="H31" s="73"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="211" t="s">
-        <v>436</v>
-      </c>
-      <c r="L31" s="229"/>
+      <c r="K31" s="215" t="s">
+        <v>429</v>
+      </c>
+      <c r="L31" s="233"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16992,7 +16994,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>8</v>
@@ -17003,16 +17005,16 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="211" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="229"/>
+      <c r="K32" s="215" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="233"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -17021,8 +17023,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="210"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="214"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17031,7 +17033,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>8</v>
@@ -17042,10 +17044,10 @@
       <c r="H34" s="73"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="230" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" s="212"/>
+      <c r="K34" s="234" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" s="216"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17054,7 +17056,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>8</v>
@@ -17065,12 +17067,12 @@
       <c r="H35" s="73"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="230" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="212"/>
+      <c r="K35" s="234" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="216"/>
       <c r="M35" s="129" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17079,7 +17081,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>8</v>
@@ -17090,10 +17092,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="230" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="212"/>
+      <c r="K36" s="234" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" s="216"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17102,7 +17104,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>8</v>
@@ -17113,10 +17115,10 @@
       <c r="H37" s="73"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="230" t="s">
-        <v>252</v>
-      </c>
-      <c r="L37" s="212"/>
+      <c r="K37" s="234" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" s="216"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17125,7 +17127,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>8</v>
@@ -17136,10 +17138,10 @@
       <c r="H38" s="73"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="212"/>
+      <c r="K38" s="215" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="216"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17148,7 +17150,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>8</v>
@@ -17159,10 +17161,10 @@
       <c r="H39" s="73"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="211" t="s">
-        <v>410</v>
-      </c>
-      <c r="L39" s="212"/>
+      <c r="K39" s="215" t="s">
+        <v>403</v>
+      </c>
+      <c r="L39" s="216"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -17171,7 +17173,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28" t="s">
@@ -17182,10 +17184,10 @@
       <c r="H40" s="73"/>
       <c r="I40" s="25"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="211" t="s">
-        <v>411</v>
-      </c>
-      <c r="L40" s="229"/>
+      <c r="K40" s="215" t="s">
+        <v>404</v>
+      </c>
+      <c r="L40" s="233"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17194,7 +17196,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="34"/>
@@ -17205,10 +17207,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="211" t="s">
-        <v>412</v>
-      </c>
-      <c r="L41" s="229"/>
+      <c r="K41" s="215" t="s">
+        <v>405</v>
+      </c>
+      <c r="L41" s="233"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17217,7 +17219,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
@@ -17228,10 +17230,10 @@
       <c r="H42" s="74"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="231" t="s">
-        <v>413</v>
-      </c>
-      <c r="L42" s="232"/>
+      <c r="K42" s="235" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="236"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17240,7 +17242,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33" t="s">
@@ -17253,10 +17255,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="211" t="s">
-        <v>414</v>
-      </c>
-      <c r="L43" s="229"/>
+      <c r="K43" s="215" t="s">
+        <v>407</v>
+      </c>
+      <c r="L43" s="233"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17265,7 +17267,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="25"/>
@@ -17276,10 +17278,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="211" t="s">
-        <v>415</v>
-      </c>
-      <c r="L44" s="229"/>
+      <c r="K44" s="215" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" s="233"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17288,7 +17290,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="34"/>
@@ -17299,10 +17301,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="34"/>
-      <c r="K45" s="211" t="s">
-        <v>416</v>
-      </c>
-      <c r="L45" s="229"/>
+      <c r="K45" s="215" t="s">
+        <v>409</v>
+      </c>
+      <c r="L45" s="233"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17311,7 +17313,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="34"/>
@@ -17322,10 +17324,10 @@
       <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="211" t="s">
-        <v>447</v>
-      </c>
-      <c r="L46" s="229"/>
+      <c r="K46" s="215" t="s">
+        <v>440</v>
+      </c>
+      <c r="L46" s="233"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
@@ -17441,38 +17443,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -17488,7 +17490,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -17523,10 +17525,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -17542,7 +17544,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -17584,37 +17586,37 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="205" t="s">
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="200" t="s">
+      <c r="L11" s="210"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
@@ -17626,19 +17628,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -17647,8 +17649,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="210"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17656,24 +17658,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="202" t="s">
+      <c r="C14" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17681,18 +17683,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="211" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="229"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="215" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="233"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17700,18 +17702,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="211" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="229"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="215" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="233"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17747,12 +17749,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="211" t="s">
+      <c r="K18" s="215" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="233"/>
+      <c r="M18" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="229"/>
-      <c r="M18" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17788,12 +17790,12 @@
       <c r="H20" s="154"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="211" t="s">
-        <v>461</v>
-      </c>
-      <c r="L20" s="229"/>
+      <c r="K20" s="215" t="s">
+        <v>454</v>
+      </c>
+      <c r="L20" s="233"/>
       <c r="M20" s="158" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17829,15 +17831,15 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="211" t="s">
-        <v>363</v>
-      </c>
-      <c r="L22" s="212"/>
+      <c r="K22" s="215" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="216"/>
       <c r="M22" s="27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <f>MAX(B$11:B22)+1</f>
         <v>7</v>
@@ -17854,13 +17856,11 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="211" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="212"/>
-      <c r="M23" s="27" t="s">
-        <v>177</v>
-      </c>
+      <c r="K23" s="215" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" s="233"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
@@ -17879,10 +17879,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="211" t="s">
+      <c r="K24" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="212"/>
+      <c r="L24" s="216"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17891,7 +17891,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D25" s="128" t="s">
         <v>8</v>
@@ -17902,12 +17902,12 @@
       <c r="H25" s="128"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="L25" s="212"/>
+      <c r="K25" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="L25" s="216"/>
       <c r="M25" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -17915,49 +17915,49 @@
         <f>MAX(B$11:B25)+1</f>
         <v>10</v>
       </c>
-      <c r="C26" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="202" t="s">
+      <c r="C26" s="201" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="211" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="212"/>
-      <c r="M26" s="27"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="263"/>
+      <c r="M26" s="171"/>
     </row>
     <row r="27" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="198"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="203"/>
-      <c r="K27" s="211" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="212"/>
-      <c r="M27" s="27" t="s">
-        <v>386</v>
+      <c r="C27" s="203"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="L27" s="263"/>
+      <c r="M27" s="171" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -17966,8 +17966,8 @@
       <c r="H28" s="7"/>
       <c r="I28" s="148"/>
       <c r="J28" s="148"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="210"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="214"/>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17976,7 +17976,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>8</v>
@@ -17987,10 +17987,10 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" s="147"/>
-      <c r="K29" s="211" t="s">
-        <v>321</v>
-      </c>
-      <c r="L29" s="229"/>
+      <c r="K29" s="215" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" s="233"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17999,7 +17999,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>8</v>
@@ -18010,10 +18010,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="211" t="s">
-        <v>322</v>
-      </c>
-      <c r="L30" s="229"/>
+      <c r="K30" s="215" t="s">
+        <v>316</v>
+      </c>
+      <c r="L30" s="233"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -18022,7 +18022,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>8</v>
@@ -18033,16 +18033,16 @@
       <c r="H31" s="35"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
-      <c r="K31" s="211" t="s">
-        <v>323</v>
-      </c>
-      <c r="L31" s="229"/>
+      <c r="K31" s="215" t="s">
+        <v>317</v>
+      </c>
+      <c r="L31" s="233"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -18051,8 +18051,8 @@
       <c r="H32" s="7"/>
       <c r="I32" s="148"/>
       <c r="J32" s="148"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="210"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="214"/>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18061,7 +18061,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>8</v>
@@ -18072,12 +18072,12 @@
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="230" t="s">
-        <v>261</v>
-      </c>
-      <c r="L33" s="212"/>
+      <c r="K33" s="234" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" s="216"/>
       <c r="M33" s="129" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -18086,7 +18086,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>8</v>
@@ -18097,19 +18097,19 @@
       <c r="H34" s="77"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="230" t="s">
-        <v>456</v>
-      </c>
-      <c r="L34" s="212"/>
+      <c r="K34" s="234" t="s">
+        <v>449</v>
+      </c>
+      <c r="L34" s="216"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="219">
+      <c r="B35" s="223">
         <f>MAX(B$11:B34)+1</f>
         <v>17</v>
       </c>
-      <c r="C35" s="197" t="s">
-        <v>179</v>
+      <c r="C35" s="201" t="s">
+        <v>173</v>
       </c>
       <c r="D35" s="162"/>
       <c r="E35" s="163"/>
@@ -18118,15 +18118,15 @@
       <c r="H35" s="163"/>
       <c r="I35" s="163"/>
       <c r="J35" s="164"/>
-      <c r="K35" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L35" s="212"/>
-      <c r="M35" s="225"/>
+      <c r="K35" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="216"/>
+      <c r="M35" s="229"/>
     </row>
     <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="220"/>
-      <c r="C36" s="222"/>
+      <c r="B36" s="224"/>
+      <c r="C36" s="226"/>
       <c r="D36" s="153"/>
       <c r="E36" s="165"/>
       <c r="F36" s="165"/>
@@ -18135,16 +18135,16 @@
       <c r="I36" s="165"/>
       <c r="J36" s="166"/>
       <c r="K36" s="84" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L36" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="M36" s="226"/>
+        <v>284</v>
+      </c>
+      <c r="M36" s="230"/>
     </row>
     <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="220"/>
-      <c r="C37" s="222"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="226"/>
       <c r="D37" s="28" t="s">
         <v>8</v>
       </c>
@@ -18155,16 +18155,16 @@
       <c r="I37" s="152"/>
       <c r="J37" s="152"/>
       <c r="K37" s="86" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L37" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M37" s="226"/>
+        <v>258</v>
+      </c>
+      <c r="M37" s="230"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="220"/>
-      <c r="C38" s="222"/>
+      <c r="B38" s="224"/>
+      <c r="C38" s="226"/>
       <c r="D38" s="28" t="s">
         <v>8</v>
       </c>
@@ -18175,16 +18175,16 @@
       <c r="I38" s="152"/>
       <c r="J38" s="152"/>
       <c r="K38" s="86" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L38" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="M38" s="226"/>
+        <v>259</v>
+      </c>
+      <c r="M38" s="230"/>
     </row>
     <row r="39" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="220"/>
-      <c r="C39" s="222"/>
+      <c r="B39" s="224"/>
+      <c r="C39" s="226"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
@@ -18195,16 +18195,16 @@
       <c r="I39" s="152"/>
       <c r="J39" s="152"/>
       <c r="K39" s="86" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L39" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="M39" s="226"/>
+        <v>260</v>
+      </c>
+      <c r="M39" s="230"/>
     </row>
     <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="220"/>
-      <c r="C40" s="222"/>
+      <c r="B40" s="224"/>
+      <c r="C40" s="226"/>
       <c r="D40" s="28" t="s">
         <v>8</v>
       </c>
@@ -18215,16 +18215,16 @@
       <c r="I40" s="152"/>
       <c r="J40" s="152"/>
       <c r="K40" s="86" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L40" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="M40" s="226"/>
+        <v>261</v>
+      </c>
+      <c r="M40" s="230"/>
     </row>
     <row r="41" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="220"/>
-      <c r="C41" s="222"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="28" t="s">
         <v>8</v>
       </c>
@@ -18235,16 +18235,16 @@
       <c r="I41" s="152"/>
       <c r="J41" s="152"/>
       <c r="K41" s="86" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L41" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="M41" s="226"/>
+        <v>262</v>
+      </c>
+      <c r="M41" s="230"/>
     </row>
     <row r="42" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="220"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="226"/>
       <c r="D42" s="28" t="s">
         <v>8</v>
       </c>
@@ -18255,16 +18255,16 @@
       <c r="I42" s="152"/>
       <c r="J42" s="152"/>
       <c r="K42" s="86" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L42" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="M42" s="226"/>
+        <v>263</v>
+      </c>
+      <c r="M42" s="230"/>
     </row>
     <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="220"/>
-      <c r="C43" s="222"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="226"/>
       <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
@@ -18275,16 +18275,16 @@
       <c r="I43" s="152"/>
       <c r="J43" s="152"/>
       <c r="K43" s="86" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L43" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="M43" s="226"/>
+        <v>264</v>
+      </c>
+      <c r="M43" s="230"/>
     </row>
     <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="220"/>
-      <c r="C44" s="222"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="226"/>
       <c r="D44" s="28" t="s">
         <v>8</v>
       </c>
@@ -18295,16 +18295,16 @@
       <c r="I44" s="152"/>
       <c r="J44" s="152"/>
       <c r="K44" s="86" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L44" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="M44" s="226"/>
+        <v>265</v>
+      </c>
+      <c r="M44" s="230"/>
     </row>
     <row r="45" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="220"/>
-      <c r="C45" s="222"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="152"/>
       <c r="E45" s="152"/>
       <c r="F45" s="152"/>
@@ -18315,16 +18315,16 @@
         <v>8</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L45" s="91" t="s">
-        <v>459</v>
-      </c>
-      <c r="M45" s="226"/>
+        <v>452</v>
+      </c>
+      <c r="M45" s="230"/>
     </row>
     <row r="46" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="221"/>
-      <c r="C46" s="223"/>
+      <c r="B46" s="225"/>
+      <c r="C46" s="227"/>
       <c r="D46" s="167"/>
       <c r="E46" s="150"/>
       <c r="F46" s="150"/>
@@ -18332,9 +18332,9 @@
       <c r="H46" s="150"/>
       <c r="I46" s="150"/>
       <c r="J46" s="151"/>
-      <c r="K46" s="211"/>
-      <c r="L46" s="212"/>
-      <c r="M46" s="227"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="216"/>
+      <c r="M46" s="231"/>
     </row>
     <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
@@ -18342,7 +18342,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>8</v>
@@ -18353,10 +18353,10 @@
       <c r="H47" s="24"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="211" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" s="229"/>
+      <c r="K47" s="215" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" s="233"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18365,7 +18365,7 @@
         <v>19</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>8</v>
@@ -18376,10 +18376,10 @@
       <c r="H48" s="24"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="211" t="s">
-        <v>325</v>
-      </c>
-      <c r="L48" s="229"/>
+      <c r="K48" s="215" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" s="233"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18388,7 +18388,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>8</v>
@@ -18399,10 +18399,10 @@
       <c r="H49" s="28"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="211" t="s">
-        <v>355</v>
-      </c>
-      <c r="L49" s="229"/>
+      <c r="K49" s="215" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" s="233"/>
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18411,7 +18411,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>8</v>
@@ -18422,10 +18422,10 @@
       <c r="H50" s="28"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="211" t="s">
-        <v>356</v>
-      </c>
-      <c r="L50" s="229"/>
+      <c r="K50" s="215" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" s="233"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18434,7 +18434,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>8</v>
@@ -18445,10 +18445,10 @@
       <c r="H51" s="28"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="211" t="s">
-        <v>357</v>
-      </c>
-      <c r="L51" s="229"/>
+      <c r="K51" s="215" t="s">
+        <v>351</v>
+      </c>
+      <c r="L51" s="233"/>
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -18457,7 +18457,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="45" t="s">
         <v>8</v>
@@ -18468,10 +18468,10 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="235" t="s">
-        <v>326</v>
-      </c>
-      <c r="L52" s="229"/>
+      <c r="K52" s="237" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" s="233"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18480,7 +18480,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45" t="s">
@@ -18491,10 +18491,10 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="45"/>
-      <c r="K53" s="235" t="s">
-        <v>327</v>
-      </c>
-      <c r="L53" s="229"/>
+      <c r="K53" s="237" t="s">
+        <v>321</v>
+      </c>
+      <c r="L53" s="233"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18503,7 +18503,7 @@
         <v>25</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="25"/>
@@ -18514,10 +18514,10 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="45"/>
-      <c r="K54" s="235" t="s">
-        <v>328</v>
-      </c>
-      <c r="L54" s="229"/>
+      <c r="K54" s="237" t="s">
+        <v>322</v>
+      </c>
+      <c r="L54" s="233"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18526,7 +18526,7 @@
         <v>26</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="117"/>
       <c r="E55" s="34"/>
@@ -18537,10 +18537,10 @@
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="235" t="s">
-        <v>329</v>
-      </c>
-      <c r="L55" s="229"/>
+      <c r="K55" s="237" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" s="233"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18549,7 +18549,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="25"/>
@@ -18560,10 +18560,10 @@
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="235" t="s">
-        <v>330</v>
-      </c>
-      <c r="L56" s="229"/>
+      <c r="K56" s="237" t="s">
+        <v>324</v>
+      </c>
+      <c r="L56" s="233"/>
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18572,7 +18572,7 @@
         <v>27</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="25"/>
@@ -18583,10 +18583,10 @@
         <v>8</v>
       </c>
       <c r="J57" s="25"/>
-      <c r="K57" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="L57" s="229"/>
+      <c r="K57" s="237" t="s">
+        <v>356</v>
+      </c>
+      <c r="L57" s="233"/>
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18595,7 +18595,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="25"/>
@@ -18606,10 +18606,10 @@
       <c r="J58" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="235" t="s">
-        <v>449</v>
-      </c>
-      <c r="L58" s="229"/>
+      <c r="K58" s="237" t="s">
+        <v>442</v>
+      </c>
+      <c r="L58" s="233"/>
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="2:13" ht="81" x14ac:dyDescent="0.15">
@@ -18618,7 +18618,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>8</v>
@@ -18629,12 +18629,12 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="211" t="s">
-        <v>144</v>
-      </c>
-      <c r="L59" s="229"/>
+      <c r="K59" s="215" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" s="233"/>
       <c r="M59" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18643,7 +18643,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>8</v>
@@ -18654,12 +18654,12 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="211" t="s">
-        <v>145</v>
-      </c>
-      <c r="L60" s="229"/>
+      <c r="K60" s="215" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="233"/>
       <c r="M60" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18668,7 +18668,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>8</v>
@@ -18679,18 +18679,18 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="211" t="s">
-        <v>146</v>
-      </c>
-      <c r="L61" s="229"/>
+      <c r="K61" s="215" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" s="233"/>
       <c r="M61" s="29" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B62" s="1"/>
       <c r="C62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -18699,8 +18699,8 @@
       <c r="H62" s="7"/>
       <c r="I62" s="148"/>
       <c r="J62" s="148"/>
-      <c r="K62" s="209"/>
-      <c r="L62" s="210"/>
+      <c r="K62" s="213"/>
+      <c r="L62" s="214"/>
       <c r="M62" s="8"/>
     </row>
     <row r="63" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18709,7 +18709,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>8</v>
@@ -18720,10 +18720,10 @@
       <c r="H63" s="24"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
-      <c r="K63" s="211" t="s">
-        <v>147</v>
-      </c>
-      <c r="L63" s="212"/>
+      <c r="K63" s="215" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63" s="216"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18732,7 +18732,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>8</v>
@@ -18743,10 +18743,10 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="211" t="s">
-        <v>427</v>
-      </c>
-      <c r="L64" s="212"/>
+      <c r="K64" s="215" t="s">
+        <v>420</v>
+      </c>
+      <c r="L64" s="216"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18755,7 +18755,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -18766,10 +18766,10 @@
       <c r="H65" s="24"/>
       <c r="I65" s="25"/>
       <c r="J65" s="28"/>
-      <c r="K65" s="211" t="s">
-        <v>428</v>
-      </c>
-      <c r="L65" s="212"/>
+      <c r="K65" s="215" t="s">
+        <v>421</v>
+      </c>
+      <c r="L65" s="216"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18778,7 +18778,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="25"/>
@@ -18789,10 +18789,10 @@
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
       <c r="J66" s="28"/>
-      <c r="K66" s="211" t="s">
-        <v>429</v>
-      </c>
-      <c r="L66" s="212"/>
+      <c r="K66" s="215" t="s">
+        <v>422</v>
+      </c>
+      <c r="L66" s="216"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18801,7 +18801,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="25"/>
@@ -18812,10 +18812,10 @@
       <c r="H67" s="24"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
-      <c r="K67" s="211" t="s">
-        <v>430</v>
-      </c>
-      <c r="L67" s="229"/>
+      <c r="K67" s="215" t="s">
+        <v>423</v>
+      </c>
+      <c r="L67" s="233"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18824,7 +18824,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="136" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -18837,10 +18837,10 @@
       <c r="H68" s="28"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="211" t="s">
-        <v>431</v>
-      </c>
-      <c r="L68" s="229"/>
+      <c r="K68" s="215" t="s">
+        <v>424</v>
+      </c>
+      <c r="L68" s="233"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18849,7 +18849,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="25"/>
@@ -18860,10 +18860,10 @@
       </c>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="211" t="s">
-        <v>432</v>
-      </c>
-      <c r="L69" s="229"/>
+      <c r="K69" s="215" t="s">
+        <v>425</v>
+      </c>
+      <c r="L69" s="233"/>
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18872,7 +18872,7 @@
         <v>39</v>
       </c>
       <c r="C70" s="149" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="34"/>
@@ -18883,10 +18883,10 @@
         <v>8</v>
       </c>
       <c r="J70" s="34"/>
-      <c r="K70" s="211" t="s">
-        <v>433</v>
-      </c>
-      <c r="L70" s="229"/>
+      <c r="K70" s="215" t="s">
+        <v>426</v>
+      </c>
+      <c r="L70" s="233"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18895,7 +18895,7 @@
         <v>40</v>
       </c>
       <c r="C71" s="139" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="34"/>
@@ -18906,10 +18906,10 @@
       <c r="J71" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="211" t="s">
-        <v>451</v>
-      </c>
-      <c r="L71" s="229"/>
+      <c r="K71" s="215" t="s">
+        <v>444</v>
+      </c>
+      <c r="L71" s="233"/>
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18918,7 +18918,7 @@
         <v>41</v>
       </c>
       <c r="C72" s="137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>8</v>
@@ -18929,10 +18929,10 @@
       <c r="H72" s="138"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
-      <c r="K72" s="233" t="s">
-        <v>126</v>
-      </c>
-      <c r="L72" s="234"/>
+      <c r="K72" s="238" t="s">
+        <v>122</v>
+      </c>
+      <c r="L72" s="239"/>
       <c r="M72" s="36"/>
     </row>
     <row r="73" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18941,7 +18941,7 @@
         <v>42</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" s="33" t="s">
         <v>8</v>
@@ -18952,16 +18952,16 @@
       <c r="H73" s="35"/>
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
-      <c r="K73" s="211" t="s">
-        <v>277</v>
-      </c>
-      <c r="L73" s="229"/>
+      <c r="K73" s="215" t="s">
+        <v>271</v>
+      </c>
+      <c r="L73" s="233"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B74" s="1"/>
       <c r="C74" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -18970,8 +18970,8 @@
       <c r="H74" s="7"/>
       <c r="I74" s="148"/>
       <c r="J74" s="148"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="210"/>
+      <c r="K74" s="213"/>
+      <c r="L74" s="214"/>
       <c r="M74" s="8"/>
     </row>
     <row r="75" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18980,7 +18980,7 @@
         <v>43</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>8</v>
@@ -18991,16 +18991,16 @@
       <c r="H75" s="24"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
-      <c r="K75" s="211" t="s">
-        <v>148</v>
-      </c>
-      <c r="L75" s="212"/>
+      <c r="K75" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="L75" s="216"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
       <c r="C76" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -19009,8 +19009,8 @@
       <c r="H76" s="7"/>
       <c r="I76" s="148"/>
       <c r="J76" s="148"/>
-      <c r="K76" s="209"/>
-      <c r="L76" s="210"/>
+      <c r="K76" s="213"/>
+      <c r="L76" s="214"/>
       <c r="M76" s="8"/>
     </row>
     <row r="77" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19019,7 +19019,7 @@
         <v>44</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>8</v>
@@ -19030,16 +19030,16 @@
       <c r="H77" s="35"/>
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="211" t="s">
-        <v>167</v>
-      </c>
-      <c r="L77" s="212"/>
+      <c r="K77" s="215" t="s">
+        <v>163</v>
+      </c>
+      <c r="L77" s="216"/>
       <c r="M77" s="29"/>
     </row>
     <row r="78" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B78" s="1"/>
       <c r="C78" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -19048,8 +19048,8 @@
       <c r="H78" s="7"/>
       <c r="I78" s="148"/>
       <c r="J78" s="148"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="210"/>
+      <c r="K78" s="213"/>
+      <c r="L78" s="214"/>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -19058,7 +19058,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="34"/>
@@ -19069,12 +19069,12 @@
       <c r="J79" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K79" s="211" t="s">
-        <v>33</v>
-      </c>
-      <c r="L79" s="212"/>
+      <c r="K79" s="215" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="216"/>
       <c r="M79" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -19185,10 +19185,10 @@
   </sheetPr>
   <dimension ref="B1:M62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40:G43"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19216,38 +19216,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -19263,7 +19263,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -19298,10 +19298,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -19317,7 +19317,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -19359,37 +19359,37 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="205" t="s">
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="200" t="s">
+      <c r="L11" s="210"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
@@ -19401,19 +19401,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -19422,8 +19422,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="210"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19431,24 +19431,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202" t="s">
+      <c r="C14" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19456,18 +19456,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="236" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="212"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="240" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="216"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19475,18 +19475,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="236" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="212"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="240" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="216"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19501,8 +19501,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="210"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="214"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19522,12 +19522,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="236" t="s">
+      <c r="K18" s="240" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="216"/>
+      <c r="M18" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="212"/>
-      <c r="M18" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19542,8 +19542,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="210"/>
+      <c r="K19" s="241"/>
+      <c r="L19" s="214"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19563,12 +19563,12 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="236" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="212"/>
+      <c r="K20" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="216"/>
       <c r="M20" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19588,10 +19588,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="236" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" s="212"/>
+      <c r="K21" s="240" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="216"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19606,8 +19606,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="210"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="214"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -19627,38 +19627,36 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="236" t="s">
-        <v>368</v>
-      </c>
-      <c r="L23" s="212"/>
+      <c r="K23" s="240" t="s">
+        <v>362</v>
+      </c>
+      <c r="L23" s="216"/>
       <c r="M23" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <f>MAX(B$11:B23)+1</f>
         <v>8</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="169"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="236" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="212"/>
-      <c r="M24" s="27" t="s">
-        <v>177</v>
-      </c>
+      <c r="K24" s="215" t="s">
+        <v>456</v>
+      </c>
+      <c r="L24" s="233"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
@@ -19677,10 +19675,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="236" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="212"/>
+      <c r="K25" s="240" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" s="216"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19689,7 +19687,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="25"/>
@@ -19700,12 +19698,12 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="L26" s="212"/>
+      <c r="K26" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="L26" s="216"/>
       <c r="M26" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -19713,22 +19711,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="L27" s="212"/>
+      <c r="C27" s="201" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="263"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -19736,26 +19734,26 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="203"/>
-      <c r="K28" s="236" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="212"/>
-      <c r="M28" s="27" t="s">
-        <v>386</v>
+      <c r="C28" s="203"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="L28" s="263"/>
+      <c r="M28" s="171" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -19764,8 +19762,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="210"/>
+      <c r="K29" s="241"/>
+      <c r="L29" s="214"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19774,7 +19772,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
@@ -19785,10 +19783,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="236" t="s">
-        <v>333</v>
-      </c>
-      <c r="L30" s="212"/>
+      <c r="K30" s="240" t="s">
+        <v>327</v>
+      </c>
+      <c r="L30" s="216"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19797,7 +19795,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
@@ -19808,10 +19806,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="236" t="s">
-        <v>332</v>
-      </c>
-      <c r="L31" s="212"/>
+      <c r="K31" s="240" t="s">
+        <v>326</v>
+      </c>
+      <c r="L31" s="216"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19820,7 +19818,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
@@ -19831,16 +19829,16 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="236" t="s">
-        <v>331</v>
-      </c>
-      <c r="L32" s="212"/>
+      <c r="K32" s="240" t="s">
+        <v>325</v>
+      </c>
+      <c r="L32" s="216"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -19849,8 +19847,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="210"/>
+      <c r="K33" s="241"/>
+      <c r="L33" s="214"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19859,7 +19857,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -19870,12 +19868,12 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="236" t="s">
-        <v>378</v>
-      </c>
-      <c r="L34" s="212"/>
+      <c r="K34" s="240" t="s">
+        <v>372</v>
+      </c>
+      <c r="L34" s="216"/>
       <c r="M34" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19884,7 +19882,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="34"/>
@@ -19895,10 +19893,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="236" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="212"/>
+      <c r="K35" s="240" t="s">
+        <v>369</v>
+      </c>
+      <c r="L35" s="216"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19907,7 +19905,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="34"/>
@@ -19918,16 +19916,16 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="238" t="s">
-        <v>377</v>
-      </c>
-      <c r="L36" s="239"/>
+      <c r="K36" s="242" t="s">
+        <v>371</v>
+      </c>
+      <c r="L36" s="243"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -19936,8 +19934,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="210"/>
+      <c r="K37" s="241"/>
+      <c r="L37" s="214"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -19946,7 +19944,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="25"/>
@@ -19957,12 +19955,12 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="236" t="s">
-        <v>152</v>
-      </c>
-      <c r="L38" s="212"/>
+      <c r="K38" s="240" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="216"/>
       <c r="M38" s="129" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19971,7 +19969,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="25"/>
@@ -19982,84 +19980,84 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="236" t="s">
-        <v>151</v>
-      </c>
-      <c r="L39" s="212"/>
+      <c r="K39" s="240" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="216"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="219">
+      <c r="B40" s="223">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="201" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="215" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L40" s="212"/>
-      <c r="M40" s="225"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="229"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="220"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="220"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="220"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
       <c r="K41" s="84" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L41" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="M41" s="226"/>
+        <v>256</v>
+      </c>
+      <c r="M41" s="230"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="220"/>
-      <c r="C42" s="222"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="224"/>
       <c r="K42" s="86" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L42" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M42" s="226"/>
+        <v>258</v>
+      </c>
+      <c r="M42" s="230"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="221"/>
-      <c r="C43" s="223"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="224"/>
-      <c r="J43" s="224"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="227"/>
+      <c r="M43" s="231"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20067,7 +20065,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="25"/>
@@ -20078,10 +20076,10 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="236" t="s">
-        <v>334</v>
-      </c>
-      <c r="L44" s="212"/>
+      <c r="K44" s="240" t="s">
+        <v>328</v>
+      </c>
+      <c r="L44" s="216"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20090,7 +20088,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="25"/>
@@ -20101,10 +20099,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="236" t="s">
-        <v>335</v>
-      </c>
-      <c r="L45" s="212"/>
+      <c r="K45" s="240" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" s="216"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20113,7 +20111,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="25"/>
@@ -20124,10 +20122,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="236" t="s">
-        <v>336</v>
-      </c>
-      <c r="L46" s="212"/>
+      <c r="K46" s="240" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" s="216"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20136,7 +20134,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="25"/>
@@ -20147,10 +20145,10 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="236" t="s">
-        <v>337</v>
-      </c>
-      <c r="L47" s="212"/>
+      <c r="K47" s="240" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" s="216"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20159,7 +20157,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="25"/>
@@ -20170,16 +20168,16 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="236" t="s">
-        <v>338</v>
-      </c>
-      <c r="L48" s="229"/>
+      <c r="K48" s="240" t="s">
+        <v>332</v>
+      </c>
+      <c r="L48" s="233"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B49" s="1"/>
       <c r="C49" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -20188,8 +20186,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="148"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="210"/>
+      <c r="K49" s="241"/>
+      <c r="L49" s="214"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20198,7 +20196,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="25"/>
@@ -20209,10 +20207,10 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="236" t="s">
-        <v>390</v>
-      </c>
-      <c r="L50" s="212"/>
+      <c r="K50" s="240" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" s="216"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20221,7 +20219,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="25"/>
@@ -20232,12 +20230,12 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="236" t="s">
-        <v>391</v>
-      </c>
-      <c r="L51" s="212"/>
+      <c r="K51" s="240" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" s="216"/>
       <c r="M51" s="29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -20246,7 +20244,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="25"/>
@@ -20257,10 +20255,10 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="236" t="s">
-        <v>359</v>
-      </c>
-      <c r="L52" s="229"/>
+      <c r="K52" s="240" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" s="233"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20269,7 +20267,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="25"/>
@@ -20280,10 +20278,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="236" t="s">
-        <v>360</v>
-      </c>
-      <c r="L53" s="229"/>
+      <c r="K53" s="240" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" s="233"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20292,7 +20290,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="25"/>
@@ -20303,10 +20301,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="236" t="s">
-        <v>389</v>
-      </c>
-      <c r="L54" s="229"/>
+      <c r="K54" s="240" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" s="233"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20315,7 +20313,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="34"/>
@@ -20326,10 +20324,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="236" t="s">
-        <v>86</v>
-      </c>
-      <c r="L55" s="229"/>
+      <c r="K55" s="240" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="233"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20344,8 +20342,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="237"/>
-      <c r="L56" s="210"/>
+      <c r="K56" s="241"/>
+      <c r="L56" s="214"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20354,7 +20352,7 @@
         <v>33</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="34"/>
@@ -20365,12 +20363,12 @@
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="236" t="s">
-        <v>425</v>
-      </c>
-      <c r="L57" s="212"/>
+      <c r="K57" s="240" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" s="216"/>
       <c r="M57" s="27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20379,7 +20377,7 @@
         <v>34</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
@@ -20390,10 +20388,10 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="L58" s="212"/>
+      <c r="K58" s="240" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" s="216"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20402,7 +20400,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
@@ -20413,10 +20411,10 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="236" t="s">
-        <v>339</v>
-      </c>
-      <c r="L59" s="212"/>
+      <c r="K59" s="240" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" s="216"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20425,7 +20423,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
@@ -20436,10 +20434,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="236" t="s">
-        <v>340</v>
-      </c>
-      <c r="L60" s="212"/>
+      <c r="K60" s="240" t="s">
+        <v>334</v>
+      </c>
+      <c r="L60" s="216"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20448,7 +20446,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
@@ -20459,12 +20457,12 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="236" t="s">
-        <v>369</v>
-      </c>
-      <c r="L61" s="229"/>
+      <c r="K61" s="240" t="s">
+        <v>363</v>
+      </c>
+      <c r="L61" s="233"/>
       <c r="M61" s="27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="81" x14ac:dyDescent="0.15">
@@ -20473,7 +20471,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="34"/>
@@ -20484,12 +20482,12 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="L62" s="229"/>
+      <c r="K62" s="240" t="s">
+        <v>149</v>
+      </c>
+      <c r="L62" s="233"/>
       <c r="M62" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -20598,9 +20596,7 @@
   </sheetPr>
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -20627,34 +20623,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -20689,10 +20685,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -20708,7 +20704,7 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39"/>
       <c r="C7" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -20737,10 +20733,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -20782,37 +20778,37 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213" t="s">
+      <c r="B12" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="215" t="s">
+      <c r="C12" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="217" t="s">
+      <c r="D12" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="205" t="s">
+      <c r="E12" s="222"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="246"/>
-      <c r="M12" s="200" t="s">
+      <c r="L12" s="250"/>
+      <c r="M12" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="214"/>
-      <c r="C13" s="216"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
@@ -20824,19 +20820,19 @@
         <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K13" s="207"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K13" s="211"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="205"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -20845,8 +20841,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="148"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="245"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20855,7 +20851,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="25"/>
@@ -20866,89 +20862,89 @@
       <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="236" t="s">
-        <v>253</v>
-      </c>
-      <c r="L15" s="229"/>
+      <c r="K15" s="240" t="s">
+        <v>247</v>
+      </c>
+      <c r="L15" s="233"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="219">
+      <c r="B16" s="223">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="243" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202" t="s">
+      <c r="C16" s="247" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L16" s="212"/>
-      <c r="M16" s="225"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16" s="216"/>
+      <c r="M16" s="229"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="220"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
       <c r="K17" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="L17" s="88" t="s">
-        <v>280</v>
-      </c>
-      <c r="M17" s="226"/>
+      <c r="M17" s="230"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="220"/>
-      <c r="C18" s="244"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
       <c r="K18" s="86" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L18" s="89" t="s">
-        <v>264</v>
-      </c>
-      <c r="M18" s="226"/>
+        <v>258</v>
+      </c>
+      <c r="M18" s="230"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="242"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="227"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="231"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -20967,7 +20963,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="34"/>
@@ -20978,10 +20974,10 @@
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="236" t="s">
-        <v>229</v>
-      </c>
-      <c r="L21" s="229"/>
+      <c r="K21" s="240" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="233"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20990,7 +20986,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="34"/>
@@ -21001,10 +20997,10 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="236" t="s">
-        <v>354</v>
-      </c>
-      <c r="L22" s="229"/>
+      <c r="K22" s="240" t="s">
+        <v>348</v>
+      </c>
+      <c r="L22" s="233"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
@@ -21081,38 +21077,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -21128,7 +21124,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -21144,7 +21140,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -21165,10 +21161,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -21184,7 +21180,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -21226,37 +21222,37 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="205" t="s">
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="200" t="s">
+      <c r="L11" s="210"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
@@ -21268,19 +21264,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -21289,8 +21285,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="210"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21298,24 +21294,24 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202" t="s">
+      <c r="C14" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -21323,18 +21319,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="236" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="212"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="240" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="216"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21342,18 +21338,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="236" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="212"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="240" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="216"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21368,8 +21364,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="210"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="214"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21389,12 +21385,12 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="236" t="s">
+      <c r="K18" s="240" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="216"/>
+      <c r="M18" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="212"/>
-      <c r="M18" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21409,8 +21405,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="210"/>
+      <c r="K19" s="241"/>
+      <c r="L19" s="214"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -21430,38 +21426,36 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="236" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" s="212"/>
+      <c r="K20" s="240" t="s">
+        <v>362</v>
+      </c>
+      <c r="L20" s="216"/>
       <c r="M20" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <f>MAX(B$11:B20)+1</f>
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="56" t="s">
+      <c r="G21" s="169"/>
+      <c r="H21" s="169" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="236" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" s="212"/>
-      <c r="M21" s="27" t="s">
-        <v>177</v>
-      </c>
+      <c r="K21" s="215" t="s">
+        <v>456</v>
+      </c>
+      <c r="L21" s="233"/>
+      <c r="M21" s="170"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
@@ -21480,10 +21474,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="236" t="s">
+      <c r="K22" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="229"/>
+      <c r="L22" s="233"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21492,23 +21486,23 @@
         <v>8</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D23" s="128"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="128" t="s">
+      <c r="G23" s="128"/>
+      <c r="H23" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="128"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="L23" s="212"/>
+      <c r="K23" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" s="216"/>
       <c r="M23" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21516,22 +21510,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202" t="s">
+      <c r="C24" s="201" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="229"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="263"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -21539,26 +21533,26 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="198"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="236" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="229"/>
-      <c r="M25" s="27" t="s">
-        <v>386</v>
+      <c r="C25" s="203"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="L25" s="263"/>
+      <c r="M25" s="171" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -21567,8 +21561,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="148"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="210"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="214"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21577,7 +21571,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="25"/>
@@ -21588,10 +21582,10 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="236" t="s">
-        <v>333</v>
-      </c>
-      <c r="L27" s="229"/>
+      <c r="K27" s="240" t="s">
+        <v>327</v>
+      </c>
+      <c r="L27" s="233"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21600,7 +21594,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="25"/>
@@ -21611,10 +21605,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="236" t="s">
-        <v>332</v>
-      </c>
-      <c r="L28" s="229"/>
+      <c r="K28" s="240" t="s">
+        <v>326</v>
+      </c>
+      <c r="L28" s="233"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21623,7 +21617,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="25"/>
@@ -21634,16 +21628,16 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="236" t="s">
-        <v>331</v>
-      </c>
-      <c r="L29" s="229"/>
+      <c r="K29" s="240" t="s">
+        <v>325</v>
+      </c>
+      <c r="L29" s="233"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -21652,8 +21646,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="148"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="237"/>
-      <c r="L30" s="210"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="214"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21662,7 +21656,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="25"/>
@@ -21673,12 +21667,12 @@
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="236" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="212"/>
+      <c r="K31" s="240" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="216"/>
       <c r="M31" s="129" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21687,7 +21681,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
@@ -21698,84 +21692,84 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="236" t="s">
-        <v>151</v>
-      </c>
-      <c r="L32" s="212"/>
+      <c r="K32" s="240" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="216"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="219">
+      <c r="B33" s="223">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="197" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202" t="s">
+      <c r="C33" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L33" s="212"/>
-      <c r="M33" s="225"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" s="216"/>
+      <c r="M33" s="229"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="248"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="220"/>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="220"/>
+      <c r="B34" s="252"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
       <c r="K34" s="84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L34" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="M34" s="226"/>
+        <v>256</v>
+      </c>
+      <c r="M34" s="230"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="248"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="220"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
+      <c r="B35" s="252"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
       <c r="K35" s="86" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L35" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M35" s="226"/>
+        <v>258</v>
+      </c>
+      <c r="M35" s="230"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="249"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="224"/>
-      <c r="H36" s="224"/>
-      <c r="I36" s="224"/>
-      <c r="J36" s="224"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="229"/>
-      <c r="M36" s="227"/>
+      <c r="B36" s="253"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="228"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="228"/>
+      <c r="J36" s="228"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="233"/>
+      <c r="M36" s="231"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -21783,7 +21777,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="25"/>
@@ -21794,10 +21788,10 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="236" t="s">
-        <v>334</v>
-      </c>
-      <c r="L37" s="229"/>
+      <c r="K37" s="240" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" s="233"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21806,7 +21800,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="25"/>
@@ -21817,10 +21811,10 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="236" t="s">
-        <v>335</v>
-      </c>
-      <c r="L38" s="229"/>
+      <c r="K38" s="240" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="233"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21829,7 +21823,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="25"/>
@@ -21840,10 +21834,10 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="236" t="s">
-        <v>336</v>
-      </c>
-      <c r="L39" s="229"/>
+      <c r="K39" s="240" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" s="233"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21852,7 +21846,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="25"/>
@@ -21863,10 +21857,10 @@
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="236" t="s">
-        <v>337</v>
-      </c>
-      <c r="L40" s="229"/>
+      <c r="K40" s="240" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" s="233"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21875,7 +21869,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="25"/>
@@ -21886,10 +21880,10 @@
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="236" t="s">
-        <v>338</v>
-      </c>
-      <c r="L41" s="229"/>
+      <c r="K41" s="240" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" s="233"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21898,7 +21892,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="25"/>
@@ -21909,10 +21903,10 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="229"/>
+      <c r="K42" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="L42" s="233"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21921,7 +21915,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="25"/>
@@ -21932,10 +21926,10 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="211" t="s">
-        <v>157</v>
-      </c>
-      <c r="L43" s="229"/>
+      <c r="K43" s="215" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" s="233"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21944,7 +21938,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="25"/>
@@ -21955,16 +21949,16 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="211" t="s">
-        <v>302</v>
-      </c>
-      <c r="L44" s="229"/>
+      <c r="K44" s="215" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="233"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
       <c r="C45" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -21973,8 +21967,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="148"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="210"/>
+      <c r="K45" s="241"/>
+      <c r="L45" s="214"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21983,7 +21977,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="25"/>
@@ -21994,16 +21988,16 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="236" t="s">
-        <v>303</v>
-      </c>
-      <c r="L46" s="212"/>
+      <c r="K46" s="240" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" s="216"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -22012,8 +22006,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="148"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="237"/>
-      <c r="L47" s="210"/>
+      <c r="K47" s="241"/>
+      <c r="L47" s="214"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22022,7 +22016,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="34"/>
@@ -22033,10 +22027,10 @@
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="236" t="s">
-        <v>228</v>
-      </c>
-      <c r="L48" s="212"/>
+      <c r="K48" s="240" t="s">
+        <v>222</v>
+      </c>
+      <c r="L48" s="216"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
@@ -22162,34 +22156,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -22293,37 +22287,37 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="205" t="s">
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="200" t="s">
+      <c r="L11" s="210"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
@@ -22335,19 +22329,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
       <c r="C13" s="142" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
@@ -22356,8 +22350,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="148"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="210"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22366,7 +22360,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="34"/>
@@ -22377,10 +22371,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="236" t="s">
-        <v>403</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="K14" s="240" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22389,7 +22383,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="136" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="34"/>
@@ -22400,10 +22394,10 @@
         <v>8</v>
       </c>
       <c r="J15" s="35"/>
-      <c r="K15" s="236" t="s">
-        <v>405</v>
-      </c>
-      <c r="L15" s="229"/>
+      <c r="K15" s="240" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15" s="233"/>
       <c r="M15" s="136"/>
     </row>
   </sheetData>
@@ -22466,38 +22460,38 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="185" t="str">
+      <c r="B3" s="189" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
       <c r="K3" s="55" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -22513,7 +22507,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -22548,10 +22542,10 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -22567,7 +22561,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -22609,37 +22603,37 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="205" t="s">
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="200" t="s">
+      <c r="L11" s="210"/>
+      <c r="M11" s="204" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>14</v>
@@ -22651,19 +22645,19 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="K12" s="207"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="201"/>
+        <v>438</v>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -22672,8 +22666,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="210"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="214"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -22681,24 +22675,24 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="202" t="s">
+      <c r="C14" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="211" t="s">
-        <v>318</v>
-      </c>
-      <c r="L14" s="212"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="215" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="216"/>
       <c r="M14" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -22706,18 +22700,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="236" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="212"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="240" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="216"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22725,18 +22719,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="236" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="212"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="240" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="216"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22751,8 +22745,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="210"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="214"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22772,12 +22766,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="236" t="s">
+      <c r="K18" s="240" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="216"/>
+      <c r="M18" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="212"/>
-      <c r="M18" s="27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22792,8 +22786,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="210"/>
+      <c r="K19" s="241"/>
+      <c r="L19" s="214"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22813,12 +22807,12 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="236" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="212"/>
+      <c r="K20" s="240" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="216"/>
       <c r="M20" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22838,10 +22832,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="236" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" s="212"/>
+      <c r="K21" s="240" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="216"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22856,8 +22850,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="210"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="214"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -22877,38 +22871,36 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="236" t="s">
-        <v>368</v>
-      </c>
-      <c r="L23" s="212"/>
+      <c r="K23" s="240" t="s">
+        <v>362</v>
+      </c>
+      <c r="L23" s="216"/>
       <c r="M23" s="27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <f>MAX(B$11:B23)+1</f>
         <v>8</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="169" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="236" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="229"/>
-      <c r="M24" s="27" t="s">
-        <v>177</v>
-      </c>
+      <c r="K24" s="215" t="s">
+        <v>456</v>
+      </c>
+      <c r="L24" s="233"/>
+      <c r="M24" s="170"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
@@ -22927,10 +22919,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="236" t="s">
+      <c r="K25" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="229"/>
+      <c r="L25" s="233"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22939,7 +22931,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D26" s="128" t="s">
         <v>8</v>
@@ -22950,12 +22942,12 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="211" t="s">
-        <v>365</v>
-      </c>
-      <c r="L26" s="212"/>
+      <c r="K26" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="L26" s="216"/>
       <c r="M26" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -22963,22 +22955,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="202" t="s">
+      <c r="C27" s="201" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="L27" s="229"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="263"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -22986,26 +22978,26 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="203"/>
-      <c r="K28" s="236" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="229"/>
-      <c r="M28" s="27" t="s">
-        <v>386</v>
+      <c r="C28" s="203"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="L28" s="263"/>
+      <c r="M28" s="171" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -23014,8 +23006,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="148"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="210"/>
+      <c r="K29" s="241"/>
+      <c r="L29" s="214"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23024,7 +23016,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>8</v>
@@ -23035,10 +23027,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="236" t="s">
-        <v>333</v>
-      </c>
-      <c r="L30" s="212"/>
+      <c r="K30" s="240" t="s">
+        <v>327</v>
+      </c>
+      <c r="L30" s="216"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23047,7 +23039,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>8</v>
@@ -23058,10 +23050,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="147"/>
-      <c r="K31" s="236" t="s">
-        <v>332</v>
-      </c>
-      <c r="L31" s="212"/>
+      <c r="K31" s="240" t="s">
+        <v>326</v>
+      </c>
+      <c r="L31" s="216"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23070,7 +23062,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>8</v>
@@ -23081,10 +23073,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="147"/>
-      <c r="K32" s="236" t="s">
-        <v>341</v>
-      </c>
-      <c r="L32" s="212"/>
+      <c r="K32" s="240" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" s="216"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -23099,8 +23091,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="210"/>
+      <c r="K33" s="241"/>
+      <c r="L33" s="214"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -23109,7 +23101,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>8</v>
@@ -23120,12 +23112,12 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="236" t="s">
-        <v>378</v>
-      </c>
-      <c r="L34" s="212"/>
+      <c r="K34" s="240" t="s">
+        <v>372</v>
+      </c>
+      <c r="L34" s="216"/>
       <c r="M34" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23134,7 +23126,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>8</v>
@@ -23145,10 +23137,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="236" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="212"/>
+      <c r="K35" s="240" t="s">
+        <v>369</v>
+      </c>
+      <c r="L35" s="216"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23157,7 +23149,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>8</v>
@@ -23168,16 +23160,16 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="238" t="s">
-        <v>377</v>
-      </c>
-      <c r="L36" s="239"/>
+      <c r="K36" s="242" t="s">
+        <v>371</v>
+      </c>
+      <c r="L36" s="243"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -23186,8 +23178,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="148"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="210"/>
+      <c r="K37" s="241"/>
+      <c r="L37" s="214"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23196,7 +23188,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>8</v>
@@ -23207,12 +23199,12 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="236" t="s">
-        <v>150</v>
-      </c>
-      <c r="L38" s="212"/>
+      <c r="K38" s="240" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" s="216"/>
       <c r="M38" s="129" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23221,7 +23213,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>8</v>
@@ -23232,10 +23224,10 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="236" t="s">
-        <v>342</v>
-      </c>
-      <c r="L39" s="212"/>
+      <c r="K39" s="240" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" s="216"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23244,7 +23236,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>8</v>
@@ -23255,10 +23247,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="236" t="s">
-        <v>343</v>
-      </c>
-      <c r="L40" s="212"/>
+      <c r="K40" s="240" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" s="216"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23267,7 +23259,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>8</v>
@@ -23278,10 +23270,10 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="236" t="s">
-        <v>161</v>
-      </c>
-      <c r="L41" s="212"/>
+      <c r="K41" s="240" t="s">
+        <v>157</v>
+      </c>
+      <c r="L41" s="216"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23290,7 +23282,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>8</v>
@@ -23301,10 +23293,10 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="236" t="s">
-        <v>162</v>
-      </c>
-      <c r="L42" s="229"/>
+      <c r="K42" s="240" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="233"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23313,7 +23305,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>8</v>
@@ -23324,10 +23316,10 @@
       <c r="H43" s="28"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="236" t="s">
-        <v>344</v>
-      </c>
-      <c r="L43" s="229"/>
+      <c r="K43" s="240" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" s="233"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23336,7 +23328,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>8</v>
@@ -23347,10 +23339,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="236" t="s">
-        <v>345</v>
-      </c>
-      <c r="L44" s="229"/>
+      <c r="K44" s="240" t="s">
+        <v>339</v>
+      </c>
+      <c r="L44" s="233"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23359,7 +23351,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>8</v>
@@ -23370,10 +23362,10 @@
       <c r="H45" s="28"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="236" t="s">
-        <v>346</v>
-      </c>
-      <c r="L45" s="229"/>
+      <c r="K45" s="240" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" s="233"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23382,7 +23374,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>8</v>
@@ -23393,10 +23385,10 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="235" t="s">
-        <v>326</v>
-      </c>
-      <c r="L46" s="229"/>
+      <c r="K46" s="237" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" s="233"/>
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23405,7 +23397,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45" t="s">
@@ -23416,10 +23408,10 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="45"/>
-      <c r="K47" s="235" t="s">
-        <v>347</v>
-      </c>
-      <c r="L47" s="255"/>
+      <c r="K47" s="237" t="s">
+        <v>341</v>
+      </c>
+      <c r="L47" s="262"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23428,7 +23420,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="25"/>
@@ -23439,10 +23431,10 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="235" t="s">
-        <v>348</v>
-      </c>
-      <c r="L48" s="229"/>
+      <c r="K48" s="237" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" s="233"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23451,7 +23443,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="25"/>
@@ -23462,10 +23454,10 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="235" t="s">
-        <v>349</v>
-      </c>
-      <c r="L49" s="229"/>
+      <c r="K49" s="237" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" s="233"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23474,7 +23466,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="25"/>
@@ -23485,10 +23477,10 @@
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="235" t="s">
-        <v>350</v>
-      </c>
-      <c r="L50" s="229"/>
+      <c r="K50" s="237" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" s="233"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23497,7 +23489,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="25"/>
@@ -23508,10 +23500,10 @@
         <v>8</v>
       </c>
       <c r="J51" s="25"/>
-      <c r="K51" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="L51" s="229"/>
+      <c r="K51" s="237" t="s">
+        <v>356</v>
+      </c>
+      <c r="L51" s="233"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23520,7 +23512,7 @@
         <v>32</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="25"/>
@@ -23531,10 +23523,10 @@
       <c r="J52" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="235" t="s">
-        <v>449</v>
-      </c>
-      <c r="L52" s="229"/>
+      <c r="K52" s="237" t="s">
+        <v>442</v>
+      </c>
+      <c r="L52" s="233"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -23543,7 +23535,7 @@
         <v>33</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>8</v>
@@ -23554,12 +23546,12 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="211" t="s">
-        <v>163</v>
-      </c>
-      <c r="L53" s="229"/>
+      <c r="K53" s="215" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="233"/>
       <c r="M53" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -23568,7 +23560,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>8</v>
@@ -23579,12 +23571,12 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="236" t="s">
-        <v>164</v>
-      </c>
-      <c r="L54" s="229"/>
+      <c r="K54" s="240" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" s="233"/>
       <c r="M54" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -23593,7 +23585,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>8</v>
@@ -23604,18 +23596,18 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="236" t="s">
-        <v>165</v>
-      </c>
-      <c r="L55" s="229"/>
+      <c r="K55" s="240" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" s="233"/>
       <c r="M55" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B56" s="1"/>
       <c r="C56" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -23624,17 +23616,17 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="148"/>
-      <c r="K56" s="237"/>
-      <c r="L56" s="210"/>
+      <c r="K56" s="241"/>
+      <c r="L56" s="214"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="219">
+      <c r="B57" s="223">
         <f>MAX(B$11:B56)+1</f>
         <v>36</v>
       </c>
-      <c r="C57" s="243" t="s">
-        <v>179</v>
+      <c r="C57" s="247" t="s">
+        <v>173</v>
       </c>
       <c r="D57" s="159"/>
       <c r="E57" s="159"/>
@@ -23643,15 +23635,15 @@
       <c r="H57" s="159"/>
       <c r="I57" s="159"/>
       <c r="J57" s="159"/>
-      <c r="K57" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="L57" s="212"/>
-      <c r="M57" s="225"/>
+      <c r="K57" s="215" t="s">
+        <v>272</v>
+      </c>
+      <c r="L57" s="216"/>
+      <c r="M57" s="229"/>
     </row>
     <row r="58" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="220"/>
-      <c r="C58" s="244"/>
+      <c r="B58" s="224"/>
+      <c r="C58" s="248"/>
       <c r="D58" s="160"/>
       <c r="E58" s="160"/>
       <c r="F58" s="160"/>
@@ -23660,18 +23652,18 @@
       <c r="I58" s="160"/>
       <c r="J58" s="160"/>
       <c r="K58" s="93" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="M58" s="226"/>
+        <v>256</v>
+      </c>
+      <c r="M58" s="230"/>
     </row>
     <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="220"/>
-      <c r="C59" s="244"/>
+      <c r="B59" s="224"/>
+      <c r="C59" s="248"/>
       <c r="D59" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E59" s="152"/>
       <c r="F59" s="152"/>
@@ -23680,18 +23672,18 @@
       <c r="I59" s="152"/>
       <c r="J59" s="152"/>
       <c r="K59" s="86" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L59" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M59" s="226"/>
+        <v>258</v>
+      </c>
+      <c r="M59" s="230"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="220"/>
-      <c r="C60" s="244"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="248"/>
       <c r="D60" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E60" s="152"/>
       <c r="F60" s="152"/>
@@ -23700,18 +23692,18 @@
       <c r="I60" s="152"/>
       <c r="J60" s="152"/>
       <c r="K60" s="90" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L60" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="M60" s="226"/>
+        <v>226</v>
+      </c>
+      <c r="M60" s="230"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="220"/>
-      <c r="C61" s="244"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="248"/>
       <c r="D61" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E61" s="152"/>
       <c r="F61" s="152"/>
@@ -23720,18 +23712,18 @@
       <c r="I61" s="152"/>
       <c r="J61" s="152"/>
       <c r="K61" s="86" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L61" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="M61" s="226"/>
+        <v>259</v>
+      </c>
+      <c r="M61" s="230"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="220"/>
-      <c r="C62" s="244"/>
+      <c r="B62" s="224"/>
+      <c r="C62" s="248"/>
       <c r="D62" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E62" s="152"/>
       <c r="F62" s="152"/>
@@ -23740,18 +23732,18 @@
       <c r="I62" s="152"/>
       <c r="J62" s="152"/>
       <c r="K62" s="86" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L62" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="M62" s="226"/>
+        <v>260</v>
+      </c>
+      <c r="M62" s="230"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="220"/>
-      <c r="C63" s="244"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="248"/>
       <c r="D63" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E63" s="152"/>
       <c r="F63" s="152"/>
@@ -23760,18 +23752,18 @@
       <c r="I63" s="152"/>
       <c r="J63" s="152"/>
       <c r="K63" s="86" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L63" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="M63" s="226"/>
+        <v>261</v>
+      </c>
+      <c r="M63" s="230"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="220"/>
-      <c r="C64" s="244"/>
+      <c r="B64" s="224"/>
+      <c r="C64" s="248"/>
       <c r="D64" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E64" s="152"/>
       <c r="F64" s="152"/>
@@ -23780,18 +23772,18 @@
       <c r="I64" s="152"/>
       <c r="J64" s="152"/>
       <c r="K64" s="86" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L64" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="M64" s="226"/>
+        <v>262</v>
+      </c>
+      <c r="M64" s="230"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="220"/>
-      <c r="C65" s="244"/>
+      <c r="B65" s="224"/>
+      <c r="C65" s="248"/>
       <c r="D65" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E65" s="152"/>
       <c r="F65" s="152"/>
@@ -23800,18 +23792,18 @@
       <c r="I65" s="152"/>
       <c r="J65" s="152"/>
       <c r="K65" s="86" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L65" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="M65" s="226"/>
+        <v>263</v>
+      </c>
+      <c r="M65" s="230"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="220"/>
-      <c r="C66" s="244"/>
+      <c r="B66" s="224"/>
+      <c r="C66" s="248"/>
       <c r="D66" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E66" s="152"/>
       <c r="F66" s="152"/>
@@ -23820,18 +23812,18 @@
       <c r="I66" s="152"/>
       <c r="J66" s="152"/>
       <c r="K66" s="86" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L66" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="M66" s="226"/>
+        <v>264</v>
+      </c>
+      <c r="M66" s="230"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="220"/>
-      <c r="C67" s="244"/>
+      <c r="B67" s="224"/>
+      <c r="C67" s="248"/>
       <c r="D67" s="152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E67" s="152"/>
       <c r="F67" s="152"/>
@@ -23840,16 +23832,16 @@
       <c r="I67" s="152"/>
       <c r="J67" s="152"/>
       <c r="K67" s="86" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L67" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="M67" s="226"/>
+        <v>265</v>
+      </c>
+      <c r="M67" s="230"/>
     </row>
     <row r="68" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="221"/>
-      <c r="C68" s="251"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="254"/>
       <c r="D68" s="161"/>
       <c r="E68" s="161"/>
       <c r="F68" s="161"/>
@@ -23857,14 +23849,14 @@
       <c r="H68" s="161"/>
       <c r="I68" s="161"/>
       <c r="J68" s="161"/>
-      <c r="K68" s="211"/>
-      <c r="L68" s="212"/>
-      <c r="M68" s="227"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="216"/>
+      <c r="M68" s="231"/>
     </row>
     <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
       <c r="C69" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -23873,8 +23865,8 @@
       <c r="H69" s="7"/>
       <c r="I69" s="148"/>
       <c r="J69" s="148"/>
-      <c r="K69" s="237"/>
-      <c r="L69" s="210"/>
+      <c r="K69" s="241"/>
+      <c r="L69" s="214"/>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23883,7 +23875,7 @@
         <v>37</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>8</v>
@@ -23894,10 +23886,10 @@
       <c r="H70" s="24"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="236" t="s">
-        <v>396</v>
-      </c>
-      <c r="L70" s="212"/>
+      <c r="K70" s="240" t="s">
+        <v>389</v>
+      </c>
+      <c r="L70" s="216"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23906,7 +23898,7 @@
         <v>38</v>
       </c>
       <c r="C71" s="131" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D71" s="132" t="s">
         <v>8</v>
@@ -23917,12 +23909,12 @@
       <c r="H71" s="132"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="236" t="s">
-        <v>392</v>
-      </c>
-      <c r="L71" s="212"/>
+      <c r="K71" s="240" t="s">
+        <v>385</v>
+      </c>
+      <c r="L71" s="216"/>
       <c r="M71" s="29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23931,10 +23923,10 @@
         <v>39</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -23942,10 +23934,10 @@
       <c r="H72" s="69"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="236" t="s">
-        <v>351</v>
-      </c>
-      <c r="L72" s="229"/>
+      <c r="K72" s="240" t="s">
+        <v>345</v>
+      </c>
+      <c r="L72" s="233"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23954,10 +23946,10 @@
         <v>40</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
@@ -23965,10 +23957,10 @@
       <c r="H73" s="35"/>
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
-      <c r="K73" s="236" t="s">
-        <v>352</v>
-      </c>
-      <c r="L73" s="229"/>
+      <c r="K73" s="240" t="s">
+        <v>346</v>
+      </c>
+      <c r="L73" s="233"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23977,7 +23969,7 @@
         <v>41</v>
       </c>
       <c r="C74" s="131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D74" s="132" t="s">
         <v>8</v>
@@ -23988,10 +23980,10 @@
       <c r="H74" s="132"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="236" t="s">
-        <v>393</v>
-      </c>
-      <c r="L74" s="229"/>
+      <c r="K74" s="240" t="s">
+        <v>386</v>
+      </c>
+      <c r="L74" s="233"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -24000,7 +23992,7 @@
         <v>42</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D75" s="33" t="s">
         <v>8</v>
@@ -24011,27 +24003,27 @@
       <c r="H75" s="35"/>
       <c r="I75" s="34"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="236" t="s">
-        <v>86</v>
-      </c>
-      <c r="L75" s="229"/>
+      <c r="K75" s="240" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" s="233"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
-      <c r="C76" s="256" t="s">
+      <c r="C76" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="257"/>
-      <c r="E76" s="257"/>
-      <c r="F76" s="257"/>
-      <c r="G76" s="257"/>
-      <c r="H76" s="257"/>
-      <c r="I76" s="257"/>
-      <c r="J76" s="257"/>
-      <c r="K76" s="257"/>
-      <c r="L76" s="257"/>
-      <c r="M76" s="258"/>
+      <c r="D76" s="260"/>
+      <c r="E76" s="260"/>
+      <c r="F76" s="260"/>
+      <c r="G76" s="260"/>
+      <c r="H76" s="260"/>
+      <c r="I76" s="260"/>
+      <c r="J76" s="260"/>
+      <c r="K76" s="260"/>
+      <c r="L76" s="260"/>
+      <c r="M76" s="261"/>
     </row>
     <row r="77" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
@@ -24050,12 +24042,12 @@
       <c r="H77" s="35"/>
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="250" t="s">
-        <v>217</v>
-      </c>
-      <c r="L77" s="212"/>
+      <c r="K77" s="255" t="s">
+        <v>211</v>
+      </c>
+      <c r="L77" s="216"/>
       <c r="M77" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24064,7 +24056,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="25"/>
@@ -24075,10 +24067,10 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
-      <c r="K78" s="236" t="s">
-        <v>132</v>
-      </c>
-      <c r="L78" s="212"/>
+      <c r="K78" s="240" t="s">
+        <v>128</v>
+      </c>
+      <c r="L78" s="216"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -24087,7 +24079,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="25"/>
@@ -24098,10 +24090,10 @@
       <c r="H79" s="47"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="236" t="s">
-        <v>166</v>
-      </c>
-      <c r="L79" s="212"/>
+      <c r="K79" s="240" t="s">
+        <v>162</v>
+      </c>
+      <c r="L79" s="216"/>
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24110,7 +24102,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="34"/>
@@ -24121,10 +24113,10 @@
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="34"/>
-      <c r="K80" s="236" t="s">
-        <v>133</v>
-      </c>
-      <c r="L80" s="212"/>
+      <c r="K80" s="240" t="s">
+        <v>129</v>
+      </c>
+      <c r="L80" s="216"/>
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24133,7 +24125,7 @@
         <v>47</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="34"/>
@@ -24144,10 +24136,10 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="236" t="s">
-        <v>353</v>
-      </c>
-      <c r="L81" s="212"/>
+      <c r="K81" s="240" t="s">
+        <v>347</v>
+      </c>
+      <c r="L81" s="216"/>
       <c r="M81" s="49"/>
     </row>
     <row r="82" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24156,7 +24148,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="133" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="25"/>
@@ -24167,27 +24159,27 @@
         <v>8</v>
       </c>
       <c r="J82" s="25"/>
-      <c r="K82" s="236" t="s">
-        <v>407</v>
-      </c>
-      <c r="L82" s="212"/>
+      <c r="K82" s="240" t="s">
+        <v>400</v>
+      </c>
+      <c r="L82" s="216"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
-      <c r="C83" s="256" t="s">
-        <v>221</v>
-      </c>
-      <c r="D83" s="257"/>
-      <c r="E83" s="257"/>
-      <c r="F83" s="257"/>
-      <c r="G83" s="257"/>
-      <c r="H83" s="257"/>
-      <c r="I83" s="257"/>
-      <c r="J83" s="257"/>
-      <c r="K83" s="257"/>
-      <c r="L83" s="257"/>
-      <c r="M83" s="258"/>
+      <c r="C83" s="259" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="260"/>
+      <c r="E83" s="260"/>
+      <c r="F83" s="260"/>
+      <c r="G83" s="260"/>
+      <c r="H83" s="260"/>
+      <c r="I83" s="260"/>
+      <c r="J83" s="260"/>
+      <c r="K83" s="260"/>
+      <c r="L83" s="260"/>
+      <c r="M83" s="261"/>
     </row>
     <row r="84" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
@@ -24195,7 +24187,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="68" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>8</v>
@@ -24206,10 +24198,10 @@
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="235" t="s">
-        <v>398</v>
-      </c>
-      <c r="L84" s="253"/>
+      <c r="K84" s="237" t="s">
+        <v>391</v>
+      </c>
+      <c r="L84" s="257"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -24218,7 +24210,7 @@
         <v>50</v>
       </c>
       <c r="C85" s="68" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>8</v>
@@ -24229,10 +24221,10 @@
       <c r="H85" s="35"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
-      <c r="K85" s="211" t="s">
-        <v>224</v>
-      </c>
-      <c r="L85" s="254"/>
+      <c r="K85" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="L85" s="258"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24241,7 +24233,7 @@
         <v>51</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>8</v>
@@ -24252,12 +24244,12 @@
       <c r="H86" s="35"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="250" t="s">
-        <v>394</v>
-      </c>
-      <c r="L86" s="254"/>
+      <c r="K86" s="255" t="s">
+        <v>387</v>
+      </c>
+      <c r="L86" s="258"/>
       <c r="M86" s="29" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -24266,7 +24258,7 @@
         <v>52</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D87" s="33" t="s">
         <v>8</v>
@@ -24277,28 +24269,37 @@
       <c r="H87" s="35"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="252" t="s">
-        <v>225</v>
-      </c>
-      <c r="L87" s="229"/>
+      <c r="K87" s="256" t="s">
+        <v>219</v>
+      </c>
+      <c r="L87" s="233"/>
       <c r="M87" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M87"/>
   <mergeCells count="91">
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -24313,35 +24314,7 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="I14:I16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="C76:M76"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
@@ -24354,11 +24327,26 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:M68"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="K87:L87"/>
@@ -24369,6 +24357,10 @@
     <mergeCell ref="C83:M83"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="K73:L73"/>
+    <mergeCell ref="C76:M76"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
     <mergeCell ref="B57:B68"/>
     <mergeCell ref="C57:C68"/>
     <mergeCell ref="K71:L71"/>

--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HA構成(Ansible Tower)'!$B$13:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'HA構成(Ansible)'!$B$12:$M$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA構成(backyard)'!$B$12:$M$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'HA構成(Cobbler)'!$B$12:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HA構成(DBMS)'!$B$11:$M$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HA構成(Terraform)'!$B$12:$M$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA構成(Web・AP)'!$B$12:$M$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA構成(Web・AP)'!$B$12:$M$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA構成(backyard)'!$A$1:$M$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA構成(DBMS)'!$A$1:$M$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'HA構成(Web・AP)'!$A$1:$M$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'HA構成(Web・AP)'!$A$1:$M$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HA構成(外部ストレージ)'!$A$1:$M$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$V$124</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'HA構成(Ansible Tower)'!$12:$13</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="464">
   <si>
     <t>手順名</t>
     <rPh sb="0" eb="2">
@@ -12116,6 +12116,44 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のパッケージをインストールしてください。
+python-hcl2</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip3ライブラリをインストールする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインの場合は以下のコマンドでインストールしてください。
+pip3 install python-hcl2
+</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHPをインストールする
+※ITA v1.9.1以前の場合はPHP7.2、ITA v1.10.0の場合はPHP7.2またはPH'P7.4</t>
+    <rPh sb="25" eb="27">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12977,7 +13015,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13494,6 +13532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13698,6 +13748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13765,9 +13818,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14416,7 +14466,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Exastro IT Automation Version 1.9</a:t>
+            <a:t>Exastro IT Automation Version 1.10</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2800">
             <a:effectLst/>
@@ -14800,22 +14850,22 @@
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="173"/>
-      <c r="O73" s="173"/>
-      <c r="P73" s="173"/>
-      <c r="Q73" s="173"/>
-      <c r="R73" s="173"/>
-      <c r="S73" s="173"/>
-      <c r="T73" s="173"/>
-      <c r="U73" s="172"/>
-      <c r="V73" s="173"/>
-      <c r="W73" s="173"/>
-      <c r="X73" s="173"/>
-      <c r="Y73" s="173"/>
-      <c r="Z73" s="173"/>
-      <c r="AA73" s="173"/>
-      <c r="AB73" s="173"/>
+      <c r="M73" s="176"/>
+      <c r="N73" s="177"/>
+      <c r="O73" s="177"/>
+      <c r="P73" s="177"/>
+      <c r="Q73" s="177"/>
+      <c r="R73" s="177"/>
+      <c r="S73" s="177"/>
+      <c r="T73" s="177"/>
+      <c r="U73" s="176"/>
+      <c r="V73" s="177"/>
+      <c r="W73" s="177"/>
+      <c r="X73" s="177"/>
+      <c r="Y73" s="177"/>
+      <c r="Z73" s="177"/>
+      <c r="AA73" s="177"/>
+      <c r="AB73" s="177"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -15014,29 +15064,29 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="64"/>
-      <c r="C86" s="176" t="s">
+      <c r="C86" s="180" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="180" t="s">
+      <c r="D86" s="184" t="s">
         <v>301</v>
       </c>
-      <c r="E86" s="174" t="s">
+      <c r="E86" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="F86" s="177" t="s">
+      <c r="F86" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="178"/>
-      <c r="J86" s="179"/>
+      <c r="G86" s="182"/>
+      <c r="H86" s="182"/>
+      <c r="I86" s="182"/>
+      <c r="J86" s="183"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="64"/>
-      <c r="C87" s="176"/>
-      <c r="D87" s="181"/>
-      <c r="E87" s="175"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="185"/>
+      <c r="E87" s="179"/>
       <c r="F87" s="97" t="s">
         <v>203</v>
       </c>
@@ -15804,37 +15854,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="195"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -15909,32 +15959,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="193" t="s">
+      <c r="C9" s="200"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="192" t="s">
+      <c r="F9" s="196" t="s">
         <v>234</v>
       </c>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="185" t="s">
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="189" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="198"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="194"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="198"/>
       <c r="F10" s="75" t="s">
         <v>235</v>
       </c>
@@ -15956,14 +16006,14 @@
       <c r="L10" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="M10" s="186"/>
+      <c r="M10" s="190"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="186" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="188"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
@@ -15987,11 +16037,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="186" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="188"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -16015,11 +16065,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
@@ -16043,11 +16093,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="186" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="188"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
@@ -16069,11 +16119,11 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="186" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="188"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16091,11 +16141,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="183"/>
-      <c r="D16" s="184"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="188"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -16115,11 +16165,11 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="182" t="s">
+      <c r="B17" s="186" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="188"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
@@ -16139,11 +16189,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="186" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="188"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
@@ -16163,11 +16213,11 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="188"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
@@ -16187,11 +16237,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
@@ -16211,11 +16261,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
@@ -16235,11 +16285,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="186" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="188"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16259,11 +16309,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="186" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="184"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="188"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
@@ -16281,11 +16331,11 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="186" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="184"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="188"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
@@ -16356,9 +16406,9 @@
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16386,17 +16436,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19" t="s">
         <v>166</v>
       </c>
@@ -16404,18 +16454,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="54" t="s">
         <v>167</v>
       </c>
@@ -16513,32 +16563,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="221" t="s">
+      <c r="D10" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="209" t="s">
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="226"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="210"/>
-      <c r="M10" s="204" t="s">
+      <c r="L10" s="214"/>
+      <c r="M10" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="218"/>
-      <c r="C11" s="220"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="224"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -16560,9 +16610,9 @@
       <c r="J11" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="K11" s="211"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="205"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="209"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -16576,8 +16626,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="213"/>
-      <c r="L12" s="214"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16585,22 +16635,22 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="D13" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="215" t="s">
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="L13" s="216"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="16" t="s">
         <v>313</v>
       </c>
@@ -16610,18 +16660,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="215" t="s">
+      <c r="C14" s="206"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="219" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16629,18 +16679,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="215" t="s">
+      <c r="C15" s="207"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="L15" s="216"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16655,8 +16705,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="214"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="218"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16676,10 +16726,10 @@
       <c r="H17" s="73"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="215" t="s">
+      <c r="K17" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="216"/>
+      <c r="L17" s="220"/>
       <c r="M17" s="27" t="s">
         <v>97</v>
       </c>
@@ -16696,8 +16746,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="214"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="218"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16717,95 +16767,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="232" t="s">
+      <c r="K19" s="236" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="216"/>
+      <c r="L19" s="220"/>
       <c r="M19" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="223">
+      <c r="B20" s="227">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="205" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="206" t="s">
+      <c r="D20" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="215" t="s">
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L20" s="216"/>
-      <c r="M20" s="229"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="233"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="224">
+      <c r="B21" s="228">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="226"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="228"/>
       <c r="K21" s="84" t="s">
         <v>273</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="M21" s="230"/>
+      <c r="M21" s="234"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="224">
+      <c r="B22" s="228">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="224"/>
-      <c r="J22" s="224"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="228"/>
       <c r="K22" s="86" t="s">
         <v>178</v>
       </c>
       <c r="L22" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="M22" s="230"/>
+      <c r="M22" s="234"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="225">
+      <c r="B23" s="229">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="235"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -16840,10 +16890,10 @@
       <c r="H25" s="73"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="219" t="s">
         <v>427</v>
       </c>
-      <c r="L25" s="233"/>
+      <c r="L25" s="237"/>
       <c r="M25" s="27" t="s">
         <v>428</v>
       </c>
@@ -16853,7 +16903,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="201" t="s">
+      <c r="C26" s="205" t="s">
         <v>206</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -16865,10 +16915,10 @@
       <c r="H26" s="73"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="215" t="s">
+      <c r="K26" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="233"/>
+      <c r="L26" s="237"/>
       <c r="M26" s="27" t="s">
         <v>116</v>
       </c>
@@ -16878,7 +16928,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="202"/>
+      <c r="C27" s="206"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -16888,10 +16938,10 @@
       <c r="H27" s="73"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="215" t="s">
+      <c r="K27" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="L27" s="233"/>
+      <c r="L27" s="237"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -16899,7 +16949,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="203"/>
+      <c r="C28" s="207"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -16909,10 +16959,10 @@
       <c r="H28" s="73"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="215" t="s">
+      <c r="K28" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="233"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="27" t="s">
         <v>118</v>
       </c>
@@ -16934,10 +16984,10 @@
       <c r="H29" s="73"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="215" t="s">
+      <c r="K29" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="L29" s="233"/>
+      <c r="L29" s="237"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16957,10 +17007,10 @@
       <c r="H30" s="73"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="215" t="s">
+      <c r="K30" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="233"/>
+      <c r="L30" s="237"/>
       <c r="M30" s="129" t="s">
         <v>378</v>
       </c>
@@ -16982,10 +17032,10 @@
       <c r="H31" s="73"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="215" t="s">
+      <c r="K31" s="219" t="s">
         <v>429</v>
       </c>
-      <c r="L31" s="233"/>
+      <c r="L31" s="237"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17005,10 +17055,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="215" t="s">
+      <c r="K32" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="L32" s="233"/>
+      <c r="L32" s="237"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17023,8 +17073,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="148"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="214"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="218"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17044,10 +17094,10 @@
       <c r="H34" s="73"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="234" t="s">
+      <c r="K34" s="238" t="s">
         <v>243</v>
       </c>
-      <c r="L34" s="216"/>
+      <c r="L34" s="220"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17067,10 +17117,10 @@
       <c r="H35" s="73"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="234" t="s">
+      <c r="K35" s="238" t="s">
         <v>244</v>
       </c>
-      <c r="L35" s="216"/>
+      <c r="L35" s="220"/>
       <c r="M35" s="129" t="s">
         <v>379</v>
       </c>
@@ -17092,10 +17142,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="234" t="s">
+      <c r="K36" s="238" t="s">
         <v>245</v>
       </c>
-      <c r="L36" s="216"/>
+      <c r="L36" s="220"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17115,10 +17165,10 @@
       <c r="H37" s="73"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="234" t="s">
+      <c r="K37" s="238" t="s">
         <v>246</v>
       </c>
-      <c r="L37" s="216"/>
+      <c r="L37" s="220"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17138,10 +17188,10 @@
       <c r="H38" s="73"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="215" t="s">
+      <c r="K38" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="216"/>
+      <c r="L38" s="220"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17161,10 +17211,10 @@
       <c r="H39" s="73"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="215" t="s">
+      <c r="K39" s="219" t="s">
         <v>403</v>
       </c>
-      <c r="L39" s="216"/>
+      <c r="L39" s="220"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -17184,10 +17234,10 @@
       <c r="H40" s="73"/>
       <c r="I40" s="25"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="215" t="s">
+      <c r="K40" s="219" t="s">
         <v>404</v>
       </c>
-      <c r="L40" s="233"/>
+      <c r="L40" s="237"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17207,10 +17257,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="215" t="s">
+      <c r="K41" s="219" t="s">
         <v>405</v>
       </c>
-      <c r="L41" s="233"/>
+      <c r="L41" s="237"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17230,10 +17280,10 @@
       <c r="H42" s="74"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="235" t="s">
+      <c r="K42" s="239" t="s">
         <v>406</v>
       </c>
-      <c r="L42" s="236"/>
+      <c r="L42" s="240"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17255,10 +17305,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="215" t="s">
+      <c r="K43" s="219" t="s">
         <v>407</v>
       </c>
-      <c r="L43" s="233"/>
+      <c r="L43" s="237"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17278,10 +17328,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="215" t="s">
+      <c r="K44" s="219" t="s">
         <v>408</v>
       </c>
-      <c r="L44" s="233"/>
+      <c r="L44" s="237"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17301,10 +17351,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="34"/>
-      <c r="K45" s="215" t="s">
+      <c r="K45" s="219" t="s">
         <v>409</v>
       </c>
-      <c r="L45" s="233"/>
+      <c r="L45" s="237"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17324,10 +17374,10 @@
       <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="215" t="s">
+      <c r="K46" s="219" t="s">
         <v>440</v>
       </c>
-      <c r="L46" s="233"/>
+      <c r="L46" s="237"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
@@ -17409,7 +17459,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M79"/>
+  <dimension ref="B1:M80"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -17443,17 +17493,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -17461,18 +17511,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -17586,32 +17636,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="209" t="s">
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="214"/>
+      <c r="M11" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -17633,9 +17683,9 @@
       <c r="J12" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="K12" s="211"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -17649,8 +17699,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="214"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17658,22 +17708,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="215" t="s">
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="16" t="s">
         <v>313</v>
       </c>
@@ -17683,18 +17733,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="215" t="s">
+      <c r="C15" s="206"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="219" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="233"/>
+      <c r="L15" s="237"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -17702,18 +17752,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="215" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="233"/>
+      <c r="L16" s="237"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17749,10 +17799,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="215" t="s">
+      <c r="K18" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="233"/>
+      <c r="L18" s="237"/>
       <c r="M18" s="27" t="s">
         <v>97</v>
       </c>
@@ -17790,10 +17840,10 @@
       <c r="H20" s="154"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="215" t="s">
+      <c r="K20" s="219" t="s">
         <v>454</v>
       </c>
-      <c r="L20" s="233"/>
+      <c r="L20" s="237"/>
       <c r="M20" s="158" t="s">
         <v>455</v>
       </c>
@@ -17820,7 +17870,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>8</v>
@@ -17831,10 +17881,10 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="215" t="s">
+      <c r="K22" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="L22" s="216"/>
+      <c r="L22" s="220"/>
       <c r="M22" s="27" t="s">
         <v>430</v>
       </c>
@@ -17856,10 +17906,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="215" t="s">
+      <c r="K23" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="L23" s="233"/>
+      <c r="L23" s="237"/>
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17879,10 +17929,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="215" t="s">
+      <c r="K24" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="216"/>
+      <c r="L24" s="220"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17902,10 +17952,10 @@
       <c r="H25" s="128"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="219" t="s">
         <v>359</v>
       </c>
-      <c r="L25" s="216"/>
+      <c r="L25" s="220"/>
       <c r="M25" s="27" t="s">
         <v>360</v>
       </c>
@@ -17915,22 +17965,22 @@
         <f>MAX(B$11:B25)+1</f>
         <v>10</v>
       </c>
-      <c r="C26" s="201" t="s">
+      <c r="C26" s="205" t="s">
         <v>458</v>
       </c>
-      <c r="D26" s="206" t="s">
+      <c r="D26" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="215" t="s">
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="263"/>
+      <c r="L26" s="244"/>
       <c r="M26" s="171"/>
     </row>
     <row r="27" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -17938,68 +17988,70 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="215" t="s">
+      <c r="C27" s="207"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="L27" s="263"/>
+      <c r="L27" s="244"/>
       <c r="M27" s="171" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-      <c r="C28" s="14" t="s">
+    <row r="28" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <f>MAX(B$11:B27)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C28" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="D28" s="173"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="219" t="s">
+        <v>460</v>
+      </c>
+      <c r="L28" s="220"/>
+      <c r="M28" s="174" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1">
-        <f>MAX(B$11:B28)+1</f>
-        <v>12</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="215" t="s">
-        <v>315</v>
-      </c>
-      <c r="L29" s="233"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <f>MAX(B$11:B29)+1</f>
         <v>13</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>8</v>
@@ -18010,10 +18062,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="215" t="s">
-        <v>316</v>
-      </c>
-      <c r="L30" s="233"/>
+      <c r="K30" s="219" t="s">
+        <v>315</v>
+      </c>
+      <c r="L30" s="237"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -18021,72 +18073,70 @@
         <f>MAX(B$11:B30)+1</f>
         <v>14</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="219" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="237"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <f>MAX(B$11:B31)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D32" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="215" t="s">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="219" t="s">
         <v>317</v>
       </c>
-      <c r="L31" s="233"/>
-      <c r="M31" s="27"/>
-    </row>
-    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="1"/>
-      <c r="C32" s="12" t="s">
+      <c r="L32" s="237"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="1">
-        <f>MAX(B$11:B32)+1</f>
-        <v>15</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="234" t="s">
-        <v>255</v>
-      </c>
-      <c r="L33" s="216"/>
-      <c r="M33" s="129" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <f>MAX(B$11:B33)+1</f>
         <v>16</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>254</v>
+      <c r="C34" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>8</v>
@@ -18094,77 +18144,82 @@
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="77"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="234" t="s">
-        <v>449</v>
-      </c>
-      <c r="L34" s="216"/>
-      <c r="M34" s="29"/>
-    </row>
-    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="223">
+      <c r="K34" s="238" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" s="220"/>
+      <c r="M34" s="129" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1">
         <f>MAX(B$11:B34)+1</f>
         <v>17</v>
       </c>
-      <c r="C35" s="201" t="s">
+      <c r="C35" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="238" t="s">
+        <v>449</v>
+      </c>
+      <c r="L35" s="220"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="227">
+        <f>MAX(B$11:B35)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C36" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="162"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="215" t="s">
+      <c r="D36" s="162"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L35" s="216"/>
-      <c r="M35" s="229"/>
-    </row>
-    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="224"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="84" t="s">
+      <c r="L36" s="220"/>
+      <c r="M36" s="233"/>
+    </row>
+    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="228"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="166"/>
+      <c r="K37" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="L36" s="85" t="s">
+      <c r="L37" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="M36" s="230"/>
-    </row>
-    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="224"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="L37" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="M37" s="230"/>
+      <c r="M37" s="234"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="224"/>
-      <c r="C38" s="226"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="230"/>
       <c r="D38" s="28" t="s">
         <v>8</v>
       </c>
@@ -18175,16 +18230,16 @@
       <c r="I38" s="152"/>
       <c r="J38" s="152"/>
       <c r="K38" s="86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L38" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="M38" s="230"/>
+        <v>258</v>
+      </c>
+      <c r="M38" s="234"/>
     </row>
     <row r="39" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="224"/>
-      <c r="C39" s="226"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="230"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
@@ -18195,16 +18250,16 @@
       <c r="I39" s="152"/>
       <c r="J39" s="152"/>
       <c r="K39" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L39" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="M39" s="230"/>
+        <v>259</v>
+      </c>
+      <c r="M39" s="234"/>
     </row>
     <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="224"/>
-      <c r="C40" s="226"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="28" t="s">
         <v>8</v>
       </c>
@@ -18215,16 +18270,16 @@
       <c r="I40" s="152"/>
       <c r="J40" s="152"/>
       <c r="K40" s="86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L40" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="M40" s="230"/>
-    </row>
-    <row r="41" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="224"/>
-      <c r="C41" s="226"/>
+        <v>260</v>
+      </c>
+      <c r="M40" s="234"/>
+    </row>
+    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="228"/>
+      <c r="C41" s="230"/>
       <c r="D41" s="28" t="s">
         <v>8</v>
       </c>
@@ -18235,16 +18290,16 @@
       <c r="I41" s="152"/>
       <c r="J41" s="152"/>
       <c r="K41" s="86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L41" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="M41" s="230"/>
+        <v>261</v>
+      </c>
+      <c r="M41" s="234"/>
     </row>
     <row r="42" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="224"/>
-      <c r="C42" s="226"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="230"/>
       <c r="D42" s="28" t="s">
         <v>8</v>
       </c>
@@ -18255,36 +18310,36 @@
       <c r="I42" s="152"/>
       <c r="J42" s="152"/>
       <c r="K42" s="86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L42" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="M42" s="230"/>
-    </row>
-    <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="224"/>
-      <c r="C43" s="226"/>
+        <v>262</v>
+      </c>
+      <c r="M42" s="234"/>
+    </row>
+    <row r="43" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="228"/>
+      <c r="C43" s="230"/>
       <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="28"/>
+      <c r="E43" s="152"/>
       <c r="F43" s="152"/>
       <c r="G43" s="152"/>
       <c r="H43" s="152"/>
       <c r="I43" s="152"/>
       <c r="J43" s="152"/>
       <c r="K43" s="86" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L43" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M43" s="230"/>
+        <v>263</v>
+      </c>
+      <c r="M43" s="234"/>
     </row>
     <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="224"/>
-      <c r="C44" s="226"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="230"/>
       <c r="D44" s="28" t="s">
         <v>8</v>
       </c>
@@ -18295,77 +18350,74 @@
       <c r="I44" s="152"/>
       <c r="J44" s="152"/>
       <c r="K44" s="86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L44" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="M44" s="230"/>
+        <v>264</v>
+      </c>
+      <c r="M44" s="234"/>
     </row>
     <row r="45" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="224"/>
-      <c r="C45" s="226"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="230"/>
+      <c r="D45" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="152"/>
       <c r="G45" s="152"/>
       <c r="H45" s="152"/>
       <c r="I45" s="152"/>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="152"/>
+      <c r="K45" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" s="234"/>
+    </row>
+    <row r="46" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="228"/>
+      <c r="C46" s="230"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="86" t="s">
+      <c r="K46" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="L45" s="91" t="s">
+      <c r="L46" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="M45" s="230"/>
-    </row>
-    <row r="46" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="225"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="216"/>
-      <c r="M46" s="231"/>
-    </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="1">
-        <f>MAX(B$11:B35)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="215" t="s">
-        <v>318</v>
-      </c>
-      <c r="L47" s="233"/>
-      <c r="M47" s="29"/>
+      <c r="M46" s="234"/>
+    </row>
+    <row r="47" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="229"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="219"/>
+      <c r="L47" s="220"/>
+      <c r="M47" s="235"/>
     </row>
     <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
-        <f>MAX(B$11:B47)+1</f>
+        <f>MAX(B$11:B36)+1</f>
         <v>19</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>8</v>
@@ -18376,19 +18428,19 @@
       <c r="H48" s="24"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="215" t="s">
-        <v>319</v>
-      </c>
-      <c r="L48" s="233"/>
+      <c r="K48" s="219" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" s="237"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <f>MAX(B$11:B48)+1</f>
         <v>20</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>8</v>
@@ -18396,13 +18448,13 @@
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="215" t="s">
-        <v>349</v>
-      </c>
-      <c r="L49" s="233"/>
+      <c r="K49" s="219" t="s">
+        <v>319</v>
+      </c>
+      <c r="L49" s="237"/>
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18411,7 +18463,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>8</v>
@@ -18422,19 +18474,19 @@
       <c r="H50" s="28"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="215" t="s">
-        <v>350</v>
-      </c>
-      <c r="L50" s="233"/>
+      <c r="K50" s="219" t="s">
+        <v>349</v>
+      </c>
+      <c r="L50" s="237"/>
       <c r="M50" s="29"/>
     </row>
-    <row r="51" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <f>MAX(B$11:B50)+1</f>
         <v>22</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>8</v>
@@ -18445,102 +18497,102 @@
       <c r="H51" s="28"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="215" t="s">
-        <v>351</v>
-      </c>
-      <c r="L51" s="233"/>
+      <c r="K51" s="219" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" s="237"/>
       <c r="M51" s="29"/>
     </row>
-    <row r="52" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
-        <f>MAX(B$13:B51)+1</f>
+        <f>MAX(B$11:B51)+1</f>
         <v>23</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="45" t="s">
+      <c r="C52" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="237" t="s">
-        <v>320</v>
-      </c>
-      <c r="L52" s="233"/>
-      <c r="M52" s="46"/>
-    </row>
-    <row r="53" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K52" s="219" t="s">
+        <v>351</v>
+      </c>
+      <c r="L52" s="237"/>
+      <c r="M52" s="29"/>
+    </row>
+    <row r="53" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <f>MAX(B$13:B52)+1</f>
         <v>24</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="45"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="237" t="s">
-        <v>321</v>
-      </c>
-      <c r="L53" s="233"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="241" t="s">
+        <v>320</v>
+      </c>
+      <c r="L53" s="237"/>
       <c r="M53" s="46"/>
     </row>
-    <row r="54" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <f>MAX(B$13:B53)+1</f>
         <v>25</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="45" t="s">
+      <c r="E54" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="F54" s="25"/>
       <c r="G54" s="45"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="45"/>
-      <c r="K54" s="237" t="s">
-        <v>322</v>
-      </c>
-      <c r="L54" s="233"/>
+      <c r="K54" s="241" t="s">
+        <v>321</v>
+      </c>
+      <c r="L54" s="237"/>
       <c r="M54" s="46"/>
     </row>
-    <row r="55" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <f>MAX(B$13:B54)+1</f>
         <v>26</v>
       </c>
-      <c r="C55" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="117"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="117" t="s">
+      <c r="C55" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="237" t="s">
-        <v>323</v>
-      </c>
-      <c r="L55" s="233"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="241" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" s="237"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18548,45 +18600,45 @@
         <f>MAX(B$13:B55)+1</f>
         <v>27</v>
       </c>
-      <c r="C56" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45" t="s">
+      <c r="C56" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="117"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="237" t="s">
-        <v>324</v>
-      </c>
-      <c r="L56" s="233"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="241" t="s">
+        <v>323</v>
+      </c>
+      <c r="L56" s="237"/>
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
-        <f>MAX(B$13:B55)+1</f>
-        <v>27</v>
+        <f>MAX(B$13:B56)+1</f>
+        <v>28</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>374</v>
+        <v>67</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="45"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="45" t="s">
+      <c r="H57" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="237" t="s">
-        <v>356</v>
-      </c>
-      <c r="L57" s="233"/>
+      <c r="K57" s="241" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" s="237"/>
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18595,55 +18647,53 @@
         <v>28</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
       <c r="G58" s="45"/>
       <c r="H58" s="25"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45" t="s">
+      <c r="I58" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="237" t="s">
-        <v>442</v>
-      </c>
-      <c r="L58" s="233"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="241" t="s">
+        <v>356</v>
+      </c>
+      <c r="L58" s="237"/>
       <c r="M58" s="46"/>
     </row>
-    <row r="59" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
-        <f>MAX(B$13:B58)+1</f>
+        <f>MAX(B$13:B57)+1</f>
         <v>29</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="C59" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" s="45"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="215" t="s">
-        <v>140</v>
-      </c>
-      <c r="L59" s="233"/>
-      <c r="M59" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="45"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="241" t="s">
+        <v>442</v>
+      </c>
+      <c r="L59" s="237"/>
+      <c r="M59" s="46"/>
+    </row>
+    <row r="60" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <f>MAX(B$13:B59)+1</f>
         <v>30</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>8</v>
@@ -18654,12 +18704,12 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="215" t="s">
-        <v>141</v>
-      </c>
-      <c r="L60" s="233"/>
+      <c r="K60" s="219" t="s">
+        <v>140</v>
+      </c>
+      <c r="L60" s="237"/>
       <c r="M60" s="29" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18668,7 +18718,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>8</v>
@@ -18679,60 +18729,62 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="215" t="s">
+      <c r="K61" s="219" t="s">
+        <v>141</v>
+      </c>
+      <c r="L61" s="237"/>
+      <c r="M61" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="1">
+        <f>MAX(B$13:B61)+1</f>
+        <v>32</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="L61" s="233"/>
-      <c r="M61" s="29" t="s">
+      <c r="L62" s="237"/>
+      <c r="M62" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B62" s="1"/>
-      <c r="C62" s="14" t="s">
+    <row r="63" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="1"/>
+      <c r="C63" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="213"/>
-      <c r="L62" s="214"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="1">
-        <f>MAX(B$11:B62)+1</f>
-        <v>32</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="215" t="s">
-        <v>143</v>
-      </c>
-      <c r="L63" s="216"/>
-      <c r="M63" s="29"/>
-    </row>
-    <row r="64" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="217"/>
+      <c r="L63" s="218"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1">
         <f>MAX(B$11:B63)+1</f>
         <v>33</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>8</v>
@@ -18743,10 +18795,10 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="215" t="s">
-        <v>420</v>
-      </c>
-      <c r="L64" s="216"/>
+      <c r="K64" s="219" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" s="220"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18755,21 +18807,21 @@
         <v>34</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="E65" s="25"/>
       <c r="F65" s="25"/>
       <c r="G65" s="28"/>
       <c r="H65" s="24"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="215" t="s">
-        <v>421</v>
-      </c>
-      <c r="L65" s="216"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="219" t="s">
+        <v>420</v>
+      </c>
+      <c r="L65" s="220"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18778,21 +18830,21 @@
         <v>35</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="28"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="28" t="s">
+      <c r="E66" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="28"/>
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
       <c r="J66" s="28"/>
-      <c r="K66" s="215" t="s">
-        <v>422</v>
-      </c>
-      <c r="L66" s="216"/>
+      <c r="K66" s="219" t="s">
+        <v>421</v>
+      </c>
+      <c r="L66" s="220"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18801,21 +18853,21 @@
         <v>36</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="28" t="s">
+      <c r="F67" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="G67" s="28"/>
       <c r="H67" s="24"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="215" t="s">
-        <v>423</v>
-      </c>
-      <c r="L67" s="233"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="219" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" s="220"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18823,24 +18875,22 @@
         <f>MAX(B$11:B67)+1</f>
         <v>37</v>
       </c>
-      <c r="C68" s="136" t="s">
-        <v>399</v>
+      <c r="C68" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="D68" s="28"/>
-      <c r="E68" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="28"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="215" t="s">
-        <v>424</v>
-      </c>
-      <c r="L68" s="233"/>
+      <c r="K68" s="219" t="s">
+        <v>423</v>
+      </c>
+      <c r="L68" s="237"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18848,22 +18898,24 @@
         <f>MAX(B$11:B68)+1</f>
         <v>38</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>72</v>
+      <c r="C69" s="136" t="s">
+        <v>399</v>
       </c>
       <c r="D69" s="28"/>
-      <c r="E69" s="25"/>
+      <c r="E69" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="F69" s="25"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28" t="s">
+      <c r="G69" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="H69" s="28"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="215" t="s">
-        <v>425</v>
-      </c>
-      <c r="L69" s="233"/>
+      <c r="K69" s="219" t="s">
+        <v>424</v>
+      </c>
+      <c r="L69" s="237"/>
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18871,22 +18923,22 @@
         <f>MAX(B$11:B69)+1</f>
         <v>39</v>
       </c>
-      <c r="C70" s="149" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="33" t="s">
+      <c r="C70" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="215" t="s">
-        <v>426</v>
-      </c>
-      <c r="L70" s="233"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="219" t="s">
+        <v>425</v>
+      </c>
+      <c r="L70" s="237"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -18894,193 +18946,218 @@
         <f>MAX(B$11:B70)+1</f>
         <v>40</v>
       </c>
-      <c r="C71" s="139" t="s">
-        <v>443</v>
+      <c r="C71" s="149" t="s">
+        <v>373</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
       <c r="G71" s="33"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33" t="s">
+      <c r="I71" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="215" t="s">
-        <v>444</v>
-      </c>
-      <c r="L71" s="233"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="219" t="s">
+        <v>426</v>
+      </c>
+      <c r="L71" s="237"/>
       <c r="M71" s="29"/>
     </row>
-    <row r="72" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="140">
+    <row r="72" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="1">
         <f>MAX(B$11:B71)+1</f>
         <v>41</v>
       </c>
-      <c r="C72" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="139" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="238" t="s">
-        <v>122</v>
-      </c>
-      <c r="L72" s="239"/>
-      <c r="M72" s="36"/>
+      <c r="K72" s="219" t="s">
+        <v>444</v>
+      </c>
+      <c r="L72" s="237"/>
+      <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="1">
+      <c r="B73" s="140">
         <f>MAX(B$11:B72)+1</f>
         <v>42</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="138"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="242" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="243"/>
+      <c r="M73" s="36"/>
+    </row>
+    <row r="74" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="1">
+        <f>MAX(B$11:B73)+1</f>
+        <v>43</v>
+      </c>
+      <c r="C74" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D74" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="215" t="s">
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="219" t="s">
         <v>271</v>
       </c>
-      <c r="L73" s="233"/>
-      <c r="M73" s="29"/>
-    </row>
-    <row r="74" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B74" s="1"/>
-      <c r="C74" s="14" t="s">
+      <c r="L74" s="237"/>
+      <c r="M74" s="29"/>
+    </row>
+    <row r="75" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B75" s="1"/>
+      <c r="C75" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="213"/>
-      <c r="L74" s="214"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="1">
-        <f>MAX(B$11:B74)+1</f>
-        <v>43</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="217"/>
+      <c r="L75" s="218"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
+        <f>MAX(B$11:B75)+1</f>
+        <v>44</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D76" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="215" t="s">
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="219" t="s">
         <v>144</v>
       </c>
-      <c r="L75" s="216"/>
-      <c r="M75" s="29"/>
-    </row>
-    <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B76" s="1"/>
-      <c r="C76" s="14" t="s">
+      <c r="L76" s="220"/>
+      <c r="M76" s="29"/>
+    </row>
+    <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B77" s="1"/>
+      <c r="C77" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="213"/>
-      <c r="L76" s="214"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1">
-        <f>MAX(B$11:B76)+1</f>
-        <v>44</v>
-      </c>
-      <c r="C77" s="27" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="217"/>
+      <c r="L77" s="218"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="1">
+        <f>MAX(B$11:B77)+1</f>
+        <v>45</v>
+      </c>
+      <c r="C78" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D78" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="215" t="s">
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="216"/>
-      <c r="M77" s="29"/>
-    </row>
-    <row r="78" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B78" s="1"/>
-      <c r="C78" s="12" t="s">
+      <c r="L78" s="220"/>
+      <c r="M78" s="29"/>
+    </row>
+    <row r="79" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B79" s="1"/>
+      <c r="C79" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="213"/>
-      <c r="L78" s="214"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B79" s="32">
-        <f>MAX(B$11:B78)+1</f>
-        <v>45</v>
-      </c>
-      <c r="C79" s="27" t="s">
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="148"/>
+      <c r="K79" s="217"/>
+      <c r="L79" s="218"/>
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B80" s="32">
+        <f>MAX(B$11:B79)+1</f>
+        <v>46</v>
+      </c>
+      <c r="C80" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35" t="s">
+      <c r="D80" s="35"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K79" s="215" t="s">
+      <c r="H80" s="35"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="L79" s="216"/>
-      <c r="M79" s="27" t="s">
+      <c r="L80" s="220"/>
+      <c r="M80" s="27" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B12:M79"/>
-  <mergeCells count="80">
-    <mergeCell ref="K70:L70"/>
+  <autoFilter ref="B12:M80"/>
+  <mergeCells count="81">
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -19105,7 +19182,7 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="G26:G27"/>
@@ -19116,50 +19193,51 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K53:L53"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K63:L63"/>
     <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K80:L80"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M35:M46"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C35:C46"/>
-    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M36:M47"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K66:L66"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K53:L53"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -19171,9 +19249,9 @@
     <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_3_(backyard) &amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="29" max="12" man="1"/>
-    <brk id="57" max="12" man="1"/>
-    <brk id="75" max="12" man="1"/>
+    <brk id="28" max="12" man="1"/>
+    <brk id="56" max="12" man="1"/>
+    <brk id="76" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -19216,17 +19294,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -19234,18 +19312,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -19359,32 +19437,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="209" t="s">
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="214"/>
+      <c r="M11" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -19406,9 +19484,9 @@
       <c r="J12" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="K12" s="211"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -19422,8 +19500,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="214"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19431,22 +19509,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206" t="s">
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="215" t="s">
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="27" t="s">
         <v>314</v>
       </c>
@@ -19456,18 +19534,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="240" t="s">
+      <c r="C15" s="206"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="245" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="216"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -19475,18 +19553,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="240" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="216"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19501,8 +19579,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="214"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="218"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19522,10 +19600,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="240" t="s">
+      <c r="K18" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="216"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="27" t="s">
         <v>97</v>
       </c>
@@ -19542,8 +19620,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="214"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="218"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19563,10 +19641,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="240" t="s">
+      <c r="K20" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="216"/>
+      <c r="L20" s="220"/>
       <c r="M20" s="27" t="s">
         <v>101</v>
       </c>
@@ -19588,10 +19666,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="240" t="s">
+      <c r="K21" s="245" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="216"/>
+      <c r="L21" s="220"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19606,8 +19684,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="214"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="218"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -19615,8 +19693,8 @@
         <f>MAX(B$11:B22)+1</f>
         <v>7</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>18</v>
+      <c r="C23" s="175" t="s">
+        <v>463</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
@@ -19627,10 +19705,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="240" t="s">
+      <c r="K23" s="245" t="s">
         <v>362</v>
       </c>
-      <c r="L23" s="216"/>
+      <c r="L23" s="220"/>
       <c r="M23" s="27" t="s">
         <v>433</v>
       </c>
@@ -19652,10 +19730,10 @@
       <c r="H24" s="169"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="215" t="s">
+      <c r="K24" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="L24" s="233"/>
+      <c r="L24" s="237"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -19675,10 +19753,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="240" t="s">
+      <c r="K25" s="245" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="216"/>
+      <c r="L25" s="220"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -19698,10 +19776,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="215" t="s">
+      <c r="K26" s="219" t="s">
         <v>359</v>
       </c>
-      <c r="L26" s="216"/>
+      <c r="L26" s="220"/>
       <c r="M26" s="27" t="s">
         <v>360</v>
       </c>
@@ -19711,22 +19789,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="201" t="s">
+      <c r="C27" s="205" t="s">
         <v>458</v>
       </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206" t="s">
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="215" t="s">
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="263"/>
+      <c r="L27" s="244"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -19734,18 +19812,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="215" t="s">
+      <c r="C28" s="207"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="L28" s="263"/>
+      <c r="L28" s="244"/>
       <c r="M28" s="171" t="s">
         <v>459</v>
       </c>
@@ -19762,8 +19840,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="148"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="214"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="218"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19783,10 +19861,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="240" t="s">
+      <c r="K30" s="245" t="s">
         <v>327</v>
       </c>
-      <c r="L30" s="216"/>
+      <c r="L30" s="220"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19806,10 +19884,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="240" t="s">
+      <c r="K31" s="245" t="s">
         <v>326</v>
       </c>
-      <c r="L31" s="216"/>
+      <c r="L31" s="220"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19829,10 +19907,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="240" t="s">
+      <c r="K32" s="245" t="s">
         <v>325</v>
       </c>
-      <c r="L32" s="216"/>
+      <c r="L32" s="220"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19847,8 +19925,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="148"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="214"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="218"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19868,10 +19946,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="240" t="s">
+      <c r="K34" s="245" t="s">
         <v>372</v>
       </c>
-      <c r="L34" s="216"/>
+      <c r="L34" s="220"/>
       <c r="M34" s="29" t="s">
         <v>367</v>
       </c>
@@ -19893,10 +19971,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="240" t="s">
+      <c r="K35" s="245" t="s">
         <v>369</v>
       </c>
-      <c r="L35" s="216"/>
+      <c r="L35" s="220"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19916,10 +19994,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="242" t="s">
+      <c r="K36" s="247" t="s">
         <v>371</v>
       </c>
-      <c r="L36" s="243"/>
+      <c r="L36" s="248"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -19934,8 +20012,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="148"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="214"/>
+      <c r="K37" s="246"/>
+      <c r="L37" s="218"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -19955,10 +20033,10 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="240" t="s">
+      <c r="K38" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="L38" s="216"/>
+      <c r="L38" s="220"/>
       <c r="M38" s="129" t="s">
         <v>380</v>
       </c>
@@ -19980,84 +20058,84 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="240" t="s">
+      <c r="K39" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="L39" s="216"/>
+      <c r="L39" s="220"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="223">
+      <c r="B40" s="227">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="201" t="s">
+      <c r="C40" s="205" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206" t="s">
+      <c r="D40" s="210"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="215" t="s">
+      <c r="H40" s="210"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L40" s="216"/>
-      <c r="M40" s="229"/>
+      <c r="L40" s="220"/>
+      <c r="M40" s="233"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="224"/>
-      <c r="C41" s="226"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="228"/>
+      <c r="F41" s="228"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="228"/>
+      <c r="I41" s="228"/>
+      <c r="J41" s="228"/>
       <c r="K41" s="84" t="s">
         <v>267</v>
       </c>
       <c r="L41" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="M41" s="230"/>
+      <c r="M41" s="234"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="224"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="224"/>
-      <c r="J42" s="224"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="228"/>
       <c r="K42" s="86" t="s">
         <v>285</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="M42" s="230"/>
+      <c r="M42" s="234"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="225"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="232"/>
+      <c r="H43" s="232"/>
+      <c r="I43" s="232"/>
+      <c r="J43" s="232"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="231"/>
+      <c r="M43" s="235"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -20076,10 +20154,10 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="240" t="s">
+      <c r="K44" s="245" t="s">
         <v>328</v>
       </c>
-      <c r="L44" s="216"/>
+      <c r="L44" s="220"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20099,10 +20177,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="240" t="s">
+      <c r="K45" s="245" t="s">
         <v>329</v>
       </c>
-      <c r="L45" s="216"/>
+      <c r="L45" s="220"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -20122,10 +20200,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="240" t="s">
+      <c r="K46" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="216"/>
+      <c r="L46" s="220"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20145,10 +20223,10 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="240" t="s">
+      <c r="K47" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="L47" s="216"/>
+      <c r="L47" s="220"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20168,10 +20246,10 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="240" t="s">
+      <c r="K48" s="245" t="s">
         <v>332</v>
       </c>
-      <c r="L48" s="233"/>
+      <c r="L48" s="237"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20186,8 +20264,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="148"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="214"/>
+      <c r="K49" s="246"/>
+      <c r="L49" s="218"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20207,10 +20285,10 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="240" t="s">
+      <c r="K50" s="245" t="s">
         <v>383</v>
       </c>
-      <c r="L50" s="216"/>
+      <c r="L50" s="220"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20230,10 +20308,10 @@
       <c r="H51" s="24"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="240" t="s">
+      <c r="K51" s="245" t="s">
         <v>384</v>
       </c>
-      <c r="L51" s="216"/>
+      <c r="L51" s="220"/>
       <c r="M51" s="29" t="s">
         <v>388</v>
       </c>
@@ -20255,10 +20333,10 @@
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="240" t="s">
+      <c r="K52" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="L52" s="233"/>
+      <c r="L52" s="237"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -20278,10 +20356,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="240" t="s">
+      <c r="K53" s="245" t="s">
         <v>354</v>
       </c>
-      <c r="L53" s="233"/>
+      <c r="L53" s="237"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20301,10 +20379,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="240" t="s">
+      <c r="K54" s="245" t="s">
         <v>382</v>
       </c>
-      <c r="L54" s="233"/>
+      <c r="L54" s="237"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -20324,10 +20402,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="240" t="s">
+      <c r="K55" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="233"/>
+      <c r="L55" s="237"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -20342,8 +20420,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="148"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="214"/>
+      <c r="K56" s="246"/>
+      <c r="L56" s="218"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20363,10 +20441,10 @@
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="240" t="s">
+      <c r="K57" s="245" t="s">
         <v>418</v>
       </c>
-      <c r="L57" s="216"/>
+      <c r="L57" s="220"/>
       <c r="M57" s="27" t="s">
         <v>419</v>
       </c>
@@ -20388,10 +20466,10 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="240" t="s">
+      <c r="K58" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="216"/>
+      <c r="L58" s="220"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20411,10 +20489,10 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="240" t="s">
+      <c r="K59" s="245" t="s">
         <v>333</v>
       </c>
-      <c r="L59" s="216"/>
+      <c r="L59" s="220"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -20434,10 +20512,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="240" t="s">
+      <c r="K60" s="245" t="s">
         <v>334</v>
       </c>
-      <c r="L60" s="216"/>
+      <c r="L60" s="220"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -20457,10 +20535,10 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="240" t="s">
+      <c r="K61" s="245" t="s">
         <v>363</v>
       </c>
-      <c r="L61" s="233"/>
+      <c r="L61" s="237"/>
       <c r="M61" s="27" t="s">
         <v>364</v>
       </c>
@@ -20482,10 +20560,10 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="240" t="s">
+      <c r="K62" s="245" t="s">
         <v>149</v>
       </c>
-      <c r="L62" s="233"/>
+      <c r="L62" s="237"/>
       <c r="M62" s="27" t="s">
         <v>102</v>
       </c>
@@ -20623,34 +20701,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -20778,32 +20856,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="219" t="s">
+      <c r="C12" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="221" t="s">
+      <c r="D12" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="209" t="s">
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="250"/>
-      <c r="M12" s="204" t="s">
+      <c r="L12" s="255"/>
+      <c r="M12" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="218"/>
-      <c r="C13" s="220"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="224"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -20825,9 +20903,9 @@
       <c r="J13" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="K13" s="211"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="205"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="209"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -20841,8 +20919,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="148"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="245"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="250"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20862,84 +20940,84 @@
       <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="240" t="s">
+      <c r="K15" s="245" t="s">
         <v>247</v>
       </c>
-      <c r="L15" s="233"/>
+      <c r="L15" s="237"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="223">
+      <c r="B16" s="227">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="247" t="s">
+      <c r="C16" s="252" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="215" t="s">
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L16" s="216"/>
-      <c r="M16" s="229"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="233"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="224"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
       <c r="K17" s="88" t="s">
         <v>268</v>
       </c>
       <c r="L17" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="M17" s="230"/>
+      <c r="M17" s="234"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="224"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
       <c r="K18" s="86" t="s">
         <v>258</v>
       </c>
       <c r="L18" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="M18" s="230"/>
+      <c r="M18" s="234"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="246"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="231"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="235"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -20974,10 +21052,10 @@
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="240" t="s">
+      <c r="K21" s="245" t="s">
         <v>223</v>
       </c>
-      <c r="L21" s="233"/>
+      <c r="L21" s="237"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20997,10 +21075,10 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="240" t="s">
+      <c r="K22" s="245" t="s">
         <v>348</v>
       </c>
-      <c r="L22" s="233"/>
+      <c r="L22" s="237"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
@@ -21077,17 +21155,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19" t="s">
         <v>169</v>
       </c>
@@ -21095,18 +21173,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -21222,32 +21300,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="209" t="s">
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="214"/>
+      <c r="M11" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -21269,9 +21347,9 @@
       <c r="J12" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="K12" s="211"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -21285,8 +21363,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="214"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21294,22 +21372,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206" t="s">
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="215" t="s">
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="27" t="s">
         <v>314</v>
       </c>
@@ -21319,18 +21397,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="240" t="s">
+      <c r="C15" s="206"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="245" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="216"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21338,18 +21416,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="240" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="245" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="216"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21364,8 +21442,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="214"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="218"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21385,10 +21463,10 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="240" t="s">
+      <c r="K18" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="216"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="27" t="s">
         <v>97</v>
       </c>
@@ -21405,8 +21483,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="214"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="218"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="202.5" x14ac:dyDescent="0.15">
@@ -21426,10 +21504,10 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="240" t="s">
+      <c r="K20" s="245" t="s">
         <v>362</v>
       </c>
-      <c r="L20" s="216"/>
+      <c r="L20" s="220"/>
       <c r="M20" s="27" t="s">
         <v>436</v>
       </c>
@@ -21451,10 +21529,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="215" t="s">
+      <c r="K21" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="L21" s="233"/>
+      <c r="L21" s="237"/>
       <c r="M21" s="170"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21474,10 +21552,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="240" t="s">
+      <c r="K22" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="233"/>
+      <c r="L22" s="237"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -21497,10 +21575,10 @@
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="215" t="s">
+      <c r="K23" s="219" t="s">
         <v>359</v>
       </c>
-      <c r="L23" s="216"/>
+      <c r="L23" s="220"/>
       <c r="M23" s="27" t="s">
         <v>360</v>
       </c>
@@ -21510,22 +21588,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="205" t="s">
         <v>458</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206" t="s">
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="215" t="s">
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="263"/>
+      <c r="L24" s="244"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -21533,18 +21611,18 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="215" t="s">
+      <c r="C25" s="207"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="L25" s="263"/>
+      <c r="L25" s="244"/>
       <c r="M25" s="171" t="s">
         <v>459</v>
       </c>
@@ -21561,8 +21639,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="148"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="214"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="218"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21582,10 +21660,10 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="240" t="s">
+      <c r="K27" s="245" t="s">
         <v>327</v>
       </c>
-      <c r="L27" s="233"/>
+      <c r="L27" s="237"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21605,10 +21683,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="240" t="s">
+      <c r="K28" s="245" t="s">
         <v>326</v>
       </c>
-      <c r="L28" s="233"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21628,10 +21706,10 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="240" t="s">
+      <c r="K29" s="245" t="s">
         <v>325</v>
       </c>
-      <c r="L29" s="233"/>
+      <c r="L29" s="237"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21646,8 +21724,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="148"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="214"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="218"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21667,10 +21745,10 @@
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="240" t="s">
+      <c r="K31" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="L31" s="216"/>
+      <c r="L31" s="220"/>
       <c r="M31" s="129" t="s">
         <v>380</v>
       </c>
@@ -21692,84 +21770,84 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="240" t="s">
+      <c r="K32" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="216"/>
+      <c r="L32" s="220"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="223">
+      <c r="B33" s="227">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="201" t="s">
+      <c r="C33" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206" t="s">
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="215" t="s">
+      <c r="I33" s="210"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L33" s="216"/>
-      <c r="M33" s="229"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="233"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="252"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="224"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
       <c r="K34" s="84" t="s">
         <v>269</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="M34" s="230"/>
+      <c r="M34" s="234"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="252"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="224"/>
-      <c r="H35" s="224"/>
-      <c r="I35" s="224"/>
-      <c r="J35" s="224"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
       <c r="K35" s="86" t="s">
         <v>286</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="M35" s="230"/>
+      <c r="M35" s="234"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="253"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="228"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="233"/>
-      <c r="M36" s="231"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="232"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="219"/>
+      <c r="L36" s="237"/>
+      <c r="M36" s="235"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -21788,10 +21866,10 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="240" t="s">
+      <c r="K37" s="245" t="s">
         <v>328</v>
       </c>
-      <c r="L37" s="233"/>
+      <c r="L37" s="237"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21811,10 +21889,10 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="240" t="s">
+      <c r="K38" s="245" t="s">
         <v>329</v>
       </c>
-      <c r="L38" s="233"/>
+      <c r="L38" s="237"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21834,10 +21912,10 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="240" t="s">
+      <c r="K39" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="L39" s="233"/>
+      <c r="L39" s="237"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21857,10 +21935,10 @@
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="240" t="s">
+      <c r="K40" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="L40" s="233"/>
+      <c r="L40" s="237"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21880,10 +21958,10 @@
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="240" t="s">
+      <c r="K41" s="245" t="s">
         <v>332</v>
       </c>
-      <c r="L41" s="233"/>
+      <c r="L41" s="237"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -21903,10 +21981,10 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="215" t="s">
+      <c r="K42" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="L42" s="233"/>
+      <c r="L42" s="237"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -21926,10 +22004,10 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="215" t="s">
+      <c r="K43" s="219" t="s">
         <v>153</v>
       </c>
-      <c r="L43" s="233"/>
+      <c r="L43" s="237"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21949,10 +22027,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="215" t="s">
+      <c r="K44" s="219" t="s">
         <v>296</v>
       </c>
-      <c r="L44" s="233"/>
+      <c r="L44" s="237"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -21967,8 +22045,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="148"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="214"/>
+      <c r="K45" s="246"/>
+      <c r="L45" s="218"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21988,10 +22066,10 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="240" t="s">
+      <c r="K46" s="245" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="216"/>
+      <c r="L46" s="220"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22006,8 +22084,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="148"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="241"/>
-      <c r="L47" s="214"/>
+      <c r="K47" s="246"/>
+      <c r="L47" s="218"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22027,10 +22105,10 @@
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="240" t="s">
+      <c r="K48" s="245" t="s">
         <v>222</v>
       </c>
-      <c r="L48" s="216"/>
+      <c r="L48" s="220"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
@@ -22156,34 +22234,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -22287,32 +22365,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="209" t="s">
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="214"/>
+      <c r="M11" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22334,9 +22412,9 @@
       <c r="J12" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="K12" s="211"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
@@ -22350,8 +22428,8 @@
       <c r="H13" s="135"/>
       <c r="I13" s="148"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="214"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22371,10 +22449,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="240" t="s">
+      <c r="K14" s="245" t="s">
         <v>396</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="136"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -22394,10 +22472,10 @@
         <v>8</v>
       </c>
       <c r="J15" s="35"/>
-      <c r="K15" s="240" t="s">
+      <c r="K15" s="245" t="s">
         <v>398</v>
       </c>
-      <c r="L15" s="233"/>
+      <c r="L15" s="237"/>
       <c r="M15" s="136"/>
     </row>
   </sheetData>
@@ -22428,9 +22506,9 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M87"/>
+  <dimension ref="B1:M88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -22460,17 +22538,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -22478,18 +22556,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="193" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
       <c r="K3" s="55" t="s">
         <v>213</v>
       </c>
@@ -22603,32 +22681,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="221" t="s">
+      <c r="D11" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="209" t="s">
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="204" t="s">
+      <c r="L11" s="214"/>
+      <c r="M11" s="208" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="218"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22650,9 +22728,9 @@
       <c r="J12" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="K12" s="211"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="205"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -22666,8 +22744,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="214"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="218"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -22675,22 +22753,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="215" t="s">
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="27" t="s">
         <v>314</v>
       </c>
@@ -22700,18 +22778,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="240" t="s">
+      <c r="C15" s="206"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="216"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22719,18 +22797,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="240" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="245" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="216"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22745,8 +22823,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="214"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="218"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -22766,10 +22844,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="240" t="s">
+      <c r="K18" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="216"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="27" t="s">
         <v>97</v>
       </c>
@@ -22786,8 +22864,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="214"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="218"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -22807,10 +22885,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="240" t="s">
+      <c r="K20" s="245" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="216"/>
+      <c r="L20" s="220"/>
       <c r="M20" s="27" t="s">
         <v>87</v>
       </c>
@@ -22832,10 +22910,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="240" t="s">
+      <c r="K21" s="245" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="216"/>
+      <c r="L21" s="220"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -22850,8 +22928,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="214"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="218"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -22859,8 +22937,8 @@
         <f>MAX(B$11:B22)+1</f>
         <v>7</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>18</v>
+      <c r="C23" s="175" t="s">
+        <v>463</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>8</v>
@@ -22871,10 +22949,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="240" t="s">
+      <c r="K23" s="245" t="s">
         <v>362</v>
       </c>
-      <c r="L23" s="216"/>
+      <c r="L23" s="220"/>
       <c r="M23" s="27" t="s">
         <v>437</v>
       </c>
@@ -22896,10 +22974,10 @@
       <c r="H24" s="169"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="215" t="s">
+      <c r="K24" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="L24" s="233"/>
+      <c r="L24" s="237"/>
       <c r="M24" s="170"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -22919,10 +22997,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="240" t="s">
+      <c r="K25" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="233"/>
+      <c r="L25" s="237"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -22942,10 +23020,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="215" t="s">
+      <c r="K26" s="219" t="s">
         <v>359</v>
       </c>
-      <c r="L26" s="216"/>
+      <c r="L26" s="220"/>
       <c r="M26" s="27" t="s">
         <v>360</v>
       </c>
@@ -22955,22 +23033,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="201" t="s">
+      <c r="C27" s="205" t="s">
         <v>458</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="215" t="s">
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="263"/>
+      <c r="L27" s="244"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -22978,60 +23056,62 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="215" t="s">
+      <c r="C28" s="207"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="L28" s="263"/>
+      <c r="L28" s="244"/>
       <c r="M28" s="171" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="14" t="s">
+    <row r="29" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
+        <f>MAX(B$11:B28)+1</f>
+        <v>13</v>
+      </c>
+      <c r="C29" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="D29" s="173"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="219" t="s">
+        <v>460</v>
+      </c>
+      <c r="L29" s="220"/>
+      <c r="M29" s="174" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="1">
-        <f>MAX(B$11:B29)+1</f>
-        <v>13</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="240" t="s">
-        <v>327</v>
-      </c>
-      <c r="L30" s="216"/>
-      <c r="M30" s="27"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
@@ -23039,7 +23119,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>8</v>
@@ -23050,10 +23130,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="147"/>
-      <c r="K31" s="240" t="s">
-        <v>326</v>
-      </c>
-      <c r="L31" s="216"/>
+      <c r="K31" s="245" t="s">
+        <v>327</v>
+      </c>
+      <c r="L31" s="220"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -23062,7 +23142,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>8</v>
@@ -23073,60 +23153,58 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="147"/>
-      <c r="K32" s="240" t="s">
+      <c r="K32" s="245" t="s">
+        <v>326</v>
+      </c>
+      <c r="L32" s="220"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <f>MAX(B$11:B32)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="L32" s="216"/>
-      <c r="M32" s="27"/>
-    </row>
-    <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
-      <c r="C33" s="12" t="s">
+      <c r="L33" s="220"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="1">
-        <f>MAX(B$11:B33)+1</f>
-        <v>16</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="240" t="s">
-        <v>372</v>
-      </c>
-      <c r="L34" s="216"/>
-      <c r="M34" s="29" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="218"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <f>MAX(B$11:B34)+1</f>
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>8</v>
@@ -23137,19 +23215,21 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="240" t="s">
-        <v>369</v>
-      </c>
-      <c r="L35" s="216"/>
-      <c r="M35" s="29"/>
-    </row>
-    <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="245" t="s">
+        <v>372</v>
+      </c>
+      <c r="L35" s="220"/>
+      <c r="M35" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <f>MAX(B$11:B35)+1</f>
         <v>18</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>8</v>
@@ -23160,60 +23240,58 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="242" t="s">
+      <c r="K36" s="245" t="s">
+        <v>369</v>
+      </c>
+      <c r="L36" s="220"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="1">
+        <f>MAX(B$11:B36)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="247" t="s">
         <v>371</v>
       </c>
-      <c r="L36" s="243"/>
-      <c r="M36" s="29"/>
-    </row>
-    <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="1"/>
-      <c r="C37" s="12" t="s">
+      <c r="L37" s="248"/>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+      <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="1">
-        <f>MAX(B$11:B37)+1</f>
-        <v>19</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="240" t="s">
-        <v>146</v>
-      </c>
-      <c r="L38" s="216"/>
-      <c r="M38" s="129" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <f>MAX(B$11:B38)+1</f>
         <v>20</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>8</v>
@@ -23224,11 +23302,13 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="240" t="s">
-        <v>336</v>
-      </c>
-      <c r="L39" s="216"/>
-      <c r="M39" s="29"/>
+      <c r="K39" s="245" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="220"/>
+      <c r="M39" s="129" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1">
@@ -23236,7 +23316,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>8</v>
@@ -23247,10 +23327,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="240" t="s">
-        <v>337</v>
-      </c>
-      <c r="L40" s="216"/>
+      <c r="K40" s="245" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" s="220"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -23259,7 +23339,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>8</v>
@@ -23270,19 +23350,19 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="240" t="s">
-        <v>157</v>
-      </c>
-      <c r="L41" s="216"/>
+      <c r="K41" s="245" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" s="220"/>
       <c r="M41" s="29"/>
     </row>
-    <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <f>MAX(B$11:B41)+1</f>
         <v>23</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>8</v>
@@ -23293,19 +23373,19 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="240" t="s">
-        <v>158</v>
-      </c>
-      <c r="L42" s="233"/>
+      <c r="K42" s="245" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" s="220"/>
       <c r="M42" s="29"/>
     </row>
-    <row r="43" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <f>MAX(B$11:B42)+1</f>
         <v>24</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>8</v>
@@ -23313,13 +23393,13 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="240" t="s">
-        <v>338</v>
-      </c>
-      <c r="L43" s="233"/>
+      <c r="K43" s="245" t="s">
+        <v>158</v>
+      </c>
+      <c r="L43" s="237"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23328,7 +23408,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>8</v>
@@ -23339,10 +23419,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="240" t="s">
-        <v>339</v>
-      </c>
-      <c r="L44" s="233"/>
+      <c r="K44" s="245" t="s">
+        <v>338</v>
+      </c>
+      <c r="L44" s="237"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -23351,7 +23431,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>8</v>
@@ -23362,34 +23442,34 @@
       <c r="H45" s="28"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="240" t="s">
-        <v>340</v>
-      </c>
-      <c r="L45" s="233"/>
+      <c r="K45" s="245" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" s="237"/>
       <c r="M45" s="29"/>
     </row>
-    <row r="46" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <f>MAX(B$11:B45)+1</f>
         <v>27</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="45" t="s">
+      <c r="C46" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="237" t="s">
-        <v>320</v>
-      </c>
-      <c r="L46" s="233"/>
-      <c r="M46" s="46"/>
+      <c r="K46" s="245" t="s">
+        <v>340</v>
+      </c>
+      <c r="L46" s="237"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
@@ -23397,21 +23477,21 @@
         <v>28</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="45"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="237" t="s">
-        <v>341</v>
-      </c>
-      <c r="L47" s="262"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="241" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="237"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23420,21 +23500,21 @@
         <v>29</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="45" t="s">
+      <c r="E48" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="45"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="237" t="s">
-        <v>342</v>
-      </c>
-      <c r="L48" s="233"/>
+      <c r="K48" s="241" t="s">
+        <v>341</v>
+      </c>
+      <c r="L48" s="267"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23443,21 +23523,21 @@
         <v>30</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="45" t="s">
+      <c r="F49" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="G49" s="45"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="237" t="s">
-        <v>343</v>
-      </c>
-      <c r="L49" s="233"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="241" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" s="237"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23466,44 +23546,44 @@
         <v>31</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45" t="s">
+      <c r="G50" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="237" t="s">
-        <v>344</v>
-      </c>
-      <c r="L50" s="233"/>
+      <c r="K50" s="241" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" s="237"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
-        <f>MAX(B$11:B49)+1</f>
-        <v>31</v>
+        <f>MAX(B$11:B50)+1</f>
+        <v>32</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="45"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="45" t="s">
+      <c r="H51" s="45" t="s">
         <v>8</v>
       </c>
+      <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="237" t="s">
-        <v>356</v>
-      </c>
-      <c r="L51" s="233"/>
+      <c r="K51" s="241" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" s="237"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -23512,55 +23592,53 @@
         <v>32</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="45"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="45" t="s">
+      <c r="I52" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="237" t="s">
-        <v>442</v>
-      </c>
-      <c r="L52" s="233"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="241" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" s="237"/>
       <c r="M52" s="46"/>
     </row>
-    <row r="53" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
-        <f>MAX(B$11:B52)+1</f>
+        <f>MAX(B$11:B51)+1</f>
         <v>33</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="C53" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" s="45"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="24"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="215" t="s">
-        <v>159</v>
-      </c>
-      <c r="L53" s="233"/>
-      <c r="M53" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="J53" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="241" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" s="237"/>
+      <c r="M53" s="46"/>
+    </row>
+    <row r="54" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <f>MAX(B$11:B53)+1</f>
         <v>34</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>8</v>
@@ -23571,12 +23649,12 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="240" t="s">
-        <v>160</v>
-      </c>
-      <c r="L54" s="233"/>
+      <c r="K54" s="219" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="237"/>
       <c r="M54" s="29" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -23584,104 +23662,109 @@
         <f>MAX(B$11:B54)+1</f>
         <v>35</v>
       </c>
-      <c r="C55" s="130" t="s">
+      <c r="C55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="245" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" s="237"/>
+      <c r="M55" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <f>MAX(B$11:B55)+1</f>
+        <v>36</v>
+      </c>
+      <c r="C56" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D56" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="240" t="s">
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="245" t="s">
         <v>161</v>
       </c>
-      <c r="L55" s="233"/>
-      <c r="M55" s="29" t="s">
+      <c r="L56" s="237"/>
+      <c r="M56" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B56" s="1"/>
-      <c r="C56" s="14" t="s">
+    <row r="57" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B57" s="1"/>
+      <c r="C57" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="214"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="223">
-        <f>MAX(B$11:B56)+1</f>
-        <v>36</v>
-      </c>
-      <c r="C57" s="247" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="246"/>
+      <c r="L57" s="218"/>
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="227">
+        <f>MAX(B$11:B57)+1</f>
+        <v>37</v>
+      </c>
+      <c r="C58" s="252" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="215" t="s">
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="L57" s="216"/>
-      <c r="M57" s="229"/>
-    </row>
-    <row r="58" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="224"/>
-      <c r="C58" s="248"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="160"/>
-      <c r="K58" s="93" t="s">
+      <c r="L58" s="220"/>
+      <c r="M58" s="233"/>
+    </row>
+    <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="228"/>
+      <c r="C59" s="253"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="L58" s="85" t="s">
+      <c r="L59" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="M58" s="230"/>
-    </row>
-    <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="224"/>
-      <c r="C59" s="248"/>
-      <c r="D59" s="152" t="s">
-        <v>453</v>
-      </c>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="L59" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="M59" s="230"/>
+      <c r="M59" s="234"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="224"/>
-      <c r="C60" s="248"/>
+      <c r="B60" s="228"/>
+      <c r="C60" s="253"/>
       <c r="D60" s="152" t="s">
         <v>453</v>
       </c>
@@ -23691,17 +23774,17 @@
       <c r="H60" s="152"/>
       <c r="I60" s="152"/>
       <c r="J60" s="152"/>
-      <c r="K60" s="90" t="s">
-        <v>288</v>
-      </c>
-      <c r="L60" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="M60" s="230"/>
+      <c r="K60" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="L60" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="M60" s="234"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="224"/>
-      <c r="C61" s="248"/>
+      <c r="B61" s="228"/>
+      <c r="C61" s="253"/>
       <c r="D61" s="152" t="s">
         <v>453</v>
       </c>
@@ -23711,17 +23794,17 @@
       <c r="H61" s="152"/>
       <c r="I61" s="152"/>
       <c r="J61" s="152"/>
-      <c r="K61" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="L61" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="M61" s="230"/>
+      <c r="K61" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="L61" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="M61" s="234"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="224"/>
-      <c r="C62" s="248"/>
+      <c r="B62" s="228"/>
+      <c r="C62" s="253"/>
       <c r="D62" s="152" t="s">
         <v>453</v>
       </c>
@@ -23732,16 +23815,16 @@
       <c r="I62" s="152"/>
       <c r="J62" s="152"/>
       <c r="K62" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L62" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="M62" s="230"/>
+        <v>259</v>
+      </c>
+      <c r="M62" s="234"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="224"/>
-      <c r="C63" s="248"/>
+      <c r="B63" s="228"/>
+      <c r="C63" s="253"/>
       <c r="D63" s="152" t="s">
         <v>453</v>
       </c>
@@ -23752,16 +23835,16 @@
       <c r="I63" s="152"/>
       <c r="J63" s="152"/>
       <c r="K63" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L63" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="M63" s="230"/>
+        <v>260</v>
+      </c>
+      <c r="M63" s="234"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="224"/>
-      <c r="C64" s="248"/>
+      <c r="B64" s="228"/>
+      <c r="C64" s="253"/>
       <c r="D64" s="152" t="s">
         <v>453</v>
       </c>
@@ -23772,16 +23855,16 @@
       <c r="I64" s="152"/>
       <c r="J64" s="152"/>
       <c r="K64" s="86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L64" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="M64" s="230"/>
+        <v>261</v>
+      </c>
+      <c r="M64" s="234"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="224"/>
-      <c r="C65" s="248"/>
+      <c r="B65" s="228"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="152" t="s">
         <v>453</v>
       </c>
@@ -23792,16 +23875,16 @@
       <c r="I65" s="152"/>
       <c r="J65" s="152"/>
       <c r="K65" s="86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L65" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="M65" s="230"/>
+        <v>262</v>
+      </c>
+      <c r="M65" s="234"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="224"/>
-      <c r="C66" s="248"/>
+      <c r="B66" s="228"/>
+      <c r="C66" s="253"/>
       <c r="D66" s="152" t="s">
         <v>453</v>
       </c>
@@ -23812,16 +23895,16 @@
       <c r="I66" s="152"/>
       <c r="J66" s="152"/>
       <c r="K66" s="86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L66" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M66" s="230"/>
+        <v>263</v>
+      </c>
+      <c r="M66" s="234"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="224"/>
-      <c r="C67" s="248"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="253"/>
       <c r="D67" s="152" t="s">
         <v>453</v>
       </c>
@@ -23832,254 +23915,251 @@
       <c r="I67" s="152"/>
       <c r="J67" s="152"/>
       <c r="K67" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="M67" s="234"/>
+    </row>
+    <row r="68" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="228"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="152" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" s="152"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="L67" s="91" t="s">
+      <c r="L68" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="M67" s="230"/>
-    </row>
-    <row r="68" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="225"/>
-      <c r="C68" s="254"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
-      <c r="H68" s="161"/>
-      <c r="I68" s="161"/>
-      <c r="J68" s="161"/>
-      <c r="K68" s="215"/>
-      <c r="L68" s="216"/>
-      <c r="M68" s="231"/>
-    </row>
-    <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B69" s="1"/>
-      <c r="C69" s="14" t="s">
+      <c r="M68" s="234"/>
+    </row>
+    <row r="69" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="229"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="161"/>
+      <c r="F69" s="161"/>
+      <c r="G69" s="161"/>
+      <c r="H69" s="161"/>
+      <c r="I69" s="161"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="219"/>
+      <c r="L69" s="220"/>
+      <c r="M69" s="235"/>
+    </row>
+    <row r="70" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="214"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="1">
-        <f>MAX(B$11:B69)+1</f>
-        <v>37</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="240" t="s">
-        <v>389</v>
-      </c>
-      <c r="L70" s="216"/>
-      <c r="M70" s="29"/>
-    </row>
-    <row r="71" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="246"/>
+      <c r="L70" s="218"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="71" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="1">
         <f>MAX(B$11:B70)+1</f>
         <v>38</v>
       </c>
-      <c r="C71" s="131" t="s">
-        <v>381</v>
-      </c>
-      <c r="D71" s="132" t="s">
+      <c r="C71" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="240" t="s">
-        <v>385</v>
-      </c>
-      <c r="L71" s="216"/>
-      <c r="M71" s="29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K71" s="245" t="s">
+        <v>389</v>
+      </c>
+      <c r="L71" s="220"/>
+      <c r="M71" s="29"/>
+    </row>
+    <row r="72" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="1">
         <f>MAX(B$11:B71)+1</f>
         <v>39</v>
       </c>
-      <c r="C72" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>210</v>
+      <c r="C72" s="131" t="s">
+        <v>381</v>
+      </c>
+      <c r="D72" s="132" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="69"/>
+      <c r="G72" s="132"/>
+      <c r="H72" s="132"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="240" t="s">
-        <v>345</v>
-      </c>
-      <c r="L72" s="233"/>
-      <c r="M72" s="29"/>
+      <c r="K72" s="245" t="s">
+        <v>385</v>
+      </c>
+      <c r="L72" s="220"/>
+      <c r="M72" s="29" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="73" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="1">
         <f>MAX(B$11:B72)+1</f>
         <v>40</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="240" t="s">
-        <v>346</v>
-      </c>
-      <c r="L73" s="233"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="245" t="s">
+        <v>345</v>
+      </c>
+      <c r="L73" s="237"/>
       <c r="M73" s="29"/>
     </row>
-    <row r="74" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="1">
         <f>MAX(B$11:B73)+1</f>
         <v>41</v>
       </c>
-      <c r="C74" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="240" t="s">
-        <v>386</v>
-      </c>
-      <c r="L74" s="233"/>
+      <c r="C74" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="245" t="s">
+        <v>346</v>
+      </c>
+      <c r="L74" s="237"/>
       <c r="M74" s="29"/>
     </row>
-    <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="1">
         <f>MAX(B$11:B74)+1</f>
         <v>42</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="245" t="s">
+        <v>386</v>
+      </c>
+      <c r="L75" s="237"/>
+      <c r="M75" s="29"/>
+    </row>
+    <row r="76" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
+        <f>MAX(B$11:B75)+1</f>
+        <v>43</v>
+      </c>
+      <c r="C76" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D76" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="240" t="s">
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="L75" s="233"/>
-      <c r="M75" s="29"/>
-    </row>
-    <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B76" s="1"/>
-      <c r="C76" s="259" t="s">
+      <c r="L76" s="237"/>
+      <c r="M76" s="29"/>
+    </row>
+    <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B77" s="1"/>
+      <c r="C77" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="260"/>
-      <c r="E76" s="260"/>
-      <c r="F76" s="260"/>
-      <c r="G76" s="260"/>
-      <c r="H76" s="260"/>
-      <c r="I76" s="260"/>
-      <c r="J76" s="260"/>
-      <c r="K76" s="260"/>
-      <c r="L76" s="260"/>
-      <c r="M76" s="261"/>
-    </row>
-    <row r="77" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1">
-        <f>MAX(B$11:B76)+1</f>
-        <v>43</v>
-      </c>
-      <c r="C77" s="139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="255" t="s">
-        <v>211</v>
-      </c>
-      <c r="L77" s="216"/>
-      <c r="M77" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="265"/>
+      <c r="E77" s="265"/>
+      <c r="F77" s="265"/>
+      <c r="G77" s="265"/>
+      <c r="H77" s="265"/>
+      <c r="I77" s="265"/>
+      <c r="J77" s="265"/>
+      <c r="K77" s="265"/>
+      <c r="L77" s="265"/>
+      <c r="M77" s="266"/>
+    </row>
+    <row r="78" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="1">
         <f>MAX(B$11:B77)+1</f>
         <v>44</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="28" t="s">
+      <c r="C78" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="240" t="s">
-        <v>128</v>
-      </c>
-      <c r="L78" s="216"/>
-      <c r="M78" s="29"/>
-    </row>
-    <row r="79" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="260" t="s">
+        <v>211</v>
+      </c>
+      <c r="L78" s="220"/>
+      <c r="M78" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <f>MAX(B$11:B78)+1</f>
         <v>45</v>
       </c>
-      <c r="C79" s="48" t="s">
-        <v>164</v>
+      <c r="C79" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="25"/>
@@ -24087,45 +24167,45 @@
       <c r="G79" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="240" t="s">
-        <v>162</v>
-      </c>
-      <c r="L79" s="216"/>
+      <c r="K79" s="245" t="s">
+        <v>128</v>
+      </c>
+      <c r="L79" s="220"/>
       <c r="M79" s="29"/>
     </row>
-    <row r="80" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="1">
         <f>MAX(B$11:B79)+1</f>
         <v>46</v>
       </c>
-      <c r="C80" s="27" t="s">
-        <v>126</v>
+      <c r="C80" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="D80" s="28"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="28" t="s">
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="240" t="s">
-        <v>129</v>
-      </c>
-      <c r="L80" s="216"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="245" t="s">
+        <v>162</v>
+      </c>
+      <c r="L80" s="220"/>
       <c r="M80" s="29"/>
     </row>
-    <row r="81" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
         <f>MAX(B$11:B80)+1</f>
         <v>47</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="34"/>
@@ -24136,104 +24216,104 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="240" t="s">
-        <v>347</v>
-      </c>
-      <c r="L81" s="216"/>
-      <c r="M81" s="49"/>
-    </row>
-    <row r="82" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K81" s="245" t="s">
+        <v>129</v>
+      </c>
+      <c r="L81" s="220"/>
+      <c r="M81" s="29"/>
+    </row>
+    <row r="82" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <f>MAX(B$11:B81)+1</f>
         <v>48</v>
       </c>
-      <c r="C82" s="133" t="s">
+      <c r="C82" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="245" t="s">
+        <v>347</v>
+      </c>
+      <c r="L82" s="220"/>
+      <c r="M82" s="49"/>
+    </row>
+    <row r="83" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1">
+        <f>MAX(B$11:B82)+1</f>
+        <v>49</v>
+      </c>
+      <c r="C83" s="133" t="s">
         <v>401</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="134"/>
-      <c r="I82" s="28" t="s">
+      <c r="D83" s="28"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J82" s="25"/>
-      <c r="K82" s="240" t="s">
+      <c r="J83" s="25"/>
+      <c r="K83" s="245" t="s">
         <v>400</v>
       </c>
-      <c r="L82" s="216"/>
-      <c r="M82" s="29"/>
-    </row>
-    <row r="83" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B83" s="1"/>
-      <c r="C83" s="259" t="s">
+      <c r="L83" s="220"/>
+      <c r="M83" s="29"/>
+    </row>
+    <row r="84" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B84" s="1"/>
+      <c r="C84" s="264" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="260"/>
-      <c r="E83" s="260"/>
-      <c r="F83" s="260"/>
-      <c r="G83" s="260"/>
-      <c r="H83" s="260"/>
-      <c r="I83" s="260"/>
-      <c r="J83" s="260"/>
-      <c r="K83" s="260"/>
-      <c r="L83" s="260"/>
-      <c r="M83" s="261"/>
-    </row>
-    <row r="84" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="1">
-        <f>MAX(B$14:B83)+1</f>
-        <v>49</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="237" t="s">
-        <v>391</v>
-      </c>
-      <c r="L84" s="257"/>
-      <c r="M84" s="29"/>
-    </row>
-    <row r="85" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="265"/>
+      <c r="E84" s="265"/>
+      <c r="F84" s="265"/>
+      <c r="G84" s="265"/>
+      <c r="H84" s="265"/>
+      <c r="I84" s="265"/>
+      <c r="J84" s="265"/>
+      <c r="K84" s="265"/>
+      <c r="L84" s="265"/>
+      <c r="M84" s="266"/>
+    </row>
+    <row r="85" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <f>MAX(B$14:B84)+1</f>
         <v>50</v>
       </c>
       <c r="C85" s="68" t="s">
-        <v>212</v>
+        <v>392</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="215" t="s">
-        <v>218</v>
-      </c>
-      <c r="L85" s="258"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="241" t="s">
+        <v>391</v>
+      </c>
+      <c r="L85" s="262"/>
       <c r="M85" s="29"/>
     </row>
-    <row r="86" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <f>MAX(B$14:B85)+1</f>
         <v>51</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>214</v>
+      <c r="C86" s="68" t="s">
+        <v>212</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>8</v>
@@ -24244,23 +24324,21 @@
       <c r="H86" s="35"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="255" t="s">
-        <v>387</v>
-      </c>
-      <c r="L86" s="258"/>
-      <c r="M86" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="32">
+      <c r="K86" s="219" t="s">
+        <v>218</v>
+      </c>
+      <c r="L86" s="263"/>
+      <c r="M86" s="29"/>
+    </row>
+    <row r="87" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="1">
         <f>MAX(B$14:B86)+1</f>
         <v>52</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D87" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="34"/>
@@ -24269,15 +24347,40 @@
       <c r="H87" s="35"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="256" t="s">
+      <c r="K87" s="260" t="s">
+        <v>387</v>
+      </c>
+      <c r="L87" s="263"/>
+      <c r="M87" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="32">
+        <f>MAX(B$14:B87)+1</f>
+        <v>53</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="261" t="s">
         <v>219</v>
       </c>
-      <c r="L87" s="233"/>
-      <c r="M87" s="29"/>
+      <c r="L88" s="237"/>
+      <c r="M88" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:M87"/>
-  <mergeCells count="91">
+  <autoFilter ref="B12:M88"/>
+  <mergeCells count="92">
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
@@ -24288,6 +24391,7 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -24299,7 +24403,7 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -24314,67 +24418,67 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K75:L75"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:M68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M58:M69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K88:L88"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C84:M84"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C77:M77"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="C58:C69"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K81:L81"/>
     <mergeCell ref="K82:L82"/>
-    <mergeCell ref="C83:M83"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="C76:M76"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="B57:B68"/>
-    <mergeCell ref="C57:C68"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K77:L77"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="K77" r:id="rId1"/>
+    <hyperlink ref="K78" r:id="rId1"/>
     <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K86" r:id="rId3"/>
+    <hyperlink ref="K87" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="66" fitToHeight="0" orientation="landscape" r:id="rId4"/>
@@ -24382,9 +24486,9 @@
     <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_8_(Web・AP) &amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="35" max="12" man="1"/>
-    <brk id="55" max="13" man="1"/>
-    <brk id="75" max="12" man="1"/>
+    <brk id="36" max="12" man="1"/>
+    <brk id="56" max="13" man="1"/>
+    <brk id="76" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
+++ b/asset/Learn_ja/ITA-サーバ分散型HA構成インストールマニュアル.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0F817B-03BC-429C-8094-739B5500B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A301B88-696D-4941-A7E0-0914DA646041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="774" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="26" r:id="rId1"/>
@@ -13501,6 +13501,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13531,6 +13537,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13579,14 +13594,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13597,23 +13618,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13621,108 +13708,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -13732,8 +13747,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13741,77 +13771,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14810,7 +14810,7 @@
   </sheetPr>
   <dimension ref="B71:AB123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14879,22 +14879,22 @@
       <c r="J73" s="102"/>
       <c r="K73" s="102"/>
       <c r="L73" s="102"/>
-      <c r="M73" s="186"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="187"/>
-      <c r="P73" s="187"/>
-      <c r="Q73" s="187"/>
-      <c r="R73" s="187"/>
-      <c r="S73" s="187"/>
-      <c r="T73" s="187"/>
-      <c r="U73" s="186"/>
-      <c r="V73" s="187"/>
-      <c r="W73" s="187"/>
-      <c r="X73" s="187"/>
-      <c r="Y73" s="187"/>
-      <c r="Z73" s="187"/>
-      <c r="AA73" s="187"/>
-      <c r="AB73" s="187"/>
+      <c r="M73" s="188"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="189"/>
+      <c r="P73" s="189"/>
+      <c r="Q73" s="189"/>
+      <c r="R73" s="189"/>
+      <c r="S73" s="189"/>
+      <c r="T73" s="189"/>
+      <c r="U73" s="188"/>
+      <c r="V73" s="189"/>
+      <c r="W73" s="189"/>
+      <c r="X73" s="189"/>
+      <c r="Y73" s="189"/>
+      <c r="Z73" s="189"/>
+      <c r="AA73" s="189"/>
+      <c r="AB73" s="189"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="F74" s="17"/>
@@ -15093,29 +15093,29 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="64"/>
-      <c r="C86" s="190" t="s">
+      <c r="C86" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="D86" s="194" t="s">
+      <c r="D86" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="E86" s="188" t="s">
+      <c r="E86" s="190" t="s">
         <v>293</v>
       </c>
-      <c r="F86" s="191" t="s">
+      <c r="F86" s="193" t="s">
         <v>193</v>
       </c>
-      <c r="G86" s="192"/>
-      <c r="H86" s="192"/>
-      <c r="I86" s="192"/>
-      <c r="J86" s="193"/>
+      <c r="G86" s="194"/>
+      <c r="H86" s="194"/>
+      <c r="I86" s="194"/>
+      <c r="J86" s="195"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="64"/>
-      <c r="C87" s="190"/>
-      <c r="D87" s="195"/>
-      <c r="E87" s="189"/>
+      <c r="C87" s="192"/>
+      <c r="D87" s="197"/>
+      <c r="E87" s="191"/>
       <c r="F87" s="97" t="s">
         <v>198</v>
       </c>
@@ -15883,37 +15883,37 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(外部ストレージ)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="207"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4"/>
@@ -15988,32 +15988,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="211" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="204" t="s">
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="209" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="203" t="s">
+      <c r="F9" s="208" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="196" t="s">
+      <c r="G9" s="208"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="201" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="205"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="210"/>
       <c r="F10" s="75" t="s">
         <v>228</v>
       </c>
@@ -16035,14 +16035,14 @@
       <c r="L10" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="M10" s="197"/>
+      <c r="M10" s="202"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="198" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="58">
         <v>777</v>
       </c>
@@ -16066,11 +16066,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="200"/>
       <c r="E12" s="58">
         <v>777</v>
       </c>
@@ -16094,11 +16094,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="200"/>
       <c r="E13" s="58">
         <v>777</v>
       </c>
@@ -16122,11 +16122,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="198" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="58">
         <v>777</v>
       </c>
@@ -16148,11 +16148,11 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="198" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
       <c r="E15" s="58">
         <v>777</v>
       </c>
@@ -16170,11 +16170,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="58">
         <v>777</v>
       </c>
@@ -16194,11 +16194,11 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="200"/>
       <c r="E17" s="58">
         <v>777</v>
       </c>
@@ -16218,11 +16218,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="198" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="58">
         <v>777</v>
       </c>
@@ -16242,11 +16242,11 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="212" t="s">
+      <c r="B19" s="198" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="58">
         <v>755</v>
       </c>
@@ -16266,11 +16266,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="58">
         <v>755</v>
       </c>
@@ -16290,11 +16290,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
       <c r="E21" s="58">
         <v>755</v>
       </c>
@@ -16314,11 +16314,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="198" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
       <c r="E22" s="58">
         <v>755</v>
       </c>
@@ -16338,11 +16338,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="212" t="s">
+      <c r="B23" s="198" t="s">
         <v>440</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="58">
         <v>755</v>
       </c>
@@ -16360,11 +16360,11 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="200"/>
       <c r="E24" s="58">
         <v>777</v>
       </c>
@@ -16397,6 +16397,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -16406,17 +16417,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16465,17 +16465,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19" t="s">
         <v>161</v>
       </c>
@@ -16483,18 +16483,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(DBMS)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="54" t="s">
         <v>162</v>
       </c>
@@ -16592,32 +16592,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="241" t="s">
+      <c r="C10" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="243" t="s">
+      <c r="D10" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="249" t="s">
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="250"/>
-      <c r="M10" s="247" t="s">
+      <c r="L10" s="226"/>
+      <c r="M10" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="240"/>
-      <c r="C11" s="242"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="236"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -16639,9 +16639,9 @@
       <c r="J11" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="248"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="228"/>
+      <c r="M11" s="221"/>
     </row>
     <row r="12" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
@@ -16655,8 +16655,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="227"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="230"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -16664,22 +16664,22 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="215" t="s">
+      <c r="D13" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="220" t="s">
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="231" t="s">
         <v>459</v>
       </c>
-      <c r="L13" s="223"/>
+      <c r="L13" s="232"/>
       <c r="M13" s="16" t="s">
         <v>454</v>
       </c>
@@ -16689,18 +16689,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="245"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="220" t="s">
+      <c r="C14" s="218"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16708,18 +16708,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="220" t="s">
+      <c r="C15" s="219"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="223"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -16734,8 +16734,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="147"/>
       <c r="J16" s="147"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="227"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="230"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16755,10 +16755,10 @@
       <c r="H17" s="73"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="220" t="s">
+      <c r="K17" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="223"/>
+      <c r="L17" s="232"/>
       <c r="M17" s="27" t="s">
         <v>96</v>
       </c>
@@ -16775,8 +16775,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="147"/>
       <c r="J18" s="147"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="227"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="230"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16796,95 +16796,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="222" t="s">
+      <c r="K19" s="248" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="223"/>
+      <c r="L19" s="232"/>
       <c r="M19" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="286">
+      <c r="B20" s="239">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="236" t="s">
+      <c r="C20" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="215" t="s">
+      <c r="D20" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="220" t="s">
+      <c r="E20" s="222"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L20" s="223"/>
-      <c r="M20" s="231"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="245"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="287">
+      <c r="B21" s="240">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="218"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="243"/>
       <c r="K21" s="84" t="s">
         <v>266</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="M21" s="232"/>
+      <c r="M21" s="246"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="287">
+      <c r="B22" s="240">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="237"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="243"/>
+      <c r="H22" s="243"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="243"/>
       <c r="K22" s="86" t="s">
         <v>173</v>
       </c>
       <c r="L22" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="232"/>
+      <c r="M22" s="246"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="287">
+      <c r="B23" s="240">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="233"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="247"/>
     </row>
     <row r="24" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -16919,10 +16919,10 @@
       <c r="H25" s="73"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="220" t="s">
+      <c r="K25" s="231" t="s">
         <v>417</v>
       </c>
-      <c r="L25" s="221"/>
+      <c r="L25" s="249"/>
       <c r="M25" s="27" t="s">
         <v>418</v>
       </c>
@@ -16932,7 +16932,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="236" t="s">
+      <c r="C26" s="217" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="73" t="s">
@@ -16944,10 +16944,10 @@
       <c r="H26" s="73"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="220" t="s">
+      <c r="K26" s="231" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="221"/>
+      <c r="L26" s="249"/>
       <c r="M26" s="27" t="s">
         <v>112</v>
       </c>
@@ -16957,7 +16957,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="245"/>
+      <c r="C27" s="218"/>
       <c r="D27" s="73" t="s">
         <v>8</v>
       </c>
@@ -16967,10 +16967,10 @@
       <c r="H27" s="73"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="220" t="s">
+      <c r="K27" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="L27" s="221"/>
+      <c r="L27" s="249"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16978,7 +16978,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="246"/>
+      <c r="C28" s="219"/>
       <c r="D28" s="73" t="s">
         <v>8</v>
       </c>
@@ -16988,10 +16988,10 @@
       <c r="H28" s="73"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="220" t="s">
+      <c r="K28" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="221"/>
+      <c r="L28" s="249"/>
       <c r="M28" s="27" t="s">
         <v>114</v>
       </c>
@@ -17013,10 +17013,10 @@
       <c r="H29" s="35"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="220" t="s">
+      <c r="K29" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="L29" s="221"/>
+      <c r="L29" s="249"/>
       <c r="M29" s="183"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17030,17 +17030,17 @@
       <c r="D30" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
       <c r="G30" s="182"/>
       <c r="H30" s="182"/>
-      <c r="I30" s="288"/>
-      <c r="J30" s="288"/>
-      <c r="K30" s="229" t="s">
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="230"/>
-      <c r="M30" s="289" t="s">
+      <c r="L30" s="252"/>
+      <c r="M30" s="187" t="s">
         <v>368</v>
       </c>
     </row>
@@ -17061,10 +17061,10 @@
       <c r="H31" s="172"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="229" t="s">
+      <c r="K31" s="251" t="s">
         <v>419</v>
       </c>
-      <c r="L31" s="230"/>
+      <c r="L31" s="252"/>
       <c r="M31" s="176"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17084,10 +17084,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="220" t="s">
+      <c r="K32" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="221"/>
+      <c r="L32" s="249"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -17102,8 +17102,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="147"/>
       <c r="J33" s="147"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="227"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="230"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17123,10 +17123,10 @@
       <c r="H34" s="73"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="228" t="s">
+      <c r="K34" s="250" t="s">
         <v>236</v>
       </c>
-      <c r="L34" s="223"/>
+      <c r="L34" s="232"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17146,10 +17146,10 @@
       <c r="H35" s="73"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="228" t="s">
+      <c r="K35" s="250" t="s">
         <v>237</v>
       </c>
-      <c r="L35" s="223"/>
+      <c r="L35" s="232"/>
       <c r="M35" s="129" t="s">
         <v>369</v>
       </c>
@@ -17171,10 +17171,10 @@
       <c r="H36" s="73"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="228" t="s">
+      <c r="K36" s="250" t="s">
         <v>238</v>
       </c>
-      <c r="L36" s="223"/>
+      <c r="L36" s="232"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17194,10 +17194,10 @@
       <c r="H37" s="73"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="228" t="s">
+      <c r="K37" s="250" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="223"/>
+      <c r="L37" s="232"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17217,10 +17217,10 @@
       <c r="H38" s="73"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="220" t="s">
+      <c r="K38" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="223"/>
+      <c r="L38" s="232"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17240,10 +17240,10 @@
       <c r="H39" s="73"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="220" t="s">
+      <c r="K39" s="231" t="s">
         <v>393</v>
       </c>
-      <c r="L39" s="223"/>
+      <c r="L39" s="232"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17263,10 +17263,10 @@
       <c r="H40" s="73"/>
       <c r="I40" s="25"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="220" t="s">
+      <c r="K40" s="231" t="s">
         <v>394</v>
       </c>
-      <c r="L40" s="221"/>
+      <c r="L40" s="249"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17286,10 +17286,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="220" t="s">
+      <c r="K41" s="231" t="s">
         <v>395</v>
       </c>
-      <c r="L41" s="221"/>
+      <c r="L41" s="249"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17309,10 +17309,10 @@
       <c r="H42" s="74"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="224" t="s">
+      <c r="K42" s="253" t="s">
         <v>396</v>
       </c>
-      <c r="L42" s="225"/>
+      <c r="L42" s="254"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17334,10 +17334,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="220" t="s">
+      <c r="K43" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="L43" s="221"/>
+      <c r="L43" s="249"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17357,10 +17357,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="220" t="s">
+      <c r="K44" s="231" t="s">
         <v>398</v>
       </c>
-      <c r="L44" s="221"/>
+      <c r="L44" s="249"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17380,10 +17380,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="34"/>
-      <c r="K45" s="220" t="s">
+      <c r="K45" s="231" t="s">
         <v>399</v>
       </c>
-      <c r="L45" s="221"/>
+      <c r="L45" s="249"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17403,15 +17403,57 @@
       <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="220" t="s">
+      <c r="K46" s="231" t="s">
         <v>430</v>
       </c>
-      <c r="L46" s="221"/>
+      <c r="L46" s="249"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:M46" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="58">
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="C13:C15"/>
@@ -17428,48 +17470,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17493,7 +17493,7 @@
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14:L14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -17522,17 +17522,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -17540,18 +17540,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(backyard)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -17665,32 +17665,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="249" t="s">
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="250"/>
-      <c r="M11" s="247" t="s">
+      <c r="L11" s="226"/>
+      <c r="M11" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="242"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -17712,9 +17712,9 @@
       <c r="J12" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="248"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -17728,8 +17728,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="226"/>
-      <c r="L13" s="227"/>
+      <c r="K13" s="229"/>
+      <c r="L13" s="230"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -17737,22 +17737,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="215" t="s">
+      <c r="D14" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="220" t="s">
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="231" t="s">
         <v>459</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="16" t="s">
         <v>454</v>
       </c>
@@ -17762,18 +17762,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="220" t="s">
+      <c r="C15" s="218"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="L15" s="223"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17781,18 +17781,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="220" t="s">
+      <c r="C16" s="219"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="221"/>
+      <c r="L16" s="249"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -17828,10 +17828,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="220" t="s">
+      <c r="K18" s="231" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="221"/>
+      <c r="L18" s="249"/>
       <c r="M18" s="27" t="s">
         <v>96</v>
       </c>
@@ -17869,10 +17869,10 @@
       <c r="H20" s="150"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="220" t="s">
+      <c r="K20" s="231" t="s">
         <v>444</v>
       </c>
-      <c r="L20" s="221"/>
+      <c r="L20" s="249"/>
       <c r="M20" s="154" t="s">
         <v>445</v>
       </c>
@@ -17910,10 +17910,10 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="220" t="s">
+      <c r="K22" s="231" t="s">
         <v>347</v>
       </c>
-      <c r="L22" s="223"/>
+      <c r="L22" s="232"/>
       <c r="M22" s="27" t="s">
         <v>420</v>
       </c>
@@ -17935,10 +17935,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="220" t="s">
+      <c r="K23" s="231" t="s">
         <v>446</v>
       </c>
-      <c r="L23" s="221"/>
+      <c r="L23" s="249"/>
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17958,10 +17958,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="220" t="s">
+      <c r="K24" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="223"/>
+      <c r="L24" s="232"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17981,10 +17981,10 @@
       <c r="H25" s="35"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
-      <c r="K25" s="220" t="s">
+      <c r="K25" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="L25" s="223"/>
+      <c r="L25" s="232"/>
       <c r="M25" s="177" t="s">
         <v>350</v>
       </c>
@@ -17994,22 +17994,22 @@
         <f>MAX(B$11:B25)+1</f>
         <v>10</v>
       </c>
-      <c r="C26" s="245" t="s">
+      <c r="C26" s="218" t="s">
         <v>448</v>
       </c>
-      <c r="D26" s="216" t="s">
+      <c r="D26" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="229" t="s">
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="253"/>
+      <c r="L26" s="259"/>
       <c r="M26" s="176"/>
     </row>
     <row r="27" spans="2:13" ht="92.4" x14ac:dyDescent="0.2">
@@ -18017,18 +18017,18 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="220" t="s">
+      <c r="C27" s="219"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="231" t="s">
         <v>447</v>
       </c>
-      <c r="L27" s="254"/>
+      <c r="L27" s="260"/>
       <c r="M27" s="167" t="s">
         <v>449</v>
       </c>
@@ -18050,10 +18050,10 @@
         <v>8</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="220" t="s">
+      <c r="K28" s="231" t="s">
         <v>450</v>
       </c>
-      <c r="L28" s="223"/>
+      <c r="L28" s="232"/>
       <c r="M28" s="170" t="s">
         <v>452</v>
       </c>
@@ -18070,8 +18070,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="147"/>
       <c r="J29" s="147"/>
-      <c r="K29" s="226"/>
-      <c r="L29" s="227"/>
+      <c r="K29" s="229"/>
+      <c r="L29" s="230"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18091,10 +18091,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="146"/>
-      <c r="K30" s="220" t="s">
+      <c r="K30" s="231" t="s">
         <v>305</v>
       </c>
-      <c r="L30" s="221"/>
+      <c r="L30" s="249"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18114,10 +18114,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="146"/>
-      <c r="K31" s="220" t="s">
+      <c r="K31" s="231" t="s">
         <v>306</v>
       </c>
-      <c r="L31" s="221"/>
+      <c r="L31" s="249"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18137,10 +18137,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="35"/>
-      <c r="K32" s="220" t="s">
+      <c r="K32" s="231" t="s">
         <v>307</v>
       </c>
-      <c r="L32" s="221"/>
+      <c r="L32" s="249"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -18155,8 +18155,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="147"/>
       <c r="J33" s="147"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="227"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="230"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18176,10 +18176,10 @@
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="228" t="s">
+      <c r="K34" s="250" t="s">
         <v>248</v>
       </c>
-      <c r="L34" s="223"/>
+      <c r="L34" s="232"/>
       <c r="M34" s="129" t="s">
         <v>370</v>
       </c>
@@ -18201,18 +18201,18 @@
       <c r="H35" s="77"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="228" t="s">
+      <c r="K35" s="250" t="s">
         <v>439</v>
       </c>
-      <c r="L35" s="223"/>
+      <c r="L35" s="232"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="234">
+      <c r="B36" s="255">
         <f>MAX(B$11:B35)+1</f>
         <v>18</v>
       </c>
-      <c r="C36" s="236" t="s">
+      <c r="C36" s="217" t="s">
         <v>168</v>
       </c>
       <c r="D36" s="158"/>
@@ -18222,15 +18222,15 @@
       <c r="H36" s="159"/>
       <c r="I36" s="159"/>
       <c r="J36" s="160"/>
-      <c r="K36" s="220" t="s">
+      <c r="K36" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L36" s="223"/>
-      <c r="M36" s="231"/>
+      <c r="L36" s="232"/>
+      <c r="M36" s="245"/>
     </row>
     <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="218"/>
-      <c r="C37" s="237"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="179"/>
       <c r="E37" s="161"/>
       <c r="F37" s="161"/>
@@ -18244,11 +18244,11 @@
       <c r="L37" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="M37" s="232"/>
+      <c r="M37" s="246"/>
     </row>
     <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="218"/>
-      <c r="C38" s="237"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="241"/>
       <c r="D38" s="28" t="s">
         <v>8</v>
       </c>
@@ -18264,11 +18264,11 @@
       <c r="L38" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="M38" s="232"/>
+      <c r="M38" s="246"/>
     </row>
     <row r="39" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="218"/>
-      <c r="C39" s="237"/>
+      <c r="B39" s="243"/>
+      <c r="C39" s="241"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
@@ -18284,11 +18284,11 @@
       <c r="L39" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="M39" s="232"/>
+      <c r="M39" s="246"/>
     </row>
     <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="218"/>
-      <c r="C40" s="237"/>
+      <c r="B40" s="243"/>
+      <c r="C40" s="241"/>
       <c r="D40" s="28" t="s">
         <v>8</v>
       </c>
@@ -18304,11 +18304,11 @@
       <c r="L40" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="M40" s="232"/>
+      <c r="M40" s="246"/>
     </row>
     <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="218"/>
-      <c r="C41" s="237"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="241"/>
       <c r="D41" s="28" t="s">
         <v>8</v>
       </c>
@@ -18324,11 +18324,11 @@
       <c r="L41" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="M41" s="232"/>
+      <c r="M41" s="246"/>
     </row>
     <row r="42" spans="2:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="218"/>
-      <c r="C42" s="237"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="241"/>
       <c r="D42" s="28" t="s">
         <v>8</v>
       </c>
@@ -18344,11 +18344,11 @@
       <c r="L42" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="M42" s="232"/>
+      <c r="M42" s="246"/>
     </row>
     <row r="43" spans="2:13" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="218"/>
-      <c r="C43" s="237"/>
+      <c r="B43" s="243"/>
+      <c r="C43" s="241"/>
       <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
@@ -18364,11 +18364,11 @@
       <c r="L43" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="M43" s="232"/>
+      <c r="M43" s="246"/>
     </row>
     <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="218"/>
-      <c r="C44" s="237"/>
+      <c r="B44" s="243"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="28" t="s">
         <v>8</v>
       </c>
@@ -18384,11 +18384,11 @@
       <c r="L44" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="M44" s="232"/>
+      <c r="M44" s="246"/>
     </row>
     <row r="45" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="218"/>
-      <c r="C45" s="237"/>
+      <c r="B45" s="243"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="28" t="s">
         <v>8</v>
       </c>
@@ -18404,11 +18404,11 @@
       <c r="L45" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="M45" s="232"/>
+      <c r="M45" s="246"/>
     </row>
     <row r="46" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="218"/>
-      <c r="C46" s="237"/>
+      <c r="B46" s="243"/>
+      <c r="C46" s="241"/>
       <c r="D46" s="178"/>
       <c r="E46" s="178"/>
       <c r="F46" s="178"/>
@@ -18424,11 +18424,11 @@
       <c r="L46" s="91" t="s">
         <v>442</v>
       </c>
-      <c r="M46" s="232"/>
+      <c r="M46" s="246"/>
     </row>
     <row r="47" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="219"/>
-      <c r="C47" s="238"/>
+      <c r="B47" s="244"/>
+      <c r="C47" s="242"/>
       <c r="D47" s="163"/>
       <c r="E47" s="174"/>
       <c r="F47" s="174"/>
@@ -18436,9 +18436,9 @@
       <c r="H47" s="174"/>
       <c r="I47" s="174"/>
       <c r="J47" s="173"/>
-      <c r="K47" s="220"/>
-      <c r="L47" s="223"/>
-      <c r="M47" s="233"/>
+      <c r="K47" s="231"/>
+      <c r="L47" s="232"/>
+      <c r="M47" s="247"/>
     </row>
     <row r="48" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="180">
@@ -18457,10 +18457,10 @@
       <c r="H48" s="172"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="229" t="s">
+      <c r="K48" s="251" t="s">
         <v>308</v>
       </c>
-      <c r="L48" s="230"/>
+      <c r="L48" s="252"/>
       <c r="M48" s="36"/>
     </row>
     <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -18480,10 +18480,10 @@
       <c r="H49" s="24"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="220" t="s">
+      <c r="K49" s="231" t="s">
         <v>309</v>
       </c>
-      <c r="L49" s="221"/>
+      <c r="L49" s="249"/>
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18503,10 +18503,10 @@
       <c r="H50" s="28"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="220" t="s">
+      <c r="K50" s="231" t="s">
         <v>339</v>
       </c>
-      <c r="L50" s="221"/>
+      <c r="L50" s="249"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18526,10 +18526,10 @@
       <c r="H51" s="28"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="220" t="s">
+      <c r="K51" s="231" t="s">
         <v>340</v>
       </c>
-      <c r="L51" s="221"/>
+      <c r="L51" s="249"/>
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18549,10 +18549,10 @@
       <c r="H52" s="28"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="220" t="s">
+      <c r="K52" s="231" t="s">
         <v>341</v>
       </c>
-      <c r="L52" s="221"/>
+      <c r="L52" s="249"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18572,10 +18572,10 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="255" t="s">
+      <c r="K53" s="256" t="s">
         <v>310</v>
       </c>
-      <c r="L53" s="221"/>
+      <c r="L53" s="249"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18595,10 +18595,10 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="45"/>
-      <c r="K54" s="255" t="s">
+      <c r="K54" s="256" t="s">
         <v>311</v>
       </c>
-      <c r="L54" s="221"/>
+      <c r="L54" s="249"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18618,10 +18618,10 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="45"/>
-      <c r="K55" s="255" t="s">
+      <c r="K55" s="256" t="s">
         <v>312</v>
       </c>
-      <c r="L55" s="221"/>
+      <c r="L55" s="249"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18641,10 +18641,10 @@
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
-      <c r="K56" s="255" t="s">
+      <c r="K56" s="256" t="s">
         <v>313</v>
       </c>
-      <c r="L56" s="221"/>
+      <c r="L56" s="249"/>
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18664,10 +18664,10 @@
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="255" t="s">
+      <c r="K57" s="256" t="s">
         <v>314</v>
       </c>
-      <c r="L57" s="221"/>
+      <c r="L57" s="249"/>
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18687,10 +18687,10 @@
         <v>8</v>
       </c>
       <c r="J58" s="25"/>
-      <c r="K58" s="255" t="s">
+      <c r="K58" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="L58" s="221"/>
+      <c r="L58" s="249"/>
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18710,10 +18710,10 @@
       <c r="J59" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="255" t="s">
+      <c r="K59" s="256" t="s">
         <v>432</v>
       </c>
-      <c r="L59" s="221"/>
+      <c r="L59" s="249"/>
       <c r="M59" s="46"/>
     </row>
     <row r="60" spans="2:13" ht="79.2" x14ac:dyDescent="0.2">
@@ -18733,10 +18733,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="220" t="s">
+      <c r="K60" s="231" t="s">
         <v>136</v>
       </c>
-      <c r="L60" s="221"/>
+      <c r="L60" s="249"/>
       <c r="M60" s="29" t="s">
         <v>107</v>
       </c>
@@ -18758,10 +18758,10 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="220" t="s">
+      <c r="K61" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="L61" s="221"/>
+      <c r="L61" s="249"/>
       <c r="M61" s="29" t="s">
         <v>97</v>
       </c>
@@ -18783,10 +18783,10 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="220" t="s">
+      <c r="K62" s="231" t="s">
         <v>138</v>
       </c>
-      <c r="L62" s="221"/>
+      <c r="L62" s="249"/>
       <c r="M62" s="29" t="s">
         <v>351</v>
       </c>
@@ -18803,8 +18803,8 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="256"/>
-      <c r="L63" s="257"/>
+      <c r="K63" s="257"/>
+      <c r="L63" s="258"/>
       <c r="M63" s="10"/>
     </row>
     <row r="64" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18824,10 +18824,10 @@
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="220" t="s">
+      <c r="K64" s="231" t="s">
         <v>139</v>
       </c>
-      <c r="L64" s="223"/>
+      <c r="L64" s="232"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18847,10 +18847,10 @@
       <c r="H65" s="24"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
-      <c r="K65" s="220" t="s">
+      <c r="K65" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="L65" s="223"/>
+      <c r="L65" s="232"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18870,10 +18870,10 @@
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
       <c r="J66" s="28"/>
-      <c r="K66" s="220" t="s">
+      <c r="K66" s="231" t="s">
         <v>411</v>
       </c>
-      <c r="L66" s="223"/>
+      <c r="L66" s="232"/>
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18893,10 +18893,10 @@
       <c r="H67" s="24"/>
       <c r="I67" s="25"/>
       <c r="J67" s="28"/>
-      <c r="K67" s="220" t="s">
+      <c r="K67" s="231" t="s">
         <v>412</v>
       </c>
-      <c r="L67" s="223"/>
+      <c r="L67" s="232"/>
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18916,10 +18916,10 @@
       <c r="H68" s="24"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="220" t="s">
+      <c r="K68" s="231" t="s">
         <v>413</v>
       </c>
-      <c r="L68" s="221"/>
+      <c r="L68" s="249"/>
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18941,10 +18941,10 @@
       <c r="H69" s="28"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="220" t="s">
+      <c r="K69" s="231" t="s">
         <v>414</v>
       </c>
-      <c r="L69" s="221"/>
+      <c r="L69" s="249"/>
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18964,10 +18964,10 @@
       </c>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="220" t="s">
+      <c r="K70" s="231" t="s">
         <v>415</v>
       </c>
-      <c r="L70" s="221"/>
+      <c r="L70" s="249"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18987,10 +18987,10 @@
         <v>8</v>
       </c>
       <c r="J71" s="34"/>
-      <c r="K71" s="220" t="s">
+      <c r="K71" s="231" t="s">
         <v>416</v>
       </c>
-      <c r="L71" s="221"/>
+      <c r="L71" s="249"/>
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -19010,10 +19010,10 @@
       <c r="J72" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="220" t="s">
+      <c r="K72" s="231" t="s">
         <v>434</v>
       </c>
-      <c r="L72" s="221"/>
+      <c r="L72" s="249"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -19033,10 +19033,10 @@
       <c r="H73" s="137"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31"/>
-      <c r="K73" s="229" t="s">
+      <c r="K73" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="L73" s="230"/>
+      <c r="L73" s="252"/>
       <c r="M73" s="36"/>
     </row>
     <row r="74" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -19056,10 +19056,10 @@
       <c r="H74" s="35"/>
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
-      <c r="K74" s="220" t="s">
+      <c r="K74" s="231" t="s">
         <v>264</v>
       </c>
-      <c r="L74" s="221"/>
+      <c r="L74" s="249"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19074,8 +19074,8 @@
       <c r="H75" s="7"/>
       <c r="I75" s="147"/>
       <c r="J75" s="147"/>
-      <c r="K75" s="226"/>
-      <c r="L75" s="227"/>
+      <c r="K75" s="229"/>
+      <c r="L75" s="230"/>
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19095,10 +19095,10 @@
       <c r="H76" s="24"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
-      <c r="K76" s="220" t="s">
+      <c r="K76" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="223"/>
+      <c r="L76" s="232"/>
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19113,8 +19113,8 @@
       <c r="H77" s="7"/>
       <c r="I77" s="147"/>
       <c r="J77" s="147"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="227"/>
+      <c r="K77" s="229"/>
+      <c r="L77" s="230"/>
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19134,10 +19134,10 @@
       <c r="H78" s="35"/>
       <c r="I78" s="34"/>
       <c r="J78" s="34"/>
-      <c r="K78" s="220" t="s">
+      <c r="K78" s="231" t="s">
         <v>158</v>
       </c>
-      <c r="L78" s="223"/>
+      <c r="L78" s="232"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19152,8 +19152,8 @@
       <c r="H79" s="7"/>
       <c r="I79" s="147"/>
       <c r="J79" s="147"/>
-      <c r="K79" s="226"/>
-      <c r="L79" s="227"/>
+      <c r="K79" s="229"/>
+      <c r="L79" s="230"/>
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
@@ -19175,10 +19175,10 @@
       <c r="J80" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="220" t="s">
+      <c r="K80" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="L80" s="223"/>
+      <c r="L80" s="232"/>
       <c r="M80" s="27" t="s">
         <v>99</v>
       </c>
@@ -19186,6 +19186,71 @@
   </sheetData>
   <autoFilter ref="B12:M80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="81">
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
     <mergeCell ref="M36:M47"/>
     <mergeCell ref="B36:B47"/>
     <mergeCell ref="C36:C47"/>
@@ -19202,71 +19267,6 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -19323,17 +19323,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -19341,18 +19341,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -19466,32 +19466,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="249" t="s">
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="250"/>
-      <c r="M11" s="247" t="s">
+      <c r="L11" s="226"/>
+      <c r="M11" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="242"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -19513,9 +19513,9 @@
       <c r="J12" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="248"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -19529,8 +19529,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="227"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="230"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -19538,22 +19538,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215" t="s">
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="220" t="s">
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="231" t="s">
         <v>459</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="16" t="s">
         <v>454</v>
       </c>
@@ -19563,18 +19563,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="220" t="s">
+      <c r="C15" s="218"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="L15" s="223"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -19582,18 +19582,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="259" t="s">
+      <c r="C16" s="219"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="223"/>
+      <c r="L16" s="232"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19608,8 +19608,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="147"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="227"/>
+      <c r="K17" s="264"/>
+      <c r="L17" s="230"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19629,10 +19629,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="259" t="s">
+      <c r="K18" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="223"/>
+      <c r="L18" s="232"/>
       <c r="M18" s="27" t="s">
         <v>96</v>
       </c>
@@ -19649,8 +19649,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="147"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="227"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="230"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19670,10 +19670,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="259" t="s">
+      <c r="K20" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="223"/>
+      <c r="L20" s="232"/>
       <c r="M20" s="27" t="s">
         <v>100</v>
       </c>
@@ -19695,10 +19695,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="259" t="s">
+      <c r="K21" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="223"/>
+      <c r="L21" s="232"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19713,8 +19713,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="147"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="227"/>
+      <c r="K22" s="264"/>
+      <c r="L22" s="230"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="184.8" x14ac:dyDescent="0.2">
@@ -19734,10 +19734,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="259" t="s">
+      <c r="K23" s="262" t="s">
         <v>352</v>
       </c>
-      <c r="L23" s="223"/>
+      <c r="L23" s="232"/>
       <c r="M23" s="27" t="s">
         <v>423</v>
       </c>
@@ -19759,10 +19759,10 @@
       <c r="H24" s="165"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="220" t="s">
+      <c r="K24" s="231" t="s">
         <v>446</v>
       </c>
-      <c r="L24" s="221"/>
+      <c r="L24" s="249"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -19782,10 +19782,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="259" t="s">
+      <c r="K25" s="262" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="223"/>
+      <c r="L25" s="232"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -19805,10 +19805,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="220" t="s">
+      <c r="K26" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="L26" s="223"/>
+      <c r="L26" s="232"/>
       <c r="M26" s="27" t="s">
         <v>350</v>
       </c>
@@ -19818,22 +19818,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="236" t="s">
+      <c r="C27" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215" t="s">
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="220" t="s">
+      <c r="H27" s="222"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="254"/>
+      <c r="L27" s="260"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="92.4" x14ac:dyDescent="0.2">
@@ -19841,18 +19841,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="220" t="s">
+      <c r="C28" s="219"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="231" t="s">
         <v>447</v>
       </c>
-      <c r="L28" s="254"/>
+      <c r="L28" s="260"/>
       <c r="M28" s="167" t="s">
         <v>449</v>
       </c>
@@ -19869,8 +19869,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="147"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="227"/>
+      <c r="K29" s="264"/>
+      <c r="L29" s="230"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19890,10 +19890,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="259" t="s">
+      <c r="K30" s="262" t="s">
         <v>317</v>
       </c>
-      <c r="L30" s="223"/>
+      <c r="L30" s="232"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19913,10 +19913,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="259" t="s">
+      <c r="K31" s="262" t="s">
         <v>316</v>
       </c>
-      <c r="L31" s="223"/>
+      <c r="L31" s="232"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19936,10 +19936,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="259" t="s">
+      <c r="K32" s="262" t="s">
         <v>315</v>
       </c>
-      <c r="L32" s="223"/>
+      <c r="L32" s="232"/>
       <c r="M32" s="177"/>
     </row>
     <row r="33" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -19954,8 +19954,8 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="260"/>
-      <c r="L33" s="257"/>
+      <c r="K33" s="265"/>
+      <c r="L33" s="258"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19975,10 +19975,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="259" t="s">
+      <c r="K34" s="262" t="s">
         <v>362</v>
       </c>
-      <c r="L34" s="223"/>
+      <c r="L34" s="232"/>
       <c r="M34" s="29" t="s">
         <v>357</v>
       </c>
@@ -20000,10 +20000,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="259" t="s">
+      <c r="K35" s="262" t="s">
         <v>359</v>
       </c>
-      <c r="L35" s="223"/>
+      <c r="L35" s="232"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20023,10 +20023,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="261" t="s">
+      <c r="K36" s="266" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="262"/>
+      <c r="L36" s="267"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -20041,8 +20041,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="147"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="227"/>
+      <c r="K37" s="264"/>
+      <c r="L37" s="230"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -20062,10 +20062,10 @@
       <c r="H38" s="24"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="259" t="s">
+      <c r="K38" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="L38" s="223"/>
+      <c r="L38" s="232"/>
       <c r="M38" s="129" t="s">
         <v>370</v>
       </c>
@@ -20087,84 +20087,84 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="259" t="s">
+      <c r="K39" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="L39" s="223"/>
+      <c r="L39" s="232"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="234">
+      <c r="B40" s="255">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="236" t="s">
+      <c r="C40" s="217" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215" t="s">
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="220" t="s">
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L40" s="223"/>
-      <c r="M40" s="231"/>
+      <c r="L40" s="232"/>
+      <c r="M40" s="245"/>
     </row>
     <row r="41" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="218"/>
-      <c r="C41" s="237"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="218"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="243"/>
+      <c r="F41" s="243"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="243"/>
+      <c r="I41" s="243"/>
+      <c r="J41" s="243"/>
       <c r="K41" s="84" t="s">
         <v>260</v>
       </c>
       <c r="L41" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="M41" s="232"/>
+      <c r="M41" s="246"/>
     </row>
     <row r="42" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="218"/>
-      <c r="C42" s="237"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="243"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="243"/>
+      <c r="H42" s="243"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="243"/>
       <c r="K42" s="86" t="s">
         <v>278</v>
       </c>
       <c r="L42" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="M42" s="232"/>
+      <c r="M42" s="246"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="235"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="244"/>
+      <c r="E43" s="244"/>
+      <c r="F43" s="244"/>
+      <c r="G43" s="244"/>
+      <c r="H43" s="244"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="244"/>
       <c r="K43" s="81"/>
       <c r="L43" s="83"/>
-      <c r="M43" s="233"/>
+      <c r="M43" s="247"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -20183,10 +20183,10 @@
       <c r="H44" s="24"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="259" t="s">
+      <c r="K44" s="262" t="s">
         <v>318</v>
       </c>
-      <c r="L44" s="223"/>
+      <c r="L44" s="232"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20206,10 +20206,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="259" t="s">
+      <c r="K45" s="262" t="s">
         <v>319</v>
       </c>
-      <c r="L45" s="223"/>
+      <c r="L45" s="232"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -20229,10 +20229,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="259" t="s">
+      <c r="K46" s="262" t="s">
         <v>320</v>
       </c>
-      <c r="L46" s="223"/>
+      <c r="L46" s="232"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20252,10 +20252,10 @@
       <c r="H47" s="28"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="259" t="s">
+      <c r="K47" s="262" t="s">
         <v>321</v>
       </c>
-      <c r="L47" s="223"/>
+      <c r="L47" s="232"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20275,10 +20275,10 @@
       <c r="H48" s="28"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="259" t="s">
+      <c r="K48" s="262" t="s">
         <v>322</v>
       </c>
-      <c r="L48" s="221"/>
+      <c r="L48" s="249"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -20293,8 +20293,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="147"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="258"/>
-      <c r="L49" s="227"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="230"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20314,10 +20314,10 @@
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="259" t="s">
+      <c r="K50" s="262" t="s">
         <v>373</v>
       </c>
-      <c r="L50" s="223"/>
+      <c r="L50" s="232"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20337,10 +20337,10 @@
       <c r="H51" s="35"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
-      <c r="K51" s="259" t="s">
+      <c r="K51" s="262" t="s">
         <v>374</v>
       </c>
-      <c r="L51" s="223"/>
+      <c r="L51" s="232"/>
       <c r="M51" s="29" t="s">
         <v>378</v>
       </c>
@@ -20365,7 +20365,7 @@
       <c r="K52" s="263" t="s">
         <v>343</v>
       </c>
-      <c r="L52" s="230"/>
+      <c r="L52" s="252"/>
       <c r="M52" s="36"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20385,10 +20385,10 @@
       <c r="H53" s="24"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="259" t="s">
+      <c r="K53" s="262" t="s">
         <v>344</v>
       </c>
-      <c r="L53" s="221"/>
+      <c r="L53" s="249"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20408,10 +20408,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="259" t="s">
+      <c r="K54" s="262" t="s">
         <v>372</v>
       </c>
-      <c r="L54" s="221"/>
+      <c r="L54" s="249"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -20431,10 +20431,10 @@
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="259" t="s">
+      <c r="K55" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="221"/>
+      <c r="L55" s="249"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -20449,8 +20449,8 @@
       <c r="H56" s="7"/>
       <c r="I56" s="147"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="258"/>
-      <c r="L56" s="227"/>
+      <c r="K56" s="264"/>
+      <c r="L56" s="230"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
@@ -20470,10 +20470,10 @@
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="259" t="s">
+      <c r="K57" s="262" t="s">
         <v>408</v>
       </c>
-      <c r="L57" s="223"/>
+      <c r="L57" s="232"/>
       <c r="M57" s="27" t="s">
         <v>409</v>
       </c>
@@ -20495,10 +20495,10 @@
       <c r="H58" s="24"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="259" t="s">
+      <c r="K58" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="223"/>
+      <c r="L58" s="232"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20518,10 +20518,10 @@
       <c r="H59" s="24"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="259" t="s">
+      <c r="K59" s="262" t="s">
         <v>323</v>
       </c>
-      <c r="L59" s="223"/>
+      <c r="L59" s="232"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20541,10 +20541,10 @@
       <c r="H60" s="24"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="259" t="s">
+      <c r="K60" s="262" t="s">
         <v>324</v>
       </c>
-      <c r="L60" s="223"/>
+      <c r="L60" s="232"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
@@ -20564,10 +20564,10 @@
       <c r="H61" s="24"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="259" t="s">
+      <c r="K61" s="262" t="s">
         <v>353</v>
       </c>
-      <c r="L61" s="221"/>
+      <c r="L61" s="249"/>
       <c r="M61" s="27" t="s">
         <v>354</v>
       </c>
@@ -20589,10 +20589,10 @@
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="259" t="s">
+      <c r="K62" s="262" t="s">
         <v>145</v>
       </c>
-      <c r="L62" s="221"/>
+      <c r="L62" s="249"/>
       <c r="M62" s="177" t="s">
         <v>101</v>
       </c>
@@ -20600,54 +20600,22 @@
   </sheetData>
   <autoFilter ref="B12:M62" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="80">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -20664,22 +20632,54 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -20731,34 +20731,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Ansible Tower)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -20886,32 +20886,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="239" t="s">
+      <c r="B12" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="241" t="s">
+      <c r="C12" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="243" t="s">
+      <c r="D12" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="249" t="s">
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="264"/>
-      <c r="M12" s="247" t="s">
+      <c r="L12" s="274"/>
+      <c r="M12" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="240"/>
-      <c r="C13" s="242"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="236"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
@@ -20933,9 +20933,9 @@
       <c r="J13" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K13" s="251"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="248"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="275"/>
+      <c r="M13" s="221"/>
     </row>
     <row r="14" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -20949,8 +20949,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="147"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="266"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="269"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20970,84 +20970,84 @@
       <c r="H15" s="50"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="259" t="s">
+      <c r="K15" s="262" t="s">
         <v>240</v>
       </c>
-      <c r="L15" s="221"/>
+      <c r="L15" s="249"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="234">
+      <c r="B16" s="255">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="268" t="s">
+      <c r="C16" s="271" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215" t="s">
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="220" t="s">
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L16" s="223"/>
-      <c r="M16" s="231"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="245"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="218"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
       <c r="K17" s="88" t="s">
         <v>261</v>
       </c>
       <c r="L17" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="M17" s="232"/>
+      <c r="M17" s="246"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="218"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
       <c r="K18" s="86" t="s">
         <v>251</v>
       </c>
       <c r="L18" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="M18" s="232"/>
+      <c r="M18" s="246"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="267"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="233"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="247"/>
     </row>
     <row r="20" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -21082,10 +21082,10 @@
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="259" t="s">
+      <c r="K21" s="262" t="s">
         <v>216</v>
       </c>
-      <c r="L21" s="221"/>
+      <c r="L21" s="249"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21105,20 +21105,22 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="259" t="s">
+      <c r="K22" s="262" t="s">
         <v>338</v>
       </c>
-      <c r="L22" s="221"/>
+      <c r="L22" s="249"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:M22" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -21130,13 +21132,11 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="I16:I19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21157,7 +21157,7 @@
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L77" sqref="L77"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14:L14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -21185,17 +21185,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19" t="s">
         <v>164</v>
       </c>
@@ -21203,18 +21203,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Cobbler)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="20" t="s">
         <v>92</v>
       </c>
@@ -21330,32 +21330,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="249" t="s">
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="250"/>
-      <c r="M11" s="247" t="s">
+      <c r="L11" s="226"/>
+      <c r="M11" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="242"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -21377,9 +21377,9 @@
       <c r="J12" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="248"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -21393,8 +21393,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="227"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="230"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -21402,22 +21402,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215" t="s">
+      <c r="D14" s="222"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="220" t="s">
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="231" t="s">
         <v>459</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="16" t="s">
         <v>454</v>
       </c>
@@ -21427,18 +21427,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="220" t="s">
+      <c r="C15" s="218"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="L15" s="223"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21446,18 +21446,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="259" t="s">
+      <c r="C16" s="219"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="L16" s="223"/>
+      <c r="L16" s="232"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -21472,8 +21472,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="147"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="227"/>
+      <c r="K17" s="264"/>
+      <c r="L17" s="230"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21493,10 +21493,10 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="259" t="s">
+      <c r="K18" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="223"/>
+      <c r="L18" s="232"/>
       <c r="M18" s="27" t="s">
         <v>96</v>
       </c>
@@ -21513,8 +21513,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="147"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="227"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="230"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="211.2" x14ac:dyDescent="0.2">
@@ -21534,10 +21534,10 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="259" t="s">
+      <c r="K20" s="262" t="s">
         <v>352</v>
       </c>
-      <c r="L20" s="223"/>
+      <c r="L20" s="232"/>
       <c r="M20" s="27" t="s">
         <v>426</v>
       </c>
@@ -21559,10 +21559,10 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="220" t="s">
+      <c r="K21" s="231" t="s">
         <v>446</v>
       </c>
-      <c r="L21" s="221"/>
+      <c r="L21" s="249"/>
       <c r="M21" s="166"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -21582,10 +21582,10 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="259" t="s">
+      <c r="K22" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="221"/>
+      <c r="L22" s="249"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21605,10 +21605,10 @@
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="220" t="s">
+      <c r="K23" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="L23" s="223"/>
+      <c r="L23" s="232"/>
       <c r="M23" s="27" t="s">
         <v>350</v>
       </c>
@@ -21618,22 +21618,22 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="236" t="s">
+      <c r="C24" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215" t="s">
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="215"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="220" t="s">
+      <c r="I24" s="222"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="254"/>
+      <c r="L24" s="260"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="92.4" x14ac:dyDescent="0.2">
@@ -21641,18 +21641,18 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="246"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="220" t="s">
+      <c r="C25" s="219"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="231" t="s">
         <v>447</v>
       </c>
-      <c r="L25" s="254"/>
+      <c r="L25" s="260"/>
       <c r="M25" s="167" t="s">
         <v>449</v>
       </c>
@@ -21669,8 +21669,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="147"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="227"/>
+      <c r="K26" s="264"/>
+      <c r="L26" s="230"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21690,10 +21690,10 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="259" t="s">
+      <c r="K27" s="262" t="s">
         <v>317</v>
       </c>
-      <c r="L27" s="221"/>
+      <c r="L27" s="249"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21713,10 +21713,10 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="259" t="s">
+      <c r="K28" s="262" t="s">
         <v>316</v>
       </c>
-      <c r="L28" s="221"/>
+      <c r="L28" s="249"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21736,10 +21736,10 @@
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="259" t="s">
+      <c r="K29" s="262" t="s">
         <v>315</v>
       </c>
-      <c r="L29" s="221"/>
+      <c r="L29" s="249"/>
       <c r="M29" s="177"/>
     </row>
     <row r="30" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -21754,8 +21754,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="147"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="227"/>
+      <c r="K30" s="264"/>
+      <c r="L30" s="230"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21775,10 +21775,10 @@
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="259" t="s">
+      <c r="K31" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="L31" s="223"/>
+      <c r="L31" s="232"/>
       <c r="M31" s="129" t="s">
         <v>370</v>
       </c>
@@ -21800,84 +21800,84 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="259" t="s">
+      <c r="K32" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="L32" s="223"/>
+      <c r="L32" s="232"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="234">
+      <c r="B33" s="255">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="236" t="s">
+      <c r="C33" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215" t="s">
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="220" t="s">
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L33" s="223"/>
-      <c r="M33" s="231"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="245"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="272"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="218"/>
+      <c r="B34" s="276"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="243"/>
+      <c r="H34" s="243"/>
+      <c r="I34" s="243"/>
+      <c r="J34" s="243"/>
       <c r="K34" s="84" t="s">
         <v>262</v>
       </c>
       <c r="L34" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="232"/>
+      <c r="M34" s="246"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="272"/>
-      <c r="C35" s="237"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="243"/>
       <c r="K35" s="86" t="s">
         <v>279</v>
       </c>
       <c r="L35" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="M35" s="232"/>
+      <c r="M35" s="246"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="273"/>
-      <c r="C36" s="238"/>
-      <c r="D36" s="219"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="221"/>
-      <c r="M36" s="233"/>
+      <c r="B36" s="277"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="244"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="249"/>
+      <c r="M36" s="247"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
@@ -21896,10 +21896,10 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="259" t="s">
+      <c r="K37" s="262" t="s">
         <v>318</v>
       </c>
-      <c r="L37" s="221"/>
+      <c r="L37" s="249"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -21919,10 +21919,10 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="259" t="s">
+      <c r="K38" s="262" t="s">
         <v>319</v>
       </c>
-      <c r="L38" s="221"/>
+      <c r="L38" s="249"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21942,10 +21942,10 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="259" t="s">
+      <c r="K39" s="262" t="s">
         <v>320</v>
       </c>
-      <c r="L39" s="221"/>
+      <c r="L39" s="249"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21965,10 +21965,10 @@
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="259" t="s">
+      <c r="K40" s="262" t="s">
         <v>321</v>
       </c>
-      <c r="L40" s="221"/>
+      <c r="L40" s="249"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21988,10 +21988,10 @@
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="259" t="s">
+      <c r="K41" s="262" t="s">
         <v>322</v>
       </c>
-      <c r="L41" s="221"/>
+      <c r="L41" s="249"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -22011,10 +22011,10 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="220" t="s">
+      <c r="K42" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="L42" s="221"/>
+      <c r="L42" s="249"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22034,10 +22034,10 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="220" t="s">
+      <c r="K43" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="L43" s="221"/>
+      <c r="L43" s="249"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22057,10 +22057,10 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="220" t="s">
+      <c r="K44" s="231" t="s">
         <v>289</v>
       </c>
-      <c r="L44" s="221"/>
+      <c r="L44" s="249"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -22075,8 +22075,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="147"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="258"/>
-      <c r="L45" s="227"/>
+      <c r="K45" s="264"/>
+      <c r="L45" s="230"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22096,10 +22096,10 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="259" t="s">
+      <c r="K46" s="262" t="s">
         <v>290</v>
       </c>
-      <c r="L46" s="223"/>
+      <c r="L46" s="232"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -22114,8 +22114,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="147"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="258"/>
-      <c r="L47" s="227"/>
+      <c r="K47" s="264"/>
+      <c r="L47" s="230"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22135,15 +22135,66 @@
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="259" t="s">
+      <c r="K48" s="262" t="s">
         <v>215</v>
       </c>
-      <c r="L48" s="223"/>
+      <c r="L48" s="232"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="67">
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K36:L36"/>
@@ -22160,57 +22211,6 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -22264,34 +22264,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Terraform)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -22395,32 +22395,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="249" t="s">
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="250"/>
-      <c r="M11" s="247" t="s">
+      <c r="L11" s="226"/>
+      <c r="M11" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="242"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22442,9 +22442,9 @@
       <c r="J12" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="248"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="140"/>
@@ -22458,8 +22458,8 @@
       <c r="H13" s="134"/>
       <c r="I13" s="147"/>
       <c r="J13" s="134"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="227"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="230"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22479,10 +22479,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="259" t="s">
+      <c r="K14" s="262" t="s">
         <v>386</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="135"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22502,10 +22502,10 @@
         <v>8</v>
       </c>
       <c r="J15" s="35"/>
-      <c r="K15" s="259" t="s">
+      <c r="K15" s="262" t="s">
         <v>388</v>
       </c>
-      <c r="L15" s="221"/>
+      <c r="L15" s="249"/>
       <c r="M15" s="135"/>
     </row>
   </sheetData>
@@ -22538,7 +22538,7 @@
   </sheetPr>
   <dimension ref="B1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -22568,17 +22568,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
@@ -22586,18 +22586,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="200" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA構成(Web・AP)</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="K3" s="55" t="s">
         <v>208</v>
       </c>
@@ -22711,32 +22711,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="249" t="s">
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="250"/>
-      <c r="M11" s="247" t="s">
+      <c r="L11" s="226"/>
+      <c r="M11" s="220" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="240"/>
-      <c r="C12" s="242"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="236"/>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
@@ -22758,9 +22758,9 @@
       <c r="J12" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="248"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="221"/>
     </row>
     <row r="13" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
@@ -22774,8 +22774,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="227"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="230"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -22783,22 +22783,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="215" t="s">
+      <c r="D14" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="220" t="s">
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
+      <c r="K14" s="231" t="s">
         <v>459</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="232"/>
       <c r="M14" s="16" t="s">
         <v>454</v>
       </c>
@@ -22808,18 +22808,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="220" t="s">
+      <c r="C15" s="218"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="231" t="s">
         <v>455</v>
       </c>
-      <c r="L15" s="223"/>
+      <c r="L15" s="232"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -22827,18 +22827,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="259" t="s">
+      <c r="C16" s="219"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="223"/>
+      <c r="L16" s="232"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -22853,8 +22853,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="147"/>
       <c r="J17" s="147"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="227"/>
+      <c r="K17" s="264"/>
+      <c r="L17" s="230"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -22874,10 +22874,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="259" t="s">
+      <c r="K18" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="223"/>
+      <c r="L18" s="232"/>
       <c r="M18" s="27" t="s">
         <v>96</v>
       </c>
@@ -22894,8 +22894,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="147"/>
       <c r="J19" s="147"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="227"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="230"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -22915,10 +22915,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="259" t="s">
+      <c r="K20" s="262" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="223"/>
+      <c r="L20" s="232"/>
       <c r="M20" s="27" t="s">
         <v>87</v>
       </c>
@@ -22940,10 +22940,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="259" t="s">
+      <c r="K21" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="223"/>
+      <c r="L21" s="232"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -22958,8 +22958,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="147"/>
       <c r="J22" s="147"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="227"/>
+      <c r="K22" s="264"/>
+      <c r="L22" s="230"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="198" x14ac:dyDescent="0.2">
@@ -22979,10 +22979,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="259" t="s">
+      <c r="K23" s="262" t="s">
         <v>352</v>
       </c>
-      <c r="L23" s="223"/>
+      <c r="L23" s="232"/>
       <c r="M23" s="27" t="s">
         <v>427</v>
       </c>
@@ -23004,10 +23004,10 @@
       <c r="H24" s="165"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="220" t="s">
+      <c r="K24" s="231" t="s">
         <v>446</v>
       </c>
-      <c r="L24" s="221"/>
+      <c r="L24" s="249"/>
       <c r="M24" s="166"/>
     </row>
     <row r="25" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -23027,10 +23027,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="259" t="s">
+      <c r="K25" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="221"/>
+      <c r="L25" s="249"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -23050,10 +23050,10 @@
       <c r="H26" s="128"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="220" t="s">
+      <c r="K26" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="L26" s="223"/>
+      <c r="L26" s="232"/>
       <c r="M26" s="27" t="s">
         <v>350</v>
       </c>
@@ -23063,22 +23063,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="236" t="s">
+      <c r="C27" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="D27" s="215" t="s">
+      <c r="D27" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="220" t="s">
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="254"/>
+      <c r="L27" s="260"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="92.4" x14ac:dyDescent="0.2">
@@ -23086,18 +23086,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="246"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="220" t="s">
+      <c r="C28" s="219"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="231" t="s">
         <v>447</v>
       </c>
-      <c r="L28" s="254"/>
+      <c r="L28" s="260"/>
       <c r="M28" s="167" t="s">
         <v>449</v>
       </c>
@@ -23119,10 +23119,10 @@
         <v>8</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="220" t="s">
+      <c r="K29" s="231" t="s">
         <v>450</v>
       </c>
-      <c r="L29" s="223"/>
+      <c r="L29" s="232"/>
       <c r="M29" s="170" t="s">
         <v>452</v>
       </c>
@@ -23139,8 +23139,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="147"/>
       <c r="J30" s="147"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="227"/>
+      <c r="K30" s="264"/>
+      <c r="L30" s="230"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23160,10 +23160,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" s="146"/>
-      <c r="K31" s="259" t="s">
+      <c r="K31" s="262" t="s">
         <v>317</v>
       </c>
-      <c r="L31" s="223"/>
+      <c r="L31" s="232"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23183,10 +23183,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
       <c r="J32" s="146"/>
-      <c r="K32" s="259" t="s">
+      <c r="K32" s="262" t="s">
         <v>316</v>
       </c>
-      <c r="L32" s="223"/>
+      <c r="L32" s="232"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23206,10 +23206,10 @@
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
       <c r="J33" s="35"/>
-      <c r="K33" s="259" t="s">
+      <c r="K33" s="262" t="s">
         <v>325</v>
       </c>
-      <c r="L33" s="223"/>
+      <c r="L33" s="232"/>
       <c r="M33" s="177"/>
     </row>
     <row r="34" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -23224,8 +23224,8 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="260"/>
-      <c r="L34" s="257"/>
+      <c r="K34" s="265"/>
+      <c r="L34" s="258"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -23245,10 +23245,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="259" t="s">
+      <c r="K35" s="262" t="s">
         <v>362</v>
       </c>
-      <c r="L35" s="223"/>
+      <c r="L35" s="232"/>
       <c r="M35" s="29" t="s">
         <v>357</v>
       </c>
@@ -23270,10 +23270,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="259" t="s">
+      <c r="K36" s="262" t="s">
         <v>359</v>
       </c>
-      <c r="L36" s="223"/>
+      <c r="L36" s="232"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23293,10 +23293,10 @@
       <c r="H37" s="35"/>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
-      <c r="K37" s="261" t="s">
+      <c r="K37" s="266" t="s">
         <v>361</v>
       </c>
-      <c r="L37" s="262"/>
+      <c r="L37" s="267"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
@@ -23311,8 +23311,8 @@
       <c r="H38" s="7"/>
       <c r="I38" s="147"/>
       <c r="J38" s="147"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="227"/>
+      <c r="K38" s="264"/>
+      <c r="L38" s="230"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -23332,10 +23332,10 @@
       <c r="H39" s="24"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="259" t="s">
+      <c r="K39" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="223"/>
+      <c r="L39" s="232"/>
       <c r="M39" s="129" t="s">
         <v>370</v>
       </c>
@@ -23357,10 +23357,10 @@
       <c r="H40" s="24"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="259" t="s">
+      <c r="K40" s="262" t="s">
         <v>326</v>
       </c>
-      <c r="L40" s="223"/>
+      <c r="L40" s="232"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -23380,10 +23380,10 @@
       <c r="H41" s="24"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="259" t="s">
+      <c r="K41" s="262" t="s">
         <v>327</v>
       </c>
-      <c r="L41" s="223"/>
+      <c r="L41" s="232"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -23403,10 +23403,10 @@
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="259" t="s">
+      <c r="K42" s="262" t="s">
         <v>152</v>
       </c>
-      <c r="L42" s="223"/>
+      <c r="L42" s="232"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23426,10 +23426,10 @@
       <c r="H43" s="24"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="259" t="s">
+      <c r="K43" s="262" t="s">
         <v>153</v>
       </c>
-      <c r="L43" s="221"/>
+      <c r="L43" s="249"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -23449,10 +23449,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="259" t="s">
+      <c r="K44" s="262" t="s">
         <v>328</v>
       </c>
-      <c r="L44" s="221"/>
+      <c r="L44" s="249"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -23472,10 +23472,10 @@
       <c r="H45" s="28"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="259" t="s">
+      <c r="K45" s="262" t="s">
         <v>329</v>
       </c>
-      <c r="L45" s="221"/>
+      <c r="L45" s="249"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -23495,10 +23495,10 @@
       <c r="H46" s="28"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="259" t="s">
+      <c r="K46" s="262" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="221"/>
+      <c r="L46" s="249"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23518,10 +23518,10 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="255" t="s">
+      <c r="K47" s="256" t="s">
         <v>310</v>
       </c>
-      <c r="L47" s="221"/>
+      <c r="L47" s="249"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23541,10 +23541,10 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="45"/>
-      <c r="K48" s="255" t="s">
+      <c r="K48" s="256" t="s">
         <v>331</v>
       </c>
-      <c r="L48" s="274"/>
+      <c r="L48" s="289"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23564,10 +23564,10 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="45"/>
-      <c r="K49" s="255" t="s">
+      <c r="K49" s="256" t="s">
         <v>332</v>
       </c>
-      <c r="L49" s="221"/>
+      <c r="L49" s="249"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23587,10 +23587,10 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="255" t="s">
+      <c r="K50" s="256" t="s">
         <v>333</v>
       </c>
-      <c r="L50" s="221"/>
+      <c r="L50" s="249"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23610,10 +23610,10 @@
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="255" t="s">
+      <c r="K51" s="256" t="s">
         <v>334</v>
       </c>
-      <c r="L51" s="221"/>
+      <c r="L51" s="249"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23633,10 +23633,10 @@
         <v>8</v>
       </c>
       <c r="J52" s="25"/>
-      <c r="K52" s="255" t="s">
+      <c r="K52" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="L52" s="221"/>
+      <c r="L52" s="249"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="33.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23656,10 +23656,10 @@
       <c r="J53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="255" t="s">
+      <c r="K53" s="256" t="s">
         <v>432</v>
       </c>
-      <c r="L53" s="221"/>
+      <c r="L53" s="249"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -23679,10 +23679,10 @@
       <c r="H54" s="24"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="220" t="s">
+      <c r="K54" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="L54" s="221"/>
+      <c r="L54" s="249"/>
       <c r="M54" s="29" t="s">
         <v>108</v>
       </c>
@@ -23704,10 +23704,10 @@
       <c r="H55" s="24"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
-      <c r="K55" s="259" t="s">
+      <c r="K55" s="262" t="s">
         <v>155</v>
       </c>
-      <c r="L55" s="221"/>
+      <c r="L55" s="249"/>
       <c r="M55" s="29" t="s">
         <v>97</v>
       </c>
@@ -23729,10 +23729,10 @@
       <c r="H56" s="35"/>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
-      <c r="K56" s="259" t="s">
+      <c r="K56" s="262" t="s">
         <v>156</v>
       </c>
-      <c r="L56" s="221"/>
+      <c r="L56" s="249"/>
       <c r="M56" s="29" t="s">
         <v>102</v>
       </c>
@@ -23749,16 +23749,16 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="260"/>
-      <c r="L57" s="257"/>
+      <c r="K57" s="265"/>
+      <c r="L57" s="258"/>
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="234">
+      <c r="B58" s="255">
         <f>MAX(B$11:B57)+1</f>
         <v>37</v>
       </c>
-      <c r="C58" s="268" t="s">
+      <c r="C58" s="271" t="s">
         <v>168</v>
       </c>
       <c r="D58" s="155"/>
@@ -23768,15 +23768,15 @@
       <c r="H58" s="155"/>
       <c r="I58" s="155"/>
       <c r="J58" s="155"/>
-      <c r="K58" s="220" t="s">
+      <c r="K58" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="L58" s="223"/>
-      <c r="M58" s="231"/>
+      <c r="L58" s="232"/>
+      <c r="M58" s="245"/>
     </row>
     <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="218"/>
-      <c r="C59" s="269"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="272"/>
       <c r="D59" s="156"/>
       <c r="E59" s="156"/>
       <c r="F59" s="156"/>
@@ -23790,11 +23790,11 @@
       <c r="L59" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="M59" s="232"/>
+      <c r="M59" s="246"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="218"/>
-      <c r="C60" s="269"/>
+      <c r="B60" s="243"/>
+      <c r="C60" s="272"/>
       <c r="D60" s="149" t="s">
         <v>443</v>
       </c>
@@ -23810,11 +23810,11 @@
       <c r="L60" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="M60" s="232"/>
+      <c r="M60" s="246"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="218"/>
-      <c r="C61" s="269"/>
+      <c r="B61" s="243"/>
+      <c r="C61" s="272"/>
       <c r="D61" s="149" t="s">
         <v>443</v>
       </c>
@@ -23830,11 +23830,11 @@
       <c r="L61" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="M61" s="232"/>
+      <c r="M61" s="246"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="218"/>
-      <c r="C62" s="269"/>
+      <c r="B62" s="243"/>
+      <c r="C62" s="272"/>
       <c r="D62" s="149" t="s">
         <v>443</v>
       </c>
@@ -23850,11 +23850,11 @@
       <c r="L62" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="M62" s="232"/>
+      <c r="M62" s="246"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="218"/>
-      <c r="C63" s="269"/>
+      <c r="B63" s="243"/>
+      <c r="C63" s="272"/>
       <c r="D63" s="149" t="s">
         <v>443</v>
       </c>
@@ -23870,11 +23870,11 @@
       <c r="L63" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="M63" s="232"/>
+      <c r="M63" s="246"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="218"/>
-      <c r="C64" s="269"/>
+      <c r="B64" s="243"/>
+      <c r="C64" s="272"/>
       <c r="D64" s="149" t="s">
         <v>443</v>
       </c>
@@ -23890,11 +23890,11 @@
       <c r="L64" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="M64" s="232"/>
+      <c r="M64" s="246"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="218"/>
-      <c r="C65" s="269"/>
+      <c r="B65" s="243"/>
+      <c r="C65" s="272"/>
       <c r="D65" s="149" t="s">
         <v>443</v>
       </c>
@@ -23910,11 +23910,11 @@
       <c r="L65" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="M65" s="232"/>
+      <c r="M65" s="246"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="218"/>
-      <c r="C66" s="269"/>
+      <c r="B66" s="243"/>
+      <c r="C66" s="272"/>
       <c r="D66" s="149" t="s">
         <v>443</v>
       </c>
@@ -23930,11 +23930,11 @@
       <c r="L66" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="M66" s="232"/>
+      <c r="M66" s="246"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="218"/>
-      <c r="C67" s="269"/>
+      <c r="B67" s="243"/>
+      <c r="C67" s="272"/>
       <c r="D67" s="149" t="s">
         <v>443</v>
       </c>
@@ -23950,11 +23950,11 @@
       <c r="L67" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="M67" s="232"/>
+      <c r="M67" s="246"/>
     </row>
     <row r="68" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="218"/>
-      <c r="C68" s="269"/>
+      <c r="B68" s="243"/>
+      <c r="C68" s="272"/>
       <c r="D68" s="149" t="s">
         <v>443</v>
       </c>
@@ -23970,11 +23970,11 @@
       <c r="L68" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="M68" s="232"/>
+      <c r="M68" s="246"/>
     </row>
     <row r="69" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="235"/>
-      <c r="C69" s="285"/>
+      <c r="B69" s="261"/>
+      <c r="C69" s="278"/>
       <c r="D69" s="157"/>
       <c r="E69" s="157"/>
       <c r="F69" s="157"/>
@@ -23982,9 +23982,9 @@
       <c r="H69" s="157"/>
       <c r="I69" s="157"/>
       <c r="J69" s="157"/>
-      <c r="K69" s="220"/>
-      <c r="L69" s="223"/>
-      <c r="M69" s="233"/>
+      <c r="K69" s="231"/>
+      <c r="L69" s="232"/>
+      <c r="M69" s="247"/>
     </row>
     <row r="70" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
@@ -23998,8 +23998,8 @@
       <c r="H70" s="7"/>
       <c r="I70" s="147"/>
       <c r="J70" s="147"/>
-      <c r="K70" s="258"/>
-      <c r="L70" s="227"/>
+      <c r="K70" s="264"/>
+      <c r="L70" s="230"/>
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24019,10 +24019,10 @@
       <c r="H71" s="24"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="259" t="s">
+      <c r="K71" s="262" t="s">
         <v>379</v>
       </c>
-      <c r="L71" s="223"/>
+      <c r="L71" s="232"/>
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24042,10 +24042,10 @@
       <c r="H72" s="131"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="259" t="s">
+      <c r="K72" s="262" t="s">
         <v>375</v>
       </c>
-      <c r="L72" s="223"/>
+      <c r="L72" s="232"/>
       <c r="M72" s="29" t="s">
         <v>378</v>
       </c>
@@ -24067,10 +24067,10 @@
       <c r="H73" s="69"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="259" t="s">
+      <c r="K73" s="262" t="s">
         <v>335</v>
       </c>
-      <c r="L73" s="221"/>
+      <c r="L73" s="249"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24090,10 +24090,10 @@
       <c r="H74" s="35"/>
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
-      <c r="K74" s="259" t="s">
+      <c r="K74" s="262" t="s">
         <v>336</v>
       </c>
-      <c r="L74" s="221"/>
+      <c r="L74" s="249"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24113,10 +24113,10 @@
       <c r="H75" s="131"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
-      <c r="K75" s="259" t="s">
+      <c r="K75" s="262" t="s">
         <v>376</v>
       </c>
-      <c r="L75" s="221"/>
+      <c r="L75" s="249"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24136,27 +24136,27 @@
       <c r="H76" s="35"/>
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
-      <c r="K76" s="259" t="s">
+      <c r="K76" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="L76" s="221"/>
+      <c r="L76" s="249"/>
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
-      <c r="C77" s="282" t="s">
+      <c r="C77" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="283"/>
-      <c r="E77" s="283"/>
-      <c r="F77" s="283"/>
-      <c r="G77" s="283"/>
-      <c r="H77" s="283"/>
-      <c r="I77" s="283"/>
-      <c r="J77" s="283"/>
-      <c r="K77" s="283"/>
-      <c r="L77" s="283"/>
-      <c r="M77" s="284"/>
+      <c r="D77" s="287"/>
+      <c r="E77" s="287"/>
+      <c r="F77" s="287"/>
+      <c r="G77" s="287"/>
+      <c r="H77" s="287"/>
+      <c r="I77" s="287"/>
+      <c r="J77" s="287"/>
+      <c r="K77" s="287"/>
+      <c r="L77" s="287"/>
+      <c r="M77" s="288"/>
     </row>
     <row r="78" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
@@ -24175,10 +24175,10 @@
       <c r="H78" s="35"/>
       <c r="I78" s="34"/>
       <c r="J78" s="34"/>
-      <c r="K78" s="278" t="s">
+      <c r="K78" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="L78" s="223"/>
+      <c r="L78" s="232"/>
       <c r="M78" s="29" t="s">
         <v>211</v>
       </c>
@@ -24200,10 +24200,10 @@
       <c r="H79" s="24"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="259" t="s">
+      <c r="K79" s="262" t="s">
         <v>124</v>
       </c>
-      <c r="L79" s="223"/>
+      <c r="L79" s="232"/>
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -24223,10 +24223,10 @@
       <c r="H80" s="47"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
-      <c r="K80" s="259" t="s">
+      <c r="K80" s="262" t="s">
         <v>157</v>
       </c>
-      <c r="L80" s="223"/>
+      <c r="L80" s="232"/>
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24246,10 +24246,10 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="259" t="s">
+      <c r="K81" s="262" t="s">
         <v>125</v>
       </c>
-      <c r="L81" s="223"/>
+      <c r="L81" s="232"/>
       <c r="M81" s="29"/>
     </row>
     <row r="82" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24269,10 +24269,10 @@
       </c>
       <c r="I82" s="34"/>
       <c r="J82" s="34"/>
-      <c r="K82" s="259" t="s">
+      <c r="K82" s="262" t="s">
         <v>337</v>
       </c>
-      <c r="L82" s="223"/>
+      <c r="L82" s="232"/>
       <c r="M82" s="49"/>
     </row>
     <row r="83" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24292,27 +24292,27 @@
         <v>8</v>
       </c>
       <c r="J83" s="25"/>
-      <c r="K83" s="259" t="s">
+      <c r="K83" s="262" t="s">
         <v>390</v>
       </c>
-      <c r="L83" s="223"/>
+      <c r="L83" s="232"/>
       <c r="M83" s="29"/>
     </row>
     <row r="84" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
-      <c r="C84" s="279" t="s">
+      <c r="C84" s="283" t="s">
         <v>210</v>
       </c>
-      <c r="D84" s="280"/>
-      <c r="E84" s="280"/>
-      <c r="F84" s="280"/>
-      <c r="G84" s="280"/>
-      <c r="H84" s="280"/>
-      <c r="I84" s="280"/>
-      <c r="J84" s="280"/>
-      <c r="K84" s="280"/>
-      <c r="L84" s="280"/>
-      <c r="M84" s="281"/>
+      <c r="D84" s="284"/>
+      <c r="E84" s="284"/>
+      <c r="F84" s="284"/>
+      <c r="G84" s="284"/>
+      <c r="H84" s="284"/>
+      <c r="I84" s="284"/>
+      <c r="J84" s="284"/>
+      <c r="K84" s="284"/>
+      <c r="L84" s="284"/>
+      <c r="M84" s="285"/>
     </row>
     <row r="85" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
@@ -24331,10 +24331,10 @@
       <c r="H85" s="24"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
-      <c r="K85" s="255" t="s">
+      <c r="K85" s="256" t="s">
         <v>381</v>
       </c>
-      <c r="L85" s="276"/>
+      <c r="L85" s="281"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24354,10 +24354,10 @@
       <c r="H86" s="35"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="220" t="s">
+      <c r="K86" s="231" t="s">
         <v>213</v>
       </c>
-      <c r="L86" s="277"/>
+      <c r="L86" s="282"/>
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24377,10 +24377,10 @@
       <c r="H87" s="35"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="278" t="s">
+      <c r="K87" s="279" t="s">
         <v>377</v>
       </c>
-      <c r="L87" s="277"/>
+      <c r="L87" s="282"/>
       <c r="M87" s="29" t="s">
         <v>380</v>
       </c>
@@ -24402,37 +24402,69 @@
       <c r="H88" s="35"/>
       <c r="I88" s="34"/>
       <c r="J88" s="34"/>
-      <c r="K88" s="275" t="s">
+      <c r="K88" s="280" t="s">
         <v>214</v>
       </c>
-      <c r="L88" s="221"/>
+      <c r="L88" s="249"/>
       <c r="M88" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M88" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <mergeCells count="92">
-    <mergeCell ref="B58:B69"/>
-    <mergeCell ref="C58:C69"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M58:M69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C84:M84"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="C77:M77"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -24449,60 +24481,28 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M58:M69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C84:M84"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C77:M77"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="C58:C69"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
